--- a/docs/srs/fbt_docs.xlsx
+++ b/docs/srs/fbt_docs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kjy\fbt\docs\srs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Socio_02\Desktop\kjy\fbt\docs\srs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0941C325-EEBB-4C4E-86F7-26C038563326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D11E9EC-7D14-4A66-8751-552D611230F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2F0AD6B2-A8A2-4F73-BAF4-7193D3382EE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F0AD6B2-A8A2-4F73-BAF4-7193D3382EE1}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항명세서" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="TestCase_SQL" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항명세서!$B$8:$H$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항명세서!$B$8:$H$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="190">
   <si>
     <t>요구사항 정의서</t>
   </si>
@@ -265,27 +265,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>투표 출력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>V003</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>투표 입력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>V004</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>지인 초청하기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 지인에게 알림 보내기</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2197,6 +2185,1734 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설정 등록
+(자동화)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설정에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>따라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능들을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연결하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">용병구하기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마감</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">하기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상대팀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구하기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양도하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">초청하기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">type
+0 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">수동
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : self_min_num, self_max_num
+2 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : cancel_num, self_min_num, self_max_num, emp_due_date
+3. : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> :  cancel_num, self_min_num, self_max_num, emp_due_date
+4 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : away_min_num, self_min_num, self_max_num, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">away_due_date
+5 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : cancel_num, away_min_num, emp_min_num, self_min_num, self_max_num, emp_due_date
+6 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : cancel_num, away_min_num, emp_min_num, self_min_num, self_max_num, emp_due_date, away_due_date</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성 여부</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇ</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AL - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알림</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V002</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>또는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>또는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> update</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전환</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면단에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> V003</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지인에게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보내기(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">invite)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표하면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아예</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>넣지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않기(투표 취소)
+추후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>채팅으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변환</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생각</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">중
+경기 관련 글은 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">match_schedule </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참조</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알람</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">?
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>insert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를 진행하나 에러 뜨면 기투표 여부 확인 후 기투표 시, 이미 투표했다고 알림 아니면 에러 페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+V003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연결
+마이페이지에서 투표 취소</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표 결과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표 결과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V008</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>투표 내용 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V009</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>투표 삭제</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V010</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>투표 설정 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 중 투표 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자만 가능(닉은 유니크)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+?? 수정일이 필요한가?</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기설정된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변경</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 변경된 설정에 맞게 자동화도 수정</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>입력한</t>
     </r>
     <r>
@@ -2400,11 +4116,8 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
-투표 설정(V006)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
+</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2432,658 +4145,26 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>설정 등록
-(자동화)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설정에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>따라</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능들을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연결하기</t>
+      <t>설정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(V006)</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Nanum Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">용병구하기
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마감</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">하기
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상대팀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구하기
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>양도하기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">초청하기
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">type
-0 : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">수동
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1 : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>양도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : self_min_num, self_max_num
-2 : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>용병</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : cancel_num, self_min_num, self_max_num, emp_due_date
-3. : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>양도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>용병</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> :  cancel_num, self_min_num, self_max_num, emp_due_date
-4 : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>양도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : away_min_num, self_min_num, self_max_num, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">away_due_date
-5 : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>용병</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : cancel_num, away_min_num, emp_min_num, self_min_num, self_max_num, emp_due_date
-6 : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>양도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>용병</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : cancel_num, away_min_num, emp_min_num, self_min_num, self_max_num, emp_due_date, away_due_date</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>또는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>불</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 에러 : 기투표 시 update로 전환</t>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> - transaction</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3092,7 +4173,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3229,6 +4310,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Nanum Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -3440,7 +4528,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3553,6 +4641,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3870,35 +4967,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EA499F-775F-49C1-B26C-B60E223B5AF8}">
-  <dimension ref="B1:H41"/>
+  <dimension ref="B1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="4.19921875" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="5" max="5" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.69921875" customWidth="1"/>
+    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="18" thickBot="1"/>
-    <row r="2" spans="2:8" ht="18" thickBot="1">
+    <row r="1" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:9" ht="18.75" thickBot="1">
       <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="35"/>
       <c r="E2" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>14</v>
@@ -3907,7 +5005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="18" thickBot="1">
+    <row r="3" spans="2:9" ht="17.25" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3918,11 +5016,11 @@
         <v>38</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="2:8" ht="18" thickBot="1">
+    <row r="4" spans="2:9" ht="17.25" thickBot="1">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3930,29 +5028,31 @@
         <v>13</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="2:8" ht="18" thickBot="1">
+    <row r="5" spans="2:9" ht="17.25" thickBot="1">
       <c r="E5" s="25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="18" thickBot="1">
+    <row r="6" spans="2:9" ht="17.25" thickBot="1">
       <c r="E6" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="F6" s="27"/>
+        <v>161</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="7" spans="2:8" ht="18" thickBot="1"/>
-    <row r="8" spans="2:8" ht="18" thickBot="1">
+    <row r="7" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="8" spans="2:9" ht="17.25" thickBot="1">
       <c r="B8" s="32" t="s">
         <v>4</v>
       </c>
@@ -3972,8 +5072,11 @@
       <c r="H8" s="32" t="s">
         <v>11</v>
       </c>
+      <c r="I8" s="32" t="s">
+        <v>169</v>
+      </c>
     </row>
-    <row r="9" spans="2:8" ht="18" thickBot="1">
+    <row r="9" spans="2:9" ht="17.25" thickBot="1">
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
@@ -3985,10 +5088,11 @@
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
     </row>
-    <row r="10" spans="2:8" ht="27" thickBot="1">
+    <row r="10" spans="2:9" ht="26.25" thickBot="1">
       <c r="B10" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>19</v>
@@ -4009,9 +5113,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="18" thickBot="1">
+    <row r="11" spans="2:9" ht="17.25" thickBot="1">
       <c r="B11" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>22</v>
@@ -4030,9 +5134,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="18" thickBot="1">
+    <row r="12" spans="2:9" ht="17.25" thickBot="1">
       <c r="B12" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>28</v>
@@ -4051,9 +5155,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="18" thickBot="1">
+    <row r="13" spans="2:9" ht="17.25" thickBot="1">
       <c r="B13" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>32</v>
@@ -4072,12 +5176,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="18" thickBot="1">
+    <row r="14" spans="2:9" ht="17.25" thickBot="1">
       <c r="B14" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>35</v>
@@ -4093,12 +5197,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="18" thickBot="1">
+    <row r="15" spans="2:9" ht="17.25" thickBot="1">
       <c r="B15" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>37</v>
@@ -4113,16 +5217,19 @@
       <c r="H15" s="12" t="s">
         <v>16</v>
       </c>
+      <c r="I15" s="38" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="16" spans="2:8" ht="18" thickBot="1">
+    <row r="16" spans="2:9" ht="17.25" thickBot="1">
       <c r="B16" s="17" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>30</v>
@@ -4134,13 +5241,16 @@
       <c r="H16" s="12" t="s">
         <v>25</v>
       </c>
+      <c r="I16" s="38" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="17" spans="2:8" ht="29.4" thickBot="1">
+    <row r="17" spans="2:9" ht="17.25" thickBot="1">
       <c r="B17" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>42</v>
+        <v>172</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>176</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>173</v>
@@ -4155,357 +5265,367 @@
       <c r="H17" s="12" t="s">
         <v>25</v>
       </c>
+      <c r="I17" s="38"/>
     </row>
-    <row r="18" spans="2:8" ht="18" thickBot="1">
+    <row r="18" spans="2:9" ht="27.75" thickBot="1">
       <c r="B18" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>174</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>25</v>
       </c>
+      <c r="I18" s="38" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="19" spans="2:8" ht="76.2" thickBot="1">
+    <row r="19" spans="2:9" ht="120.75" thickBot="1">
       <c r="B19" s="17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>49</v>
+        <v>25</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="324.60000000000002" thickBot="1">
+    <row r="20" spans="2:9" ht="68.25" thickBot="1">
       <c r="B20" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>171</v>
+        <v>43</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="291.75" thickBot="1">
+      <c r="B21" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H21" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="26.25" thickBot="1">
+      <c r="B22" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" ht="27" thickBot="1">
-      <c r="B21" s="19" t="s">
+      <c r="D22" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="18" thickBot="1">
-      <c r="B22" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>56</v>
-      </c>
       <c r="E22" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="G22" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="18" thickBot="1">
-      <c r="B23" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>58</v>
+    <row r="23" spans="2:9" ht="27" thickBot="1">
+      <c r="B23" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>186</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>25</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="39"/>
     </row>
-    <row r="24" spans="2:8" ht="27" thickBot="1">
-      <c r="B24" s="20" t="s">
-        <v>27</v>
+    <row r="24" spans="2:9" ht="17.25" thickBot="1">
+      <c r="B24" s="40" t="s">
+        <v>180</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>60</v>
+        <v>181</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>187</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>49</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="39"/>
     </row>
-    <row r="25" spans="2:8" ht="18" thickBot="1">
-      <c r="B25" s="20" t="s">
-        <v>31</v>
+    <row r="25" spans="2:9" ht="27" thickBot="1">
+      <c r="B25" s="40" t="s">
+        <v>182</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>62</v>
+        <v>183</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>188</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>25</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="39"/>
     </row>
-    <row r="26" spans="2:8" ht="18" thickBot="1">
+    <row r="26" spans="2:9" ht="17.25" thickBot="1">
       <c r="B26" s="20" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="91.8" thickBot="1">
+    <row r="27" spans="2:9" ht="17.25" thickBot="1">
       <c r="B27" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>85</v>
+        <v>26</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="12" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="28" spans="2:8" ht="18" thickBot="1">
+    <row r="28" spans="2:9" ht="26.25" thickBot="1">
       <c r="B28" s="20" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>82</v>
+        <v>56</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>49</v>
+        <v>25</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="31.8" thickBot="1">
+    <row r="29" spans="2:9" ht="17.25" thickBot="1">
       <c r="B29" s="20" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>48</v>
+        <v>58</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="15" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="30" spans="2:8" ht="18" thickBot="1">
-      <c r="B30" s="22" t="s">
+    <row r="30" spans="2:9" ht="17.25" thickBot="1">
+      <c r="B30" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="D30" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>76</v>
-      </c>
       <c r="E30" s="12" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="18" thickBot="1">
-      <c r="B31" s="22" t="s">
-        <v>87</v>
+    <row r="31" spans="2:9" ht="80.25" thickBot="1">
+      <c r="B31" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>24</v>
+        <v>76</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="18" thickBot="1">
-      <c r="B32" s="22" t="s">
-        <v>91</v>
+    <row r="32" spans="2:9" ht="17.25" thickBot="1">
+      <c r="B32" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>48</v>
+        <v>78</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="18" thickBot="1">
-      <c r="B33" s="22" t="s">
-        <v>95</v>
+    <row r="33" spans="2:8" ht="27.75" thickBot="1">
+      <c r="B33" s="20" t="s">
+        <v>80</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>97</v>
+        <v>81</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>83</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="12" t="s">
         <v>25</v>
       </c>
+      <c r="H33" s="15" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="34" spans="2:8" ht="18" thickBot="1">
+    <row r="34" spans="2:8" ht="17.25" thickBot="1">
       <c r="B34" s="22" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>48</v>
+        <v>73</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12" t="s">
@@ -4515,18 +5635,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="18" thickBot="1">
-      <c r="B35" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>104</v>
+    <row r="35" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B35" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>48</v>
+        <v>87</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12" t="s">
@@ -4536,39 +5656,39 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="18" thickBot="1">
-      <c r="B36" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>48</v>
+    <row r="36" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B36" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="18" thickBot="1">
-      <c r="B37" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>48</v>
+    <row r="37" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B37" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12" t="s">
@@ -4578,18 +5698,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="18" thickBot="1">
-      <c r="B38" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>48</v>
+    <row r="38" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B38" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12" t="s">
@@ -4599,18 +5719,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="18" thickBot="1">
+    <row r="39" spans="2:8" ht="17.25" thickBot="1">
       <c r="B39" s="29" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>115</v>
+        <v>101</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12" t="s">
@@ -4620,35 +5740,39 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="18" thickBot="1">
+    <row r="40" spans="2:8" ht="17.25" thickBot="1">
       <c r="B40" s="29" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D40" s="18"/>
+        <v>102</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>103</v>
+      </c>
       <c r="E40" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="12"/>
+      <c r="H40" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="41" spans="2:8" ht="31.8" thickBot="1">
-      <c r="B41" s="31" t="s">
-        <v>165</v>
+    <row r="41" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B41" s="29" t="s">
+        <v>104</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12" t="s">
@@ -4658,11 +5782,92 @@
         <v>25</v>
       </c>
     </row>
+    <row r="42" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B42" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B43" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B44" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="18"/>
+      <c r="E44" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" spans="2:8" ht="27.75" thickBot="1">
+      <c r="B45" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B8:H41" xr:uid="{08681459-A406-4CEE-9A8A-D3DF83B63176}">
+  <autoFilter ref="B8:H45" xr:uid="{08681459-A406-4CEE-9A8A-D3DF83B63176}">
     <filterColumn colId="3" showButton="0"/>
   </autoFilter>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="B2:C2"/>
@@ -4685,14 +5890,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B1">
         <v>3</v>
@@ -4700,7 +5905,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -4708,7 +5913,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4728,2351 +5933,2351 @@
       <selection activeCell="Q24" sqref="Q24:Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F1" s="23"/>
       <c r="G1" s="23">
         <v>1</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M1" s="24">
         <v>1</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P1" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>120</v>
+      </c>
+      <c r="R1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S1" t="s">
+        <v>120</v>
+      </c>
+      <c r="T1" t="s">
+        <v>126</v>
+      </c>
+      <c r="U1" t="s">
+        <v>120</v>
+      </c>
+      <c r="V1" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="W1" t="s">
+        <v>120</v>
+      </c>
+      <c r="X1" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="Q1" t="s">
-        <v>123</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="Y1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z1" t="s">
         <v>129</v>
       </c>
-      <c r="S1" t="s">
-        <v>123</v>
-      </c>
-      <c r="T1" t="s">
-        <v>129</v>
-      </c>
-      <c r="U1" t="s">
-        <v>123</v>
-      </c>
-      <c r="V1" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="W1" t="s">
-        <v>123</v>
-      </c>
-      <c r="X1" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>132</v>
-      </c>
       <c r="AA1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AB1">
         <f ca="1">RANDBETWEEN(170,185)</f>
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AC1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AD1">
         <f ca="1">RANDBETWEEN(70,80)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AF1">
         <f ca="1">RANDBETWEEN(0,1)</f>
         <v>1</v>
       </c>
       <c r="AG1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AH1">
         <f ca="1">RANDBETWEEN(0,1)</f>
         <v>0</v>
       </c>
       <c r="AI1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AJ1" s="24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AK1" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AL1" t="str">
         <f ca="1">_xlfn.CONCAT(A1:AK1)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,183,77,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,182,78,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="2" spans="1:38">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="23">
         <v>2</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M2" s="24">
         <v>1</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="R2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S2" t="s">
+        <v>120</v>
+      </c>
+      <c r="T2" t="s">
+        <v>126</v>
+      </c>
+      <c r="U2" t="s">
+        <v>120</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="W2" t="s">
+        <v>120</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z2" t="s">
         <v>129</v>
       </c>
-      <c r="S2" t="s">
-        <v>123</v>
-      </c>
-      <c r="T2" t="s">
-        <v>129</v>
-      </c>
-      <c r="U2" t="s">
-        <v>123</v>
-      </c>
-      <c r="V2" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="W2" t="s">
-        <v>123</v>
-      </c>
-      <c r="X2" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>132</v>
-      </c>
       <c r="AA2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AB2">
         <f t="shared" ref="AB2:AB17" ca="1" si="0">RANDBETWEEN(170,185)</f>
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AC2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AD2">
         <f t="shared" ref="AD2:AD17" ca="1" si="1">RANDBETWEEN(70,80)</f>
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AE2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AF2">
         <f t="shared" ref="AF2:AF17" ca="1" si="2">RANDBETWEEN(0,1)</f>
         <v>1</v>
       </c>
       <c r="AG2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AH2">
         <f t="shared" ref="AH2:AH17" ca="1" si="3">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AJ2" s="24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AK2" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AL2" t="str">
         <f t="shared" ref="AL2:AL17" ca="1" si="4">_xlfn.CONCAT(A2:AK2)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,181,77,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,177,80,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="3" spans="1:38">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F3" s="23"/>
       <c r="G3" s="23">
         <v>3</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M3" s="24">
         <v>1</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P3" s="24" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="R3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S3" t="s">
+        <v>120</v>
+      </c>
+      <c r="T3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U3" t="s">
+        <v>120</v>
+      </c>
+      <c r="V3" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="W3" t="s">
+        <v>120</v>
+      </c>
+      <c r="X3" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z3" t="s">
         <v>129</v>
       </c>
-      <c r="S3" t="s">
-        <v>123</v>
-      </c>
-      <c r="T3" t="s">
-        <v>129</v>
-      </c>
-      <c r="U3" t="s">
-        <v>123</v>
-      </c>
-      <c r="V3" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="W3" t="s">
-        <v>123</v>
-      </c>
-      <c r="X3" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>132</v>
-      </c>
       <c r="AA3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AB3">
         <f t="shared" ca="1" si="0"/>
         <v>175</v>
       </c>
       <c r="AC3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AD3">
         <f t="shared" ca="1" si="1"/>
         <v>72</v>
       </c>
       <c r="AE3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AF3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AH3">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AI3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AJ3" s="24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AK3" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AL3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,175,72,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,175,72,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="4" spans="1:38">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23">
         <v>4</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M4" s="24">
         <v>1</v>
       </c>
       <c r="N4" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P4" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>120</v>
+      </c>
+      <c r="R4" t="s">
+        <v>126</v>
+      </c>
+      <c r="S4" t="s">
+        <v>120</v>
+      </c>
+      <c r="T4" t="s">
+        <v>126</v>
+      </c>
+      <c r="U4" t="s">
+        <v>120</v>
+      </c>
+      <c r="V4" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="W4" t="s">
+        <v>120</v>
+      </c>
+      <c r="X4" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="Q4" t="s">
-        <v>123</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="Y4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z4" t="s">
         <v>129</v>
       </c>
-      <c r="S4" t="s">
-        <v>123</v>
-      </c>
-      <c r="T4" t="s">
-        <v>129</v>
-      </c>
-      <c r="U4" t="s">
-        <v>123</v>
-      </c>
-      <c r="V4" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="W4" t="s">
-        <v>123</v>
-      </c>
-      <c r="X4" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>132</v>
-      </c>
       <c r="AA4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AB4">
         <f t="shared" ca="1" si="0"/>
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="AC4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AD4">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AF4">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AH4">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="AI4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AJ4" s="24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AK4" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AL4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,175,70,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,185,76,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="5" spans="1:38">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="23">
         <v>5</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M5" s="24">
         <v>1</v>
       </c>
       <c r="N5" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P5" s="24" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="R5" t="s">
+        <v>126</v>
+      </c>
+      <c r="S5" t="s">
+        <v>120</v>
+      </c>
+      <c r="T5" t="s">
+        <v>126</v>
+      </c>
+      <c r="U5" t="s">
+        <v>120</v>
+      </c>
+      <c r="V5" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="W5" t="s">
+        <v>120</v>
+      </c>
+      <c r="X5" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z5" t="s">
         <v>129</v>
       </c>
-      <c r="S5" t="s">
-        <v>123</v>
-      </c>
-      <c r="T5" t="s">
-        <v>129</v>
-      </c>
-      <c r="U5" t="s">
-        <v>123</v>
-      </c>
-      <c r="V5" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="W5" t="s">
-        <v>123</v>
-      </c>
-      <c r="X5" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>132</v>
-      </c>
       <c r="AA5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AB5">
         <f t="shared" ca="1" si="0"/>
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="AC5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AD5">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AF5">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="AG5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AH5">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AI5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AJ5" s="24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AK5" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AL5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,185,71,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,173,76,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="6" spans="1:38">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="23">
         <v>6</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M6" s="24">
         <v>1</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="R6" t="s">
+        <v>126</v>
+      </c>
+      <c r="S6" t="s">
+        <v>120</v>
+      </c>
+      <c r="T6" t="s">
+        <v>126</v>
+      </c>
+      <c r="U6" t="s">
+        <v>120</v>
+      </c>
+      <c r="V6" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="W6" t="s">
+        <v>120</v>
+      </c>
+      <c r="X6" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z6" t="s">
         <v>129</v>
       </c>
-      <c r="S6" t="s">
-        <v>123</v>
-      </c>
-      <c r="T6" t="s">
-        <v>129</v>
-      </c>
-      <c r="U6" t="s">
-        <v>123</v>
-      </c>
-      <c r="V6" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="W6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X6" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>132</v>
-      </c>
       <c r="AA6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AB6">
         <f t="shared" ca="1" si="0"/>
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AC6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AD6">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AE6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AF6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AH6">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AJ6" s="24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AK6" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AL6" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,178,72,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,183,74,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="7" spans="1:38">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="23">
         <v>7</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M7" s="24">
         <v>1</v>
       </c>
       <c r="N7" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P7" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>120</v>
+      </c>
+      <c r="R7" t="s">
+        <v>126</v>
+      </c>
+      <c r="S7" t="s">
+        <v>120</v>
+      </c>
+      <c r="T7" t="s">
+        <v>126</v>
+      </c>
+      <c r="U7" t="s">
+        <v>120</v>
+      </c>
+      <c r="V7" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="W7" t="s">
+        <v>120</v>
+      </c>
+      <c r="X7" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="Q7" t="s">
-        <v>123</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="Y7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z7" t="s">
         <v>129</v>
       </c>
-      <c r="S7" t="s">
-        <v>123</v>
-      </c>
-      <c r="T7" t="s">
-        <v>129</v>
-      </c>
-      <c r="U7" t="s">
-        <v>123</v>
-      </c>
-      <c r="V7" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="W7" t="s">
-        <v>123</v>
-      </c>
-      <c r="X7" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>132</v>
-      </c>
       <c r="AA7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AB7">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AC7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AD7">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AF7">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AG7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AH7">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AI7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AJ7" s="24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AK7" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AL7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,173,77,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,171,74,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="8" spans="1:38">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="23">
         <v>8</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M8" s="24">
         <v>1</v>
       </c>
       <c r="N8" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P8" s="24" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="R8" t="s">
+        <v>126</v>
+      </c>
+      <c r="S8" t="s">
+        <v>120</v>
+      </c>
+      <c r="T8" t="s">
+        <v>126</v>
+      </c>
+      <c r="U8" t="s">
+        <v>120</v>
+      </c>
+      <c r="V8" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="W8" t="s">
+        <v>120</v>
+      </c>
+      <c r="X8" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z8" t="s">
         <v>129</v>
       </c>
-      <c r="S8" t="s">
-        <v>123</v>
-      </c>
-      <c r="T8" t="s">
-        <v>129</v>
-      </c>
-      <c r="U8" t="s">
-        <v>123</v>
-      </c>
-      <c r="V8" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="W8" t="s">
-        <v>123</v>
-      </c>
-      <c r="X8" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>132</v>
-      </c>
       <c r="AA8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AB8">
         <f t="shared" ca="1" si="0"/>
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AC8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AD8">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AE8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AF8">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AH8">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AI8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AJ8" s="24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AK8" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AL8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,181,74,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,178,72,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="9" spans="1:38">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="23">
         <v>9</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M9" s="24">
         <v>1</v>
       </c>
       <c r="N9" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P9" s="24" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="R9" t="s">
+        <v>126</v>
+      </c>
+      <c r="S9" t="s">
+        <v>120</v>
+      </c>
+      <c r="T9" t="s">
+        <v>126</v>
+      </c>
+      <c r="U9" t="s">
+        <v>120</v>
+      </c>
+      <c r="V9" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="W9" t="s">
+        <v>120</v>
+      </c>
+      <c r="X9" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z9" t="s">
         <v>129</v>
       </c>
-      <c r="S9" t="s">
-        <v>123</v>
-      </c>
-      <c r="T9" t="s">
-        <v>129</v>
-      </c>
-      <c r="U9" t="s">
-        <v>123</v>
-      </c>
-      <c r="V9" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="W9" t="s">
-        <v>123</v>
-      </c>
-      <c r="X9" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>132</v>
-      </c>
       <c r="AA9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AB9">
         <f t="shared" ca="1" si="0"/>
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AC9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AD9">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AE9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AF9">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="AG9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AH9">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AJ9" s="24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AK9" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AL9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,171,75,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,174,80,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="10" spans="1:38">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23">
         <v>10</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M10" s="24">
         <v>1</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P10" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>120</v>
+      </c>
+      <c r="R10" t="s">
+        <v>126</v>
+      </c>
+      <c r="S10" t="s">
+        <v>120</v>
+      </c>
+      <c r="T10" t="s">
+        <v>126</v>
+      </c>
+      <c r="U10" t="s">
+        <v>120</v>
+      </c>
+      <c r="V10" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="W10" t="s">
+        <v>120</v>
+      </c>
+      <c r="X10" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="Q10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="Y10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z10" t="s">
         <v>129</v>
       </c>
-      <c r="S10" t="s">
-        <v>123</v>
-      </c>
-      <c r="T10" t="s">
-        <v>129</v>
-      </c>
-      <c r="U10" t="s">
-        <v>123</v>
-      </c>
-      <c r="V10" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="W10" t="s">
-        <v>123</v>
-      </c>
-      <c r="X10" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>132</v>
-      </c>
       <c r="AA10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AB10">
         <f t="shared" ca="1" si="0"/>
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="AC10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AD10">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AF10">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AH10">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AJ10" s="24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AK10" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AL10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,177,70,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,185,76,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="11" spans="1:38">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="23">
         <v>11</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M11" s="24">
         <v>1</v>
       </c>
       <c r="N11" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P11" s="24" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="R11" t="s">
+        <v>126</v>
+      </c>
+      <c r="S11" t="s">
+        <v>120</v>
+      </c>
+      <c r="T11" t="s">
+        <v>126</v>
+      </c>
+      <c r="U11" t="s">
+        <v>120</v>
+      </c>
+      <c r="V11" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="W11" t="s">
+        <v>120</v>
+      </c>
+      <c r="X11" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z11" t="s">
         <v>129</v>
       </c>
-      <c r="S11" t="s">
-        <v>123</v>
-      </c>
-      <c r="T11" t="s">
-        <v>129</v>
-      </c>
-      <c r="U11" t="s">
-        <v>123</v>
-      </c>
-      <c r="V11" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="W11" t="s">
-        <v>123</v>
-      </c>
-      <c r="X11" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>132</v>
-      </c>
       <c r="AA11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AB11">
         <f t="shared" ca="1" si="0"/>
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AC11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AD11">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AE11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AF11">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AH11">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AI11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AJ11" s="24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AK11" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AL11" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,181,70,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,178,75,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="12" spans="1:38">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="23">
         <v>12</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M12" s="24">
         <v>1</v>
       </c>
       <c r="N12" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P12" s="24" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="R12" t="s">
+        <v>126</v>
+      </c>
+      <c r="S12" t="s">
+        <v>120</v>
+      </c>
+      <c r="T12" t="s">
+        <v>126</v>
+      </c>
+      <c r="U12" t="s">
+        <v>120</v>
+      </c>
+      <c r="V12" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="W12" t="s">
+        <v>120</v>
+      </c>
+      <c r="X12" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z12" t="s">
         <v>129</v>
       </c>
-      <c r="S12" t="s">
-        <v>123</v>
-      </c>
-      <c r="T12" t="s">
-        <v>129</v>
-      </c>
-      <c r="U12" t="s">
-        <v>123</v>
-      </c>
-      <c r="V12" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="W12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X12" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>132</v>
-      </c>
       <c r="AA12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AB12">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AC12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AD12">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AF12">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AH12">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AJ12" s="24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AK12" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AL12" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,173,70,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,172,71,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="13" spans="1:38">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="23">
         <v>13</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M13" s="24">
         <v>1</v>
       </c>
       <c r="N13" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P13" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>120</v>
+      </c>
+      <c r="R13" t="s">
+        <v>126</v>
+      </c>
+      <c r="S13" t="s">
+        <v>120</v>
+      </c>
+      <c r="T13" t="s">
+        <v>126</v>
+      </c>
+      <c r="U13" t="s">
+        <v>120</v>
+      </c>
+      <c r="V13" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="W13" t="s">
+        <v>120</v>
+      </c>
+      <c r="X13" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="Q13" t="s">
-        <v>123</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="Y13" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z13" t="s">
         <v>129</v>
       </c>
-      <c r="S13" t="s">
-        <v>123</v>
-      </c>
-      <c r="T13" t="s">
-        <v>129</v>
-      </c>
-      <c r="U13" t="s">
-        <v>123</v>
-      </c>
-      <c r="V13" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="W13" t="s">
-        <v>123</v>
-      </c>
-      <c r="X13" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>132</v>
-      </c>
       <c r="AA13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AB13">
         <f t="shared" ca="1" si="0"/>
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AC13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AD13">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AF13">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AG13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AH13">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AJ13" s="24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AK13" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AL13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,176,71,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,181,70,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="14" spans="1:38">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23">
         <v>14</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M14" s="24">
         <v>1</v>
       </c>
       <c r="N14" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P14" s="24" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="R14" t="s">
+        <v>126</v>
+      </c>
+      <c r="S14" t="s">
+        <v>120</v>
+      </c>
+      <c r="T14" t="s">
+        <v>126</v>
+      </c>
+      <c r="U14" t="s">
+        <v>120</v>
+      </c>
+      <c r="V14" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="W14" t="s">
+        <v>120</v>
+      </c>
+      <c r="X14" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z14" t="s">
         <v>129</v>
       </c>
-      <c r="S14" t="s">
-        <v>123</v>
-      </c>
-      <c r="T14" t="s">
-        <v>129</v>
-      </c>
-      <c r="U14" t="s">
-        <v>123</v>
-      </c>
-      <c r="V14" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="W14" t="s">
-        <v>123</v>
-      </c>
-      <c r="X14" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>132</v>
-      </c>
       <c r="AA14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AB14">
         <f t="shared" ca="1" si="0"/>
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="AC14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AD14">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AE14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AF14">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="AG14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AH14">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="AI14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AJ14" s="24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AK14" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AL14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,170,76,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,185,71,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="15" spans="1:38">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="23">
         <v>15</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M15" s="24">
         <v>1</v>
       </c>
       <c r="N15" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P15" s="24" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="R15" t="s">
+        <v>126</v>
+      </c>
+      <c r="S15" t="s">
+        <v>120</v>
+      </c>
+      <c r="T15" t="s">
+        <v>126</v>
+      </c>
+      <c r="U15" t="s">
+        <v>120</v>
+      </c>
+      <c r="V15" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="W15" t="s">
+        <v>120</v>
+      </c>
+      <c r="X15" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z15" t="s">
         <v>129</v>
       </c>
-      <c r="S15" t="s">
-        <v>123</v>
-      </c>
-      <c r="T15" t="s">
-        <v>129</v>
-      </c>
-      <c r="U15" t="s">
-        <v>123</v>
-      </c>
-      <c r="V15" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="W15" t="s">
-        <v>123</v>
-      </c>
-      <c r="X15" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>132</v>
-      </c>
       <c r="AA15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AB15">
         <f t="shared" ca="1" si="0"/>
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AC15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AD15">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AF15">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AH15">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="AI15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AJ15" s="24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AK15" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AL15" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,174,73,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,178,76,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="16" spans="1:38">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="23">
         <v>16</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M16" s="24">
         <v>1</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P16" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>120</v>
+      </c>
+      <c r="R16" t="s">
+        <v>126</v>
+      </c>
+      <c r="S16" t="s">
+        <v>120</v>
+      </c>
+      <c r="T16" t="s">
+        <v>126</v>
+      </c>
+      <c r="U16" t="s">
+        <v>120</v>
+      </c>
+      <c r="V16" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="W16" t="s">
+        <v>120</v>
+      </c>
+      <c r="X16" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="Q16" t="s">
-        <v>123</v>
-      </c>
-      <c r="R16" t="s">
+      <c r="Y16" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z16" t="s">
         <v>129</v>
       </c>
-      <c r="S16" t="s">
-        <v>123</v>
-      </c>
-      <c r="T16" t="s">
-        <v>129</v>
-      </c>
-      <c r="U16" t="s">
-        <v>123</v>
-      </c>
-      <c r="V16" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="W16" t="s">
-        <v>123</v>
-      </c>
-      <c r="X16" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>132</v>
-      </c>
       <c r="AA16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AB16">
         <f t="shared" ca="1" si="0"/>
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="AC16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AD16">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AE16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AF16">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="AG16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AH16">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AJ16" s="24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AK16" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AL16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,171,71,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,179,75,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="17" spans="1:38">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="23">
         <v>17</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M17" s="24">
         <v>1</v>
       </c>
       <c r="N17" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P17" s="24" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="R17" t="s">
+        <v>126</v>
+      </c>
+      <c r="S17" t="s">
+        <v>120</v>
+      </c>
+      <c r="T17" t="s">
+        <v>126</v>
+      </c>
+      <c r="U17" t="s">
+        <v>120</v>
+      </c>
+      <c r="V17" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="W17" t="s">
+        <v>120</v>
+      </c>
+      <c r="X17" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z17" t="s">
         <v>129</v>
       </c>
-      <c r="S17" t="s">
-        <v>123</v>
-      </c>
-      <c r="T17" t="s">
-        <v>129</v>
-      </c>
-      <c r="U17" t="s">
-        <v>123</v>
-      </c>
-      <c r="V17" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="W17" t="s">
-        <v>123</v>
-      </c>
-      <c r="X17" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>132</v>
-      </c>
       <c r="AA17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AB17">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AC17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AD17">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AE17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AF17">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AH17">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AI17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AJ17" s="24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AK17" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AL17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,183,79,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,178,72,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="20" spans="1:38">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H20" t="str">
         <f>E20</f>
         <v>'왕십리FC</v>
       </c>
       <c r="I20" t="s">
+        <v>141</v>
+      </c>
+      <c r="J20" t="s">
+        <v>120</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="L20" t="s">
+        <v>120</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="N20" t="s">
+        <v>120</v>
+      </c>
+      <c r="O20" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="J20" t="s">
-        <v>123</v>
-      </c>
-      <c r="K20" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="L20" t="s">
-        <v>123</v>
-      </c>
-      <c r="M20" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="N20" t="s">
-        <v>123</v>
-      </c>
-      <c r="O20" s="24" t="s">
-        <v>147</v>
-      </c>
       <c r="P20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q20">
         <f ca="1">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="S20" s="24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="T20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="U20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="V20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="W20" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="X20">
         <v>1234</v>
       </c>
       <c r="Y20" s="24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Z20" s="24" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AA20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AB20" t="str">
         <f ca="1">_xlfn.CONCAT(A20:AA20)</f>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('왕십리FC','왕십리FC201018.jpg','성동구','성동구 구장','red',5,'2016-01-01',sysdate(),'1234','기업');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('왕십리FC','왕십리FC201018.jpg','성동구','성동구 구장','red',0,'2016-01-01',sysdate(),'1234','기업');</v>
       </c>
     </row>
     <row r="21" spans="1:38">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C21" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" ref="H21:H22" si="5">E21</f>
         <v>'답십리FC</v>
       </c>
       <c r="I21" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M21" s="24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O21" s="24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q21">
         <f t="shared" ref="Q21:Q22" ca="1" si="6">RANDBETWEEN(0,5)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="S21" s="24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="T21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="U21" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="V21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="W21" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="X21">
         <v>5678</v>
       </c>
       <c r="Y21" s="24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Z21" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AA21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AB21" t="str">
         <f t="shared" ref="AB21:AB22" ca="1" si="7">_xlfn.CONCAT(A21:AA21)</f>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('답십리FC','답십리FC201018.jpg','성동구','응봉동 구장','blue',0,'2017-01-01',sysdate(),'5678','하나');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('답십리FC','답십리FC201018.jpg','성동구','응봉동 구장','blue',3,'2017-01-01',sysdate(),'5678','하나');</v>
       </c>
     </row>
     <row r="22" spans="1:38">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="5"/>
         <v>'대구FC</v>
       </c>
       <c r="I22" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O22" s="24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="S22" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="T22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="U22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="V22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="W22" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="X22">
         <v>2345</v>
       </c>
       <c r="Y22" s="24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Z22" s="24" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AA22" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AB22" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('대구FC','대구FC201018.jpg','달서구','달서구 구장','green',2,'2018-01-01',sysdate(),'2345','기업');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('대구FC','대구FC201018.jpg','달서구','달서구 구장','green',0,'2018-01-01',sysdate(),'2345','기업');</v>
       </c>
     </row>
     <row r="24" spans="1:38">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F24">
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L24" t="str">
         <f>_xlfn.CONCAT(E1:H1)</f>
         <v>'bioman1@gmail.com'</v>
       </c>
       <c r="M24" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N24" s="24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O24">
         <v>1</v>
       </c>
       <c r="P24" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q24" t="str">
         <f>_xlfn.CONCAT(A24:P24)</f>
@@ -7081,53 +8286,53 @@
     </row>
     <row r="25" spans="1:38">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F25">
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" ref="L25:L28" si="8">_xlfn.CONCAT(E2:H2)</f>
         <v>'bioman2@gmail.com'</v>
       </c>
       <c r="M25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N25" s="24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O25">
         <v>2</v>
       </c>
       <c r="P25" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q25" t="str">
         <f t="shared" ref="Q25:Q28" si="9">_xlfn.CONCAT(A25:P25)</f>
@@ -7136,53 +8341,53 @@
     </row>
     <row r="26" spans="1:38">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" si="8"/>
         <v>'bioman3@gmail.com'</v>
       </c>
       <c r="M26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N26" s="24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O26">
         <v>3</v>
       </c>
       <c r="P26" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q26" t="str">
         <f t="shared" si="9"/>
@@ -7191,53 +8396,53 @@
     </row>
     <row r="27" spans="1:38">
       <c r="A27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E27" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" si="8"/>
         <v>'bioman4@gmail.com'</v>
       </c>
       <c r="M27" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N27" s="24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O27">
         <v>4</v>
       </c>
       <c r="P27" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q27" t="str">
         <f t="shared" si="9"/>
@@ -7246,53 +8451,53 @@
     </row>
     <row r="28" spans="1:38">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" si="8"/>
         <v>'bioman5@gmail.com'</v>
       </c>
       <c r="M28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N28" s="24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O28">
         <v>5</v>
       </c>
       <c r="P28" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q28" t="str">
         <f t="shared" si="9"/>
@@ -7301,53 +8506,53 @@
     </row>
     <row r="29" spans="1:38">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B29" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F29">
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J29">
         <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L29" t="str">
         <f>_xlfn.CONCAT(E6:H6)</f>
         <v>'bioman6@gmail.com'</v>
       </c>
       <c r="M29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N29" s="24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O29">
         <v>1</v>
       </c>
       <c r="P29" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q29" t="str">
         <f>_xlfn.CONCAT(A29:P29)</f>
@@ -7356,53 +8561,53 @@
     </row>
     <row r="30" spans="1:38">
       <c r="A30" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B30" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F30">
         <v>3</v>
       </c>
       <c r="G30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J30">
         <v>2</v>
       </c>
       <c r="K30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L30" t="str">
         <f t="shared" ref="L30:L33" si="10">_xlfn.CONCAT(E7:H7)</f>
         <v>'bioman7@gmail.com'</v>
       </c>
       <c r="M30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N30" s="24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O30">
         <v>2</v>
       </c>
       <c r="P30" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q30" t="str">
         <f t="shared" ref="Q30:Q33" si="11">_xlfn.CONCAT(A30:P30)</f>
@@ -7411,53 +8616,53 @@
     </row>
     <row r="31" spans="1:38">
       <c r="A31" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B31" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F31">
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J31">
         <v>2</v>
       </c>
       <c r="K31" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L31" t="str">
         <f t="shared" si="10"/>
         <v>'bioman8@gmail.com'</v>
       </c>
       <c r="M31" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N31" s="24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O31">
         <v>3</v>
       </c>
       <c r="P31" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q31" t="str">
         <f t="shared" si="11"/>
@@ -7466,53 +8671,53 @@
     </row>
     <row r="32" spans="1:38">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B32" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E32" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J32">
         <v>2</v>
       </c>
       <c r="K32" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L32" t="str">
         <f t="shared" si="10"/>
         <v>'bioman9@gmail.com'</v>
       </c>
       <c r="M32" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N32" s="24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O32">
         <v>4</v>
       </c>
       <c r="P32" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q32" t="str">
         <f t="shared" si="11"/>
@@ -7521,53 +8726,53 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C33" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J33">
         <v>2</v>
       </c>
       <c r="K33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L33" t="str">
         <f t="shared" si="10"/>
         <v>'bioman10@gmail.com'</v>
       </c>
       <c r="M33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N33" s="24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O33">
         <v>5</v>
       </c>
       <c r="P33" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q33" t="str">
         <f t="shared" si="11"/>
@@ -7576,53 +8781,53 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C34" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D34" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E34" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F34">
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J34">
         <v>3</v>
       </c>
       <c r="K34" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L34" t="str">
         <f>_xlfn.CONCAT(E11:H11)</f>
         <v>'bioman11@gmail.com'</v>
       </c>
       <c r="M34" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N34" s="24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O34">
         <v>1</v>
       </c>
       <c r="P34" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q34" t="str">
         <f>_xlfn.CONCAT(A34:P34)</f>
@@ -7631,53 +8836,53 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F35">
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J35">
         <v>3</v>
       </c>
       <c r="K35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L35" t="str">
         <f t="shared" ref="L35:L38" si="12">_xlfn.CONCAT(E12:H12)</f>
         <v>'bioman12@gmail.com'</v>
       </c>
       <c r="M35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N35" s="24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O35">
         <v>2</v>
       </c>
       <c r="P35" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q35" t="str">
         <f t="shared" ref="Q35:Q38" si="13">_xlfn.CONCAT(A35:P35)</f>
@@ -7686,53 +8891,53 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B36" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D36" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E36" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F36">
         <v>2</v>
       </c>
       <c r="G36" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J36">
         <v>3</v>
       </c>
       <c r="K36" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L36" t="str">
         <f t="shared" si="12"/>
         <v>'bioman13@gmail.com'</v>
       </c>
       <c r="M36" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N36" s="24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O36">
         <v>3</v>
       </c>
       <c r="P36" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q36" t="str">
         <f t="shared" si="13"/>
@@ -7741,53 +8946,53 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B37" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D37" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E37" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J37">
         <v>3</v>
       </c>
       <c r="K37" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L37" t="str">
         <f t="shared" si="12"/>
         <v>'bioman14@gmail.com'</v>
       </c>
       <c r="M37" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N37" s="24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O37">
         <v>4</v>
       </c>
       <c r="P37" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q37" t="str">
         <f t="shared" si="13"/>
@@ -7796,53 +9001,53 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B38" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D38" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J38">
         <v>3</v>
       </c>
       <c r="K38" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L38" t="str">
         <f t="shared" si="12"/>
         <v>'bioman15@gmail.com'</v>
       </c>
       <c r="M38" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N38" s="24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O38">
         <v>5</v>
       </c>
       <c r="P38" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q38" t="str">
         <f t="shared" si="13"/>

--- a/docs/srs/fbt_docs.xlsx
+++ b/docs/srs/fbt_docs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Socio_02\Desktop\kjy\fbt\docs\srs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kjy\fbt\docs\srs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D11E9EC-7D14-4A66-8751-552D611230F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D007A29-8362-41C9-A532-B3CAFD5E084A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F0AD6B2-A8A2-4F73-BAF4-7193D3382EE1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2F0AD6B2-A8A2-4F73-BAF4-7193D3382EE1}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항명세서" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="TestCase_SQL" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항명세서!$B$8:$H$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항명세서!$B$8:$H$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="193">
   <si>
     <t>요구사항 정의서</t>
   </si>
@@ -4165,6 +4165,122 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> - transaction</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V011</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">결과 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지인이 불참으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -4625,6 +4741,15 @@
     <xf numFmtId="0" fontId="11" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4641,15 +4766,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4967,34 +5083,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EA499F-775F-49C1-B26C-B60E223B5AF8}">
-  <dimension ref="B1:I45"/>
+  <dimension ref="B1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="1" max="1" width="4.19921875" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.69921875" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="17.25" thickBot="1"/>
-    <row r="2" spans="2:9" ht="18.75" thickBot="1">
-      <c r="B2" s="34" t="s">
+    <row r="1" spans="2:9" ht="18" thickBot="1"/>
+    <row r="2" spans="2:9" ht="18" thickBot="1">
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35"/>
+      <c r="C2" s="38"/>
       <c r="E2" s="3" t="s">
         <v>64</v>
       </c>
@@ -5005,7 +5121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="17.25" thickBot="1">
+    <row r="3" spans="2:9" ht="18" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5020,7 +5136,7 @@
       </c>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="2:9" ht="17.25" thickBot="1">
+    <row r="4" spans="2:9" ht="18" thickBot="1">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5035,7 +5151,7 @@
       </c>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="2:9" ht="17.25" thickBot="1">
+    <row r="5" spans="2:9" ht="18" thickBot="1">
       <c r="E5" s="25" t="s">
         <v>63</v>
       </c>
@@ -5043,7 +5159,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="17.25" thickBot="1">
+    <row r="6" spans="2:9" ht="18" thickBot="1">
       <c r="E6" s="30" t="s">
         <v>161</v>
       </c>
@@ -5051,46 +5167,46 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="17.25" thickBot="1"/>
-    <row r="8" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B8" s="32" t="s">
+    <row r="7" spans="2:9" ht="18" thickBot="1"/>
+    <row r="8" spans="2:9" ht="18" thickBot="1">
+      <c r="B8" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="32" t="s">
+      <c r="F8" s="40"/>
+      <c r="G8" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="35" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
+    <row r="9" spans="2:9" ht="18" thickBot="1">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
     </row>
-    <row r="10" spans="2:9" ht="26.25" thickBot="1">
+    <row r="10" spans="2:9" ht="27" thickBot="1">
       <c r="B10" s="11" t="s">
         <v>65</v>
       </c>
@@ -5113,7 +5229,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="17.25" thickBot="1">
+    <row r="11" spans="2:9" ht="18" thickBot="1">
       <c r="B11" s="11" t="s">
         <v>66</v>
       </c>
@@ -5134,7 +5250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="17.25" thickBot="1">
+    <row r="12" spans="2:9" ht="18" thickBot="1">
       <c r="B12" s="11" t="s">
         <v>67</v>
       </c>
@@ -5155,7 +5271,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="17.25" thickBot="1">
+    <row r="13" spans="2:9" ht="18" thickBot="1">
       <c r="B13" s="11" t="s">
         <v>68</v>
       </c>
@@ -5176,7 +5292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="17.25" thickBot="1">
+    <row r="14" spans="2:9" ht="18" thickBot="1">
       <c r="B14" s="11" t="s">
         <v>69</v>
       </c>
@@ -5197,7 +5313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="17.25" thickBot="1">
+    <row r="15" spans="2:9" ht="18" thickBot="1">
       <c r="B15" s="11" t="s">
         <v>70</v>
       </c>
@@ -5217,11 +5333,11 @@
       <c r="H15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="32" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="17.25" thickBot="1">
+    <row r="16" spans="2:9" ht="18" thickBot="1">
       <c r="B16" s="17" t="s">
         <v>39</v>
       </c>
@@ -5241,11 +5357,11 @@
       <c r="H16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="32" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="17.25" thickBot="1">
+    <row r="17" spans="2:9" ht="18" thickBot="1">
       <c r="B17" s="17" t="s">
         <v>172</v>
       </c>
@@ -5265,9 +5381,9 @@
       <c r="H17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="38"/>
+      <c r="I17" s="32"/>
     </row>
-    <row r="18" spans="2:9" ht="27.75" thickBot="1">
+    <row r="18" spans="2:9" ht="31.8" thickBot="1">
       <c r="B18" s="17" t="s">
         <v>40</v>
       </c>
@@ -5287,11 +5403,11 @@
       <c r="H18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="38" t="s">
+      <c r="I18" s="32" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="120.75" thickBot="1">
+    <row r="19" spans="2:9" ht="136.19999999999999" thickBot="1">
       <c r="B19" s="17" t="s">
         <v>41</v>
       </c>
@@ -5311,11 +5427,11 @@
       <c r="H19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I19" s="33" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="68.25" thickBot="1">
+    <row r="20" spans="2:9" ht="78.599999999999994" thickBot="1">
       <c r="B20" s="17" t="s">
         <v>43</v>
       </c>
@@ -5335,11 +5451,11 @@
       <c r="H20" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="39" t="s">
+      <c r="I20" s="33" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="291.75" thickBot="1">
+    <row r="21" spans="2:9" ht="324.60000000000002" thickBot="1">
       <c r="B21" s="17" t="s">
         <v>47</v>
       </c>
@@ -5360,7 +5476,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="26.25" thickBot="1">
+    <row r="22" spans="2:9" ht="27" thickBot="1">
       <c r="B22" s="19" t="s">
         <v>48</v>
       </c>
@@ -5382,12 +5498,12 @@
       <c r="H22" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="39" t="s">
+      <c r="I22" s="33" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="27" thickBot="1">
-      <c r="B23" s="40" t="s">
+    <row r="23" spans="2:9" ht="29.4" thickBot="1">
+      <c r="B23" s="34" t="s">
         <v>178</v>
       </c>
       <c r="C23" s="12" t="s">
@@ -5404,10 +5520,10 @@
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="39"/>
+      <c r="I23" s="33"/>
     </row>
-    <row r="24" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B24" s="40" t="s">
+    <row r="24" spans="2:9" ht="18" thickBot="1">
+      <c r="B24" s="34" t="s">
         <v>180</v>
       </c>
       <c r="C24" s="12" t="s">
@@ -5424,10 +5540,10 @@
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="39"/>
+      <c r="I24" s="33"/>
     </row>
-    <row r="25" spans="2:9" ht="27" thickBot="1">
-      <c r="B25" s="40" t="s">
+    <row r="25" spans="2:9" ht="29.4" thickBot="1">
+      <c r="B25" s="34" t="s">
         <v>182</v>
       </c>
       <c r="C25" s="12" t="s">
@@ -5444,38 +5560,35 @@
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="39"/>
+      <c r="I25" s="33"/>
     </row>
-    <row r="26" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B26" s="20" t="s">
+    <row r="26" spans="2:9" ht="18" thickBot="1">
+      <c r="B26" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="33"/>
+    </row>
+    <row r="27" spans="2:9" ht="18" thickBot="1">
+      <c r="B27" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C27" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D27" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B27" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>45</v>
@@ -5485,60 +5598,60 @@
         <v>16</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="26.25" thickBot="1">
+    <row r="28" spans="2:9" ht="18" thickBot="1">
       <c r="B28" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>56</v>
+        <v>26</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="12" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="29" spans="2:9" ht="17.25" thickBot="1">
+    <row r="29" spans="2:9" ht="27" thickBot="1">
       <c r="B29" s="20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="17.25" thickBot="1">
+    <row r="30" spans="2:9" ht="18" thickBot="1">
       <c r="B30" s="20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>45</v>
@@ -5548,104 +5661,104 @@
         <v>16</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="80.25" thickBot="1">
+    <row r="31" spans="2:9" ht="18" thickBot="1">
       <c r="B31" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>82</v>
+        <v>74</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="17.25" thickBot="1">
+    <row r="32" spans="2:9" ht="91.8" thickBot="1">
       <c r="B32" s="20" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="27.75" thickBot="1">
+    <row r="33" spans="2:8" ht="18" thickBot="1">
       <c r="B33" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H33" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B34" s="22" t="s">
-        <v>71</v>
+    <row r="34" spans="2:8" ht="31.8" thickBot="1">
+      <c r="B34" s="20" t="s">
+        <v>80</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>24</v>
+        <v>81</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="17.25" thickBot="1">
+    <row r="35" spans="2:8" ht="18" thickBot="1">
       <c r="B35" s="22" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="12" t="s">
         <v>24</v>
       </c>
       <c r="F35" s="12"/>
@@ -5653,83 +5766,83 @@
         <v>16</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="17.25" thickBot="1">
+    <row r="36" spans="2:8" ht="18" thickBot="1">
       <c r="B36" s="22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="17.25" thickBot="1">
+    <row r="37" spans="2:8" ht="18" thickBot="1">
       <c r="B37" s="22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="17.25" thickBot="1">
+    <row r="38" spans="2:8" ht="18" thickBot="1">
       <c r="B38" s="22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B39" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>101</v>
+    <row r="39" spans="2:8" ht="18" thickBot="1">
+      <c r="B39" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F39" s="12"/>
@@ -5737,18 +5850,18 @@
         <v>16</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="17.25" thickBot="1">
+    <row r="40" spans="2:8" ht="18" thickBot="1">
       <c r="B40" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>45</v>
@@ -5761,15 +5874,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="17.25" thickBot="1">
+    <row r="41" spans="2:8" ht="18" thickBot="1">
       <c r="B41" s="29" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>45</v>
@@ -5782,15 +5895,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="17.25" thickBot="1">
+    <row r="42" spans="2:8" ht="18" thickBot="1">
       <c r="B42" s="29" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>45</v>
@@ -5800,18 +5913,18 @@
         <v>16</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="17.25" thickBot="1">
+    <row r="43" spans="2:8" ht="18" thickBot="1">
       <c r="B43" s="29" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>45</v>
@@ -5821,17 +5934,19 @@
         <v>16</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="17.25" thickBot="1">
+    <row r="44" spans="2:8" ht="18" thickBot="1">
       <c r="B44" s="29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D44" s="18"/>
+        <v>111</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>112</v>
+      </c>
       <c r="E44" s="12" t="s">
         <v>45</v>
       </c>
@@ -5839,18 +5954,18 @@
       <c r="G44" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H44" s="12"/>
+      <c r="H44" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="45" spans="2:8" ht="27.75" thickBot="1">
-      <c r="B45" s="31" t="s">
-        <v>162</v>
+    <row r="45" spans="2:8" ht="18" thickBot="1">
+      <c r="B45" s="29" t="s">
+        <v>113</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>166</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D45" s="18"/>
       <c r="E45" s="12" t="s">
         <v>45</v>
       </c>
@@ -5858,12 +5973,31 @@
       <c r="G45" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H45" s="12" t="s">
+      <c r="H45" s="12"/>
+    </row>
+    <row r="46" spans="2:8" ht="31.8" thickBot="1">
+      <c r="B46" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="12" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B8:H45" xr:uid="{08681459-A406-4CEE-9A8A-D3DF83B63176}">
+  <autoFilter ref="B8:H46" xr:uid="{08681459-A406-4CEE-9A8A-D3DF83B63176}">
     <filterColumn colId="3" showButton="0"/>
   </autoFilter>
   <mergeCells count="8">
@@ -5890,9 +6024,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5933,10 +6067,10 @@
       <selection activeCell="Q24" sqref="Q24:Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -6021,21 +6155,21 @@
       </c>
       <c r="AB1">
         <f ca="1">RANDBETWEEN(170,185)</f>
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="AC1" t="s">
         <v>120</v>
       </c>
       <c r="AD1">
         <f ca="1">RANDBETWEEN(70,80)</f>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AE1" t="s">
         <v>120</v>
       </c>
       <c r="AF1">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG1" t="s">
         <v>120</v>
@@ -6055,7 +6189,7 @@
       </c>
       <c r="AL1" t="str">
         <f ca="1">_xlfn.CONCAT(A1:AK1)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,182,78,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,172,70,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="2" spans="1:38">
@@ -6140,28 +6274,28 @@
       </c>
       <c r="AB2">
         <f t="shared" ref="AB2:AB17" ca="1" si="0">RANDBETWEEN(170,185)</f>
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AC2" t="s">
         <v>120</v>
       </c>
       <c r="AD2">
         <f t="shared" ref="AD2:AD17" ca="1" si="1">RANDBETWEEN(70,80)</f>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE2" t="s">
         <v>120</v>
       </c>
       <c r="AF2">
         <f t="shared" ref="AF2:AF17" ca="1" si="2">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="s">
         <v>120</v>
       </c>
       <c r="AH2">
         <f t="shared" ref="AH2:AH17" ca="1" si="3">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI2" t="s">
         <v>120</v>
@@ -6174,7 +6308,7 @@
       </c>
       <c r="AL2" t="str">
         <f t="shared" ref="AL2:AL17" ca="1" si="4">_xlfn.CONCAT(A2:AK2)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,177,80,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,174,79,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -6259,21 +6393,21 @@
       </c>
       <c r="AB3">
         <f t="shared" ca="1" si="0"/>
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AC3" t="s">
         <v>120</v>
       </c>
       <c r="AD3">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="s">
         <v>120</v>
       </c>
       <c r="AF3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="s">
         <v>120</v>
@@ -6293,7 +6427,7 @@
       </c>
       <c r="AL3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,175,72,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,171,75,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="4" spans="1:38">
@@ -6378,28 +6512,28 @@
       </c>
       <c r="AB4">
         <f t="shared" ca="1" si="0"/>
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AC4" t="s">
         <v>120</v>
       </c>
       <c r="AD4">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE4" t="s">
         <v>120</v>
       </c>
       <c r="AF4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="s">
         <v>120</v>
       </c>
       <c r="AH4">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="s">
         <v>120</v>
@@ -6412,7 +6546,7 @@
       </c>
       <c r="AL4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,185,76,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,181,73,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -6497,28 +6631,28 @@
       </c>
       <c r="AB5">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="AC5" t="s">
         <v>120</v>
       </c>
       <c r="AD5">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE5" t="s">
         <v>120</v>
       </c>
       <c r="AF5">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="s">
         <v>120</v>
       </c>
       <c r="AH5">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5" t="s">
         <v>120</v>
@@ -6531,7 +6665,7 @@
       </c>
       <c r="AL5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,173,76,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,184,79,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -6616,7 +6750,7 @@
       </c>
       <c r="AB6">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AC6" t="s">
         <v>120</v>
@@ -6650,7 +6784,7 @@
       </c>
       <c r="AL6" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,183,74,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,177,74,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -6735,28 +6869,28 @@
       </c>
       <c r="AB7">
         <f t="shared" ca="1" si="0"/>
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AC7" t="s">
         <v>120</v>
       </c>
       <c r="AD7">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AE7" t="s">
         <v>120</v>
       </c>
       <c r="AF7">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" t="s">
         <v>120</v>
       </c>
       <c r="AH7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="s">
         <v>120</v>
@@ -6769,7 +6903,7 @@
       </c>
       <c r="AL7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,171,74,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,173,79,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -6854,21 +6988,21 @@
       </c>
       <c r="AB8">
         <f t="shared" ca="1" si="0"/>
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AC8" t="s">
         <v>120</v>
       </c>
       <c r="AD8">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AE8" t="s">
         <v>120</v>
       </c>
       <c r="AF8">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" t="s">
         <v>120</v>
@@ -6888,7 +7022,7 @@
       </c>
       <c r="AL8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,178,72,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,174,79,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -6980,7 +7114,7 @@
       </c>
       <c r="AD9">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AE9" t="s">
         <v>120</v>
@@ -6994,7 +7128,7 @@
       </c>
       <c r="AH9">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9" t="s">
         <v>120</v>
@@ -7007,7 +7141,7 @@
       </c>
       <c r="AL9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,174,80,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,174,78,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -7092,21 +7226,21 @@
       </c>
       <c r="AB10">
         <f t="shared" ca="1" si="0"/>
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AC10" t="s">
         <v>120</v>
       </c>
       <c r="AD10">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AE10" t="s">
         <v>120</v>
       </c>
       <c r="AF10">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" t="s">
         <v>120</v>
@@ -7126,7 +7260,7 @@
       </c>
       <c r="AL10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,185,76,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,177,71,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -7211,14 +7345,14 @@
       </c>
       <c r="AB11">
         <f t="shared" ca="1" si="0"/>
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC11" t="s">
         <v>120</v>
       </c>
       <c r="AD11">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AE11" t="s">
         <v>120</v>
@@ -7232,7 +7366,7 @@
       </c>
       <c r="AH11">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI11" t="s">
         <v>120</v>
@@ -7245,7 +7379,7 @@
       </c>
       <c r="AL11" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,178,75,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,177,73,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -7330,14 +7464,14 @@
       </c>
       <c r="AB12">
         <f t="shared" ca="1" si="0"/>
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AC12" t="s">
         <v>120</v>
       </c>
       <c r="AD12">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AE12" t="s">
         <v>120</v>
@@ -7364,7 +7498,7 @@
       </c>
       <c r="AL12" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,172,71,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,176,77,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -7449,28 +7583,28 @@
       </c>
       <c r="AB13">
         <f t="shared" ca="1" si="0"/>
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AC13" t="s">
         <v>120</v>
       </c>
       <c r="AD13">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AE13" t="s">
         <v>120</v>
       </c>
       <c r="AF13">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13" t="s">
         <v>120</v>
       </c>
       <c r="AH13">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI13" t="s">
         <v>120</v>
@@ -7483,7 +7617,7 @@
       </c>
       <c r="AL13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,181,70,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,174,73,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -7568,14 +7702,14 @@
       </c>
       <c r="AB14">
         <f t="shared" ca="1" si="0"/>
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AC14" t="s">
         <v>120</v>
       </c>
       <c r="AD14">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AE14" t="s">
         <v>120</v>
@@ -7589,7 +7723,7 @@
       </c>
       <c r="AH14">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="s">
         <v>120</v>
@@ -7602,7 +7736,7 @@
       </c>
       <c r="AL14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,185,71,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,176,73,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -7687,28 +7821,28 @@
       </c>
       <c r="AB15">
         <f t="shared" ca="1" si="0"/>
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AC15" t="s">
         <v>120</v>
       </c>
       <c r="AD15">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE15" t="s">
         <v>120</v>
       </c>
       <c r="AF15">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="s">
         <v>120</v>
       </c>
       <c r="AH15">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="s">
         <v>120</v>
@@ -7721,7 +7855,7 @@
       </c>
       <c r="AL15" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,178,76,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,185,78,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -7813,7 +7947,7 @@
       </c>
       <c r="AD16">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE16" t="s">
         <v>120</v>
@@ -7840,7 +7974,7 @@
       </c>
       <c r="AL16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,179,75,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,179,76,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="17" spans="1:38">
@@ -7925,14 +8059,14 @@
       </c>
       <c r="AB17">
         <f t="shared" ca="1" si="0"/>
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="AC17" t="s">
         <v>120</v>
       </c>
       <c r="AD17">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AE17" t="s">
         <v>120</v>
@@ -7959,7 +8093,7 @@
       </c>
       <c r="AL17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,178,72,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,171,70,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="20" spans="1:38">
@@ -8014,7 +8148,7 @@
       </c>
       <c r="Q20">
         <f ca="1">RANDBETWEEN(0,5)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R20" t="s">
         <v>120</v>
@@ -8048,7 +8182,7 @@
       </c>
       <c r="AB20" t="str">
         <f ca="1">_xlfn.CONCAT(A20:AA20)</f>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('왕십리FC','왕십리FC201018.jpg','성동구','성동구 구장','red',0,'2016-01-01',sysdate(),'1234','기업');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('왕십리FC','왕십리FC201018.jpg','성동구','성동구 구장','red',3,'2016-01-01',sysdate(),'1234','기업');</v>
       </c>
     </row>
     <row r="21" spans="1:38">
@@ -8103,7 +8237,7 @@
       </c>
       <c r="Q21">
         <f t="shared" ref="Q21:Q22" ca="1" si="6">RANDBETWEEN(0,5)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R21" t="s">
         <v>120</v>
@@ -8137,7 +8271,7 @@
       </c>
       <c r="AB21" t="str">
         <f t="shared" ref="AB21:AB22" ca="1" si="7">_xlfn.CONCAT(A21:AA21)</f>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('답십리FC','답십리FC201018.jpg','성동구','응봉동 구장','blue',3,'2017-01-01',sysdate(),'5678','하나');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('답십리FC','답십리FC201018.jpg','성동구','응봉동 구장','blue',0,'2017-01-01',sysdate(),'5678','하나');</v>
       </c>
     </row>
     <row r="22" spans="1:38">
@@ -8192,7 +8326,7 @@
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R22" t="s">
         <v>120</v>
@@ -8226,7 +8360,7 @@
       </c>
       <c r="AB22" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('대구FC','대구FC201018.jpg','달서구','달서구 구장','green',0,'2018-01-01',sysdate(),'2345','기업');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('대구FC','대구FC201018.jpg','달서구','달서구 구장','green',5,'2018-01-01',sysdate(),'2345','기업');</v>
       </c>
     </row>
     <row r="24" spans="1:38">

--- a/docs/srs/fbt_docs.xlsx
+++ b/docs/srs/fbt_docs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kjy\fbt\docs\srs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Socio_02\Desktop\kjy\fbt\docs\srs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D007A29-8362-41C9-A532-B3CAFD5E084A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AD6BEA-D3D8-40F0-9C1E-3CAD07619263}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2F0AD6B2-A8A2-4F73-BAF4-7193D3382EE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F0AD6B2-A8A2-4F73-BAF4-7193D3382EE1}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항명세서" sheetId="1" r:id="rId1"/>
@@ -2210,98 +2210,225 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설정에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>따라</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능들을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연결하기</t>
+    <t>완성 여부</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇ</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AL - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알림</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V002</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>또는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>또는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Nanum Gothic"/>
-        <family val="2"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
 - </t>
@@ -2314,6 +2441,1385 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>에러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> update</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전환</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면단에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> V003</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지인에게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보내기(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">invite)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표하면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아예</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>넣지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않기(투표 취소)
+추후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>채팅으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변환</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생각</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">중
+경기 관련 글은 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">match_schedule </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참조</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알람</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">?
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>insert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를 진행하나 에러 뜨면 기투표 여부 확인 후 기투표 시, 이미 투표했다고 알림 아니면 에러 페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+V003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연결
+마이페이지에서 투표 취소</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표 결과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표 결과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V008</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>투표 내용 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V009</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>투표 삭제</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V010</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>투표 설정 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 중 투표 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자만 가능(닉은 유니크)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+?? 수정일이 필요한가?</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기설정된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변경</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 변경된 설정에 맞게 자동화도 수정</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내용에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>따라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력하기
+팀 경기 일정 자동 추가(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>S001)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체에게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알람</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보내기(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>T002)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+카톡 푸시 알람(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>T003)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(V006)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> - transaction</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V011</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">결과 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지인이 불참으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설정에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>따라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능들을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연결하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t xml:space="preserve">용병구하기
 </t>
     </r>
@@ -2473,18 +3979,18 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">type
-0 : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">수동
+      <t>type
+0 : 수동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -2775,1512 +4281,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> : cancel_num, away_min_num, emp_min_num, self_min_num, self_max_num, emp_due_date, away_due_date</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>완성 여부</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ㅇ</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">AL - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>알림</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관련</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>V002</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>또는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>불</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>또는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>불</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>에러</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기투표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> update</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전환</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화면단에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> V003</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지인에게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>초대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보내기(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">invite)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표하면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>안</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아예</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>넣지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>않기(투표 취소)
-추후</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>채팅으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>변환</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>생각</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">중
-경기 관련 글은 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">match_schedule </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참조</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>알람</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>단에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">?
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>insert</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>를 진행하나 에러 뜨면 기투표 여부 확인 후 기투표 시, 이미 투표했다고 알림 아니면 에러 페이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-V003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연결
-마이페이지에서 투표 취소</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표 결과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표 결과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입력</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>V008</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>투표 내용 수정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>V009</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>투표 삭제</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>V010</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>투표 설정 수정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행 중 투표 출력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성자만 가능(닉은 유니크)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-?? 수정일이 필요한가?</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>삭제</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기설정된</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>변경</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 변경된 설정에 맞게 자동화도 수정</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입력한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내용에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>따라</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입력하기
-팀 경기 일정 자동 추가(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t>S001)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>팀원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전체에게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>알람</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보내기(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t>T002)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-카톡 푸시 알람(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t>T003)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(V006)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> - transaction</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>V011</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">결과 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>삭제</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지인이 불참으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>삭제</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -5086,27 +5086,27 @@
   <dimension ref="B1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="4.19921875" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="5" max="5" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.69921875" customWidth="1"/>
+    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18" thickBot="1"/>
-    <row r="2" spans="2:9" ht="18" thickBot="1">
+    <row r="1" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:9" ht="18.75" thickBot="1">
       <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="18" thickBot="1">
+    <row r="3" spans="2:9" ht="17.25" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="2:9" ht="18" thickBot="1">
+    <row r="4" spans="2:9" ht="17.25" thickBot="1">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="2:9" ht="18" thickBot="1">
+    <row r="5" spans="2:9" ht="17.25" thickBot="1">
       <c r="E5" s="25" t="s">
         <v>63</v>
       </c>
@@ -5159,16 +5159,16 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="18" thickBot="1">
+    <row r="6" spans="2:9" ht="17.25" thickBot="1">
       <c r="E6" s="30" t="s">
         <v>161</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="18" thickBot="1"/>
-    <row r="8" spans="2:9" ht="18" thickBot="1">
+    <row r="7" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="8" spans="2:9" ht="17.25" thickBot="1">
       <c r="B8" s="35" t="s">
         <v>4</v>
       </c>
@@ -5189,10 +5189,10 @@
         <v>11</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="18" thickBot="1">
+    <row r="9" spans="2:9" ht="17.25" thickBot="1">
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
@@ -5206,7 +5206,7 @@
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
     </row>
-    <row r="10" spans="2:9" ht="27" thickBot="1">
+    <row r="10" spans="2:9" ht="26.25" thickBot="1">
       <c r="B10" s="11" t="s">
         <v>65</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="18" thickBot="1">
+    <row r="11" spans="2:9" ht="17.25" thickBot="1">
       <c r="B11" s="11" t="s">
         <v>66</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="18" thickBot="1">
+    <row r="12" spans="2:9" ht="17.25" thickBot="1">
       <c r="B12" s="11" t="s">
         <v>67</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="18" thickBot="1">
+    <row r="13" spans="2:9" ht="17.25" thickBot="1">
       <c r="B13" s="11" t="s">
         <v>68</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="18" thickBot="1">
+    <row r="14" spans="2:9" ht="17.25" thickBot="1">
       <c r="B14" s="11" t="s">
         <v>69</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="18" thickBot="1">
+    <row r="15" spans="2:9" ht="17.25" thickBot="1">
       <c r="B15" s="11" t="s">
         <v>70</v>
       </c>
@@ -5334,15 +5334,15 @@
         <v>16</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="18" thickBot="1">
+    <row r="16" spans="2:9" ht="17.25" thickBot="1">
       <c r="B16" s="17" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>86</v>
@@ -5358,18 +5358,18 @@
         <v>25</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="18" thickBot="1">
+    <row r="17" spans="2:9" ht="17.25" thickBot="1">
       <c r="B17" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>172</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>173</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>30</v>
@@ -5383,15 +5383,15 @@
       </c>
       <c r="I17" s="32"/>
     </row>
-    <row r="18" spans="2:9" ht="31.8" thickBot="1">
+    <row r="18" spans="2:9" ht="27.75" thickBot="1">
       <c r="B18" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>30</v>
@@ -5404,10 +5404,10 @@
         <v>25</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="136.19999999999999" thickBot="1">
+    <row r="19" spans="2:9" ht="120.75" thickBot="1">
       <c r="B19" s="17" t="s">
         <v>41</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>42</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>30</v>
@@ -5428,10 +5428,10 @@
         <v>25</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="78.599999999999994" thickBot="1">
+    <row r="20" spans="2:9" ht="68.25" thickBot="1">
       <c r="B20" s="17" t="s">
         <v>43</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>45</v>
@@ -5452,10 +5452,10 @@
         <v>46</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="324.60000000000002" thickBot="1">
+    <row r="21" spans="2:9" ht="291.75" thickBot="1">
       <c r="B21" s="17" t="s">
         <v>47</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>167</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>45</v>
@@ -5476,7 +5476,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="27" thickBot="1">
+    <row r="22" spans="2:9" ht="26.25" thickBot="1">
       <c r="B22" s="19" t="s">
         <v>48</v>
       </c>
@@ -5499,78 +5499,78 @@
         <v>46</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="29.4" thickBot="1">
+    <row r="23" spans="2:9" ht="27" thickBot="1">
       <c r="B23" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>179</v>
-      </c>
       <c r="D23" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="33"/>
     </row>
-    <row r="24" spans="2:9" ht="18" thickBot="1">
+    <row r="24" spans="2:9" ht="17.25" thickBot="1">
       <c r="B24" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>181</v>
-      </c>
       <c r="D24" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="I24" s="33"/>
     </row>
-    <row r="25" spans="2:9" ht="29.4" thickBot="1">
+    <row r="25" spans="2:9" ht="27" thickBot="1">
       <c r="B25" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>183</v>
-      </c>
       <c r="D25" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="33"/>
     </row>
-    <row r="26" spans="2:9" ht="18" thickBot="1">
+    <row r="26" spans="2:9" ht="17.25" thickBot="1">
       <c r="B26" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="D26" s="18" t="s">
         <v>191</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>192</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>30</v>
@@ -5580,7 +5580,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="33"/>
     </row>
-    <row r="27" spans="2:9" ht="18" thickBot="1">
+    <row r="27" spans="2:9" ht="17.25" thickBot="1">
       <c r="B27" s="20" t="s">
         <v>18</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="18" thickBot="1">
+    <row r="28" spans="2:9" ht="17.25" thickBot="1">
       <c r="B28" s="20" t="s">
         <v>26</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="27" thickBot="1">
+    <row r="29" spans="2:9" ht="26.25" thickBot="1">
       <c r="B29" s="20" t="s">
         <v>27</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="18" thickBot="1">
+    <row r="30" spans="2:9" ht="17.25" thickBot="1">
       <c r="B30" s="20" t="s">
         <v>31</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="18" thickBot="1">
+    <row r="31" spans="2:9" ht="17.25" thickBot="1">
       <c r="B31" s="20" t="s">
         <v>34</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="91.8" thickBot="1">
+    <row r="32" spans="2:9" ht="80.25" thickBot="1">
       <c r="B32" s="20" t="s">
         <v>36</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="18" thickBot="1">
+    <row r="33" spans="2:8" ht="17.25" thickBot="1">
       <c r="B33" s="20" t="s">
         <v>77</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="31.8" thickBot="1">
+    <row r="34" spans="2:8" ht="27.75" thickBot="1">
       <c r="B34" s="20" t="s">
         <v>80</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="18" thickBot="1">
+    <row r="35" spans="2:8" ht="17.25" thickBot="1">
       <c r="B35" s="22" t="s">
         <v>71</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="18" thickBot="1">
+    <row r="36" spans="2:8" ht="17.25" thickBot="1">
       <c r="B36" s="22" t="s">
         <v>84</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="18" thickBot="1">
+    <row r="37" spans="2:8" ht="17.25" thickBot="1">
       <c r="B37" s="22" t="s">
         <v>88</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="18" thickBot="1">
+    <row r="38" spans="2:8" ht="17.25" thickBot="1">
       <c r="B38" s="22" t="s">
         <v>92</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="18" thickBot="1">
+    <row r="39" spans="2:8" ht="17.25" thickBot="1">
       <c r="B39" s="22" t="s">
         <v>95</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="18" thickBot="1">
+    <row r="40" spans="2:8" ht="17.25" thickBot="1">
       <c r="B40" s="29" t="s">
         <v>98</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="18" thickBot="1">
+    <row r="41" spans="2:8" ht="17.25" thickBot="1">
       <c r="B41" s="29" t="s">
         <v>100</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="18" thickBot="1">
+    <row r="42" spans="2:8" ht="17.25" thickBot="1">
       <c r="B42" s="29" t="s">
         <v>104</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="18" thickBot="1">
+    <row r="43" spans="2:8" ht="17.25" thickBot="1">
       <c r="B43" s="29" t="s">
         <v>107</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="18" thickBot="1">
+    <row r="44" spans="2:8" ht="17.25" thickBot="1">
       <c r="B44" s="29" t="s">
         <v>110</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="18" thickBot="1">
+    <row r="45" spans="2:8" ht="17.25" thickBot="1">
       <c r="B45" s="29" t="s">
         <v>113</v>
       </c>
@@ -5975,7 +5975,7 @@
       </c>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="2:8" ht="31.8" thickBot="1">
+    <row r="46" spans="2:8" ht="27.75" thickBot="1">
       <c r="B46" s="31" t="s">
         <v>162</v>
       </c>
@@ -6024,9 +6024,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6067,10 +6067,10 @@
       <selection activeCell="Q24" sqref="Q24:Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -6155,14 +6155,14 @@
       </c>
       <c r="AB1">
         <f ca="1">RANDBETWEEN(170,185)</f>
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AC1" t="s">
         <v>120</v>
       </c>
       <c r="AD1">
         <f ca="1">RANDBETWEEN(70,80)</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE1" t="s">
         <v>120</v>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="AL1" t="str">
         <f ca="1">_xlfn.CONCAT(A1:AK1)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,172,70,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,179,71,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="2" spans="1:38">
@@ -6274,14 +6274,14 @@
       </c>
       <c r="AB2">
         <f t="shared" ref="AB2:AB17" ca="1" si="0">RANDBETWEEN(170,185)</f>
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AC2" t="s">
         <v>120</v>
       </c>
       <c r="AD2">
         <f t="shared" ref="AD2:AD17" ca="1" si="1">RANDBETWEEN(70,80)</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE2" t="s">
         <v>120</v>
@@ -6308,7 +6308,7 @@
       </c>
       <c r="AL2" t="str">
         <f t="shared" ref="AL2:AL17" ca="1" si="4">_xlfn.CONCAT(A2:AK2)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,174,79,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,176,80,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -6393,28 +6393,28 @@
       </c>
       <c r="AB3">
         <f t="shared" ca="1" si="0"/>
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="AC3" t="s">
         <v>120</v>
       </c>
       <c r="AD3">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s">
         <v>120</v>
       </c>
       <c r="AF3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="s">
         <v>120</v>
       </c>
       <c r="AH3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3" t="s">
         <v>120</v>
@@ -6427,7 +6427,7 @@
       </c>
       <c r="AL3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,171,75,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,181,73,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="4" spans="1:38">
@@ -6512,28 +6512,28 @@
       </c>
       <c r="AB4">
         <f t="shared" ca="1" si="0"/>
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AC4" t="s">
         <v>120</v>
       </c>
       <c r="AD4">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE4" t="s">
         <v>120</v>
       </c>
       <c r="AF4">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4" t="s">
         <v>120</v>
       </c>
       <c r="AH4">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4" t="s">
         <v>120</v>
@@ -6546,7 +6546,7 @@
       </c>
       <c r="AL4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,181,73,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,178,75,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -6631,14 +6631,14 @@
       </c>
       <c r="AB5">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AC5" t="s">
         <v>120</v>
       </c>
       <c r="AD5">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE5" t="s">
         <v>120</v>
@@ -6652,7 +6652,7 @@
       </c>
       <c r="AH5">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="s">
         <v>120</v>
@@ -6665,7 +6665,7 @@
       </c>
       <c r="AL5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,184,79,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,176,80,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -6750,21 +6750,21 @@
       </c>
       <c r="AB6">
         <f t="shared" ca="1" si="0"/>
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AC6" t="s">
         <v>120</v>
       </c>
       <c r="AD6">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE6" t="s">
         <v>120</v>
       </c>
       <c r="AF6">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6" t="s">
         <v>120</v>
@@ -6784,7 +6784,7 @@
       </c>
       <c r="AL6" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,177,74,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,172,73,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -6869,14 +6869,14 @@
       </c>
       <c r="AB7">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AC7" t="s">
         <v>120</v>
       </c>
       <c r="AD7">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s">
         <v>120</v>
@@ -6890,7 +6890,7 @@
       </c>
       <c r="AH7">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="s">
         <v>120</v>
@@ -6903,7 +6903,7 @@
       </c>
       <c r="AL7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,173,79,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,172,76,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -6988,7 +6988,7 @@
       </c>
       <c r="AB8">
         <f t="shared" ca="1" si="0"/>
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AC8" t="s">
         <v>120</v>
@@ -7002,7 +7002,7 @@
       </c>
       <c r="AF8">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="s">
         <v>120</v>
@@ -7022,7 +7022,7 @@
       </c>
       <c r="AL8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,174,79,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,179,79,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -7107,28 +7107,28 @@
       </c>
       <c r="AB9">
         <f t="shared" ca="1" si="0"/>
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AC9" t="s">
         <v>120</v>
       </c>
       <c r="AD9">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AE9" t="s">
         <v>120</v>
       </c>
       <c r="AF9">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="s">
         <v>120</v>
       </c>
       <c r="AH9">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="s">
         <v>120</v>
@@ -7141,7 +7141,7 @@
       </c>
       <c r="AL9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,174,78,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,175,71,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -7226,14 +7226,14 @@
       </c>
       <c r="AB10">
         <f t="shared" ca="1" si="0"/>
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AC10" t="s">
         <v>120</v>
       </c>
       <c r="AD10">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AE10" t="s">
         <v>120</v>
@@ -7247,7 +7247,7 @@
       </c>
       <c r="AH10">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="s">
         <v>120</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="AL10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,177,71,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,181,78,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -7345,14 +7345,14 @@
       </c>
       <c r="AB11">
         <f t="shared" ca="1" si="0"/>
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AC11" t="s">
         <v>120</v>
       </c>
       <c r="AD11">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE11" t="s">
         <v>120</v>
@@ -7379,7 +7379,7 @@
       </c>
       <c r="AL11" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,177,73,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,182,75,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -7464,21 +7464,21 @@
       </c>
       <c r="AB12">
         <f t="shared" ca="1" si="0"/>
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AC12" t="s">
         <v>120</v>
       </c>
       <c r="AD12">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AE12" t="s">
         <v>120</v>
       </c>
       <c r="AF12">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG12" t="s">
         <v>120</v>
@@ -7498,7 +7498,7 @@
       </c>
       <c r="AL12" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,176,77,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,179,71,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -7583,7 +7583,7 @@
       </c>
       <c r="AB13">
         <f t="shared" ca="1" si="0"/>
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AC13" t="s">
         <v>120</v>
@@ -7604,7 +7604,7 @@
       </c>
       <c r="AH13">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="s">
         <v>120</v>
@@ -7617,7 +7617,7 @@
       </c>
       <c r="AL13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,174,73,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,176,73,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -7702,28 +7702,28 @@
       </c>
       <c r="AB14">
         <f t="shared" ca="1" si="0"/>
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="AC14" t="s">
         <v>120</v>
       </c>
       <c r="AD14">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE14" t="s">
         <v>120</v>
       </c>
       <c r="AF14">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="s">
         <v>120</v>
       </c>
       <c r="AH14">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14" t="s">
         <v>120</v>
@@ -7736,7 +7736,7 @@
       </c>
       <c r="AL14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,176,73,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,185,72,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -7821,14 +7821,14 @@
       </c>
       <c r="AB15">
         <f t="shared" ca="1" si="0"/>
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AC15" t="s">
         <v>120</v>
       </c>
       <c r="AD15">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AE15" t="s">
         <v>120</v>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="AH15">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI15" t="s">
         <v>120</v>
@@ -7855,7 +7855,7 @@
       </c>
       <c r="AL15" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,185,78,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,179,72,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -7940,21 +7940,21 @@
       </c>
       <c r="AB16">
         <f t="shared" ca="1" si="0"/>
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="AC16" t="s">
         <v>120</v>
       </c>
       <c r="AD16">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AE16" t="s">
         <v>120</v>
       </c>
       <c r="AF16">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="s">
         <v>120</v>
@@ -7974,7 +7974,7 @@
       </c>
       <c r="AL16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,179,76,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,171,70,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="17" spans="1:38">
@@ -8059,14 +8059,14 @@
       </c>
       <c r="AB17">
         <f t="shared" ca="1" si="0"/>
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="AC17" t="s">
         <v>120</v>
       </c>
       <c r="AD17">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE17" t="s">
         <v>120</v>
@@ -8080,7 +8080,7 @@
       </c>
       <c r="AH17">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI17" t="s">
         <v>120</v>
@@ -8093,7 +8093,7 @@
       </c>
       <c r="AL17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,171,70,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,180,71,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="20" spans="1:38">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="Q20">
         <f ca="1">RANDBETWEEN(0,5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R20" t="s">
         <v>120</v>
@@ -8182,7 +8182,7 @@
       </c>
       <c r="AB20" t="str">
         <f ca="1">_xlfn.CONCAT(A20:AA20)</f>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('왕십리FC','왕십리FC201018.jpg','성동구','성동구 구장','red',3,'2016-01-01',sysdate(),'1234','기업');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('왕십리FC','왕십리FC201018.jpg','성동구','성동구 구장','red',1,'2016-01-01',sysdate(),'1234','기업');</v>
       </c>
     </row>
     <row r="21" spans="1:38">
@@ -8237,7 +8237,7 @@
       </c>
       <c r="Q21">
         <f t="shared" ref="Q21:Q22" ca="1" si="6">RANDBETWEEN(0,5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R21" t="s">
         <v>120</v>
@@ -8271,7 +8271,7 @@
       </c>
       <c r="AB21" t="str">
         <f t="shared" ref="AB21:AB22" ca="1" si="7">_xlfn.CONCAT(A21:AA21)</f>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('답십리FC','답십리FC201018.jpg','성동구','응봉동 구장','blue',0,'2017-01-01',sysdate(),'5678','하나');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('답십리FC','답십리FC201018.jpg','성동구','응봉동 구장','blue',5,'2017-01-01',sysdate(),'5678','하나');</v>
       </c>
     </row>
     <row r="22" spans="1:38">
@@ -8326,7 +8326,7 @@
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R22" t="s">
         <v>120</v>
@@ -8360,7 +8360,7 @@
       </c>
       <c r="AB22" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('대구FC','대구FC201018.jpg','달서구','달서구 구장','green',5,'2018-01-01',sysdate(),'2345','기업');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('대구FC','대구FC201018.jpg','달서구','달서구 구장','green',2,'2018-01-01',sysdate(),'2345','기업');</v>
       </c>
     </row>
     <row r="24" spans="1:38">

--- a/docs/srs/fbt_docs.xlsx
+++ b/docs/srs/fbt_docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Socio_02\Desktop\kjy\fbt\docs\srs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AD6BEA-D3D8-40F0-9C1E-3CAD07619263}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACED58DD-881D-44E3-A0FA-E92EF7F67EBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F0AD6B2-A8A2-4F73-BAF4-7193D3382EE1}"/>
   </bookViews>
@@ -216,10 +216,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>가입한 팀 카드 형식으로 출력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>M005</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2363,45 +2359,468 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>참</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>또는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>불</t>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지인에게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보내기(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">invite)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표하면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아예</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>넣지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않기(투표 취소)
+추후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>채팅으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변환</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생각</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">중
+경기 관련 글은 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">match_schedule </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참조</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알람</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">?
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>insert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를 진행하나 에러 뜨면 기투표 여부 확인 후 기투표 시, 이미 투표했다고 알림 아니면 에러 페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+V003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연결
+마이페이지에서 투표 취소</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표 결과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표 결과</t>
     </r>
     <r>
       <rPr>
@@ -2422,13 +2841,499 @@
       </rPr>
       <t>입력</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V008</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>투표 내용 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V009</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>투표 삭제</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V010</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>투표 설정 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 중 투표 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자만 가능(닉은 유니크)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+?? 수정일이 필요한가?</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기설정된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변경</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 변경된 설정에 맞게 자동화도 수정</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V011</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">결과 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지인이 불참으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설정에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>따라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능들을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연결하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 - </t>
@@ -2441,83 +3346,115 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>에러</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기투표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> update</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전환</t>
+      <t xml:space="preserve">용병구하기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마감</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">하기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상대팀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구하기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양도하기</t>
     </r>
     <r>
       <rPr>
@@ -2527,26 +3464,38 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화면단에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">초청하기
+</t>
     </r>
     <r>
       <rPr>
@@ -2556,296 +3505,16 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> V003</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지인에게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>초대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보내기(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">invite)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표하면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>안</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아예</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>넣지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>않기(투표 취소)
-추후</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>채팅으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>변환</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>생각</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">중
-경기 관련 글은 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">match_schedule </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참조</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="2"/>
+      <t>type
+0 : 수동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2854,78 +3523,184 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>알람</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>단에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">?
-- </t>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : self_min_num, self_max_num
+2 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : cancel_num, self_min_num, self_max_num, emp_due_date
+3. : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> :  cancel_num, self_min_num, self_max_num, emp_due_date
+4 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : away_min_num, self_min_num, self_max_num, </t>
     </r>
     <r>
       <rPr>
@@ -2934,404 +3709,204 @@
         <rFont val="Nanum Gothic"/>
         <family val="2"/>
       </rPr>
-      <t>insert</t>
+      <t xml:space="preserve">away_due_date
+5 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : cancel_num, away_min_num, emp_min_num, self_min_num, self_max_num, emp_due_date
+6 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : cancel_num, away_min_num, emp_min_num, self_min_num, self_max_num, emp_due_date, away_due_date</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가입한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>형식으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Nanum Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>를 진행하나 에러 뜨면 기투표 여부 확인 후 기투표 시, 이미 투표했다고 알림 아니면 에러 페이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
-V003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연결
-마이페이지에서 투표 취소</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표 결과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표 결과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입력</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>V008</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>투표 내용 수정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>V009</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>투표 삭제</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>V010</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>투표 설정 수정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행 중 투표 출력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성자만 가능(닉은 유니크)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-?? 수정일이 필요한가?</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>삭제</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기설정된</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>변경</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 변경된 설정에 맞게 자동화도 수정</t>
+팀멤버ID 양식 : '팀ID-이메일'</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3595,219 +4170,86 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> - transaction</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>V011</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">결과 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>삭제</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지인이 불참으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>삭제</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설정에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>따라</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능들을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연결하기</t>
+      <t xml:space="preserve"> - transaction
+투표ID 양식 : '팀ID-스케줄ID'</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>또는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Nanum Gothic"/>
-        <family val="2"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
 - </t>
@@ -3820,115 +4262,83 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">용병구하기
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마감</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">하기
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상대팀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구하기
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>양도하기</t>
+      <t>에러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> update</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전환</t>
     </r>
     <r>
       <rPr>
@@ -3938,38 +4348,26 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">초청하기
-</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면단에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
     </r>
     <r>
       <rPr>
@@ -3979,308 +4377,8 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>type
-0 : 수동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1 : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>양도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : self_min_num, self_max_num
-2 : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>용병</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : cancel_num, self_min_num, self_max_num, emp_due_date
-3. : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>양도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>용병</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> :  cancel_num, self_min_num, self_max_num, emp_due_date
-4 : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>양도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : away_min_num, self_min_num, self_max_num, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">away_due_date
-5 : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>용병</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : cancel_num, away_min_num, emp_min_num, self_min_num, self_max_num, emp_due_date
-6 : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>양도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>용병</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : cancel_num, away_min_num, emp_min_num, self_min_num, self_max_num, emp_due_date, away_due_date</t>
+      <t xml:space="preserve"> V003
+투표결과ID 양식 : '투표ID-팀멤버ID or 이메일(지인)'</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -5086,10 +5184,10 @@
   <dimension ref="B1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5112,7 +5210,7 @@
       </c>
       <c r="C2" s="38"/>
       <c r="E2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>14</v>
@@ -5129,10 +5227,10 @@
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" s="21"/>
     </row>
@@ -5144,27 +5242,27 @@
         <v>13</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" s="21"/>
     </row>
     <row r="5" spans="2:9" ht="17.25" thickBot="1">
       <c r="E5" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="17.25" thickBot="1">
       <c r="E6" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="17.25" thickBot="1"/>
@@ -5189,7 +5287,7 @@
         <v>11</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="17.25" thickBot="1">
@@ -5208,7 +5306,7 @@
     </row>
     <row r="10" spans="2:9" ht="26.25" thickBot="1">
       <c r="B10" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>19</v>
@@ -5231,7 +5329,7 @@
     </row>
     <row r="11" spans="2:9" ht="17.25" thickBot="1">
       <c r="B11" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>22</v>
@@ -5252,7 +5350,7 @@
     </row>
     <row r="12" spans="2:9" ht="17.25" thickBot="1">
       <c r="B12" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>28</v>
@@ -5271,15 +5369,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="17.25" thickBot="1">
+    <row r="13" spans="2:9" ht="27" thickBot="1">
       <c r="B13" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>33</v>
+      <c r="D13" s="18" t="s">
+        <v>190</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>30</v>
@@ -5294,13 +5392,13 @@
     </row>
     <row r="14" spans="2:9" ht="17.25" thickBot="1">
       <c r="B14" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>30</v>
@@ -5315,13 +5413,13 @@
     </row>
     <row r="15" spans="2:9" ht="17.25" thickBot="1">
       <c r="B15" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>30</v>
@@ -5334,18 +5432,18 @@
         <v>16</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="17.25" thickBot="1">
       <c r="B16" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>30</v>
@@ -5358,18 +5456,18 @@
         <v>25</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="17.25" thickBot="1">
       <c r="B17" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>171</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>172</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>30</v>
@@ -5383,15 +5481,15 @@
       </c>
       <c r="I17" s="32"/>
     </row>
-    <row r="18" spans="2:9" ht="27.75" thickBot="1">
+    <row r="18" spans="2:9" ht="40.5" thickBot="1">
       <c r="B18" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>30</v>
@@ -5404,18 +5502,18 @@
         <v>25</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="120.75" thickBot="1">
       <c r="B19" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="D19" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>30</v>
@@ -5428,95 +5526,95 @@
         <v>25</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="68.25" thickBot="1">
+    <row r="20" spans="2:9" ht="81" thickBot="1">
       <c r="B20" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="D20" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="291.75" thickBot="1">
       <c r="B21" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="26.25" thickBot="1">
       <c r="B22" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="D22" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>50</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="27" thickBot="1">
       <c r="B23" s="34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
@@ -5524,19 +5622,19 @@
     </row>
     <row r="24" spans="2:9" ht="17.25" thickBot="1">
       <c r="B24" s="34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
@@ -5544,19 +5642,19 @@
     </row>
     <row r="25" spans="2:9" ht="27" thickBot="1">
       <c r="B25" s="34" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C25" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="15" t="s">
         <v>182</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>184</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
@@ -5564,13 +5662,13 @@
     </row>
     <row r="26" spans="2:9" ht="17.25" thickBot="1">
       <c r="B26" s="34" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>30</v>
@@ -5585,20 +5683,20 @@
         <v>18</v>
       </c>
       <c r="C27" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>53</v>
-      </c>
       <c r="E27" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="17.25" thickBot="1">
@@ -5606,13 +5704,13 @@
         <v>26</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="E28" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12" t="s">
@@ -5627,20 +5725,20 @@
         <v>27</v>
       </c>
       <c r="C29" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>57</v>
-      </c>
       <c r="E29" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12" t="s">
         <v>25</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="17.25" thickBot="1">
@@ -5648,13 +5746,13 @@
         <v>31</v>
       </c>
       <c r="C30" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>59</v>
-      </c>
       <c r="E30" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12" t="s">
@@ -5666,97 +5764,97 @@
     </row>
     <row r="31" spans="2:9" ht="17.25" thickBot="1">
       <c r="B31" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>75</v>
-      </c>
       <c r="E31" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="80.25" thickBot="1">
       <c r="B32" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12" t="s">
         <v>25</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="17.25" thickBot="1">
       <c r="B33" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="D33" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="18" t="s">
-        <v>79</v>
-      </c>
       <c r="E33" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="27.75" thickBot="1">
       <c r="B34" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>81</v>
-      </c>
       <c r="D34" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12" t="s">
         <v>25</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="17.25" thickBot="1">
       <c r="B35" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="D35" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>73</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>24</v>
@@ -5771,13 +5869,13 @@
     </row>
     <row r="36" spans="2:8" ht="17.25" thickBot="1">
       <c r="B36" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>85</v>
-      </c>
       <c r="D36" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>24</v>
@@ -5792,16 +5890,16 @@
     </row>
     <row r="37" spans="2:8" ht="17.25" thickBot="1">
       <c r="B37" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="D37" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>90</v>
-      </c>
       <c r="E37" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12" t="s">
@@ -5813,13 +5911,13 @@
     </row>
     <row r="38" spans="2:8" ht="17.25" thickBot="1">
       <c r="B38" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="D38" s="13" t="s">
         <v>93</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>94</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>30</v>
@@ -5834,16 +5932,16 @@
     </row>
     <row r="39" spans="2:8" ht="17.25" thickBot="1">
       <c r="B39" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="D39" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="13" t="s">
-        <v>97</v>
-      </c>
       <c r="E39" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12" t="s">
@@ -5855,16 +5953,16 @@
     </row>
     <row r="40" spans="2:8" ht="17.25" thickBot="1">
       <c r="B40" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>99</v>
-      </c>
       <c r="E40" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12" t="s">
@@ -5876,16 +5974,16 @@
     </row>
     <row r="41" spans="2:8" ht="17.25" thickBot="1">
       <c r="B41" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C41" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D41" s="18" t="s">
-        <v>103</v>
-      </c>
       <c r="E41" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12" t="s">
@@ -5897,16 +5995,16 @@
     </row>
     <row r="42" spans="2:8" ht="17.25" thickBot="1">
       <c r="B42" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="D42" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="18" t="s">
-        <v>106</v>
-      </c>
       <c r="E42" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="12" t="s">
@@ -5918,16 +6016,16 @@
     </row>
     <row r="43" spans="2:8" ht="17.25" thickBot="1">
       <c r="B43" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="D43" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="18" t="s">
-        <v>109</v>
-      </c>
       <c r="E43" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="12" t="s">
@@ -5939,16 +6037,16 @@
     </row>
     <row r="44" spans="2:8" ht="17.25" thickBot="1">
       <c r="B44" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="D44" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="D44" s="18" t="s">
-        <v>112</v>
-      </c>
       <c r="E44" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="12" t="s">
@@ -5960,14 +6058,14 @@
     </row>
     <row r="45" spans="2:8" ht="17.25" thickBot="1">
       <c r="B45" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>114</v>
       </c>
       <c r="D45" s="18"/>
       <c r="E45" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="12" t="s">
@@ -5977,16 +6075,16 @@
     </row>
     <row r="46" spans="2:8" ht="27.75" thickBot="1">
       <c r="B46" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C46" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="D46" s="18" t="s">
-        <v>166</v>
-      </c>
       <c r="E46" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="12" t="s">
@@ -6031,7 +6129,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1">
         <v>3</v>
@@ -6039,7 +6137,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -6047,7 +6145,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -6075,2110 +6173,2110 @@
   <sheetData>
     <row r="1" spans="1:38">
       <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
         <v>122</v>
       </c>
-      <c r="B1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" t="s">
-        <v>123</v>
-      </c>
       <c r="D1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F1" s="23"/>
       <c r="G1" s="23">
         <v>1</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M1" s="24">
         <v>1</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P1" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>119</v>
+      </c>
+      <c r="R1" t="s">
         <v>125</v>
       </c>
-      <c r="Q1" t="s">
-        <v>120</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
+        <v>119</v>
+      </c>
+      <c r="T1" t="s">
+        <v>125</v>
+      </c>
+      <c r="U1" t="s">
+        <v>119</v>
+      </c>
+      <c r="V1" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="S1" t="s">
-        <v>120</v>
-      </c>
-      <c r="T1" t="s">
-        <v>126</v>
-      </c>
-      <c r="U1" t="s">
-        <v>120</v>
-      </c>
-      <c r="V1" s="24" t="s">
+      <c r="W1" t="s">
+        <v>119</v>
+      </c>
+      <c r="X1" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="W1" t="s">
-        <v>120</v>
-      </c>
-      <c r="X1" s="24" t="s">
+      <c r="Y1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z1" t="s">
         <v>128</v>
       </c>
-      <c r="Y1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>129</v>
-      </c>
       <c r="AA1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB1">
         <f ca="1">RANDBETWEEN(170,185)</f>
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AC1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AD1">
         <f ca="1">RANDBETWEEN(70,80)</f>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AE1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF1">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AH1">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AJ1" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK1" s="24" t="s">
         <v>130</v>
-      </c>
-      <c r="AK1" s="24" t="s">
-        <v>131</v>
       </c>
       <c r="AL1" t="str">
         <f ca="1">_xlfn.CONCAT(A1:AK1)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,179,71,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,178,77,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="2" spans="1:38">
       <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
         <v>122</v>
       </c>
-      <c r="B2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" t="s">
-        <v>123</v>
-      </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="23">
         <v>2</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M2" s="24">
         <v>1</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P2" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R2" t="s">
         <v>125</v>
       </c>
-      <c r="Q2" t="s">
-        <v>120</v>
-      </c>
-      <c r="R2" t="s">
-        <v>126</v>
-      </c>
       <c r="S2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V2" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="W2" t="s">
+        <v>119</v>
+      </c>
+      <c r="X2" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="W2" t="s">
-        <v>120</v>
-      </c>
-      <c r="X2" s="24" t="s">
-        <v>135</v>
-      </c>
       <c r="Y2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB2">
         <f t="shared" ref="AB2:AB17" ca="1" si="0">RANDBETWEEN(170,185)</f>
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AD2">
         <f t="shared" ref="AD2:AD17" ca="1" si="1">RANDBETWEEN(70,80)</f>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF2">
         <f t="shared" ref="AF2:AF17" ca="1" si="2">RANDBETWEEN(0,1)</f>
         <v>0</v>
       </c>
       <c r="AG2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AH2">
         <f t="shared" ref="AH2:AH17" ca="1" si="3">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AJ2" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK2" s="24" t="s">
         <v>130</v>
-      </c>
-      <c r="AK2" s="24" t="s">
-        <v>131</v>
       </c>
       <c r="AL2" t="str">
         <f t="shared" ref="AL2:AL17" ca="1" si="4">_xlfn.CONCAT(A2:AK2)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,176,80,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,177,76,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="3" spans="1:38">
       <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
         <v>122</v>
       </c>
-      <c r="B3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" t="s">
-        <v>123</v>
-      </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F3" s="23"/>
       <c r="G3" s="23">
         <v>3</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M3" s="24">
         <v>1</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P3" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>119</v>
+      </c>
+      <c r="R3" t="s">
         <v>125</v>
       </c>
-      <c r="Q3" t="s">
-        <v>120</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
+        <v>119</v>
+      </c>
+      <c r="T3" t="s">
+        <v>125</v>
+      </c>
+      <c r="U3" t="s">
+        <v>119</v>
+      </c>
+      <c r="V3" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="S3" t="s">
-        <v>120</v>
-      </c>
-      <c r="T3" t="s">
-        <v>126</v>
-      </c>
-      <c r="U3" t="s">
-        <v>120</v>
-      </c>
-      <c r="V3" s="24" t="s">
-        <v>127</v>
-      </c>
       <c r="W3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X3" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB3">
         <f t="shared" ca="1" si="0"/>
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AC3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AD3">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AH3">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="AI3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AJ3" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK3" s="24" t="s">
         <v>130</v>
-      </c>
-      <c r="AK3" s="24" t="s">
-        <v>131</v>
       </c>
       <c r="AL3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,181,73,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,177,71,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="4" spans="1:38">
       <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
         <v>122</v>
       </c>
-      <c r="B4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" t="s">
-        <v>123</v>
-      </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23">
         <v>4</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M4" s="24">
         <v>1</v>
       </c>
       <c r="N4" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P4" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>119</v>
+      </c>
+      <c r="R4" t="s">
         <v>125</v>
       </c>
-      <c r="Q4" t="s">
-        <v>120</v>
-      </c>
-      <c r="R4" t="s">
-        <v>126</v>
-      </c>
       <c r="S4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V4" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X4" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z4" t="s">
         <v>128</v>
       </c>
-      <c r="Y4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>129</v>
-      </c>
       <c r="AA4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB4">
         <f t="shared" ca="1" si="0"/>
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AC4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AD4">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AH4">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AJ4" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK4" s="24" t="s">
         <v>130</v>
-      </c>
-      <c r="AK4" s="24" t="s">
-        <v>131</v>
       </c>
       <c r="AL4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,178,75,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,172,76,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="5" spans="1:38">
       <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
         <v>122</v>
       </c>
-      <c r="B5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" t="s">
-        <v>123</v>
-      </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="23">
         <v>5</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M5" s="24">
         <v>1</v>
       </c>
       <c r="N5" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P5" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>119</v>
+      </c>
+      <c r="R5" t="s">
         <v>125</v>
       </c>
-      <c r="Q5" t="s">
-        <v>120</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
+        <v>119</v>
+      </c>
+      <c r="T5" t="s">
+        <v>125</v>
+      </c>
+      <c r="U5" t="s">
+        <v>119</v>
+      </c>
+      <c r="V5" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="S5" t="s">
-        <v>120</v>
-      </c>
-      <c r="T5" t="s">
-        <v>126</v>
-      </c>
-      <c r="U5" t="s">
-        <v>120</v>
-      </c>
-      <c r="V5" s="24" t="s">
-        <v>127</v>
-      </c>
       <c r="W5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X5" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB5">
         <f t="shared" ca="1" si="0"/>
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AC5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AD5">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AE5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF5">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AH5">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AJ5" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK5" s="24" t="s">
         <v>130</v>
-      </c>
-      <c r="AK5" s="24" t="s">
-        <v>131</v>
       </c>
       <c r="AL5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,176,80,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,181,73,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="6" spans="1:38">
       <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" t="s">
         <v>122</v>
       </c>
-      <c r="B6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" t="s">
-        <v>123</v>
-      </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="23">
         <v>6</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M6" s="24">
         <v>1</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P6" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>119</v>
+      </c>
+      <c r="R6" t="s">
         <v>125</v>
       </c>
-      <c r="Q6" t="s">
-        <v>120</v>
-      </c>
-      <c r="R6" t="s">
-        <v>126</v>
-      </c>
       <c r="S6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V6" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X6" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB6">
         <f t="shared" ca="1" si="0"/>
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AC6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AD6">
         <f t="shared" ca="1" si="1"/>
         <v>73</v>
       </c>
       <c r="AE6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AH6">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AI6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AJ6" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK6" s="24" t="s">
         <v>130</v>
-      </c>
-      <c r="AK6" s="24" t="s">
-        <v>131</v>
       </c>
       <c r="AL6" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,172,73,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,178,73,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="7" spans="1:38">
       <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" t="s">
         <v>122</v>
       </c>
-      <c r="B7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" t="s">
-        <v>123</v>
-      </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="23">
         <v>7</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M7" s="24">
         <v>1</v>
       </c>
       <c r="N7" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P7" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>119</v>
+      </c>
+      <c r="R7" t="s">
         <v>125</v>
       </c>
-      <c r="Q7" t="s">
-        <v>120</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
+        <v>119</v>
+      </c>
+      <c r="T7" t="s">
+        <v>125</v>
+      </c>
+      <c r="U7" t="s">
+        <v>119</v>
+      </c>
+      <c r="V7" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="S7" t="s">
-        <v>120</v>
-      </c>
-      <c r="T7" t="s">
-        <v>126</v>
-      </c>
-      <c r="U7" t="s">
-        <v>120</v>
-      </c>
-      <c r="V7" s="24" t="s">
+      <c r="W7" t="s">
+        <v>119</v>
+      </c>
+      <c r="X7" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="W7" t="s">
-        <v>120</v>
-      </c>
-      <c r="X7" s="24" t="s">
+      <c r="Y7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z7" t="s">
         <v>128</v>
       </c>
-      <c r="Y7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>129</v>
-      </c>
       <c r="AA7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB7">
         <f t="shared" ca="1" si="0"/>
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AC7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AD7">
         <f t="shared" ca="1" si="1"/>
         <v>76</v>
       </c>
       <c r="AE7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF7">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="AG7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AH7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AJ7" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK7" s="24" t="s">
         <v>130</v>
-      </c>
-      <c r="AK7" s="24" t="s">
-        <v>131</v>
       </c>
       <c r="AL7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,172,76,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,184,76,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="8" spans="1:38">
       <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" t="s">
         <v>122</v>
       </c>
-      <c r="B8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" t="s">
-        <v>123</v>
-      </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="23">
         <v>8</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M8" s="24">
         <v>1</v>
       </c>
       <c r="N8" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P8" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>119</v>
+      </c>
+      <c r="R8" t="s">
         <v>125</v>
       </c>
-      <c r="Q8" t="s">
-        <v>120</v>
-      </c>
-      <c r="R8" t="s">
-        <v>126</v>
-      </c>
       <c r="S8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V8" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="W8" t="s">
+        <v>119</v>
+      </c>
+      <c r="X8" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="W8" t="s">
-        <v>120</v>
-      </c>
-      <c r="X8" s="24" t="s">
-        <v>135</v>
-      </c>
       <c r="Y8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB8">
         <f t="shared" ca="1" si="0"/>
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AC8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AD8">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF8">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AH8">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AI8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AJ8" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK8" s="24" t="s">
         <v>130</v>
-      </c>
-      <c r="AK8" s="24" t="s">
-        <v>131</v>
       </c>
       <c r="AL8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,179,79,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,173,76,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="9" spans="1:38">
       <c r="A9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
         <v>122</v>
       </c>
-      <c r="B9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" t="s">
-        <v>123</v>
-      </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="23">
         <v>9</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M9" s="24">
         <v>1</v>
       </c>
       <c r="N9" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P9" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>119</v>
+      </c>
+      <c r="R9" t="s">
         <v>125</v>
       </c>
-      <c r="Q9" t="s">
-        <v>120</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
+        <v>119</v>
+      </c>
+      <c r="T9" t="s">
+        <v>125</v>
+      </c>
+      <c r="U9" t="s">
+        <v>119</v>
+      </c>
+      <c r="V9" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="S9" t="s">
-        <v>120</v>
-      </c>
-      <c r="T9" t="s">
-        <v>126</v>
-      </c>
-      <c r="U9" t="s">
-        <v>120</v>
-      </c>
-      <c r="V9" s="24" t="s">
-        <v>127</v>
-      </c>
       <c r="W9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X9" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB9">
         <f t="shared" ca="1" si="0"/>
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AC9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AD9">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF9">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AG9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AH9">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AJ9" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK9" s="24" t="s">
         <v>130</v>
-      </c>
-      <c r="AK9" s="24" t="s">
-        <v>131</v>
       </c>
       <c r="AL9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,175,71,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,181,70,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="10" spans="1:38">
       <c r="A10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
         <v>122</v>
       </c>
-      <c r="B10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" t="s">
-        <v>123</v>
-      </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23">
         <v>10</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M10" s="24">
         <v>1</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P10" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>119</v>
+      </c>
+      <c r="R10" t="s">
         <v>125</v>
       </c>
-      <c r="Q10" t="s">
-        <v>120</v>
-      </c>
-      <c r="R10" t="s">
-        <v>126</v>
-      </c>
       <c r="S10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V10" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X10" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z10" t="s">
         <v>128</v>
       </c>
-      <c r="Y10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>129</v>
-      </c>
       <c r="AA10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB10">
         <f t="shared" ca="1" si="0"/>
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AC10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AD10">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AE10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF10">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AH10">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="AI10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AJ10" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK10" s="24" t="s">
         <v>130</v>
-      </c>
-      <c r="AK10" s="24" t="s">
-        <v>131</v>
       </c>
       <c r="AL10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,181,78,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,183,70,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="11" spans="1:38">
       <c r="A11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" t="s">
         <v>122</v>
       </c>
-      <c r="B11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" t="s">
-        <v>123</v>
-      </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="23">
         <v>11</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M11" s="24">
         <v>1</v>
       </c>
       <c r="N11" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P11" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>119</v>
+      </c>
+      <c r="R11" t="s">
         <v>125</v>
       </c>
-      <c r="Q11" t="s">
-        <v>120</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
+        <v>119</v>
+      </c>
+      <c r="T11" t="s">
+        <v>125</v>
+      </c>
+      <c r="U11" t="s">
+        <v>119</v>
+      </c>
+      <c r="V11" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="S11" t="s">
-        <v>120</v>
-      </c>
-      <c r="T11" t="s">
-        <v>126</v>
-      </c>
-      <c r="U11" t="s">
-        <v>120</v>
-      </c>
-      <c r="V11" s="24" t="s">
-        <v>127</v>
-      </c>
       <c r="W11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X11" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB11">
         <f t="shared" ca="1" si="0"/>
         <v>182</v>
       </c>
       <c r="AC11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AD11">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AE11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF11">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="AG11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AH11">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="AI11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AJ11" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK11" s="24" t="s">
         <v>130</v>
-      </c>
-      <c r="AK11" s="24" t="s">
-        <v>131</v>
       </c>
       <c r="AL11" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,182,75,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,182,72,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="12" spans="1:38">
       <c r="A12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" t="s">
         <v>122</v>
       </c>
-      <c r="B12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" t="s">
-        <v>123</v>
-      </c>
       <c r="D12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="23">
         <v>12</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M12" s="24">
         <v>1</v>
       </c>
       <c r="N12" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P12" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>119</v>
+      </c>
+      <c r="R12" t="s">
         <v>125</v>
       </c>
-      <c r="Q12" t="s">
-        <v>120</v>
-      </c>
-      <c r="R12" t="s">
-        <v>126</v>
-      </c>
       <c r="S12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V12" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X12" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB12">
         <f t="shared" ca="1" si="0"/>
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AC12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AD12">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AE12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF12">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="AG12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AH12">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="AI12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AJ12" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK12" s="24" t="s">
         <v>130</v>
-      </c>
-      <c r="AK12" s="24" t="s">
-        <v>131</v>
       </c>
       <c r="AL12" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,179,71,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,181,74,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="13" spans="1:38">
       <c r="A13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" t="s">
         <v>122</v>
       </c>
-      <c r="B13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" t="s">
-        <v>123</v>
-      </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="23">
         <v>13</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M13" s="24">
         <v>1</v>
       </c>
       <c r="N13" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P13" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>119</v>
+      </c>
+      <c r="R13" t="s">
         <v>125</v>
       </c>
-      <c r="Q13" t="s">
-        <v>120</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
+        <v>119</v>
+      </c>
+      <c r="T13" t="s">
+        <v>125</v>
+      </c>
+      <c r="U13" t="s">
+        <v>119</v>
+      </c>
+      <c r="V13" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="S13" t="s">
-        <v>120</v>
-      </c>
-      <c r="T13" t="s">
-        <v>126</v>
-      </c>
-      <c r="U13" t="s">
-        <v>120</v>
-      </c>
-      <c r="V13" s="24" t="s">
+      <c r="W13" t="s">
+        <v>119</v>
+      </c>
+      <c r="X13" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="W13" t="s">
-        <v>120</v>
-      </c>
-      <c r="X13" s="24" t="s">
+      <c r="Y13" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z13" t="s">
         <v>128</v>
       </c>
-      <c r="Y13" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>129</v>
-      </c>
       <c r="AA13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB13">
         <f t="shared" ca="1" si="0"/>
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="AC13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AD13">
         <f t="shared" ca="1" si="1"/>
         <v>73</v>
       </c>
       <c r="AE13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF13">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="AG13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AH13">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AI13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AJ13" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK13" s="24" t="s">
         <v>130</v>
-      </c>
-      <c r="AK13" s="24" t="s">
-        <v>131</v>
       </c>
       <c r="AL13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,176,73,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,184,73,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="14" spans="1:38">
       <c r="A14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" t="s">
         <v>122</v>
       </c>
-      <c r="B14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" t="s">
-        <v>123</v>
-      </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23">
         <v>14</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M14" s="24">
         <v>1</v>
       </c>
       <c r="N14" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P14" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>119</v>
+      </c>
+      <c r="R14" t="s">
         <v>125</v>
       </c>
-      <c r="Q14" t="s">
-        <v>120</v>
-      </c>
-      <c r="R14" t="s">
-        <v>126</v>
-      </c>
       <c r="S14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V14" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="W14" t="s">
+        <v>119</v>
+      </c>
+      <c r="X14" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="W14" t="s">
-        <v>120</v>
-      </c>
-      <c r="X14" s="24" t="s">
-        <v>135</v>
-      </c>
       <c r="Y14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB14">
         <f t="shared" ca="1" si="0"/>
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="AC14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AD14">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF14">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AG14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AH14">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="AI14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AJ14" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK14" s="24" t="s">
         <v>130</v>
-      </c>
-      <c r="AK14" s="24" t="s">
-        <v>131</v>
       </c>
       <c r="AL14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,185,72,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,174,75,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="15" spans="1:38">
       <c r="A15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" t="s">
         <v>122</v>
       </c>
-      <c r="B15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" t="s">
-        <v>123</v>
-      </c>
       <c r="D15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="23">
         <v>15</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M15" s="24">
         <v>1</v>
       </c>
       <c r="N15" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P15" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>119</v>
+      </c>
+      <c r="R15" t="s">
         <v>125</v>
       </c>
-      <c r="Q15" t="s">
-        <v>120</v>
-      </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
+        <v>119</v>
+      </c>
+      <c r="T15" t="s">
+        <v>125</v>
+      </c>
+      <c r="U15" t="s">
+        <v>119</v>
+      </c>
+      <c r="V15" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="S15" t="s">
-        <v>120</v>
-      </c>
-      <c r="T15" t="s">
-        <v>126</v>
-      </c>
-      <c r="U15" t="s">
-        <v>120</v>
-      </c>
-      <c r="V15" s="24" t="s">
-        <v>127</v>
-      </c>
       <c r="W15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X15" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB15">
         <f t="shared" ca="1" si="0"/>
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="AC15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AD15">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF15">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AG15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AH15">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="AI15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AJ15" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK15" s="24" t="s">
         <v>130</v>
-      </c>
-      <c r="AK15" s="24" t="s">
-        <v>131</v>
       </c>
       <c r="AL15" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,179,72,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,170,76,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="16" spans="1:38">
       <c r="A16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" t="s">
         <v>122</v>
       </c>
-      <c r="B16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" t="s">
-        <v>123</v>
-      </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="23">
         <v>16</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M16" s="24">
         <v>1</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P16" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>119</v>
+      </c>
+      <c r="R16" t="s">
         <v>125</v>
       </c>
-      <c r="Q16" t="s">
-        <v>120</v>
-      </c>
-      <c r="R16" t="s">
-        <v>126</v>
-      </c>
       <c r="S16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V16" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X16" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z16" t="s">
         <v>128</v>
       </c>
-      <c r="Y16" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>129</v>
-      </c>
       <c r="AA16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB16">
         <f t="shared" ca="1" si="0"/>
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AC16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AD16">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AE16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF16">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AH16">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AI16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AJ16" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK16" s="24" t="s">
         <v>130</v>
-      </c>
-      <c r="AK16" s="24" t="s">
-        <v>131</v>
       </c>
       <c r="AL16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,171,70,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,173,76,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="17" spans="1:38">
       <c r="A17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" t="s">
         <v>122</v>
       </c>
-      <c r="B17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" t="s">
-        <v>123</v>
-      </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="23">
         <v>17</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M17" s="24">
         <v>1</v>
       </c>
       <c r="N17" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P17" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>119</v>
+      </c>
+      <c r="R17" t="s">
         <v>125</v>
       </c>
-      <c r="Q17" t="s">
-        <v>120</v>
-      </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
+        <v>119</v>
+      </c>
+      <c r="T17" t="s">
+        <v>125</v>
+      </c>
+      <c r="U17" t="s">
+        <v>119</v>
+      </c>
+      <c r="V17" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="S17" t="s">
-        <v>120</v>
-      </c>
-      <c r="T17" t="s">
-        <v>126</v>
-      </c>
-      <c r="U17" t="s">
-        <v>120</v>
-      </c>
-      <c r="V17" s="24" t="s">
-        <v>127</v>
-      </c>
       <c r="W17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X17" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB17">
         <f t="shared" ca="1" si="0"/>
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="AC17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AD17">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AE17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF17">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AG17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AH17">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AJ17" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK17" s="24" t="s">
         <v>130</v>
-      </c>
-      <c r="AK17" s="24" t="s">
-        <v>131</v>
       </c>
       <c r="AL17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,180,71,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,172,74,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="20" spans="1:38">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" t="s">
         <v>138</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="D20" t="s">
-        <v>118</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>140</v>
-      </c>
       <c r="F20" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H20" t="str">
         <f>E20</f>
         <v>'왕십리FC</v>
       </c>
       <c r="I20" t="s">
+        <v>140</v>
+      </c>
+      <c r="J20" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="J20" t="s">
-        <v>120</v>
-      </c>
-      <c r="K20" s="24" t="s">
+      <c r="L20" t="s">
+        <v>119</v>
+      </c>
+      <c r="M20" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="L20" t="s">
-        <v>120</v>
-      </c>
-      <c r="M20" s="24" t="s">
+      <c r="N20" t="s">
+        <v>119</v>
+      </c>
+      <c r="O20" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="N20" t="s">
-        <v>120</v>
-      </c>
-      <c r="O20" s="24" t="s">
-        <v>144</v>
-      </c>
       <c r="P20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q20">
         <f ca="1">RANDBETWEEN(0,5)</f>
         <v>1</v>
       </c>
       <c r="R20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S20" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="U20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W20" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X20">
         <v>1234</v>
       </c>
       <c r="Y20" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z20" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="Z20" s="24" t="s">
-        <v>147</v>
-      </c>
       <c r="AA20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB20" t="str">
         <f ca="1">_xlfn.CONCAT(A20:AA20)</f>
@@ -8187,231 +8285,231 @@
     </row>
     <row r="21" spans="1:38">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" t="s">
         <v>138</v>
       </c>
-      <c r="C21" t="s">
-        <v>139</v>
-      </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" ref="H21:H22" si="5">E21</f>
         <v>'답십리FC</v>
       </c>
       <c r="I21" t="s">
+        <v>140</v>
+      </c>
+      <c r="J21" t="s">
+        <v>119</v>
+      </c>
+      <c r="K21" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="J21" t="s">
-        <v>120</v>
-      </c>
-      <c r="K21" s="24" t="s">
-        <v>142</v>
-      </c>
       <c r="L21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M21" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O21" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q21">
         <f t="shared" ref="Q21:Q22" ca="1" si="6">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S21" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="U21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W21" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X21">
         <v>5678</v>
       </c>
       <c r="Y21" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z21" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AA21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB21" t="str">
         <f t="shared" ref="AB21:AB22" ca="1" si="7">_xlfn.CONCAT(A21:AA21)</f>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('답십리FC','답십리FC201018.jpg','성동구','응봉동 구장','blue',5,'2017-01-01',sysdate(),'5678','하나');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('답십리FC','답십리FC201018.jpg','성동구','응봉동 구장','blue',0,'2017-01-01',sysdate(),'5678','하나');</v>
       </c>
     </row>
     <row r="22" spans="1:38">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" t="s">
         <v>138</v>
       </c>
-      <c r="C22" t="s">
-        <v>139</v>
-      </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="5"/>
         <v>'대구FC</v>
       </c>
       <c r="I22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O22" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S22" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="U22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W22" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X22">
         <v>2345</v>
       </c>
       <c r="Y22" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z22" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="Z22" s="24" t="s">
-        <v>147</v>
-      </c>
       <c r="AA22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB22" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('대구FC','대구FC201018.jpg','달서구','달서구 구장','green',2,'2018-01-01',sysdate(),'2345','기업');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('대구FC','대구FC201018.jpg','달서구','달서구 구장','green',4,'2018-01-01',sysdate(),'2345','기업');</v>
       </c>
     </row>
     <row r="24" spans="1:38">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F24">
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L24" t="str">
         <f>_xlfn.CONCAT(E1:H1)</f>
         <v>'bioman1@gmail.com'</v>
       </c>
       <c r="M24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N24" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O24">
         <v>1</v>
       </c>
       <c r="P24" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q24" t="str">
         <f>_xlfn.CONCAT(A24:P24)</f>
@@ -8420,53 +8518,53 @@
     </row>
     <row r="25" spans="1:38">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F25">
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" ref="L25:L28" si="8">_xlfn.CONCAT(E2:H2)</f>
         <v>'bioman2@gmail.com'</v>
       </c>
       <c r="M25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N25" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O25">
         <v>2</v>
       </c>
       <c r="P25" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q25" t="str">
         <f t="shared" ref="Q25:Q28" si="9">_xlfn.CONCAT(A25:P25)</f>
@@ -8475,53 +8573,53 @@
     </row>
     <row r="26" spans="1:38">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" si="8"/>
         <v>'bioman3@gmail.com'</v>
       </c>
       <c r="M26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N26" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O26">
         <v>3</v>
       </c>
       <c r="P26" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q26" t="str">
         <f t="shared" si="9"/>
@@ -8530,53 +8628,53 @@
     </row>
     <row r="27" spans="1:38">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" si="8"/>
         <v>'bioman4@gmail.com'</v>
       </c>
       <c r="M27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N27" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O27">
         <v>4</v>
       </c>
       <c r="P27" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q27" t="str">
         <f t="shared" si="9"/>
@@ -8585,53 +8683,53 @@
     </row>
     <row r="28" spans="1:38">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" si="8"/>
         <v>'bioman5@gmail.com'</v>
       </c>
       <c r="M28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N28" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O28">
         <v>5</v>
       </c>
       <c r="P28" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q28" t="str">
         <f t="shared" si="9"/>
@@ -8640,53 +8738,53 @@
     </row>
     <row r="29" spans="1:38">
       <c r="A29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F29">
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J29">
         <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L29" t="str">
         <f>_xlfn.CONCAT(E6:H6)</f>
         <v>'bioman6@gmail.com'</v>
       </c>
       <c r="M29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N29" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O29">
         <v>1</v>
       </c>
       <c r="P29" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q29" t="str">
         <f>_xlfn.CONCAT(A29:P29)</f>
@@ -8695,53 +8793,53 @@
     </row>
     <row r="30" spans="1:38">
       <c r="A30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F30">
         <v>3</v>
       </c>
       <c r="G30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J30">
         <v>2</v>
       </c>
       <c r="K30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L30" t="str">
         <f t="shared" ref="L30:L33" si="10">_xlfn.CONCAT(E7:H7)</f>
         <v>'bioman7@gmail.com'</v>
       </c>
       <c r="M30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N30" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O30">
         <v>2</v>
       </c>
       <c r="P30" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q30" t="str">
         <f t="shared" ref="Q30:Q33" si="11">_xlfn.CONCAT(A30:P30)</f>
@@ -8750,53 +8848,53 @@
     </row>
     <row r="31" spans="1:38">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F31">
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J31">
         <v>2</v>
       </c>
       <c r="K31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L31" t="str">
         <f t="shared" si="10"/>
         <v>'bioman8@gmail.com'</v>
       </c>
       <c r="M31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N31" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O31">
         <v>3</v>
       </c>
       <c r="P31" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q31" t="str">
         <f t="shared" si="11"/>
@@ -8805,53 +8903,53 @@
     </row>
     <row r="32" spans="1:38">
       <c r="A32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J32">
         <v>2</v>
       </c>
       <c r="K32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L32" t="str">
         <f t="shared" si="10"/>
         <v>'bioman9@gmail.com'</v>
       </c>
       <c r="M32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N32" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O32">
         <v>4</v>
       </c>
       <c r="P32" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q32" t="str">
         <f t="shared" si="11"/>
@@ -8860,53 +8958,53 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J33">
         <v>2</v>
       </c>
       <c r="K33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L33" t="str">
         <f t="shared" si="10"/>
         <v>'bioman10@gmail.com'</v>
       </c>
       <c r="M33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N33" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O33">
         <v>5</v>
       </c>
       <c r="P33" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q33" t="str">
         <f t="shared" si="11"/>
@@ -8915,53 +9013,53 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F34">
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J34">
         <v>3</v>
       </c>
       <c r="K34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L34" t="str">
         <f>_xlfn.CONCAT(E11:H11)</f>
         <v>'bioman11@gmail.com'</v>
       </c>
       <c r="M34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N34" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O34">
         <v>1</v>
       </c>
       <c r="P34" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q34" t="str">
         <f>_xlfn.CONCAT(A34:P34)</f>
@@ -8970,53 +9068,53 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F35">
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J35">
         <v>3</v>
       </c>
       <c r="K35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L35" t="str">
         <f t="shared" ref="L35:L38" si="12">_xlfn.CONCAT(E12:H12)</f>
         <v>'bioman12@gmail.com'</v>
       </c>
       <c r="M35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N35" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O35">
         <v>2</v>
       </c>
       <c r="P35" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q35" t="str">
         <f t="shared" ref="Q35:Q38" si="13">_xlfn.CONCAT(A35:P35)</f>
@@ -9025,53 +9123,53 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F36">
         <v>2</v>
       </c>
       <c r="G36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J36">
         <v>3</v>
       </c>
       <c r="K36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L36" t="str">
         <f t="shared" si="12"/>
         <v>'bioman13@gmail.com'</v>
       </c>
       <c r="M36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N36" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O36">
         <v>3</v>
       </c>
       <c r="P36" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q36" t="str">
         <f t="shared" si="13"/>
@@ -9080,53 +9178,53 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J37">
         <v>3</v>
       </c>
       <c r="K37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L37" t="str">
         <f t="shared" si="12"/>
         <v>'bioman14@gmail.com'</v>
       </c>
       <c r="M37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N37" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O37">
         <v>4</v>
       </c>
       <c r="P37" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q37" t="str">
         <f t="shared" si="13"/>
@@ -9135,53 +9233,53 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J38">
         <v>3</v>
       </c>
       <c r="K38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L38" t="str">
         <f t="shared" si="12"/>
         <v>'bioman15@gmail.com'</v>
       </c>
       <c r="M38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N38" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O38">
         <v>5</v>
       </c>
       <c r="P38" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q38" t="str">
         <f t="shared" si="13"/>

--- a/docs/srs/fbt_docs.xlsx
+++ b/docs/srs/fbt_docs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Socio_02\Desktop\kjy\fbt\docs\srs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kjy\fbt\docs\srs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACED58DD-881D-44E3-A0FA-E92EF7F67EBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB471EC-BFAD-4703-B2B9-E9C36362A56A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F0AD6B2-A8A2-4F73-BAF4-7193D3382EE1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2F0AD6B2-A8A2-4F73-BAF4-7193D3382EE1}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항명세서" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="TestCase_SQL" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항명세서!$B$8:$H$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항명세서!$B$8:$H$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="199">
   <si>
     <t>요구사항 정의서</t>
   </si>
@@ -4380,6 +4380,88 @@
       <t xml:space="preserve"> V003
 투표결과ID 양식 : '투표ID-팀멤버ID or 이메일(지인)'</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카톡공유</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페 공유하기(
+- 글 복사
+- 네이버카페</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이블</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>달력</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V012</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>투표 결과 보기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 팀의 진행 중인 투표 결과(멤버) 보기</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4742,7 +4824,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4847,6 +4929,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5181,34 +5272,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EA499F-775F-49C1-B26C-B60E223B5AF8}">
-  <dimension ref="B1:I46"/>
+  <dimension ref="B1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="1" max="1" width="4.19921875" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.69921875" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="17.25" thickBot="1"/>
-    <row r="2" spans="2:9" ht="18.75" thickBot="1">
-      <c r="B2" s="37" t="s">
+    <row r="1" spans="2:9" ht="18" thickBot="1"/>
+    <row r="2" spans="2:9" ht="18" thickBot="1">
+      <c r="B2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="41"/>
       <c r="E2" s="3" t="s">
         <v>63</v>
       </c>
@@ -5219,7 +5310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="17.25" thickBot="1">
+    <row r="3" spans="2:9" ht="18" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5234,7 +5325,7 @@
       </c>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="2:9" ht="17.25" thickBot="1">
+    <row r="4" spans="2:9" ht="18" thickBot="1">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5249,7 +5340,7 @@
       </c>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="2:9" ht="17.25" thickBot="1">
+    <row r="5" spans="2:9" ht="18" thickBot="1">
       <c r="E5" s="25" t="s">
         <v>62</v>
       </c>
@@ -5257,7 +5348,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="17.25" thickBot="1">
+    <row r="6" spans="2:9" ht="18" thickBot="1">
       <c r="E6" s="30" t="s">
         <v>160</v>
       </c>
@@ -5265,46 +5356,46 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="17.25" thickBot="1"/>
-    <row r="8" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B8" s="35" t="s">
+    <row r="7" spans="2:9" ht="18" thickBot="1"/>
+    <row r="8" spans="2:9" ht="18" thickBot="1">
+      <c r="B8" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="35" t="s">
+      <c r="F8" s="43"/>
+      <c r="G8" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="38" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+    <row r="9" spans="2:9" ht="18" thickBot="1">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
     </row>
-    <row r="10" spans="2:9" ht="26.25" thickBot="1">
+    <row r="10" spans="2:9" ht="27" thickBot="1">
       <c r="B10" s="11" t="s">
         <v>64</v>
       </c>
@@ -5327,7 +5418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="17.25" thickBot="1">
+    <row r="11" spans="2:9" ht="18" thickBot="1">
       <c r="B11" s="11" t="s">
         <v>65</v>
       </c>
@@ -5348,7 +5439,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="17.25" thickBot="1">
+    <row r="12" spans="2:9" ht="18" thickBot="1">
       <c r="B12" s="11" t="s">
         <v>66</v>
       </c>
@@ -5369,7 +5460,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="27" thickBot="1">
+    <row r="13" spans="2:9" ht="29.4" thickBot="1">
       <c r="B13" s="11" t="s">
         <v>67</v>
       </c>
@@ -5390,7 +5481,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="17.25" thickBot="1">
+    <row r="14" spans="2:9" ht="18" thickBot="1">
       <c r="B14" s="11" t="s">
         <v>68</v>
       </c>
@@ -5411,7 +5502,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="17.25" thickBot="1">
+    <row r="15" spans="2:9" ht="18" thickBot="1">
       <c r="B15" s="11" t="s">
         <v>69</v>
       </c>
@@ -5435,7 +5526,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="17.25" thickBot="1">
+    <row r="16" spans="2:9" ht="18" thickBot="1">
       <c r="B16" s="17" t="s">
         <v>38</v>
       </c>
@@ -5459,7 +5550,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="17.25" thickBot="1">
+    <row r="17" spans="2:9" ht="18" thickBot="1">
       <c r="B17" s="17" t="s">
         <v>170</v>
       </c>
@@ -5481,7 +5572,7 @@
       </c>
       <c r="I17" s="32"/>
     </row>
-    <row r="18" spans="2:9" ht="40.5" thickBot="1">
+    <row r="18" spans="2:9" ht="45" thickBot="1">
       <c r="B18" s="17" t="s">
         <v>39</v>
       </c>
@@ -5505,7 +5596,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="120.75" thickBot="1">
+    <row r="19" spans="2:9" ht="136.19999999999999" thickBot="1">
       <c r="B19" s="17" t="s">
         <v>40</v>
       </c>
@@ -5529,7 +5620,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="81" thickBot="1">
+    <row r="20" spans="2:9" ht="91.8" thickBot="1">
       <c r="B20" s="17" t="s">
         <v>42</v>
       </c>
@@ -5553,7 +5644,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="291.75" thickBot="1">
+    <row r="21" spans="2:9" ht="324.60000000000002" thickBot="1">
       <c r="B21" s="17" t="s">
         <v>46</v>
       </c>
@@ -5574,7 +5665,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="26.25" thickBot="1">
+    <row r="22" spans="2:9" ht="27" thickBot="1">
       <c r="B22" s="19" t="s">
         <v>47</v>
       </c>
@@ -5600,7 +5691,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="27" thickBot="1">
+    <row r="23" spans="2:9" ht="29.4" thickBot="1">
       <c r="B23" s="34" t="s">
         <v>175</v>
       </c>
@@ -5620,7 +5711,7 @@
       <c r="H23" s="12"/>
       <c r="I23" s="33"/>
     </row>
-    <row r="24" spans="2:9" ht="17.25" thickBot="1">
+    <row r="24" spans="2:9" ht="18" thickBot="1">
       <c r="B24" s="34" t="s">
         <v>177</v>
       </c>
@@ -5640,7 +5731,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="33"/>
     </row>
-    <row r="25" spans="2:9" ht="27" thickBot="1">
+    <row r="25" spans="2:9" ht="29.4" thickBot="1">
       <c r="B25" s="34" t="s">
         <v>179</v>
       </c>
@@ -5660,7 +5751,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="33"/>
     </row>
-    <row r="26" spans="2:9" ht="17.25" thickBot="1">
+    <row r="26" spans="2:9" ht="18" thickBot="1">
       <c r="B26" s="34" t="s">
         <v>186</v>
       </c>
@@ -5678,36 +5769,33 @@
       <c r="H26" s="12"/>
       <c r="I26" s="33"/>
     </row>
-    <row r="27" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B27" s="20" t="s">
+    <row r="27" spans="2:9" ht="18" thickBot="1">
+      <c r="B27" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="33"/>
+    </row>
+    <row r="28" spans="2:9" ht="18" thickBot="1">
+      <c r="B28" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D28" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B28" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>54</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>44</v>
@@ -5717,60 +5805,60 @@
         <v>16</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="26.25" thickBot="1">
+    <row r="29" spans="2:9" ht="18" thickBot="1">
       <c r="B29" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>55</v>
+        <v>26</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="12" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="30" spans="2:9" ht="17.25" thickBot="1">
+    <row r="30" spans="2:9" ht="27" thickBot="1">
       <c r="B30" s="20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="17.25" thickBot="1">
+    <row r="31" spans="2:9" ht="18" thickBot="1">
       <c r="B31" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>44</v>
@@ -5780,104 +5868,104 @@
         <v>16</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="80.25" thickBot="1">
+    <row r="32" spans="2:9" ht="18" thickBot="1">
       <c r="B32" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>81</v>
+        <v>73</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="17.25" thickBot="1">
+    <row r="33" spans="2:8" ht="91.8" thickBot="1">
       <c r="B33" s="20" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="27.75" thickBot="1">
+    <row r="34" spans="2:8" ht="18" thickBot="1">
       <c r="B34" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H34" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B35" s="22" t="s">
-        <v>70</v>
+    <row r="35" spans="2:8" ht="31.8" thickBot="1">
+      <c r="B35" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>24</v>
+        <v>80</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="17.25" thickBot="1">
+    <row r="36" spans="2:8" ht="18" thickBot="1">
       <c r="B36" s="22" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>24</v>
       </c>
       <c r="F36" s="12"/>
@@ -5885,83 +5973,83 @@
         <v>16</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="17.25" thickBot="1">
+    <row r="37" spans="2:8" ht="18" thickBot="1">
       <c r="B37" s="22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="17.25" thickBot="1">
+    <row r="38" spans="2:8" ht="18" thickBot="1">
       <c r="B38" s="22" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="17.25" thickBot="1">
+    <row r="39" spans="2:8" ht="18" thickBot="1">
       <c r="B39" s="22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B40" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>100</v>
+    <row r="40" spans="2:8" ht="18" thickBot="1">
+      <c r="B40" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="15" t="s">
         <v>44</v>
       </c>
       <c r="F40" s="12"/>
@@ -5969,18 +6057,18 @@
         <v>16</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="17.25" thickBot="1">
+    <row r="41" spans="2:8" ht="18" thickBot="1">
       <c r="B41" s="29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>44</v>
@@ -5993,15 +6081,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="17.25" thickBot="1">
+    <row r="42" spans="2:8" ht="18" thickBot="1">
       <c r="B42" s="29" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>44</v>
@@ -6014,15 +6102,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="17.25" thickBot="1">
+    <row r="43" spans="2:8" ht="18" thickBot="1">
       <c r="B43" s="29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>44</v>
@@ -6032,18 +6120,18 @@
         <v>16</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="17.25" thickBot="1">
+    <row r="44" spans="2:8" ht="18" thickBot="1">
       <c r="B44" s="29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>44</v>
@@ -6053,17 +6141,19 @@
         <v>16</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="17.25" thickBot="1">
+    <row r="45" spans="2:8" ht="18" thickBot="1">
       <c r="B45" s="29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D45" s="18"/>
+        <v>110</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>111</v>
+      </c>
       <c r="E45" s="12" t="s">
         <v>44</v>
       </c>
@@ -6071,18 +6161,18 @@
       <c r="G45" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H45" s="12"/>
+      <c r="H45" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="46" spans="2:8" ht="27.75" thickBot="1">
-      <c r="B46" s="31" t="s">
-        <v>161</v>
+    <row r="46" spans="2:8" ht="18" thickBot="1">
+      <c r="B46" s="29" t="s">
+        <v>112</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>165</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D46" s="18"/>
       <c r="E46" s="12" t="s">
         <v>44</v>
       </c>
@@ -6090,12 +6180,46 @@
       <c r="G46" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H46" s="12" t="s">
+      <c r="H46" s="12"/>
+    </row>
+    <row r="47" spans="2:8" ht="31.8" thickBot="1">
+      <c r="B47" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="12" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="D48" s="35" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" ht="52.2">
+      <c r="D49" s="36" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" s="37" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B8:H46" xr:uid="{08681459-A406-4CEE-9A8A-D3DF83B63176}">
+  <autoFilter ref="B8:H47" xr:uid="{08681459-A406-4CEE-9A8A-D3DF83B63176}">
     <filterColumn colId="3" showButton="0"/>
   </autoFilter>
   <mergeCells count="8">
@@ -6122,9 +6246,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6165,10 +6289,10 @@
       <selection activeCell="Q24" sqref="Q24:Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -6253,21 +6377,21 @@
       </c>
       <c r="AB1">
         <f ca="1">RANDBETWEEN(170,185)</f>
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AC1" t="s">
         <v>119</v>
       </c>
       <c r="AD1">
         <f ca="1">RANDBETWEEN(70,80)</f>
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AE1" t="s">
         <v>119</v>
       </c>
       <c r="AF1">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG1" t="s">
         <v>119</v>
@@ -6287,7 +6411,7 @@
       </c>
       <c r="AL1" t="str">
         <f ca="1">_xlfn.CONCAT(A1:AK1)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,178,77,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,181,80,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="2" spans="1:38">
@@ -6372,28 +6496,28 @@
       </c>
       <c r="AB2">
         <f t="shared" ref="AB2:AB17" ca="1" si="0">RANDBETWEEN(170,185)</f>
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AC2" t="s">
         <v>119</v>
       </c>
       <c r="AD2">
         <f t="shared" ref="AD2:AD17" ca="1" si="1">RANDBETWEEN(70,80)</f>
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE2" t="s">
         <v>119</v>
       </c>
       <c r="AF2">
         <f t="shared" ref="AF2:AF17" ca="1" si="2">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG2" t="s">
         <v>119</v>
       </c>
       <c r="AH2">
         <f t="shared" ref="AH2:AH17" ca="1" si="3">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI2" t="s">
         <v>119</v>
@@ -6406,7 +6530,7 @@
       </c>
       <c r="AL2" t="str">
         <f t="shared" ref="AL2:AL17" ca="1" si="4">_xlfn.CONCAT(A2:AK2)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,177,76,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,182,79,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -6491,21 +6615,21 @@
       </c>
       <c r="AB3">
         <f t="shared" ca="1" si="0"/>
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AC3" t="s">
         <v>119</v>
       </c>
       <c r="AD3">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE3" t="s">
         <v>119</v>
       </c>
       <c r="AF3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="s">
         <v>119</v>
@@ -6525,7 +6649,7 @@
       </c>
       <c r="AL3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,177,71,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,183,72,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="4" spans="1:38">
@@ -6610,28 +6734,28 @@
       </c>
       <c r="AB4">
         <f t="shared" ca="1" si="0"/>
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AC4" t="s">
         <v>119</v>
       </c>
       <c r="AD4">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AE4" t="s">
         <v>119</v>
       </c>
       <c r="AF4">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4" t="s">
         <v>119</v>
       </c>
       <c r="AH4">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4" t="s">
         <v>119</v>
@@ -6644,7 +6768,7 @@
       </c>
       <c r="AL4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,172,76,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,179,70,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -6729,14 +6853,14 @@
       </c>
       <c r="AB5">
         <f t="shared" ca="1" si="0"/>
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AC5" t="s">
         <v>119</v>
       </c>
       <c r="AD5">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE5" t="s">
         <v>119</v>
@@ -6750,7 +6874,7 @@
       </c>
       <c r="AH5">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="s">
         <v>119</v>
@@ -6763,7 +6887,7 @@
       </c>
       <c r="AL5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,181,73,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,180,72,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -6848,21 +6972,21 @@
       </c>
       <c r="AB6">
         <f t="shared" ca="1" si="0"/>
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AC6" t="s">
         <v>119</v>
       </c>
       <c r="AD6">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AE6" t="s">
         <v>119</v>
       </c>
       <c r="AF6">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6" t="s">
         <v>119</v>
@@ -6882,7 +7006,7 @@
       </c>
       <c r="AL6" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,178,73,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,174,80,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -6967,14 +7091,14 @@
       </c>
       <c r="AB7">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AC7" t="s">
         <v>119</v>
       </c>
       <c r="AD7">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE7" t="s">
         <v>119</v>
@@ -7001,7 +7125,7 @@
       </c>
       <c r="AL7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,184,76,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,185,73,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -7086,14 +7210,14 @@
       </c>
       <c r="AB8">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AC8" t="s">
         <v>119</v>
       </c>
       <c r="AD8">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AE8" t="s">
         <v>119</v>
@@ -7107,7 +7231,7 @@
       </c>
       <c r="AH8">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8" t="s">
         <v>119</v>
@@ -7120,7 +7244,7 @@
       </c>
       <c r="AL8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,173,76,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,177,71,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -7205,28 +7329,28 @@
       </c>
       <c r="AB9">
         <f t="shared" ca="1" si="0"/>
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AC9" t="s">
         <v>119</v>
       </c>
       <c r="AD9">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AE9" t="s">
         <v>119</v>
       </c>
       <c r="AF9">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9" t="s">
         <v>119</v>
       </c>
       <c r="AH9">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="s">
         <v>119</v>
@@ -7239,7 +7363,7 @@
       </c>
       <c r="AL9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,181,70,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,180,78,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -7331,14 +7455,14 @@
       </c>
       <c r="AD10">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE10" t="s">
         <v>119</v>
       </c>
       <c r="AF10">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" t="s">
         <v>119</v>
@@ -7358,7 +7482,7 @@
       </c>
       <c r="AL10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,183,70,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,183,72,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -7443,21 +7567,21 @@
       </c>
       <c r="AB11">
         <f t="shared" ca="1" si="0"/>
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="AC11" t="s">
         <v>119</v>
       </c>
       <c r="AD11">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE11" t="s">
         <v>119</v>
       </c>
       <c r="AF11">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="s">
         <v>119</v>
@@ -7477,7 +7601,7 @@
       </c>
       <c r="AL11" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,182,72,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,175,73,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -7562,14 +7686,14 @@
       </c>
       <c r="AB12">
         <f t="shared" ca="1" si="0"/>
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AC12" t="s">
         <v>119</v>
       </c>
       <c r="AD12">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AE12" t="s">
         <v>119</v>
@@ -7596,7 +7720,7 @@
       </c>
       <c r="AL12" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,181,74,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,183,72,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -7681,21 +7805,21 @@
       </c>
       <c r="AB13">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="AC13" t="s">
         <v>119</v>
       </c>
       <c r="AD13">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AE13" t="s">
         <v>119</v>
       </c>
       <c r="AF13">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="s">
         <v>119</v>
@@ -7715,7 +7839,7 @@
       </c>
       <c r="AL13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,184,73,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,170,80,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -7800,7 +7924,7 @@
       </c>
       <c r="AB14">
         <f t="shared" ca="1" si="0"/>
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AC14" t="s">
         <v>119</v>
@@ -7834,7 +7958,7 @@
       </c>
       <c r="AL14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,174,75,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,178,75,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -7919,7 +8043,7 @@
       </c>
       <c r="AB15">
         <f t="shared" ca="1" si="0"/>
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC15" t="s">
         <v>119</v>
@@ -7940,7 +8064,7 @@
       </c>
       <c r="AH15">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="s">
         <v>119</v>
@@ -7953,7 +8077,7 @@
       </c>
       <c r="AL15" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,170,76,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,171,76,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -8038,14 +8162,14 @@
       </c>
       <c r="AB16">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AC16" t="s">
         <v>119</v>
       </c>
       <c r="AD16">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE16" t="s">
         <v>119</v>
@@ -8059,7 +8183,7 @@
       </c>
       <c r="AH16">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI16" t="s">
         <v>119</v>
@@ -8072,7 +8196,7 @@
       </c>
       <c r="AL16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,173,76,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,171,79,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="17" spans="1:38">
@@ -8157,28 +8281,28 @@
       </c>
       <c r="AB17">
         <f t="shared" ca="1" si="0"/>
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="AC17" t="s">
         <v>119</v>
       </c>
       <c r="AD17">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AE17" t="s">
         <v>119</v>
       </c>
       <c r="AF17">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG17" t="s">
         <v>119</v>
       </c>
       <c r="AH17">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI17" t="s">
         <v>119</v>
@@ -8191,7 +8315,7 @@
       </c>
       <c r="AL17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,172,74,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,183,78,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="20" spans="1:38">
@@ -8246,7 +8370,7 @@
       </c>
       <c r="Q20">
         <f ca="1">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R20" t="s">
         <v>119</v>
@@ -8280,7 +8404,7 @@
       </c>
       <c r="AB20" t="str">
         <f ca="1">_xlfn.CONCAT(A20:AA20)</f>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('왕십리FC','왕십리FC201018.jpg','성동구','성동구 구장','red',1,'2016-01-01',sysdate(),'1234','기업');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('왕십리FC','왕십리FC201018.jpg','성동구','성동구 구장','red',4,'2016-01-01',sysdate(),'1234','기업');</v>
       </c>
     </row>
     <row r="21" spans="1:38">
@@ -8424,7 +8548,7 @@
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R22" t="s">
         <v>119</v>
@@ -8458,7 +8582,7 @@
       </c>
       <c r="AB22" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('대구FC','대구FC201018.jpg','달서구','달서구 구장','green',4,'2018-01-01',sysdate(),'2345','기업');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('대구FC','대구FC201018.jpg','달서구','달서구 구장','green',2,'2018-01-01',sysdate(),'2345','기업');</v>
       </c>
     </row>
     <row r="24" spans="1:38">

--- a/docs/srs/fbt_docs.xlsx
+++ b/docs/srs/fbt_docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kjy\fbt\docs\srs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB471EC-BFAD-4703-B2B9-E9C36362A56A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177BA833-D5E4-464A-A4ED-8BC24839C6CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2F0AD6B2-A8A2-4F73-BAF4-7193D3382EE1}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="TestCase_SQL" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항명세서!$B$8:$H$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항명세서!$B$8:$H$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="202">
   <si>
     <t>요구사항 정의서</t>
   </si>
@@ -2347,435 +2347,6 @@
         <charset val="129"/>
       </rPr>
       <t>수정</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지인에게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>초대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보내기(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">invite)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표하면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>안</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아예</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>넣지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>않기(투표 취소)
-추후</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>채팅으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>변환</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>생각</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">중
-경기 관련 글은 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">match_schedule </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참조</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>알람</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>단에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">?
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>insert</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>를 진행하나 에러 뜨면 기투표 여부 확인 후 기투표 시, 이미 투표했다고 알림 아니면 에러 페이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-V003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연결
-마이페이지에서 투표 취소</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -4462,6 +4033,820 @@
   </si>
   <si>
     <t>해당 팀의 진행 중인 투표 결과(멤버) 보기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V013</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>지인 찾기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지인 찾기(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">V013) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지인에게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보내기(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">invite)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표하면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아예</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>넣지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않기(투표 취소)
+추후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>채팅으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변환</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생각</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">중
+경기 관련 글은 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">match_schedule </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참조</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알람</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">?
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>insert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행하나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뜨면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표했다고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알림</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아니면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+V003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연결
+마이페이지에서 투표 취소</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초대할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>찾기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 해당 팀 제외한 user 중</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4469,7 +4854,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4605,13 +4990,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Nanum Gothic"/>
-      <family val="2"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="14">
@@ -5272,13 +5650,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EA499F-775F-49C1-B26C-B60E223B5AF8}">
-  <dimension ref="B1:I50"/>
+  <dimension ref="B1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -5468,7 +5846,7 @@
         <v>32</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>30</v>
@@ -5531,7 +5909,7 @@
         <v>38</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>85</v>
@@ -5555,7 +5933,7 @@
         <v>170</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>171</v>
@@ -5577,10 +5955,10 @@
         <v>39</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>30</v>
@@ -5596,7 +5974,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="136.19999999999999" thickBot="1">
+    <row r="19" spans="2:9" ht="156.6" thickBot="1">
       <c r="B19" s="17" t="s">
         <v>40</v>
       </c>
@@ -5604,7 +5982,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>30</v>
@@ -5628,7 +6006,7 @@
         <v>43</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>44</v>
@@ -5652,7 +6030,7 @@
         <v>166</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>44</v>
@@ -5693,19 +6071,19 @@
     </row>
     <row r="23" spans="2:9" ht="29.4" thickBot="1">
       <c r="B23" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>176</v>
-      </c>
       <c r="D23" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
@@ -5713,19 +6091,19 @@
     </row>
     <row r="24" spans="2:9" ht="18" thickBot="1">
       <c r="B24" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>178</v>
-      </c>
       <c r="D24" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
@@ -5733,19 +6111,19 @@
     </row>
     <row r="25" spans="2:9" ht="29.4" thickBot="1">
       <c r="B25" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>180</v>
-      </c>
       <c r="D25" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
@@ -5753,13 +6131,13 @@
     </row>
     <row r="26" spans="2:9" ht="18" thickBot="1">
       <c r="B26" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="D26" s="18" t="s">
         <v>187</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>188</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>30</v>
@@ -5771,13 +6149,13 @@
     </row>
     <row r="27" spans="2:9" ht="18" thickBot="1">
       <c r="B27" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="D27" s="18" t="s">
         <v>197</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>198</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>30</v>
@@ -5787,36 +6165,33 @@
       <c r="H27" s="12"/>
       <c r="I27" s="33"/>
     </row>
-    <row r="28" spans="2:9" ht="18" thickBot="1">
-      <c r="B28" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>52</v>
+    <row r="28" spans="2:9" ht="29.4" thickBot="1">
+      <c r="B28" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>201</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>45</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="33"/>
     </row>
     <row r="29" spans="2:9" ht="18" thickBot="1">
       <c r="B29" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>53</v>
+        <v>18</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>44</v>
@@ -5826,60 +6201,60 @@
         <v>16</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="27" thickBot="1">
+    <row r="30" spans="2:9" ht="18" thickBot="1">
       <c r="B30" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>55</v>
+        <v>26</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="12" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="31" spans="2:9" ht="18" thickBot="1">
+    <row r="31" spans="2:9" ht="27" thickBot="1">
       <c r="B31" s="20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="18" thickBot="1">
       <c r="B32" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>44</v>
@@ -5889,104 +6264,104 @@
         <v>16</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="91.8" thickBot="1">
+    <row r="33" spans="2:8" ht="18" thickBot="1">
       <c r="B33" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>81</v>
+        <v>73</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="18" thickBot="1">
+    <row r="34" spans="2:8" ht="91.8" thickBot="1">
       <c r="B34" s="20" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="31.8" thickBot="1">
+    <row r="35" spans="2:8" ht="18" thickBot="1">
       <c r="B35" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E35" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H35" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="18" thickBot="1">
-      <c r="B36" s="22" t="s">
-        <v>70</v>
+    <row r="36" spans="2:8" ht="31.8" thickBot="1">
+      <c r="B36" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>24</v>
+        <v>80</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="18" thickBot="1">
       <c r="B37" s="22" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E37" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="12" t="s">
         <v>24</v>
       </c>
       <c r="F37" s="12"/>
@@ -5994,25 +6369,25 @@
         <v>16</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="18" thickBot="1">
       <c r="B38" s="22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>25</v>
@@ -6020,20 +6395,20 @@
     </row>
     <row r="39" spans="2:8" ht="18" thickBot="1">
       <c r="B39" s="22" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>25</v>
@@ -6041,36 +6416,36 @@
     </row>
     <row r="40" spans="2:8" ht="18" thickBot="1">
       <c r="B40" s="22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="18" thickBot="1">
-      <c r="B41" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>100</v>
+      <c r="B41" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="15" t="s">
         <v>44</v>
       </c>
       <c r="F41" s="12"/>
@@ -6078,18 +6453,18 @@
         <v>16</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="18" thickBot="1">
       <c r="B42" s="29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>44</v>
@@ -6104,13 +6479,13 @@
     </row>
     <row r="43" spans="2:8" ht="18" thickBot="1">
       <c r="B43" s="29" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>44</v>
@@ -6125,13 +6500,13 @@
     </row>
     <row r="44" spans="2:8" ht="18" thickBot="1">
       <c r="B44" s="29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>44</v>
@@ -6141,18 +6516,18 @@
         <v>16</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="18" thickBot="1">
       <c r="B45" s="29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>44</v>
@@ -6162,17 +6537,19 @@
         <v>16</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="18" thickBot="1">
       <c r="B46" s="29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D46" s="18"/>
+        <v>110</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>111</v>
+      </c>
       <c r="E46" s="12" t="s">
         <v>44</v>
       </c>
@@ -6180,18 +6557,18 @@
       <c r="G46" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H46" s="12"/>
+      <c r="H46" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="47" spans="2:8" ht="31.8" thickBot="1">
-      <c r="B47" s="31" t="s">
-        <v>161</v>
+    <row r="47" spans="2:8" ht="18" thickBot="1">
+      <c r="B47" s="29" t="s">
+        <v>112</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>165</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D47" s="18"/>
       <c r="E47" s="12" t="s">
         <v>44</v>
       </c>
@@ -6199,27 +6576,46 @@
       <c r="G47" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H47" s="12" t="s">
+      <c r="H47" s="12"/>
+    </row>
+    <row r="48" spans="2:8" ht="31.8" thickBot="1">
+      <c r="B48" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="2:8">
-      <c r="D48" s="35" t="s">
+    <row r="49" spans="4:4">
+      <c r="D49" s="35" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" ht="52.2">
+      <c r="D50" s="36" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="4:4" ht="52.2">
-      <c r="D49" s="36" t="s">
+    <row r="51" spans="4:4">
+      <c r="D51" s="37" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="50" spans="4:4">
-      <c r="D50" s="37" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B8:H47" xr:uid="{08681459-A406-4CEE-9A8A-D3DF83B63176}">
+  <autoFilter ref="B8:H48" xr:uid="{08681459-A406-4CEE-9A8A-D3DF83B63176}">
     <filterColumn colId="3" showButton="0"/>
   </autoFilter>
   <mergeCells count="8">
@@ -6377,21 +6773,21 @@
       </c>
       <c r="AB1">
         <f ca="1">RANDBETWEEN(170,185)</f>
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AC1" t="s">
         <v>119</v>
       </c>
       <c r="AD1">
         <f ca="1">RANDBETWEEN(70,80)</f>
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AE1" t="s">
         <v>119</v>
       </c>
       <c r="AF1">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG1" t="s">
         <v>119</v>
@@ -6411,7 +6807,7 @@
       </c>
       <c r="AL1" t="str">
         <f ca="1">_xlfn.CONCAT(A1:AK1)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,181,80,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,177,73,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="2" spans="1:38">
@@ -6496,7 +6892,7 @@
       </c>
       <c r="AB2">
         <f t="shared" ref="AB2:AB17" ca="1" si="0">RANDBETWEEN(170,185)</f>
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AC2" t="s">
         <v>119</v>
@@ -6510,14 +6906,14 @@
       </c>
       <c r="AF2">
         <f t="shared" ref="AF2:AF17" ca="1" si="2">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="s">
         <v>119</v>
       </c>
       <c r="AH2">
         <f t="shared" ref="AH2:AH17" ca="1" si="3">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="s">
         <v>119</v>
@@ -6530,7 +6926,7 @@
       </c>
       <c r="AL2" t="str">
         <f t="shared" ref="AL2:AL17" ca="1" si="4">_xlfn.CONCAT(A2:AK2)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,182,79,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,180,79,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -6615,28 +7011,28 @@
       </c>
       <c r="AB3">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="AC3" t="s">
         <v>119</v>
       </c>
       <c r="AD3">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AE3" t="s">
         <v>119</v>
       </c>
       <c r="AF3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="s">
         <v>119</v>
       </c>
       <c r="AH3">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="s">
         <v>119</v>
@@ -6649,7 +7045,7 @@
       </c>
       <c r="AL3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,183,72,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,171,80,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="4" spans="1:38">
@@ -6734,21 +7130,21 @@
       </c>
       <c r="AB4">
         <f t="shared" ca="1" si="0"/>
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="AC4" t="s">
         <v>119</v>
       </c>
       <c r="AD4">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AE4" t="s">
         <v>119</v>
       </c>
       <c r="AF4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="s">
         <v>119</v>
@@ -6768,7 +7164,7 @@
       </c>
       <c r="AL4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,179,70,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,172,73,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -6853,14 +7249,14 @@
       </c>
       <c r="AB5">
         <f t="shared" ca="1" si="0"/>
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AC5" t="s">
         <v>119</v>
       </c>
       <c r="AD5">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AE5" t="s">
         <v>119</v>
@@ -6874,7 +7270,7 @@
       </c>
       <c r="AH5">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5" t="s">
         <v>119</v>
@@ -6887,7 +7283,7 @@
       </c>
       <c r="AL5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,180,72,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,173,80,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -6972,14 +7368,14 @@
       </c>
       <c r="AB6">
         <f t="shared" ca="1" si="0"/>
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="AC6" t="s">
         <v>119</v>
       </c>
       <c r="AD6">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s">
         <v>119</v>
@@ -6993,7 +7389,7 @@
       </c>
       <c r="AH6">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6" t="s">
         <v>119</v>
@@ -7006,7 +7402,7 @@
       </c>
       <c r="AL6" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,174,80,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,185,76,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -7091,14 +7487,14 @@
       </c>
       <c r="AB7">
         <f t="shared" ca="1" si="0"/>
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="AC7" t="s">
         <v>119</v>
       </c>
       <c r="AD7">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE7" t="s">
         <v>119</v>
@@ -7125,7 +7521,7 @@
       </c>
       <c r="AL7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,185,73,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,178,74,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -7210,28 +7606,28 @@
       </c>
       <c r="AB8">
         <f t="shared" ca="1" si="0"/>
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AC8" t="s">
         <v>119</v>
       </c>
       <c r="AD8">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s">
         <v>119</v>
       </c>
       <c r="AF8">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="s">
         <v>119</v>
       </c>
       <c r="AH8">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="s">
         <v>119</v>
@@ -7244,7 +7640,7 @@
       </c>
       <c r="AL8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,177,71,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,181,77,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -7329,21 +7725,21 @@
       </c>
       <c r="AB9">
         <f t="shared" ca="1" si="0"/>
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="AC9" t="s">
         <v>119</v>
       </c>
       <c r="AD9">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AE9" t="s">
         <v>119</v>
       </c>
       <c r="AF9">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="s">
         <v>119</v>
@@ -7363,7 +7759,7 @@
       </c>
       <c r="AL9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,180,78,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,171,74,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -7448,21 +7844,21 @@
       </c>
       <c r="AB10">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AC10" t="s">
         <v>119</v>
       </c>
       <c r="AD10">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s">
         <v>119</v>
       </c>
       <c r="AF10">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="s">
         <v>119</v>
@@ -7482,7 +7878,7 @@
       </c>
       <c r="AL10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,183,72,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,175,77,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -7567,21 +7963,21 @@
       </c>
       <c r="AB11">
         <f t="shared" ca="1" si="0"/>
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AC11" t="s">
         <v>119</v>
       </c>
       <c r="AD11">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s">
         <v>119</v>
       </c>
       <c r="AF11">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11" t="s">
         <v>119</v>
@@ -7601,7 +7997,7 @@
       </c>
       <c r="AL11" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,175,73,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,177,76,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -7686,28 +8082,28 @@
       </c>
       <c r="AB12">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="AC12" t="s">
         <v>119</v>
       </c>
       <c r="AD12">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AE12" t="s">
         <v>119</v>
       </c>
       <c r="AF12">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="s">
         <v>119</v>
       </c>
       <c r="AH12">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="s">
         <v>119</v>
@@ -7720,7 +8116,7 @@
       </c>
       <c r="AL12" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,183,72,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,173,74,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -7812,7 +8208,7 @@
       </c>
       <c r="AD13">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AE13" t="s">
         <v>119</v>
@@ -7839,7 +8235,7 @@
       </c>
       <c r="AL13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,170,80,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,170,74,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -7924,28 +8320,28 @@
       </c>
       <c r="AB14">
         <f t="shared" ca="1" si="0"/>
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="AC14" t="s">
         <v>119</v>
       </c>
       <c r="AD14">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AE14" t="s">
         <v>119</v>
       </c>
       <c r="AF14">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="s">
         <v>119</v>
       </c>
       <c r="AH14">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="s">
         <v>119</v>
@@ -7958,7 +8354,7 @@
       </c>
       <c r="AL14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,178,75,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,171,73,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -8043,21 +8439,21 @@
       </c>
       <c r="AB15">
         <f t="shared" ca="1" si="0"/>
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="AC15" t="s">
         <v>119</v>
       </c>
       <c r="AD15">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE15" t="s">
         <v>119</v>
       </c>
       <c r="AF15">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" t="s">
         <v>119</v>
@@ -8077,7 +8473,7 @@
       </c>
       <c r="AL15" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,171,76,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,181,79,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -8162,28 +8558,28 @@
       </c>
       <c r="AB16">
         <f t="shared" ca="1" si="0"/>
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AC16" t="s">
         <v>119</v>
       </c>
       <c r="AD16">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AE16" t="s">
         <v>119</v>
       </c>
       <c r="AF16">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="s">
         <v>119</v>
       </c>
       <c r="AH16">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="s">
         <v>119</v>
@@ -8196,7 +8592,7 @@
       </c>
       <c r="AL16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,171,79,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,173,74,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="17" spans="1:38">
@@ -8281,14 +8677,14 @@
       </c>
       <c r="AB17">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AC17" t="s">
         <v>119</v>
       </c>
       <c r="AD17">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AE17" t="s">
         <v>119</v>
@@ -8315,7 +8711,7 @@
       </c>
       <c r="AL17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,183,78,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,175,72,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="20" spans="1:38">
@@ -8370,7 +8766,7 @@
       </c>
       <c r="Q20">
         <f ca="1">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R20" t="s">
         <v>119</v>
@@ -8404,7 +8800,7 @@
       </c>
       <c r="AB20" t="str">
         <f ca="1">_xlfn.CONCAT(A20:AA20)</f>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('왕십리FC','왕십리FC201018.jpg','성동구','성동구 구장','red',4,'2016-01-01',sysdate(),'1234','기업');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('왕십리FC','왕십리FC201018.jpg','성동구','성동구 구장','red',1,'2016-01-01',sysdate(),'1234','기업');</v>
       </c>
     </row>
     <row r="21" spans="1:38">
@@ -8459,7 +8855,7 @@
       </c>
       <c r="Q21">
         <f t="shared" ref="Q21:Q22" ca="1" si="6">RANDBETWEEN(0,5)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R21" t="s">
         <v>119</v>
@@ -8493,7 +8889,7 @@
       </c>
       <c r="AB21" t="str">
         <f t="shared" ref="AB21:AB22" ca="1" si="7">_xlfn.CONCAT(A21:AA21)</f>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('답십리FC','답십리FC201018.jpg','성동구','응봉동 구장','blue',0,'2017-01-01',sysdate(),'5678','하나');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('답십리FC','답십리FC201018.jpg','성동구','응봉동 구장','blue',4,'2017-01-01',sysdate(),'5678','하나');</v>
       </c>
     </row>
     <row r="22" spans="1:38">

--- a/docs/srs/fbt_docs.xlsx
+++ b/docs/srs/fbt_docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kjy\fbt\docs\srs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177BA833-D5E4-464A-A4ED-8BC24839C6CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF38EA90-4C21-4F10-BCCD-E0624CF801B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2F0AD6B2-A8A2-4F73-BAF4-7193D3382EE1}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="TestCase_SQL" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항명세서!$B$8:$H$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항명세서!$B$8:$H$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="205">
   <si>
     <t>요구사항 정의서</t>
   </si>
@@ -4847,6 +4847,18 @@
       <t xml:space="preserve">
 - 해당 팀 제외한 user 중</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>T006</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 검색</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>투표 혹은 일정 등록 시 상대 팀명으로 검색</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5650,13 +5662,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EA499F-775F-49C1-B26C-B60E223B5AF8}">
-  <dimension ref="B1:I51"/>
+  <dimension ref="B1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -6457,16 +6469,16 @@
       </c>
     </row>
     <row r="42" spans="2:8" ht="18" thickBot="1">
-      <c r="B42" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>100</v>
+      <c r="B42" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>203</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E42" s="15" t="s">
         <v>44</v>
       </c>
       <c r="F42" s="12"/>
@@ -6474,18 +6486,18 @@
         <v>16</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="18" thickBot="1">
       <c r="B43" s="29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>44</v>
@@ -6500,13 +6512,13 @@
     </row>
     <row r="44" spans="2:8" ht="18" thickBot="1">
       <c r="B44" s="29" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>44</v>
@@ -6521,13 +6533,13 @@
     </row>
     <row r="45" spans="2:8" ht="18" thickBot="1">
       <c r="B45" s="29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>44</v>
@@ -6537,18 +6549,18 @@
         <v>16</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="18" thickBot="1">
       <c r="B46" s="29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>44</v>
@@ -6558,17 +6570,19 @@
         <v>16</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="18" thickBot="1">
       <c r="B47" s="29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" s="18"/>
+        <v>110</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>111</v>
+      </c>
       <c r="E47" s="12" t="s">
         <v>44</v>
       </c>
@@ -6576,18 +6590,18 @@
       <c r="G47" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H47" s="12"/>
+      <c r="H47" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="48" spans="2:8" ht="31.8" thickBot="1">
-      <c r="B48" s="31" t="s">
-        <v>161</v>
+    <row r="48" spans="2:8" ht="18" thickBot="1">
+      <c r="B48" s="29" t="s">
+        <v>112</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>165</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D48" s="18"/>
       <c r="E48" s="12" t="s">
         <v>44</v>
       </c>
@@ -6595,27 +6609,46 @@
       <c r="G48" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H48" s="12" t="s">
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="2:8" ht="31.8" thickBot="1">
+      <c r="B49" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="4:4">
-      <c r="D49" s="35" t="s">
+    <row r="50" spans="2:8">
+      <c r="D50" s="35" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="4:4" ht="52.2">
-      <c r="D50" s="36" t="s">
+    <row r="51" spans="2:8" ht="52.2">
+      <c r="D51" s="36" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="4:4">
-      <c r="D51" s="37" t="s">
+    <row r="52" spans="2:8">
+      <c r="D52" s="37" t="s">
         <v>194</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B8:H48" xr:uid="{08681459-A406-4CEE-9A8A-D3DF83B63176}">
+  <autoFilter ref="B8:H49" xr:uid="{08681459-A406-4CEE-9A8A-D3DF83B63176}">
     <filterColumn colId="3" showButton="0"/>
   </autoFilter>
   <mergeCells count="8">
@@ -6773,28 +6806,28 @@
       </c>
       <c r="AB1">
         <f ca="1">RANDBETWEEN(170,185)</f>
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC1" t="s">
         <v>119</v>
       </c>
       <c r="AD1">
         <f ca="1">RANDBETWEEN(70,80)</f>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE1" t="s">
         <v>119</v>
       </c>
       <c r="AF1">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG1" t="s">
         <v>119</v>
       </c>
       <c r="AH1">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI1" t="s">
         <v>119</v>
@@ -6807,7 +6840,7 @@
       </c>
       <c r="AL1" t="str">
         <f ca="1">_xlfn.CONCAT(A1:AK1)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,177,73,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,176,75,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="2" spans="1:38">
@@ -6892,28 +6925,28 @@
       </c>
       <c r="AB2">
         <f t="shared" ref="AB2:AB17" ca="1" si="0">RANDBETWEEN(170,185)</f>
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AC2" t="s">
         <v>119</v>
       </c>
       <c r="AD2">
         <f t="shared" ref="AD2:AD17" ca="1" si="1">RANDBETWEEN(70,80)</f>
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="AE2" t="s">
         <v>119</v>
       </c>
       <c r="AF2">
         <f t="shared" ref="AF2:AF17" ca="1" si="2">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG2" t="s">
         <v>119</v>
       </c>
       <c r="AH2">
         <f t="shared" ref="AH2:AH17" ca="1" si="3">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI2" t="s">
         <v>119</v>
@@ -6926,7 +6959,7 @@
       </c>
       <c r="AL2" t="str">
         <f t="shared" ref="AL2:AL17" ca="1" si="4">_xlfn.CONCAT(A2:AK2)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,180,79,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,181,70,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -7011,14 +7044,14 @@
       </c>
       <c r="AB3">
         <f t="shared" ca="1" si="0"/>
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="AC3" t="s">
         <v>119</v>
       </c>
       <c r="AD3">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s">
         <v>119</v>
@@ -7032,7 +7065,7 @@
       </c>
       <c r="AH3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3" t="s">
         <v>119</v>
@@ -7045,7 +7078,7 @@
       </c>
       <c r="AL3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,171,80,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,179,76,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="4" spans="1:38">
@@ -7130,28 +7163,28 @@
       </c>
       <c r="AB4">
         <f t="shared" ca="1" si="0"/>
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AC4" t="s">
         <v>119</v>
       </c>
       <c r="AD4">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE4" t="s">
         <v>119</v>
       </c>
       <c r="AF4">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4" t="s">
         <v>119</v>
       </c>
       <c r="AH4">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="s">
         <v>119</v>
@@ -7164,7 +7197,7 @@
       </c>
       <c r="AL4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,172,73,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,175,72,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -7249,14 +7282,14 @@
       </c>
       <c r="AB5">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AC5" t="s">
         <v>119</v>
       </c>
       <c r="AD5">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s">
         <v>119</v>
@@ -7270,7 +7303,7 @@
       </c>
       <c r="AH5">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="s">
         <v>119</v>
@@ -7283,7 +7316,7 @@
       </c>
       <c r="AL5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,173,80,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,170,77,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -7375,14 +7408,14 @@
       </c>
       <c r="AD6">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AE6" t="s">
         <v>119</v>
       </c>
       <c r="AF6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="s">
         <v>119</v>
@@ -7402,7 +7435,7 @@
       </c>
       <c r="AL6" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,185,76,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,185,70,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -7487,7 +7520,7 @@
       </c>
       <c r="AB7">
         <f t="shared" ca="1" si="0"/>
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="AC7" t="s">
         <v>119</v>
@@ -7501,7 +7534,7 @@
       </c>
       <c r="AF7">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="s">
         <v>119</v>
@@ -7521,7 +7554,7 @@
       </c>
       <c r="AL7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,178,74,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,170,74,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -7606,7 +7639,7 @@
       </c>
       <c r="AB8">
         <f t="shared" ca="1" si="0"/>
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AC8" t="s">
         <v>119</v>
@@ -7620,7 +7653,7 @@
       </c>
       <c r="AF8">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" t="s">
         <v>119</v>
@@ -7640,7 +7673,7 @@
       </c>
       <c r="AL8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,181,77,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,178,77,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -7725,14 +7758,14 @@
       </c>
       <c r="AB9">
         <f t="shared" ca="1" si="0"/>
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="AC9" t="s">
         <v>119</v>
       </c>
       <c r="AD9">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="s">
         <v>119</v>
@@ -7746,7 +7779,7 @@
       </c>
       <c r="AH9">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9" t="s">
         <v>119</v>
@@ -7759,7 +7792,7 @@
       </c>
       <c r="AL9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,171,74,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,184,75,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -7844,21 +7877,21 @@
       </c>
       <c r="AB10">
         <f t="shared" ca="1" si="0"/>
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AC10" t="s">
         <v>119</v>
       </c>
       <c r="AD10">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s">
         <v>119</v>
       </c>
       <c r="AF10">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" t="s">
         <v>119</v>
@@ -7878,7 +7911,7 @@
       </c>
       <c r="AL10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,175,77,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,173,76,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -7963,14 +7996,14 @@
       </c>
       <c r="AB11">
         <f t="shared" ca="1" si="0"/>
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AC11" t="s">
         <v>119</v>
       </c>
       <c r="AD11">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AE11" t="s">
         <v>119</v>
@@ -7997,7 +8030,7 @@
       </c>
       <c r="AL11" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,177,76,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,170,70,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -8082,28 +8115,28 @@
       </c>
       <c r="AB12">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AC12" t="s">
         <v>119</v>
       </c>
       <c r="AD12">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AE12" t="s">
         <v>119</v>
       </c>
       <c r="AF12">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG12" t="s">
         <v>119</v>
       </c>
       <c r="AH12">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12" t="s">
         <v>119</v>
@@ -8116,7 +8149,7 @@
       </c>
       <c r="AL12" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,173,74,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,172,80,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -8201,28 +8234,28 @@
       </c>
       <c r="AB13">
         <f t="shared" ca="1" si="0"/>
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AC13" t="s">
         <v>119</v>
       </c>
       <c r="AD13">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AE13" t="s">
         <v>119</v>
       </c>
       <c r="AF13">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13" t="s">
         <v>119</v>
       </c>
       <c r="AH13">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI13" t="s">
         <v>119</v>
@@ -8235,7 +8268,7 @@
       </c>
       <c r="AL13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,170,74,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,177,78,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -8320,7 +8353,7 @@
       </c>
       <c r="AB14">
         <f t="shared" ca="1" si="0"/>
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="AC14" t="s">
         <v>119</v>
@@ -8334,14 +8367,14 @@
       </c>
       <c r="AF14">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="s">
         <v>119</v>
       </c>
       <c r="AH14">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14" t="s">
         <v>119</v>
@@ -8354,7 +8387,7 @@
       </c>
       <c r="AL14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,171,73,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,182,73,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -8439,14 +8472,14 @@
       </c>
       <c r="AB15">
         <f t="shared" ca="1" si="0"/>
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AC15" t="s">
         <v>119</v>
       </c>
       <c r="AD15">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE15" t="s">
         <v>119</v>
@@ -8473,7 +8506,7 @@
       </c>
       <c r="AL15" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,181,79,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,185,78,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -8558,7 +8591,7 @@
       </c>
       <c r="AB16">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AC16" t="s">
         <v>119</v>
@@ -8579,7 +8612,7 @@
       </c>
       <c r="AH16">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI16" t="s">
         <v>119</v>
@@ -8592,7 +8625,7 @@
       </c>
       <c r="AL16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,173,74,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,177,74,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="17" spans="1:38">
@@ -8684,7 +8717,7 @@
       </c>
       <c r="AD17">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s">
         <v>119</v>
@@ -8711,7 +8744,7 @@
       </c>
       <c r="AL17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,175,72,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,175,76,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="20" spans="1:38">
@@ -8855,7 +8888,7 @@
       </c>
       <c r="Q21">
         <f t="shared" ref="Q21:Q22" ca="1" si="6">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R21" t="s">
         <v>119</v>
@@ -8889,7 +8922,7 @@
       </c>
       <c r="AB21" t="str">
         <f t="shared" ref="AB21:AB22" ca="1" si="7">_xlfn.CONCAT(A21:AA21)</f>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('답십리FC','답십리FC201018.jpg','성동구','응봉동 구장','blue',4,'2017-01-01',sysdate(),'5678','하나');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('답십리FC','답십리FC201018.jpg','성동구','응봉동 구장','blue',1,'2017-01-01',sysdate(),'5678','하나');</v>
       </c>
     </row>
     <row r="22" spans="1:38">
@@ -8944,7 +8977,7 @@
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R22" t="s">
         <v>119</v>
@@ -8978,7 +9011,7 @@
       </c>
       <c r="AB22" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('대구FC','대구FC201018.jpg','달서구','달서구 구장','green',2,'2018-01-01',sysdate(),'2345','기업');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('대구FC','대구FC201018.jpg','달서구','달서구 구장','green',5,'2018-01-01',sysdate(),'2345','기업');</v>
       </c>
     </row>
     <row r="24" spans="1:38">

--- a/docs/srs/fbt_docs.xlsx
+++ b/docs/srs/fbt_docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kjy\fbt\docs\srs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF38EA90-4C21-4F10-BCCD-E0624CF801B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8628B36-E31F-4228-8EEB-2427FAFB2A49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2F0AD6B2-A8A2-4F73-BAF4-7193D3382EE1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="207">
   <si>
     <t>요구사항 정의서</t>
   </si>
@@ -3950,19 +3950,6 @@
       </rPr>
       <t xml:space="preserve"> V003
 투표결과ID 양식 : '투표ID-팀멤버ID or 이메일(지인)'</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>카톡공유</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -4859,6 +4846,93 @@
   </si>
   <si>
     <t>투표 혹은 일정 등록 시 상대 팀명으로 검색</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S002</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방금 등록된 팀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">방금 등록된 팀 경기 ID 일정 </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5214,7 +5288,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5319,9 +5393,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5665,10 +5736,10 @@
   <dimension ref="B1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E43" sqref="E43"/>
+      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -5686,10 +5757,10 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18" thickBot="1"/>
     <row r="2" spans="2:9" ht="18" thickBot="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="41"/>
+      <c r="C2" s="40"/>
       <c r="E2" s="3" t="s">
         <v>63</v>
       </c>
@@ -5748,42 +5819,42 @@
     </row>
     <row r="7" spans="2:9" ht="18" thickBot="1"/>
     <row r="8" spans="2:9" ht="18" thickBot="1">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="38" t="s">
+      <c r="F8" s="42"/>
+      <c r="G8" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="37" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="18" thickBot="1">
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
     </row>
     <row r="10" spans="2:9" ht="27" thickBot="1">
       <c r="B10" s="11" t="s">
@@ -5994,7 +6065,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>30</v>
@@ -6161,13 +6232,13 @@
     </row>
     <row r="27" spans="2:9" ht="18" thickBot="1">
       <c r="B27" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="D27" s="18" t="s">
         <v>196</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>197</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>30</v>
@@ -6179,13 +6250,13 @@
     </row>
     <row r="28" spans="2:9" ht="29.4" thickBot="1">
       <c r="B28" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>199</v>
-      </c>
       <c r="D28" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>30</v>
@@ -6470,13 +6541,13 @@
     </row>
     <row r="42" spans="2:8" ht="18" thickBot="1">
       <c r="B42" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="D42" s="13" t="s">
         <v>203</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>204</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>44</v>
@@ -6632,19 +6703,35 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
-      <c r="D50" s="35" t="s">
-        <v>192</v>
+    <row r="50" spans="2:8" ht="31.8" thickBot="1">
+      <c r="B50" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="52.2">
-      <c r="D51" s="36" t="s">
-        <v>193</v>
+      <c r="D51" s="35" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="2:8">
-      <c r="D52" s="37" t="s">
-        <v>194</v>
+      <c r="D52" s="36" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -6806,21 +6893,21 @@
       </c>
       <c r="AB1">
         <f ca="1">RANDBETWEEN(170,185)</f>
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="AC1" t="s">
         <v>119</v>
       </c>
       <c r="AD1">
         <f ca="1">RANDBETWEEN(70,80)</f>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE1" t="s">
         <v>119</v>
       </c>
       <c r="AF1">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG1" t="s">
         <v>119</v>
@@ -6840,7 +6927,7 @@
       </c>
       <c r="AL1" t="str">
         <f ca="1">_xlfn.CONCAT(A1:AK1)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,176,75,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,185,77,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="2" spans="1:38">
@@ -6925,21 +7012,21 @@
       </c>
       <c r="AB2">
         <f t="shared" ref="AB2:AB17" ca="1" si="0">RANDBETWEEN(170,185)</f>
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="AC2" t="s">
         <v>119</v>
       </c>
       <c r="AD2">
         <f t="shared" ref="AD2:AD17" ca="1" si="1">RANDBETWEEN(70,80)</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s">
         <v>119</v>
       </c>
       <c r="AF2">
         <f t="shared" ref="AF2:AF17" ca="1" si="2">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="s">
         <v>119</v>
@@ -6959,7 +7046,7 @@
       </c>
       <c r="AL2" t="str">
         <f t="shared" ref="AL2:AL17" ca="1" si="4">_xlfn.CONCAT(A2:AK2)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,181,70,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,170,75,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -7051,7 +7138,7 @@
       </c>
       <c r="AD3">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AE3" t="s">
         <v>119</v>
@@ -7078,7 +7165,7 @@
       </c>
       <c r="AL3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,179,76,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,179,80,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="4" spans="1:38">
@@ -7170,7 +7257,7 @@
       </c>
       <c r="AD4">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AE4" t="s">
         <v>119</v>
@@ -7184,7 +7271,7 @@
       </c>
       <c r="AH4">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4" t="s">
         <v>119</v>
@@ -7197,7 +7284,7 @@
       </c>
       <c r="AL4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,175,72,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,175,79,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -7282,14 +7369,14 @@
       </c>
       <c r="AB5">
         <f t="shared" ca="1" si="0"/>
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="AC5" t="s">
         <v>119</v>
       </c>
       <c r="AD5">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE5" t="s">
         <v>119</v>
@@ -7316,7 +7403,7 @@
       </c>
       <c r="AL5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,170,77,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,184,78,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -7401,7 +7488,7 @@
       </c>
       <c r="AB6">
         <f t="shared" ca="1" si="0"/>
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AC6" t="s">
         <v>119</v>
@@ -7415,7 +7502,7 @@
       </c>
       <c r="AF6">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6" t="s">
         <v>119</v>
@@ -7435,7 +7522,7 @@
       </c>
       <c r="AL6" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,185,70,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,183,70,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -7520,7 +7607,7 @@
       </c>
       <c r="AB7">
         <f t="shared" ca="1" si="0"/>
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AC7" t="s">
         <v>119</v>
@@ -7541,7 +7628,7 @@
       </c>
       <c r="AH7">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="s">
         <v>119</v>
@@ -7554,7 +7641,7 @@
       </c>
       <c r="AL7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,170,74,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,175,74,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -7639,21 +7726,21 @@
       </c>
       <c r="AB8">
         <f t="shared" ca="1" si="0"/>
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AC8" t="s">
         <v>119</v>
       </c>
       <c r="AD8">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s">
         <v>119</v>
       </c>
       <c r="AF8">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="s">
         <v>119</v>
@@ -7673,7 +7760,7 @@
       </c>
       <c r="AL8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,178,77,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,173,76,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -7758,21 +7845,21 @@
       </c>
       <c r="AB9">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AC9" t="s">
         <v>119</v>
       </c>
       <c r="AD9">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s">
         <v>119</v>
       </c>
       <c r="AF9">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9" t="s">
         <v>119</v>
@@ -7792,7 +7879,7 @@
       </c>
       <c r="AL9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,184,75,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,181,77,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -7877,28 +7964,28 @@
       </c>
       <c r="AB10">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AC10" t="s">
         <v>119</v>
       </c>
       <c r="AD10">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AE10" t="s">
         <v>119</v>
       </c>
       <c r="AF10">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="s">
         <v>119</v>
       </c>
       <c r="AH10">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="s">
         <v>119</v>
@@ -7911,7 +7998,7 @@
       </c>
       <c r="AL10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,173,76,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,176,71,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -7996,28 +8083,28 @@
       </c>
       <c r="AB11">
         <f t="shared" ca="1" si="0"/>
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AC11" t="s">
         <v>119</v>
       </c>
       <c r="AD11">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE11" t="s">
         <v>119</v>
       </c>
       <c r="AF11">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="s">
         <v>119</v>
       </c>
       <c r="AH11">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="s">
         <v>119</v>
@@ -8030,7 +8117,7 @@
       </c>
       <c r="AL11" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,170,70,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,180,71,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -8115,14 +8202,14 @@
       </c>
       <c r="AB12">
         <f t="shared" ca="1" si="0"/>
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AC12" t="s">
         <v>119</v>
       </c>
       <c r="AD12">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AE12" t="s">
         <v>119</v>
@@ -8136,7 +8223,7 @@
       </c>
       <c r="AH12">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="s">
         <v>119</v>
@@ -8149,7 +8236,7 @@
       </c>
       <c r="AL12" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,172,80,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,184,72,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -8234,14 +8321,14 @@
       </c>
       <c r="AB13">
         <f t="shared" ca="1" si="0"/>
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC13" t="s">
         <v>119</v>
       </c>
       <c r="AD13">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AE13" t="s">
         <v>119</v>
@@ -8268,7 +8355,7 @@
       </c>
       <c r="AL13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,177,78,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,176,71,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -8353,21 +8440,21 @@
       </c>
       <c r="AB14">
         <f t="shared" ca="1" si="0"/>
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="AC14" t="s">
         <v>119</v>
       </c>
       <c r="AD14">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AE14" t="s">
         <v>119</v>
       </c>
       <c r="AF14">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="s">
         <v>119</v>
@@ -8387,7 +8474,7 @@
       </c>
       <c r="AL14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,182,73,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,174,70,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -8472,7 +8559,7 @@
       </c>
       <c r="AB15">
         <f t="shared" ca="1" si="0"/>
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="AC15" t="s">
         <v>119</v>
@@ -8506,7 +8593,7 @@
       </c>
       <c r="AL15" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,185,78,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,173,78,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -8591,21 +8678,21 @@
       </c>
       <c r="AB16">
         <f t="shared" ca="1" si="0"/>
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="AC16" t="s">
         <v>119</v>
       </c>
       <c r="AD16">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AE16" t="s">
         <v>119</v>
       </c>
       <c r="AF16">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16" t="s">
         <v>119</v>
@@ -8625,7 +8712,7 @@
       </c>
       <c r="AL16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,177,74,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,185,80,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="17" spans="1:38">
@@ -8710,28 +8797,28 @@
       </c>
       <c r="AB17">
         <f t="shared" ca="1" si="0"/>
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AC17" t="s">
         <v>119</v>
       </c>
       <c r="AD17">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE17" t="s">
         <v>119</v>
       </c>
       <c r="AF17">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="s">
         <v>119</v>
       </c>
       <c r="AH17">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="s">
         <v>119</v>
@@ -8744,7 +8831,7 @@
       </c>
       <c r="AL17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,175,76,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,170,75,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="20" spans="1:38">
@@ -8799,7 +8886,7 @@
       </c>
       <c r="Q20">
         <f ca="1">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R20" t="s">
         <v>119</v>
@@ -8833,7 +8920,7 @@
       </c>
       <c r="AB20" t="str">
         <f ca="1">_xlfn.CONCAT(A20:AA20)</f>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('왕십리FC','왕십리FC201018.jpg','성동구','성동구 구장','red',1,'2016-01-01',sysdate(),'1234','기업');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('왕십리FC','왕십리FC201018.jpg','성동구','성동구 구장','red',2,'2016-01-01',sysdate(),'1234','기업');</v>
       </c>
     </row>
     <row r="21" spans="1:38">
@@ -8888,7 +8975,7 @@
       </c>
       <c r="Q21">
         <f t="shared" ref="Q21:Q22" ca="1" si="6">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R21" t="s">
         <v>119</v>
@@ -8922,7 +9009,7 @@
       </c>
       <c r="AB21" t="str">
         <f t="shared" ref="AB21:AB22" ca="1" si="7">_xlfn.CONCAT(A21:AA21)</f>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('답십리FC','답십리FC201018.jpg','성동구','응봉동 구장','blue',1,'2017-01-01',sysdate(),'5678','하나');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('답십리FC','답십리FC201018.jpg','성동구','응봉동 구장','blue',2,'2017-01-01',sysdate(),'5678','하나');</v>
       </c>
     </row>
     <row r="22" spans="1:38">

--- a/docs/srs/fbt_docs.xlsx
+++ b/docs/srs/fbt_docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kjy\fbt\docs\srs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8628B36-E31F-4228-8EEB-2427FAFB2A49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4A1331-E6FA-4362-A0C3-BECD2C69553F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2F0AD6B2-A8A2-4F73-BAF4-7193D3382EE1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="217">
   <si>
     <t>요구사항 정의서</t>
   </si>
@@ -4933,6 +4933,46 @@
   </si>
   <si>
     <t xml:space="preserve">방금 등록된 팀 경기 ID 일정 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S003</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 경기 일정 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 경기 일정 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S004</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 경기 일정 삭제</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 경기 일정 삭제</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">하 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S005</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 경기 일정 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 팀 경기 일정 출력</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5158,7 +5198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -5279,6 +5319,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5288,7 +5365,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5417,6 +5494,42 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5733,13 +5846,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EA499F-775F-49C1-B26C-B60E223B5AF8}">
-  <dimension ref="B1:I52"/>
+  <dimension ref="B1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
+      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -6704,33 +6817,96 @@
       </c>
     </row>
     <row r="50" spans="2:8" ht="31.8" thickBot="1">
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12" t="s">
+      <c r="F50" s="46"/>
+      <c r="G50" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="H50" s="15" t="s">
+      <c r="H50" s="44" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="52.2">
-      <c r="D51" s="35" t="s">
+    <row r="51" spans="2:8" ht="18" thickBot="1">
+      <c r="B51" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="C51" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="D51" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="E51" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="H51" s="47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="18" thickBot="1">
+      <c r="B52" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="C52" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="D52" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="E52" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="H52" s="51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="18" thickBot="1">
+      <c r="B53" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="C53" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="D53" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="E53" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="H53" s="51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="52.2">
+      <c r="D54" s="35" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="52" spans="2:8">
-      <c r="D52" s="36" t="s">
+    <row r="55" spans="2:8">
+      <c r="D55" s="36" t="s">
         <v>193</v>
       </c>
     </row>
@@ -6893,14 +7069,14 @@
       </c>
       <c r="AB1">
         <f ca="1">RANDBETWEEN(170,185)</f>
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="AC1" t="s">
         <v>119</v>
       </c>
       <c r="AD1">
         <f ca="1">RANDBETWEEN(70,80)</f>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE1" t="s">
         <v>119</v>
@@ -6927,7 +7103,7 @@
       </c>
       <c r="AL1" t="str">
         <f ca="1">_xlfn.CONCAT(A1:AK1)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,185,77,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,175,74,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="2" spans="1:38">
@@ -7012,21 +7188,21 @@
       </c>
       <c r="AB2">
         <f t="shared" ref="AB2:AB17" ca="1" si="0">RANDBETWEEN(170,185)</f>
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AC2" t="s">
         <v>119</v>
       </c>
       <c r="AD2">
         <f t="shared" ref="AD2:AD17" ca="1" si="1">RANDBETWEEN(70,80)</f>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AE2" t="s">
         <v>119</v>
       </c>
       <c r="AF2">
         <f t="shared" ref="AF2:AF17" ca="1" si="2">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG2" t="s">
         <v>119</v>
@@ -7046,7 +7222,7 @@
       </c>
       <c r="AL2" t="str">
         <f t="shared" ref="AL2:AL17" ca="1" si="4">_xlfn.CONCAT(A2:AK2)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,170,75,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,176,79,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -7131,21 +7307,21 @@
       </c>
       <c r="AB3">
         <f t="shared" ca="1" si="0"/>
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="AC3" t="s">
         <v>119</v>
       </c>
       <c r="AD3">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AE3" t="s">
         <v>119</v>
       </c>
       <c r="AF3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="s">
         <v>119</v>
@@ -7165,7 +7341,7 @@
       </c>
       <c r="AL3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,179,80,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,171,78,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="4" spans="1:38">
@@ -7250,14 +7426,14 @@
       </c>
       <c r="AB4">
         <f t="shared" ca="1" si="0"/>
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AC4" t="s">
         <v>119</v>
       </c>
       <c r="AD4">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s">
         <v>119</v>
@@ -7271,7 +7447,7 @@
       </c>
       <c r="AH4">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="s">
         <v>119</v>
@@ -7284,7 +7460,7 @@
       </c>
       <c r="AL4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,175,79,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,174,76,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -7369,28 +7545,28 @@
       </c>
       <c r="AB5">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="AC5" t="s">
         <v>119</v>
       </c>
       <c r="AD5">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s">
         <v>119</v>
       </c>
       <c r="AF5">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="s">
         <v>119</v>
       </c>
       <c r="AH5">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5" t="s">
         <v>119</v>
@@ -7403,7 +7579,7 @@
       </c>
       <c r="AL5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,184,78,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,177,77,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -7488,28 +7664,28 @@
       </c>
       <c r="AB6">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AC6" t="s">
         <v>119</v>
       </c>
       <c r="AD6">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s">
         <v>119</v>
       </c>
       <c r="AF6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="s">
         <v>119</v>
       </c>
       <c r="AH6">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="s">
         <v>119</v>
@@ -7522,7 +7698,7 @@
       </c>
       <c r="AL6" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,183,70,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,174,75,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -7607,14 +7783,14 @@
       </c>
       <c r="AB7">
         <f t="shared" ca="1" si="0"/>
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AC7" t="s">
         <v>119</v>
       </c>
       <c r="AD7">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AE7" t="s">
         <v>119</v>
@@ -7628,7 +7804,7 @@
       </c>
       <c r="AH7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="s">
         <v>119</v>
@@ -7641,7 +7817,7 @@
       </c>
       <c r="AL7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,175,74,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,173,72,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -7726,28 +7902,28 @@
       </c>
       <c r="AB8">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AC8" t="s">
         <v>119</v>
       </c>
       <c r="AD8">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AE8" t="s">
         <v>119</v>
       </c>
       <c r="AF8">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" t="s">
         <v>119</v>
       </c>
       <c r="AH8">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8" t="s">
         <v>119</v>
@@ -7760,7 +7936,7 @@
       </c>
       <c r="AL8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,173,76,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,174,74,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -7845,14 +8021,14 @@
       </c>
       <c r="AB9">
         <f t="shared" ca="1" si="0"/>
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AC9" t="s">
         <v>119</v>
       </c>
       <c r="AD9">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s">
         <v>119</v>
@@ -7879,7 +8055,7 @@
       </c>
       <c r="AL9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,181,77,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,183,76,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -7964,7 +8140,7 @@
       </c>
       <c r="AB10">
         <f t="shared" ca="1" si="0"/>
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AC10" t="s">
         <v>119</v>
@@ -7978,7 +8154,7 @@
       </c>
       <c r="AF10">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" t="s">
         <v>119</v>
@@ -7998,7 +8174,7 @@
       </c>
       <c r="AL10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,176,71,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,178,71,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -8083,14 +8259,14 @@
       </c>
       <c r="AB11">
         <f t="shared" ca="1" si="0"/>
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AC11" t="s">
         <v>119</v>
       </c>
       <c r="AD11">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AE11" t="s">
         <v>119</v>
@@ -8117,7 +8293,7 @@
       </c>
       <c r="AL11" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,180,71,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,182,77,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -8202,14 +8378,14 @@
       </c>
       <c r="AB12">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AC12" t="s">
         <v>119</v>
       </c>
       <c r="AD12">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s">
         <v>119</v>
@@ -8223,7 +8399,7 @@
       </c>
       <c r="AH12">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12" t="s">
         <v>119</v>
@@ -8236,7 +8412,7 @@
       </c>
       <c r="AL12" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,184,72,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,178,76,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -8321,21 +8497,21 @@
       </c>
       <c r="AB13">
         <f t="shared" ca="1" si="0"/>
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AC13" t="s">
         <v>119</v>
       </c>
       <c r="AD13">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AE13" t="s">
         <v>119</v>
       </c>
       <c r="AF13">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="s">
         <v>119</v>
@@ -8355,7 +8531,7 @@
       </c>
       <c r="AL13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,176,71,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,173,80,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -8440,28 +8616,28 @@
       </c>
       <c r="AB14">
         <f t="shared" ca="1" si="0"/>
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AC14" t="s">
         <v>119</v>
       </c>
       <c r="AD14">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AE14" t="s">
         <v>119</v>
       </c>
       <c r="AF14">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="s">
         <v>119</v>
       </c>
       <c r="AH14">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="s">
         <v>119</v>
@@ -8474,7 +8650,7 @@
       </c>
       <c r="AL14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,174,70,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,179,77,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -8559,21 +8735,21 @@
       </c>
       <c r="AB15">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="AC15" t="s">
         <v>119</v>
       </c>
       <c r="AD15">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE15" t="s">
         <v>119</v>
       </c>
       <c r="AF15">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="s">
         <v>119</v>
@@ -8593,7 +8769,7 @@
       </c>
       <c r="AL15" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,173,78,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,184,79,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -8685,7 +8861,7 @@
       </c>
       <c r="AD16">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="AE16" t="s">
         <v>119</v>
@@ -8712,7 +8888,7 @@
       </c>
       <c r="AL16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,185,80,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,185,71,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="17" spans="1:38">
@@ -8797,21 +8973,21 @@
       </c>
       <c r="AB17">
         <f t="shared" ca="1" si="0"/>
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AC17" t="s">
         <v>119</v>
       </c>
       <c r="AD17">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AE17" t="s">
         <v>119</v>
       </c>
       <c r="AF17">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG17" t="s">
         <v>119</v>
@@ -8831,7 +9007,7 @@
       </c>
       <c r="AL17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,170,75,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,180,78,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="20" spans="1:38">
@@ -8975,7 +9151,7 @@
       </c>
       <c r="Q21">
         <f t="shared" ref="Q21:Q22" ca="1" si="6">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R21" t="s">
         <v>119</v>
@@ -9009,7 +9185,7 @@
       </c>
       <c r="AB21" t="str">
         <f t="shared" ref="AB21:AB22" ca="1" si="7">_xlfn.CONCAT(A21:AA21)</f>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('답십리FC','답십리FC201018.jpg','성동구','응봉동 구장','blue',2,'2017-01-01',sysdate(),'5678','하나');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('답십리FC','답십리FC201018.jpg','성동구','응봉동 구장','blue',3,'2017-01-01',sysdate(),'5678','하나');</v>
       </c>
     </row>
     <row r="22" spans="1:38">
@@ -9064,7 +9240,7 @@
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R22" t="s">
         <v>119</v>
@@ -9098,7 +9274,7 @@
       </c>
       <c r="AB22" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('대구FC','대구FC201018.jpg','달서구','달서구 구장','green',5,'2018-01-01',sysdate(),'2345','기업');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('대구FC','대구FC201018.jpg','달서구','달서구 구장','green',2,'2018-01-01',sysdate(),'2345','기업');</v>
       </c>
     </row>
     <row r="24" spans="1:38">

--- a/docs/srs/fbt_docs.xlsx
+++ b/docs/srs/fbt_docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kjy\fbt\docs\srs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4A1331-E6FA-4362-A0C3-BECD2C69553F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD358C71-6472-4531-8B1D-4C36BC19D957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2F0AD6B2-A8A2-4F73-BAF4-7193D3382EE1}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="TestCase_SQL" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항명세서!$B$8:$H$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항명세서!$B$8:$H$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="225">
   <si>
     <t>요구사항 정의서</t>
   </si>
@@ -1389,76 +1389,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출력</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>팀원 전체에게 알람 보내기</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2439,10 +2369,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>진행 중 투표 출력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>작성자만 가능(닉은 유니크)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3743,213 +3669,6 @@
       </rPr>
       <t xml:space="preserve"> - transaction
 투표ID 양식 : '팀ID-스케줄ID'</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>또는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>불</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>에러</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기투표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> update</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전환</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화면단에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> V003
-투표결과ID 양식 : '투표ID-팀멤버ID or 이메일(지인)'</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -4039,6 +3758,769 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>초대할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>찾기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 해당 팀 제외한 user 중</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>T006</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 검색</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>투표 혹은 일정 등록 시 상대 팀명으로 검색</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S002</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방금 등록된 팀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">방금 등록된 팀 경기 ID 일정 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S003</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 경기 일정 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 경기 일정 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S004</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 경기 일정 삭제</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 경기 일정 삭제</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">하 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S005</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 경기 일정 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 팀 경기 일정 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀별 투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀별 투표 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V014</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V015</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스케쥴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>스케쥴Id별 투표결과</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스케쥴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">투표 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V016</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대기하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>또는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>또는 대기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> update</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전환</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면단에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> V003
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표결과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀멤버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ID or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">attendance = 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대기임</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>지인 찾기(</t>
     </r>
     <r>
@@ -4054,21 +4536,11 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>후</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후
 해당</t>
     </r>
     <r>
@@ -4772,57 +5244,6 @@
       <t>연결
 마이페이지에서 투표 취소</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>초대할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>찾기</t>
-    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -4832,147 +5253,8 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
-- 해당 팀 제외한 user 중</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>T006</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀 검색</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>투표 혹은 일정 등록 시 상대 팀명으로 검색</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>S002</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>방금 등록된 팀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>경기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ID </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출력</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">방금 등록된 팀 경기 ID 일정 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>S003</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀 경기 일정 수정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록된 경기 일정 수정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>S004</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀 경기 일정 삭제</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록된 경기 일정 삭제</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">하 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>S005</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀 경기 일정 출력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록된 팀 경기 일정 출력</t>
+이미 지난 경기면 입력 방지</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4980,7 +5262,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5117,6 +5399,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Nanum Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -5365,7 +5654,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5477,24 +5766,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5530,6 +5801,27 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5846,13 +6138,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EA499F-775F-49C1-B26C-B60E223B5AF8}">
-  <dimension ref="B1:I55"/>
+  <dimension ref="B1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -5870,10 +6162,10 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18" thickBot="1"/>
     <row r="2" spans="2:9" ht="18" thickBot="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="52"/>
       <c r="E2" s="3" t="s">
         <v>63</v>
       </c>
@@ -5919,55 +6211,55 @@
         <v>62</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="18" thickBot="1">
       <c r="E6" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="18" thickBot="1"/>
     <row r="8" spans="2:9" ht="18" thickBot="1">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="37" t="s">
+      <c r="F8" s="54"/>
+      <c r="G8" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="37" t="s">
-        <v>167</v>
+      <c r="I8" s="49" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="18" thickBot="1">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
       <c r="E9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
     </row>
     <row r="10" spans="2:9" ht="27" thickBot="1">
       <c r="B10" s="11" t="s">
@@ -6042,7 +6334,7 @@
         <v>32</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>30</v>
@@ -6060,7 +6352,7 @@
         <v>68</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>34</v>
@@ -6081,7 +6373,7 @@
         <v>69</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>36</v>
@@ -6097,7 +6389,7 @@
         <v>16</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="18" thickBot="1">
@@ -6105,10 +6397,10 @@
         <v>38</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>30</v>
@@ -6121,18 +6413,18 @@
         <v>25</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="18" thickBot="1">
       <c r="B17" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>170</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>171</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>30</v>
@@ -6146,15 +6438,15 @@
       </c>
       <c r="I17" s="32"/>
     </row>
-    <row r="18" spans="2:9" ht="45" thickBot="1">
+    <row r="18" spans="2:9" ht="61.2" thickBot="1">
       <c r="B18" s="17" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>30</v>
@@ -6167,10 +6459,10 @@
         <v>25</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="156.6" thickBot="1">
+    <row r="19" spans="2:9" ht="169.8" thickBot="1">
       <c r="B19" s="17" t="s">
         <v>40</v>
       </c>
@@ -6178,7 +6470,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>30</v>
@@ -6191,7 +6483,7 @@
         <v>25</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="91.8" thickBot="1">
@@ -6202,7 +6494,7 @@
         <v>43</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>44</v>
@@ -6215,7 +6507,7 @@
         <v>45</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="324.60000000000002" thickBot="1">
@@ -6223,10 +6515,10 @@
         <v>46</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>44</v>
@@ -6262,24 +6554,24 @@
         <v>45</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="29.4" thickBot="1">
       <c r="B23" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>175</v>
-      </c>
       <c r="D23" s="18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
@@ -6287,19 +6579,19 @@
     </row>
     <row r="24" spans="2:9" ht="18" thickBot="1">
       <c r="B24" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>177</v>
-      </c>
       <c r="D24" s="18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
@@ -6307,19 +6599,19 @@
     </row>
     <row r="25" spans="2:9" ht="29.4" thickBot="1">
       <c r="B25" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>179</v>
-      </c>
       <c r="D25" s="18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
@@ -6327,13 +6619,13 @@
     </row>
     <row r="26" spans="2:9" ht="18" thickBot="1">
       <c r="B26" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>185</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>187</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>30</v>
@@ -6345,13 +6637,13 @@
     </row>
     <row r="27" spans="2:9" ht="18" thickBot="1">
       <c r="B27" s="34" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>30</v>
@@ -6363,13 +6655,13 @@
     </row>
     <row r="28" spans="2:9" ht="29.4" thickBot="1">
       <c r="B28" s="34" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>30</v>
@@ -6380,77 +6672,68 @@
       <c r="I28" s="33"/>
     </row>
     <row r="29" spans="2:9" ht="18" thickBot="1">
-      <c r="B29" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="B29" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="33"/>
     </row>
     <row r="30" spans="2:9" ht="18" thickBot="1">
-      <c r="B30" s="20" t="s">
-        <v>26</v>
+      <c r="B30" s="34" t="s">
+        <v>216</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>25</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="33"/>
     </row>
-    <row r="31" spans="2:9" ht="27" thickBot="1">
-      <c r="B31" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>45</v>
-      </c>
+    <row r="31" spans="2:9" ht="31.8" thickBot="1">
+      <c r="B31" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="33"/>
     </row>
     <row r="32" spans="2:9" ht="18" thickBot="1">
       <c r="B32" s="20" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>44</v>
@@ -6460,18 +6743,18 @@
         <v>16</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="18" thickBot="1">
       <c r="B33" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>73</v>
+        <v>26</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>44</v>
@@ -6481,18 +6764,18 @@
         <v>16</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="91.8" thickBot="1">
+    <row r="34" spans="2:8" ht="27" thickBot="1">
       <c r="B34" s="20" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>81</v>
+        <v>55</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>44</v>
@@ -6507,13 +6790,13 @@
     </row>
     <row r="35" spans="2:8" ht="18" thickBot="1">
       <c r="B35" s="20" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>44</v>
@@ -6522,82 +6805,82 @@
       <c r="G35" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="15" t="s">
-        <v>45</v>
+      <c r="H35" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="31.8" thickBot="1">
+    <row r="36" spans="2:8" ht="18" thickBot="1">
       <c r="B36" s="20" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="18" thickBot="1">
-      <c r="B37" s="22" t="s">
-        <v>70</v>
+    <row r="37" spans="2:8" ht="91.8" thickBot="1">
+      <c r="B37" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="18" thickBot="1">
-      <c r="B38" s="22" t="s">
-        <v>83</v>
+      <c r="B38" s="20" t="s">
+        <v>76</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>24</v>
+        <v>77</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="12" t="s">
-        <v>25</v>
+      <c r="H38" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="18" thickBot="1">
-      <c r="B39" s="22" t="s">
-        <v>87</v>
+    <row r="39" spans="2:8" ht="31.8" thickBot="1">
+      <c r="B39" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>89</v>
+        <v>80</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>82</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>44</v>
@@ -6606,85 +6889,85 @@
       <c r="G39" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H39" s="12" t="s">
-        <v>25</v>
+      <c r="H39" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="18" thickBot="1">
       <c r="B40" s="22" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>30</v>
+        <v>72</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="18" thickBot="1">
       <c r="B41" s="22" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="18" thickBot="1">
       <c r="B42" s="22" t="s">
-        <v>201</v>
+        <v>86</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>202</v>
+        <v>87</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>203</v>
+        <v>88</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>44</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="18" thickBot="1">
-      <c r="B43" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>100</v>
+      <c r="B43" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>44</v>
+        <v>92</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="12" t="s">
@@ -6695,16 +6978,16 @@
       </c>
     </row>
     <row r="44" spans="2:8" ht="18" thickBot="1">
-      <c r="B44" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E44" s="12" t="s">
+      <c r="B44" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" s="15" t="s">
         <v>44</v>
       </c>
       <c r="F44" s="12"/>
@@ -6712,20 +6995,20 @@
         <v>16</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="18" thickBot="1">
-      <c r="B45" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" s="12" t="s">
+      <c r="B45" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E45" s="15" t="s">
         <v>44</v>
       </c>
       <c r="F45" s="12"/>
@@ -6733,18 +7016,18 @@
         <v>16</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="18" thickBot="1">
       <c r="B46" s="29" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>108</v>
+        <v>99</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>44</v>
@@ -6754,18 +7037,18 @@
         <v>16</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="18" thickBot="1">
       <c r="B47" s="29" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>44</v>
@@ -6780,12 +7063,14 @@
     </row>
     <row r="48" spans="2:8" ht="18" thickBot="1">
       <c r="B48" s="29" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D48" s="18"/>
+        <v>103</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>104</v>
+      </c>
       <c r="E48" s="12" t="s">
         <v>44</v>
       </c>
@@ -6793,17 +7078,19 @@
       <c r="G48" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H48" s="12"/>
+      <c r="H48" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="49" spans="2:8" ht="31.8" thickBot="1">
-      <c r="B49" s="31" t="s">
-        <v>161</v>
+    <row r="49" spans="2:8" ht="18" thickBot="1">
+      <c r="B49" s="29" t="s">
+        <v>105</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>44</v>
@@ -6813,105 +7100,164 @@
         <v>16</v>
       </c>
       <c r="H49" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="18" thickBot="1">
+      <c r="B50" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="12" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="31.8" thickBot="1">
-      <c r="B50" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="C50" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="D50" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="E50" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="H50" s="44" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="18" thickBot="1">
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" s="18"/>
+      <c r="E51" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="12"/>
+    </row>
+    <row r="52" spans="2:8" ht="31.8" thickBot="1">
+      <c r="B52" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="31.8" thickBot="1">
+      <c r="B53" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E53" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="18" thickBot="1">
+      <c r="B54" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="D54" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="E54" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="H54" s="41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="18" thickBot="1">
+      <c r="B55" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="C55" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="C51" s="47" t="s">
+      <c r="D55" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="D51" s="48" t="s">
+      <c r="E55" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="E51" s="47" t="s">
+      <c r="H55" s="45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="18" thickBot="1">
+      <c r="B56" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="C56" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="D56" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="E56" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="H51" s="47" t="s">
+      <c r="F56" s="47"/>
+      <c r="G56" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="H56" s="45" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="18" thickBot="1">
-      <c r="B52" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="C52" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="D52" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="E52" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="H52" s="51" t="s">
-        <v>25</v>
+    <row r="57" spans="2:8" ht="52.2">
+      <c r="D57" s="35" t="s">
+        <v>189</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="18" thickBot="1">
-      <c r="B53" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="C53" s="51" t="s">
-        <v>215</v>
-      </c>
-      <c r="D53" s="54" t="s">
-        <v>216</v>
-      </c>
-      <c r="E53" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="H53" s="51" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="52.2">
-      <c r="D54" s="35" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="D55" s="36" t="s">
-        <v>193</v>
+    <row r="58" spans="2:8">
+      <c r="D58" s="36" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B8:H49" xr:uid="{08681459-A406-4CEE-9A8A-D3DF83B63176}">
+  <autoFilter ref="B8:H52" xr:uid="{08681459-A406-4CEE-9A8A-D3DF83B63176}">
     <filterColumn colId="3" showButton="0"/>
   </autoFilter>
   <mergeCells count="8">
@@ -6945,7 +7291,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1">
         <v>3</v>
@@ -6953,7 +7299,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -6961,7 +7307,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -6989,2343 +7335,2343 @@
   <sheetData>
     <row r="1" spans="1:38">
       <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" t="s">
         <v>121</v>
       </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
-      </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F1" s="23"/>
       <c r="G1" s="23">
         <v>1</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M1" s="24">
         <v>1</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P1" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>118</v>
+      </c>
+      <c r="R1" t="s">
         <v>124</v>
       </c>
-      <c r="Q1" t="s">
-        <v>119</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
+        <v>118</v>
+      </c>
+      <c r="T1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U1" t="s">
+        <v>118</v>
+      </c>
+      <c r="V1" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="S1" t="s">
-        <v>119</v>
-      </c>
-      <c r="T1" t="s">
-        <v>125</v>
-      </c>
-      <c r="U1" t="s">
-        <v>119</v>
-      </c>
-      <c r="V1" s="24" t="s">
+      <c r="W1" t="s">
+        <v>118</v>
+      </c>
+      <c r="X1" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="W1" t="s">
-        <v>119</v>
-      </c>
-      <c r="X1" s="24" t="s">
+      <c r="Y1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z1" t="s">
         <v>127</v>
       </c>
-      <c r="Y1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>128</v>
-      </c>
       <c r="AA1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB1">
         <f ca="1">RANDBETWEEN(170,185)</f>
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="AC1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD1">
         <f ca="1">RANDBETWEEN(70,80)</f>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF1">
         <f ca="1">RANDBETWEEN(0,1)</f>
         <v>1</v>
       </c>
       <c r="AG1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AH1">
         <f ca="1">RANDBETWEEN(0,1)</f>
         <v>0</v>
       </c>
       <c r="AI1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AJ1" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK1" s="24" t="s">
         <v>129</v>
-      </c>
-      <c r="AK1" s="24" t="s">
-        <v>130</v>
       </c>
       <c r="AL1" t="str">
         <f ca="1">_xlfn.CONCAT(A1:AK1)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,175,74,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,182,73,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="2" spans="1:38">
       <c r="A2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" t="s">
         <v>121</v>
       </c>
-      <c r="B2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" t="s">
-        <v>122</v>
-      </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="23">
         <v>2</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M2" s="24">
         <v>1</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P2" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>118</v>
+      </c>
+      <c r="R2" t="s">
         <v>124</v>
       </c>
-      <c r="Q2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R2" t="s">
-        <v>125</v>
-      </c>
       <c r="S2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V2" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="W2" t="s">
+        <v>118</v>
+      </c>
+      <c r="X2" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="W2" t="s">
-        <v>119</v>
-      </c>
-      <c r="X2" s="24" t="s">
-        <v>134</v>
-      </c>
       <c r="Y2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Z2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB2">
         <f t="shared" ref="AB2:AB17" ca="1" si="0">RANDBETWEEN(170,185)</f>
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="AC2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD2">
         <f t="shared" ref="AD2:AD17" ca="1" si="1">RANDBETWEEN(70,80)</f>
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AE2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF2">
         <f t="shared" ref="AF2:AF17" ca="1" si="2">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AH2">
         <f t="shared" ref="AH2:AH17" ca="1" si="3">RANDBETWEEN(0,1)</f>
         <v>1</v>
       </c>
       <c r="AI2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AJ2" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK2" s="24" t="s">
         <v>129</v>
-      </c>
-      <c r="AK2" s="24" t="s">
-        <v>130</v>
       </c>
       <c r="AL2" t="str">
         <f t="shared" ref="AL2:AL17" ca="1" si="4">_xlfn.CONCAT(A2:AK2)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,176,79,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,184,74,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="3" spans="1:38">
       <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
         <v>121</v>
       </c>
-      <c r="B3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" t="s">
-        <v>122</v>
-      </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F3" s="23"/>
       <c r="G3" s="23">
         <v>3</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M3" s="24">
         <v>1</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P3" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>118</v>
+      </c>
+      <c r="R3" t="s">
         <v>124</v>
       </c>
-      <c r="Q3" t="s">
-        <v>119</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
+        <v>118</v>
+      </c>
+      <c r="T3" t="s">
+        <v>124</v>
+      </c>
+      <c r="U3" t="s">
+        <v>118</v>
+      </c>
+      <c r="V3" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="S3" t="s">
-        <v>119</v>
-      </c>
-      <c r="T3" t="s">
-        <v>125</v>
-      </c>
-      <c r="U3" t="s">
-        <v>119</v>
-      </c>
-      <c r="V3" s="24" t="s">
-        <v>126</v>
-      </c>
       <c r="W3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X3" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Z3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB3">
         <f t="shared" ca="1" si="0"/>
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AC3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD3">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AE3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AH3">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AJ3" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK3" s="24" t="s">
         <v>129</v>
-      </c>
-      <c r="AK3" s="24" t="s">
-        <v>130</v>
       </c>
       <c r="AL3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,171,78,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,173,71,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="4" spans="1:38">
       <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
         <v>121</v>
       </c>
-      <c r="B4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" t="s">
-        <v>122</v>
-      </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23">
         <v>4</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M4" s="24">
         <v>1</v>
       </c>
       <c r="N4" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P4" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>118</v>
+      </c>
+      <c r="R4" t="s">
         <v>124</v>
       </c>
-      <c r="Q4" t="s">
-        <v>119</v>
-      </c>
-      <c r="R4" t="s">
-        <v>125</v>
-      </c>
       <c r="S4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V4" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X4" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z4" t="s">
         <v>127</v>
       </c>
-      <c r="Y4" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>128</v>
-      </c>
       <c r="AA4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB4">
         <f t="shared" ca="1" si="0"/>
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AC4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD4">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AH4">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AI4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AJ4" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK4" s="24" t="s">
         <v>129</v>
-      </c>
-      <c r="AK4" s="24" t="s">
-        <v>130</v>
       </c>
       <c r="AL4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,174,76,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,181,73,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="5" spans="1:38">
       <c r="A5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" t="s">
         <v>121</v>
       </c>
-      <c r="B5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" t="s">
-        <v>122</v>
-      </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="23">
         <v>5</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M5" s="24">
         <v>1</v>
       </c>
       <c r="N5" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P5" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>118</v>
+      </c>
+      <c r="R5" t="s">
         <v>124</v>
       </c>
-      <c r="Q5" t="s">
-        <v>119</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
+        <v>118</v>
+      </c>
+      <c r="T5" t="s">
+        <v>124</v>
+      </c>
+      <c r="U5" t="s">
+        <v>118</v>
+      </c>
+      <c r="V5" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="S5" t="s">
-        <v>119</v>
-      </c>
-      <c r="T5" t="s">
-        <v>125</v>
-      </c>
-      <c r="U5" t="s">
-        <v>119</v>
-      </c>
-      <c r="V5" s="24" t="s">
-        <v>126</v>
-      </c>
       <c r="W5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X5" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Z5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB5">
         <f t="shared" ca="1" si="0"/>
         <v>177</v>
       </c>
       <c r="AC5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD5">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF5">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AG5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AH5">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AJ5" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK5" s="24" t="s">
         <v>129</v>
-      </c>
-      <c r="AK5" s="24" t="s">
-        <v>130</v>
       </c>
       <c r="AL5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,177,77,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,177,74,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="6" spans="1:38">
       <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
         <v>121</v>
       </c>
-      <c r="B6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" t="s">
-        <v>122</v>
-      </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="23">
         <v>6</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M6" s="24">
         <v>1</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P6" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>118</v>
+      </c>
+      <c r="R6" t="s">
         <v>124</v>
       </c>
-      <c r="Q6" t="s">
-        <v>119</v>
-      </c>
-      <c r="R6" t="s">
-        <v>125</v>
-      </c>
       <c r="S6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V6" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X6" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Z6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB6">
         <f t="shared" ca="1" si="0"/>
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AC6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD6">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AE6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF6">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AH6">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AJ6" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK6" s="24" t="s">
         <v>129</v>
-      </c>
-      <c r="AK6" s="24" t="s">
-        <v>130</v>
       </c>
       <c r="AL6" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,174,75,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,179,78,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="7" spans="1:38">
       <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" t="s">
         <v>121</v>
       </c>
-      <c r="B7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" t="s">
-        <v>122</v>
-      </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="23">
         <v>7</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M7" s="24">
         <v>1</v>
       </c>
       <c r="N7" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P7" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>118</v>
+      </c>
+      <c r="R7" t="s">
         <v>124</v>
       </c>
-      <c r="Q7" t="s">
-        <v>119</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
+        <v>118</v>
+      </c>
+      <c r="T7" t="s">
+        <v>124</v>
+      </c>
+      <c r="U7" t="s">
+        <v>118</v>
+      </c>
+      <c r="V7" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="S7" t="s">
-        <v>119</v>
-      </c>
-      <c r="T7" t="s">
-        <v>125</v>
-      </c>
-      <c r="U7" t="s">
-        <v>119</v>
-      </c>
-      <c r="V7" s="24" t="s">
+      <c r="W7" t="s">
+        <v>118</v>
+      </c>
+      <c r="X7" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="W7" t="s">
-        <v>119</v>
-      </c>
-      <c r="X7" s="24" t="s">
+      <c r="Y7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z7" t="s">
         <v>127</v>
       </c>
-      <c r="Y7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>128</v>
-      </c>
       <c r="AA7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB7">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AC7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD7">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF7">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AG7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AH7">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="AI7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AJ7" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK7" s="24" t="s">
         <v>129</v>
-      </c>
-      <c r="AK7" s="24" t="s">
-        <v>130</v>
       </c>
       <c r="AL7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,173,72,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,174,71,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="8" spans="1:38">
       <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" t="s">
         <v>121</v>
       </c>
-      <c r="B8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" t="s">
-        <v>122</v>
-      </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="23">
         <v>8</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M8" s="24">
         <v>1</v>
       </c>
       <c r="N8" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P8" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>118</v>
+      </c>
+      <c r="R8" t="s">
         <v>124</v>
       </c>
-      <c r="Q8" t="s">
-        <v>119</v>
-      </c>
-      <c r="R8" t="s">
-        <v>125</v>
-      </c>
       <c r="S8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V8" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="W8" t="s">
+        <v>118</v>
+      </c>
+      <c r="X8" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="W8" t="s">
-        <v>119</v>
-      </c>
-      <c r="X8" s="24" t="s">
-        <v>134</v>
-      </c>
       <c r="Y8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Z8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB8">
         <f t="shared" ca="1" si="0"/>
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AC8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD8">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF8">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AH8">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="AI8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AJ8" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK8" s="24" t="s">
         <v>129</v>
-      </c>
-      <c r="AK8" s="24" t="s">
-        <v>130</v>
       </c>
       <c r="AL8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,174,74,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,176,76,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="9" spans="1:38">
       <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" t="s">
         <v>121</v>
       </c>
-      <c r="B9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" t="s">
-        <v>122</v>
-      </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="23">
         <v>9</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M9" s="24">
         <v>1</v>
       </c>
       <c r="N9" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P9" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>118</v>
+      </c>
+      <c r="R9" t="s">
         <v>124</v>
       </c>
-      <c r="Q9" t="s">
-        <v>119</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
+        <v>118</v>
+      </c>
+      <c r="T9" t="s">
+        <v>124</v>
+      </c>
+      <c r="U9" t="s">
+        <v>118</v>
+      </c>
+      <c r="V9" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="S9" t="s">
-        <v>119</v>
-      </c>
-      <c r="T9" t="s">
-        <v>125</v>
-      </c>
-      <c r="U9" t="s">
-        <v>119</v>
-      </c>
-      <c r="V9" s="24" t="s">
-        <v>126</v>
-      </c>
       <c r="W9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X9" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Z9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB9">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AC9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD9">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AE9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF9">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AH9">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AJ9" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK9" s="24" t="s">
         <v>129</v>
-      </c>
-      <c r="AK9" s="24" t="s">
-        <v>130</v>
       </c>
       <c r="AL9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,183,76,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,181,80,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="10" spans="1:38">
       <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" t="s">
         <v>121</v>
       </c>
-      <c r="B10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" t="s">
-        <v>122</v>
-      </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23">
         <v>10</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M10" s="24">
         <v>1</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P10" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>118</v>
+      </c>
+      <c r="R10" t="s">
         <v>124</v>
       </c>
-      <c r="Q10" t="s">
-        <v>119</v>
-      </c>
-      <c r="R10" t="s">
-        <v>125</v>
-      </c>
       <c r="S10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V10" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X10" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z10" t="s">
         <v>127</v>
       </c>
-      <c r="Y10" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>128</v>
-      </c>
       <c r="AA10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB10">
         <f t="shared" ca="1" si="0"/>
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="AC10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD10">
         <f t="shared" ca="1" si="1"/>
         <v>71</v>
       </c>
       <c r="AE10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF10">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AH10">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AI10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AJ10" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK10" s="24" t="s">
         <v>129</v>
-      </c>
-      <c r="AK10" s="24" t="s">
-        <v>130</v>
       </c>
       <c r="AL10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,178,71,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,170,71,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="11" spans="1:38">
       <c r="A11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" t="s">
         <v>121</v>
       </c>
-      <c r="B11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" t="s">
-        <v>122</v>
-      </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="23">
         <v>11</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M11" s="24">
         <v>1</v>
       </c>
       <c r="N11" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P11" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>118</v>
+      </c>
+      <c r="R11" t="s">
         <v>124</v>
       </c>
-      <c r="Q11" t="s">
-        <v>119</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
+        <v>118</v>
+      </c>
+      <c r="T11" t="s">
+        <v>124</v>
+      </c>
+      <c r="U11" t="s">
+        <v>118</v>
+      </c>
+      <c r="V11" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="S11" t="s">
-        <v>119</v>
-      </c>
-      <c r="T11" t="s">
-        <v>125</v>
-      </c>
-      <c r="U11" t="s">
-        <v>119</v>
-      </c>
-      <c r="V11" s="24" t="s">
-        <v>126</v>
-      </c>
       <c r="W11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X11" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Z11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB11">
         <f t="shared" ca="1" si="0"/>
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="AC11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD11">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AE11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF11">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AG11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AH11">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AJ11" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK11" s="24" t="s">
         <v>129</v>
-      </c>
-      <c r="AK11" s="24" t="s">
-        <v>130</v>
       </c>
       <c r="AL11" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,182,77,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,172,73,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="12" spans="1:38">
       <c r="A12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" t="s">
         <v>121</v>
       </c>
-      <c r="B12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" t="s">
-        <v>122</v>
-      </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="23">
         <v>12</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M12" s="24">
         <v>1</v>
       </c>
       <c r="N12" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P12" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>118</v>
+      </c>
+      <c r="R12" t="s">
         <v>124</v>
       </c>
-      <c r="Q12" t="s">
-        <v>119</v>
-      </c>
-      <c r="R12" t="s">
-        <v>125</v>
-      </c>
       <c r="S12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V12" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X12" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Z12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB12">
         <f t="shared" ca="1" si="0"/>
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AC12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD12">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AE12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF12">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="AG12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AH12">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="AI12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AJ12" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK12" s="24" t="s">
         <v>129</v>
-      </c>
-      <c r="AK12" s="24" t="s">
-        <v>130</v>
       </c>
       <c r="AL12" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,178,76,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,175,70,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="13" spans="1:38">
       <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
         <v>121</v>
       </c>
-      <c r="B13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" t="s">
-        <v>122</v>
-      </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="23">
         <v>13</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M13" s="24">
         <v>1</v>
       </c>
       <c r="N13" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P13" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>118</v>
+      </c>
+      <c r="R13" t="s">
         <v>124</v>
       </c>
-      <c r="Q13" t="s">
-        <v>119</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
+        <v>118</v>
+      </c>
+      <c r="T13" t="s">
+        <v>124</v>
+      </c>
+      <c r="U13" t="s">
+        <v>118</v>
+      </c>
+      <c r="V13" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="S13" t="s">
-        <v>119</v>
-      </c>
-      <c r="T13" t="s">
-        <v>125</v>
-      </c>
-      <c r="U13" t="s">
-        <v>119</v>
-      </c>
-      <c r="V13" s="24" t="s">
+      <c r="W13" t="s">
+        <v>118</v>
+      </c>
+      <c r="X13" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="W13" t="s">
-        <v>119</v>
-      </c>
-      <c r="X13" s="24" t="s">
+      <c r="Y13" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z13" t="s">
         <v>127</v>
       </c>
-      <c r="Y13" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>128</v>
-      </c>
       <c r="AA13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB13">
         <f t="shared" ca="1" si="0"/>
         <v>173</v>
       </c>
       <c r="AC13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD13">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AE13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF13">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AG13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AH13">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="AI13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AJ13" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK13" s="24" t="s">
         <v>129</v>
-      </c>
-      <c r="AK13" s="24" t="s">
-        <v>130</v>
       </c>
       <c r="AL13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,173,80,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,173,77,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="14" spans="1:38">
       <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" t="s">
         <v>121</v>
       </c>
-      <c r="B14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" t="s">
-        <v>122</v>
-      </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23">
         <v>14</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M14" s="24">
         <v>1</v>
       </c>
       <c r="N14" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P14" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>118</v>
+      </c>
+      <c r="R14" t="s">
         <v>124</v>
       </c>
-      <c r="Q14" t="s">
-        <v>119</v>
-      </c>
-      <c r="R14" t="s">
-        <v>125</v>
-      </c>
       <c r="S14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V14" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="W14" t="s">
+        <v>118</v>
+      </c>
+      <c r="X14" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="W14" t="s">
-        <v>119</v>
-      </c>
-      <c r="X14" s="24" t="s">
-        <v>134</v>
-      </c>
       <c r="Y14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Z14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB14">
         <f t="shared" ca="1" si="0"/>
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AC14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD14">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AE14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF14">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AH14">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AI14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AJ14" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK14" s="24" t="s">
         <v>129</v>
-      </c>
-      <c r="AK14" s="24" t="s">
-        <v>130</v>
       </c>
       <c r="AL14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,179,77,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,174,80,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="15" spans="1:38">
       <c r="A15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" t="s">
         <v>121</v>
       </c>
-      <c r="B15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" t="s">
-        <v>122</v>
-      </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="23">
         <v>15</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M15" s="24">
         <v>1</v>
       </c>
       <c r="N15" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P15" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>118</v>
+      </c>
+      <c r="R15" t="s">
         <v>124</v>
       </c>
-      <c r="Q15" t="s">
-        <v>119</v>
-      </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
+        <v>118</v>
+      </c>
+      <c r="T15" t="s">
+        <v>124</v>
+      </c>
+      <c r="U15" t="s">
+        <v>118</v>
+      </c>
+      <c r="V15" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="S15" t="s">
-        <v>119</v>
-      </c>
-      <c r="T15" t="s">
-        <v>125</v>
-      </c>
-      <c r="U15" t="s">
-        <v>119</v>
-      </c>
-      <c r="V15" s="24" t="s">
-        <v>126</v>
-      </c>
       <c r="W15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X15" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Z15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB15">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AC15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD15">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AE15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF15">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AH15">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AJ15" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK15" s="24" t="s">
         <v>129</v>
-      </c>
-      <c r="AK15" s="24" t="s">
-        <v>130</v>
       </c>
       <c r="AL15" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,184,79,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,183,74,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="16" spans="1:38">
       <c r="A16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" t="s">
         <v>121</v>
       </c>
-      <c r="B16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" t="s">
-        <v>122</v>
-      </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="23">
         <v>16</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M16" s="24">
         <v>1</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P16" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>118</v>
+      </c>
+      <c r="R16" t="s">
         <v>124</v>
       </c>
-      <c r="Q16" t="s">
-        <v>119</v>
-      </c>
-      <c r="R16" t="s">
-        <v>125</v>
-      </c>
       <c r="S16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V16" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X16" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z16" t="s">
         <v>127</v>
       </c>
-      <c r="Y16" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>128</v>
-      </c>
       <c r="AA16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB16">
         <f t="shared" ca="1" si="0"/>
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="AC16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD16">
         <f t="shared" ca="1" si="1"/>
         <v>71</v>
       </c>
       <c r="AE16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF16">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AH16">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AJ16" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK16" s="24" t="s">
         <v>129</v>
-      </c>
-      <c r="AK16" s="24" t="s">
-        <v>130</v>
       </c>
       <c r="AL16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,185,71,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,175,71,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="17" spans="1:38">
       <c r="A17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" t="s">
         <v>121</v>
       </c>
-      <c r="B17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" t="s">
-        <v>122</v>
-      </c>
       <c r="D17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="23">
         <v>17</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M17" s="24">
         <v>1</v>
       </c>
       <c r="N17" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P17" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>118</v>
+      </c>
+      <c r="R17" t="s">
         <v>124</v>
       </c>
-      <c r="Q17" t="s">
-        <v>119</v>
-      </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
+        <v>118</v>
+      </c>
+      <c r="T17" t="s">
+        <v>124</v>
+      </c>
+      <c r="U17" t="s">
+        <v>118</v>
+      </c>
+      <c r="V17" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="S17" t="s">
-        <v>119</v>
-      </c>
-      <c r="T17" t="s">
-        <v>125</v>
-      </c>
-      <c r="U17" t="s">
-        <v>119</v>
-      </c>
-      <c r="V17" s="24" t="s">
-        <v>126</v>
-      </c>
       <c r="W17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X17" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Z17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB17">
         <f t="shared" ca="1" si="0"/>
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AC17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD17">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF17">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="AG17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AH17">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AI17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AJ17" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK17" s="24" t="s">
         <v>129</v>
-      </c>
-      <c r="AK17" s="24" t="s">
-        <v>130</v>
       </c>
       <c r="AL17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,180,78,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,173,76,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="20" spans="1:38">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" t="s">
         <v>137</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="D20" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>139</v>
-      </c>
       <c r="F20" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H20" t="str">
         <f>E20</f>
         <v>'왕십리FC</v>
       </c>
       <c r="I20" t="s">
+        <v>139</v>
+      </c>
+      <c r="J20" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="J20" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="24" t="s">
+      <c r="L20" t="s">
+        <v>118</v>
+      </c>
+      <c r="M20" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="L20" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="24" t="s">
+      <c r="N20" t="s">
+        <v>118</v>
+      </c>
+      <c r="O20" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="N20" t="s">
-        <v>119</v>
-      </c>
-      <c r="O20" s="24" t="s">
-        <v>143</v>
-      </c>
       <c r="P20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q20">
         <f ca="1">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S20" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="W20" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X20">
         <v>1234</v>
       </c>
       <c r="Y20" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z20" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="Z20" s="24" t="s">
-        <v>146</v>
-      </c>
       <c r="AA20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AB20" t="str">
         <f ca="1">_xlfn.CONCAT(A20:AA20)</f>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('왕십리FC','왕십리FC201018.jpg','성동구','성동구 구장','red',2,'2016-01-01',sysdate(),'1234','기업');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('왕십리FC','왕십리FC201018.jpg','성동구','성동구 구장','red',3,'2016-01-01',sysdate(),'1234','기업');</v>
       </c>
     </row>
     <row r="21" spans="1:38">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" t="s">
         <v>137</v>
       </c>
-      <c r="C21" t="s">
-        <v>138</v>
-      </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" ref="H21:H22" si="5">E21</f>
         <v>'답십리FC</v>
       </c>
       <c r="I21" t="s">
+        <v>139</v>
+      </c>
+      <c r="J21" t="s">
+        <v>118</v>
+      </c>
+      <c r="K21" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="J21" t="s">
-        <v>119</v>
-      </c>
-      <c r="K21" s="24" t="s">
-        <v>141</v>
-      </c>
       <c r="L21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M21" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O21" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q21">
         <f t="shared" ref="Q21:Q22" ca="1" si="6">RANDBETWEEN(0,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S21" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="W21" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X21">
         <v>5678</v>
       </c>
       <c r="Y21" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z21" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AA21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AB21" t="str">
         <f t="shared" ref="AB21:AB22" ca="1" si="7">_xlfn.CONCAT(A21:AA21)</f>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('답십리FC','답십리FC201018.jpg','성동구','응봉동 구장','blue',3,'2017-01-01',sysdate(),'5678','하나');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('답십리FC','답십리FC201018.jpg','성동구','응봉동 구장','blue',4,'2017-01-01',sysdate(),'5678','하나');</v>
       </c>
     </row>
     <row r="22" spans="1:38">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" t="s">
         <v>137</v>
       </c>
-      <c r="C22" t="s">
-        <v>138</v>
-      </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="5"/>
         <v>'대구FC</v>
       </c>
       <c r="I22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O22" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S22" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="W22" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X22">
         <v>2345</v>
       </c>
       <c r="Y22" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z22" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="Z22" s="24" t="s">
-        <v>146</v>
-      </c>
       <c r="AA22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AB22" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('대구FC','대구FC201018.jpg','달서구','달서구 구장','green',2,'2018-01-01',sysdate(),'2345','기업');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('대구FC','대구FC201018.jpg','달서구','달서구 구장','green',3,'2018-01-01',sysdate(),'2345','기업');</v>
       </c>
     </row>
     <row r="24" spans="1:38">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F24">
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L24" t="str">
         <f>_xlfn.CONCAT(E1:H1)</f>
         <v>'bioman1@gmail.com'</v>
       </c>
       <c r="M24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N24" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O24">
         <v>1</v>
       </c>
       <c r="P24" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q24" t="str">
         <f>_xlfn.CONCAT(A24:P24)</f>
@@ -9334,53 +9680,53 @@
     </row>
     <row r="25" spans="1:38">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F25">
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" ref="L25:L28" si="8">_xlfn.CONCAT(E2:H2)</f>
         <v>'bioman2@gmail.com'</v>
       </c>
       <c r="M25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N25" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O25">
         <v>2</v>
       </c>
       <c r="P25" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q25" t="str">
         <f t="shared" ref="Q25:Q28" si="9">_xlfn.CONCAT(A25:P25)</f>
@@ -9389,53 +9735,53 @@
     </row>
     <row r="26" spans="1:38">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" si="8"/>
         <v>'bioman3@gmail.com'</v>
       </c>
       <c r="M26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N26" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O26">
         <v>3</v>
       </c>
       <c r="P26" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q26" t="str">
         <f t="shared" si="9"/>
@@ -9444,53 +9790,53 @@
     </row>
     <row r="27" spans="1:38">
       <c r="A27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" si="8"/>
         <v>'bioman4@gmail.com'</v>
       </c>
       <c r="M27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N27" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O27">
         <v>4</v>
       </c>
       <c r="P27" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q27" t="str">
         <f t="shared" si="9"/>
@@ -9499,53 +9845,53 @@
     </row>
     <row r="28" spans="1:38">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" si="8"/>
         <v>'bioman5@gmail.com'</v>
       </c>
       <c r="M28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N28" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O28">
         <v>5</v>
       </c>
       <c r="P28" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q28" t="str">
         <f t="shared" si="9"/>
@@ -9554,53 +9900,53 @@
     </row>
     <row r="29" spans="1:38">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F29">
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J29">
         <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L29" t="str">
         <f>_xlfn.CONCAT(E6:H6)</f>
         <v>'bioman6@gmail.com'</v>
       </c>
       <c r="M29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N29" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O29">
         <v>1</v>
       </c>
       <c r="P29" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q29" t="str">
         <f>_xlfn.CONCAT(A29:P29)</f>
@@ -9609,53 +9955,53 @@
     </row>
     <row r="30" spans="1:38">
       <c r="A30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F30">
         <v>3</v>
       </c>
       <c r="G30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J30">
         <v>2</v>
       </c>
       <c r="K30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L30" t="str">
         <f t="shared" ref="L30:L33" si="10">_xlfn.CONCAT(E7:H7)</f>
         <v>'bioman7@gmail.com'</v>
       </c>
       <c r="M30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N30" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O30">
         <v>2</v>
       </c>
       <c r="P30" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q30" t="str">
         <f t="shared" ref="Q30:Q33" si="11">_xlfn.CONCAT(A30:P30)</f>
@@ -9664,53 +10010,53 @@
     </row>
     <row r="31" spans="1:38">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F31">
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J31">
         <v>2</v>
       </c>
       <c r="K31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L31" t="str">
         <f t="shared" si="10"/>
         <v>'bioman8@gmail.com'</v>
       </c>
       <c r="M31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N31" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O31">
         <v>3</v>
       </c>
       <c r="P31" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q31" t="str">
         <f t="shared" si="11"/>
@@ -9719,53 +10065,53 @@
     </row>
     <row r="32" spans="1:38">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J32">
         <v>2</v>
       </c>
       <c r="K32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L32" t="str">
         <f t="shared" si="10"/>
         <v>'bioman9@gmail.com'</v>
       </c>
       <c r="M32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N32" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O32">
         <v>4</v>
       </c>
       <c r="P32" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q32" t="str">
         <f t="shared" si="11"/>
@@ -9774,53 +10120,53 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J33">
         <v>2</v>
       </c>
       <c r="K33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L33" t="str">
         <f t="shared" si="10"/>
         <v>'bioman10@gmail.com'</v>
       </c>
       <c r="M33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N33" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O33">
         <v>5</v>
       </c>
       <c r="P33" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q33" t="str">
         <f t="shared" si="11"/>
@@ -9829,53 +10175,53 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F34">
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J34">
         <v>3</v>
       </c>
       <c r="K34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L34" t="str">
         <f>_xlfn.CONCAT(E11:H11)</f>
         <v>'bioman11@gmail.com'</v>
       </c>
       <c r="M34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N34" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O34">
         <v>1</v>
       </c>
       <c r="P34" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q34" t="str">
         <f>_xlfn.CONCAT(A34:P34)</f>
@@ -9884,53 +10230,53 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F35">
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J35">
         <v>3</v>
       </c>
       <c r="K35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L35" t="str">
         <f t="shared" ref="L35:L38" si="12">_xlfn.CONCAT(E12:H12)</f>
         <v>'bioman12@gmail.com'</v>
       </c>
       <c r="M35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N35" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O35">
         <v>2</v>
       </c>
       <c r="P35" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q35" t="str">
         <f t="shared" ref="Q35:Q38" si="13">_xlfn.CONCAT(A35:P35)</f>
@@ -9939,53 +10285,53 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F36">
         <v>2</v>
       </c>
       <c r="G36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J36">
         <v>3</v>
       </c>
       <c r="K36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L36" t="str">
         <f t="shared" si="12"/>
         <v>'bioman13@gmail.com'</v>
       </c>
       <c r="M36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N36" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O36">
         <v>3</v>
       </c>
       <c r="P36" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q36" t="str">
         <f t="shared" si="13"/>
@@ -9994,53 +10340,53 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J37">
         <v>3</v>
       </c>
       <c r="K37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L37" t="str">
         <f t="shared" si="12"/>
         <v>'bioman14@gmail.com'</v>
       </c>
       <c r="M37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N37" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O37">
         <v>4</v>
       </c>
       <c r="P37" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q37" t="str">
         <f t="shared" si="13"/>
@@ -10049,53 +10395,53 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J38">
         <v>3</v>
       </c>
       <c r="K38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L38" t="str">
         <f t="shared" si="12"/>
         <v>'bioman15@gmail.com'</v>
       </c>
       <c r="M38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N38" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O38">
         <v>5</v>
       </c>
       <c r="P38" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q38" t="str">
         <f t="shared" si="13"/>

--- a/docs/srs/fbt_docs.xlsx
+++ b/docs/srs/fbt_docs.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kjy\fbt\docs\srs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD358C71-6472-4531-8B1D-4C36BC19D957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B008D4-76C8-42F2-BE39-4A5FCDC2B829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2F0AD6B2-A8A2-4F73-BAF4-7193D3382EE1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2F0AD6B2-A8A2-4F73-BAF4-7193D3382EE1}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항명세서" sheetId="1" r:id="rId1"/>
-    <sheet name="TestCase_시나리오" sheetId="2" r:id="rId2"/>
-    <sheet name="TestCase_SQL" sheetId="3" r:id="rId3"/>
+    <sheet name="추가적으로 할 것" sheetId="4" r:id="rId2"/>
+    <sheet name="TestCase_시나리오" sheetId="2" r:id="rId3"/>
+    <sheet name="TestCase_SQL" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항명세서!$B$8:$H$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항명세서!$B$8:$H$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="235">
   <si>
     <t>요구사항 정의서</t>
   </si>
@@ -346,10 +347,6 @@
       </rPr>
       <t>출력</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록된 매치 출력</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -3943,14 +3940,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>팀 경기 일정 출력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록된 팀 경기 일정 출력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5255,6 +5244,137 @@
       <t xml:space="preserve">
 이미 지난 경기면 입력 방지</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 팀 기간별 경기 일정 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 경기 일정 기간별 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 경기 일정 Id로 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S006</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SearchInsert에서 addSearch 후 매칭 등록 현황으로 가기
+- $emit 활용해서 menu = 3 하면 됨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록 시, 날짜 제한
+- dueDate는 경기 시간보다 앞섬녀 안 된다
+- dueDate는 지금 시간보다 뒤여야 한다</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력
+팀별 진행 중 -1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>M009</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>매치글 삭제</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>M010</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>끌어올리기</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>매치글 끌어올리기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>매칭에서 팀 정보 불러오기</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5802,6 +5922,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5818,9 +5941,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6138,13 +6258,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EA499F-775F-49C1-B26C-B60E223B5AF8}">
-  <dimension ref="B1:I58"/>
+  <dimension ref="B1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -6162,12 +6282,12 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18" thickBot="1"/>
     <row r="2" spans="2:9" ht="18" thickBot="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="53"/>
       <c r="E2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>14</v>
@@ -6187,7 +6307,7 @@
         <v>37</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" s="21"/>
     </row>
@@ -6199,71 +6319,71 @@
         <v>13</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="21"/>
     </row>
     <row r="5" spans="2:9" ht="18" thickBot="1">
       <c r="E5" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="18" thickBot="1">
       <c r="E6" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="18" thickBot="1"/>
     <row r="8" spans="2:9" ht="18" thickBot="1">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="49" t="s">
+      <c r="F8" s="55"/>
+      <c r="G8" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="49" t="s">
+      <c r="H8" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="49" t="s">
-        <v>166</v>
+      <c r="I8" s="50" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="18" thickBot="1">
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
     </row>
     <row r="10" spans="2:9" ht="27" thickBot="1">
       <c r="B10" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>19</v>
@@ -6286,7 +6406,7 @@
     </row>
     <row r="11" spans="2:9" ht="18" thickBot="1">
       <c r="B11" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>22</v>
@@ -6307,7 +6427,7 @@
     </row>
     <row r="12" spans="2:9" ht="18" thickBot="1">
       <c r="B12" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>28</v>
@@ -6328,13 +6448,13 @@
     </row>
     <row r="13" spans="2:9" ht="29.4" thickBot="1">
       <c r="B13" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>30</v>
@@ -6349,10 +6469,10 @@
     </row>
     <row r="14" spans="2:9" ht="18" thickBot="1">
       <c r="B14" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>34</v>
@@ -6370,10 +6490,10 @@
     </row>
     <row r="15" spans="2:9" ht="18" thickBot="1">
       <c r="B15" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>36</v>
@@ -6389,7 +6509,7 @@
         <v>16</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="18" thickBot="1">
@@ -6397,10 +6517,10 @@
         <v>38</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>30</v>
@@ -6413,18 +6533,18 @@
         <v>25</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="18" thickBot="1">
       <c r="B17" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>169</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>170</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>30</v>
@@ -6443,10 +6563,10 @@
         <v>39</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>30</v>
@@ -6459,7 +6579,7 @@
         <v>25</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="169.8" thickBot="1">
@@ -6470,7 +6590,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>30</v>
@@ -6483,7 +6603,7 @@
         <v>25</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="91.8" thickBot="1">
@@ -6494,7 +6614,7 @@
         <v>43</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>44</v>
@@ -6507,7 +6627,7 @@
         <v>45</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="324.60000000000002" thickBot="1">
@@ -6515,10 +6635,10 @@
         <v>46</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>44</v>
@@ -6554,24 +6674,24 @@
         <v>45</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="29.4" thickBot="1">
       <c r="B23" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>174</v>
-      </c>
       <c r="D23" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
@@ -6579,19 +6699,19 @@
     </row>
     <row r="24" spans="2:9" ht="18" thickBot="1">
       <c r="B24" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>176</v>
-      </c>
       <c r="D24" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
@@ -6599,19 +6719,19 @@
     </row>
     <row r="25" spans="2:9" ht="29.4" thickBot="1">
       <c r="B25" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>178</v>
-      </c>
       <c r="D25" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
@@ -6619,13 +6739,13 @@
     </row>
     <row r="26" spans="2:9" ht="18" thickBot="1">
       <c r="B26" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="D26" s="18" t="s">
         <v>184</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>185</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>30</v>
@@ -6637,13 +6757,13 @@
     </row>
     <row r="27" spans="2:9" ht="18" thickBot="1">
       <c r="B27" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="D27" s="18" t="s">
         <v>192</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>193</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>30</v>
@@ -6655,13 +6775,13 @@
     </row>
     <row r="28" spans="2:9" ht="29.4" thickBot="1">
       <c r="B28" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="D28" s="18" t="s">
         <v>195</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>196</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>30</v>
@@ -6673,13 +6793,13 @@
     </row>
     <row r="29" spans="2:9" ht="18" thickBot="1">
       <c r="B29" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C29" s="55" t="s">
-        <v>219</v>
-      </c>
-      <c r="D29" s="55" t="s">
-        <v>217</v>
+        <v>212</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>214</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>30</v>
@@ -6691,13 +6811,13 @@
     </row>
     <row r="30" spans="2:9" ht="18" thickBot="1">
       <c r="B30" s="34" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>30</v>
@@ -6709,13 +6829,13 @@
     </row>
     <row r="31" spans="2:9" ht="31.8" thickBot="1">
       <c r="B31" s="34" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>30</v>
@@ -6746,15 +6866,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="18" thickBot="1">
+    <row r="33" spans="2:8" ht="31.8" thickBot="1">
       <c r="B33" s="20" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>54</v>
+      <c r="D33" s="18" t="s">
+        <v>228</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>44</v>
@@ -6772,10 +6892,10 @@
         <v>27</v>
       </c>
       <c r="C34" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>44</v>
@@ -6793,10 +6913,10 @@
         <v>31</v>
       </c>
       <c r="C35" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>44</v>
@@ -6814,10 +6934,10 @@
         <v>33</v>
       </c>
       <c r="C36" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="13" t="s">
         <v>73</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>74</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>44</v>
@@ -6835,10 +6955,10 @@
         <v>35</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>44</v>
@@ -6853,13 +6973,13 @@
     </row>
     <row r="38" spans="2:8" ht="18" thickBot="1">
       <c r="B38" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="D38" s="18" t="s">
         <v>77</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>78</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>44</v>
@@ -6874,13 +6994,13 @@
     </row>
     <row r="39" spans="2:8" ht="31.8" thickBot="1">
       <c r="B39" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>80</v>
-      </c>
       <c r="D39" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>44</v>
@@ -6894,80 +7014,80 @@
       </c>
     </row>
     <row r="40" spans="2:8" ht="18" thickBot="1">
-      <c r="B40" s="22" t="s">
-        <v>70</v>
+      <c r="B40" s="20" t="s">
+        <v>229</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>24</v>
+        <v>230</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="H40" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="18" thickBot="1">
-      <c r="B41" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>85</v>
+      <c r="B41" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>233</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="12" t="s">
-        <v>25</v>
+      <c r="H41" s="15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="18" thickBot="1">
       <c r="B42" s="22" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>44</v>
+        <v>71</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="18" thickBot="1">
       <c r="B43" s="22" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="12" t="s">
@@ -6979,57 +7099,57 @@
     </row>
     <row r="44" spans="2:8" ht="18" thickBot="1">
       <c r="B44" s="22" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>44</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="18" thickBot="1">
       <c r="B45" s="22" t="s">
-        <v>197</v>
+        <v>89</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>198</v>
+        <v>90</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>199</v>
+        <v>91</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="18" thickBot="1">
-      <c r="B46" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>99</v>
+      <c r="B46" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E46" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="15" t="s">
         <v>44</v>
       </c>
       <c r="F46" s="12"/>
@@ -7037,20 +7157,20 @@
         <v>16</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="18" thickBot="1">
-      <c r="B47" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E47" s="12" t="s">
+      <c r="B47" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E47" s="15" t="s">
         <v>44</v>
       </c>
       <c r="F47" s="12"/>
@@ -7058,18 +7178,18 @@
         <v>16</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="18" thickBot="1">
       <c r="B48" s="29" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>44</v>
@@ -7084,13 +7204,13 @@
     </row>
     <row r="49" spans="2:8" ht="18" thickBot="1">
       <c r="B49" s="29" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>44</v>
@@ -7100,18 +7220,18 @@
         <v>16</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="18" thickBot="1">
       <c r="B50" s="29" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>44</v>
@@ -7126,12 +7246,14 @@
     </row>
     <row r="51" spans="2:8" ht="18" thickBot="1">
       <c r="B51" s="29" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51" s="18"/>
+        <v>105</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>106</v>
+      </c>
       <c r="E51" s="12" t="s">
         <v>44</v>
       </c>
@@ -7139,17 +7261,19 @@
       <c r="G51" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H51" s="12"/>
+      <c r="H51" s="12" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="52" spans="2:8" ht="31.8" thickBot="1">
-      <c r="B52" s="31" t="s">
-        <v>160</v>
+    <row r="52" spans="2:8" ht="18" thickBot="1">
+      <c r="B52" s="29" t="s">
+        <v>107</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>44</v>
@@ -7162,102 +7286,161 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="31.8" thickBot="1">
-      <c r="B53" s="37" t="s">
+    <row r="53" spans="2:8" ht="18" thickBot="1">
+      <c r="B53" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="18"/>
+      <c r="E53" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="12"/>
+    </row>
+    <row r="54" spans="2:8" ht="31.8" thickBot="1">
+      <c r="B54" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="31.8" thickBot="1">
+      <c r="B55" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="D55" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="C53" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="D53" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="E53" s="38" t="s">
+      <c r="E55" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40" t="s">
+      <c r="F55" s="40"/>
+      <c r="G55" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="H53" s="38" t="s">
+      <c r="H55" s="38" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="18" thickBot="1">
-      <c r="B54" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="C54" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="D54" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="E54" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="H54" s="41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" ht="18" thickBot="1">
-      <c r="B55" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="C55" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="D55" s="46" t="s">
-        <v>208</v>
-      </c>
-      <c r="E55" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47" t="s">
-        <v>209</v>
-      </c>
-      <c r="H55" s="45" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="18" thickBot="1">
-      <c r="B56" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="C56" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="D56" s="48" t="s">
-        <v>212</v>
-      </c>
-      <c r="E56" s="45" t="s">
+      <c r="B56" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C56" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="D56" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="E56" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47" t="s">
+      <c r="F56" s="43"/>
+      <c r="G56" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="H56" s="41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="18" thickBot="1">
+      <c r="B57" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="C57" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="D57" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="E57" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="H57" s="45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="31.8" thickBot="1">
+      <c r="B58" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="H56" s="45" t="s">
+      <c r="C58" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="D58" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="E58" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="H58" s="45" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="52.2">
-      <c r="D57" s="35" t="s">
+    <row r="59" spans="2:8" ht="18" thickBot="1">
+      <c r="B59" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="C59" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="D59" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="E59" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="H59" s="45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="52.2">
+      <c r="D60" s="35" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="D61" s="36" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8">
-      <c r="D58" s="36" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B8:H52" xr:uid="{08681459-A406-4CEE-9A8A-D3DF83B63176}">
+  <autoFilter ref="B8:H54" xr:uid="{08681459-A406-4CEE-9A8A-D3DF83B63176}">
     <filterColumn colId="3" showButton="0"/>
   </autoFilter>
   <mergeCells count="8">
@@ -7277,6 +7460,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B24355E-CC1D-4763-8BDC-A7AD2ECA21E3}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="2" max="2" width="65.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="34.799999999999997">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="52.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486901C1-BA96-4640-9F0A-E020AF5972D3}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -7291,7 +7517,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B1">
         <v>3</v>
@@ -7299,7 +7525,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -7307,7 +7533,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7319,7 +7545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824FDF58-95A4-4607-B006-2DB2375944C9}">
   <dimension ref="A1:AL38"/>
   <sheetViews>
@@ -7335,2343 +7561,2343 @@
   <sheetData>
     <row r="1" spans="1:38">
       <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
         <v>120</v>
       </c>
-      <c r="B1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F1" s="23"/>
       <c r="G1" s="23">
         <v>1</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M1" s="24">
         <v>1</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P1" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R1" t="s">
         <v>123</v>
       </c>
-      <c r="Q1" t="s">
-        <v>118</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
+        <v>117</v>
+      </c>
+      <c r="T1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V1" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="S1" t="s">
-        <v>118</v>
-      </c>
-      <c r="T1" t="s">
-        <v>124</v>
-      </c>
-      <c r="U1" t="s">
-        <v>118</v>
-      </c>
-      <c r="V1" s="24" t="s">
+      <c r="W1" t="s">
+        <v>117</v>
+      </c>
+      <c r="X1" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="W1" t="s">
-        <v>118</v>
-      </c>
-      <c r="X1" s="24" t="s">
+      <c r="Y1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z1" t="s">
         <v>126</v>
       </c>
-      <c r="Y1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>127</v>
-      </c>
       <c r="AA1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB1">
         <f ca="1">RANDBETWEEN(170,185)</f>
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AC1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD1">
         <f ca="1">RANDBETWEEN(70,80)</f>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF1">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AH1">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ1" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK1" s="24" t="s">
         <v>128</v>
-      </c>
-      <c r="AK1" s="24" t="s">
-        <v>129</v>
       </c>
       <c r="AL1" t="str">
         <f ca="1">_xlfn.CONCAT(A1:AK1)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,182,73,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,176,76,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="2" spans="1:38">
       <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
         <v>120</v>
       </c>
-      <c r="B2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" t="s">
-        <v>121</v>
-      </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="23">
         <v>2</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M2" s="24">
         <v>1</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P2" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>117</v>
+      </c>
+      <c r="R2" t="s">
         <v>123</v>
       </c>
-      <c r="Q2" t="s">
-        <v>118</v>
-      </c>
-      <c r="R2" t="s">
-        <v>124</v>
-      </c>
       <c r="S2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V2" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="W2" t="s">
+        <v>117</v>
+      </c>
+      <c r="X2" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="W2" t="s">
-        <v>118</v>
-      </c>
-      <c r="X2" s="24" t="s">
-        <v>133</v>
-      </c>
       <c r="Y2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB2">
         <f t="shared" ref="AB2:AB17" ca="1" si="0">RANDBETWEEN(170,185)</f>
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="AC2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD2">
         <f t="shared" ref="AD2:AD17" ca="1" si="1">RANDBETWEEN(70,80)</f>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF2">
         <f t="shared" ref="AF2:AF17" ca="1" si="2">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AH2">
         <f t="shared" ref="AH2:AH17" ca="1" si="3">RANDBETWEEN(0,1)</f>
         <v>1</v>
       </c>
       <c r="AI2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ2" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK2" s="24" t="s">
         <v>128</v>
-      </c>
-      <c r="AK2" s="24" t="s">
-        <v>129</v>
       </c>
       <c r="AL2" t="str">
         <f t="shared" ref="AL2:AL17" ca="1" si="4">_xlfn.CONCAT(A2:AK2)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,184,74,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,170,73,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="3" spans="1:38">
       <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
         <v>120</v>
       </c>
-      <c r="B3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" t="s">
-        <v>121</v>
-      </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F3" s="23"/>
       <c r="G3" s="23">
         <v>3</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M3" s="24">
         <v>1</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P3" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>117</v>
+      </c>
+      <c r="R3" t="s">
         <v>123</v>
       </c>
-      <c r="Q3" t="s">
-        <v>118</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
+        <v>117</v>
+      </c>
+      <c r="T3" t="s">
+        <v>123</v>
+      </c>
+      <c r="U3" t="s">
+        <v>117</v>
+      </c>
+      <c r="V3" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="S3" t="s">
-        <v>118</v>
-      </c>
-      <c r="T3" t="s">
-        <v>124</v>
-      </c>
-      <c r="U3" t="s">
-        <v>118</v>
-      </c>
-      <c r="V3" s="24" t="s">
-        <v>125</v>
-      </c>
       <c r="W3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X3" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB3">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AC3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD3">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AH3">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AI3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ3" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK3" s="24" t="s">
         <v>128</v>
-      </c>
-      <c r="AK3" s="24" t="s">
-        <v>129</v>
       </c>
       <c r="AL3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,173,71,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,178,72,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="4" spans="1:38">
       <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s">
         <v>120</v>
       </c>
-      <c r="B4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" t="s">
-        <v>121</v>
-      </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23">
         <v>4</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M4" s="24">
         <v>1</v>
       </c>
       <c r="N4" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P4" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R4" t="s">
         <v>123</v>
       </c>
-      <c r="Q4" t="s">
-        <v>118</v>
-      </c>
-      <c r="R4" t="s">
-        <v>124</v>
-      </c>
       <c r="S4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V4" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X4" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z4" t="s">
         <v>126</v>
       </c>
-      <c r="Y4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>127</v>
-      </c>
       <c r="AA4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB4">
         <f t="shared" ca="1" si="0"/>
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AC4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD4">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF4">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AH4">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ4" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK4" s="24" t="s">
         <v>128</v>
-      </c>
-      <c r="AK4" s="24" t="s">
-        <v>129</v>
       </c>
       <c r="AL4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,181,73,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,174,75,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="5" spans="1:38">
       <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
         <v>120</v>
       </c>
-      <c r="B5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" t="s">
-        <v>121</v>
-      </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="23">
         <v>5</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M5" s="24">
         <v>1</v>
       </c>
       <c r="N5" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P5" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>117</v>
+      </c>
+      <c r="R5" t="s">
         <v>123</v>
       </c>
-      <c r="Q5" t="s">
-        <v>118</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
+        <v>117</v>
+      </c>
+      <c r="T5" t="s">
+        <v>123</v>
+      </c>
+      <c r="U5" t="s">
+        <v>117</v>
+      </c>
+      <c r="V5" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="S5" t="s">
-        <v>118</v>
-      </c>
-      <c r="T5" t="s">
-        <v>124</v>
-      </c>
-      <c r="U5" t="s">
-        <v>118</v>
-      </c>
-      <c r="V5" s="24" t="s">
-        <v>125</v>
-      </c>
       <c r="W5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X5" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB5">
         <f t="shared" ca="1" si="0"/>
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AC5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD5">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AE5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF5">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AH5">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AI5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ5" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK5" s="24" t="s">
         <v>128</v>
-      </c>
-      <c r="AK5" s="24" t="s">
-        <v>129</v>
       </c>
       <c r="AL5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,177,74,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,172,78,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="6" spans="1:38">
       <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
         <v>120</v>
       </c>
-      <c r="B6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" t="s">
-        <v>121</v>
-      </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="23">
         <v>6</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M6" s="24">
         <v>1</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P6" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>117</v>
+      </c>
+      <c r="R6" t="s">
         <v>123</v>
       </c>
-      <c r="Q6" t="s">
-        <v>118</v>
-      </c>
-      <c r="R6" t="s">
-        <v>124</v>
-      </c>
       <c r="S6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V6" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X6" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB6">
         <f t="shared" ca="1" si="0"/>
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AC6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD6">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AE6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AH6">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="AI6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ6" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK6" s="24" t="s">
         <v>128</v>
-      </c>
-      <c r="AK6" s="24" t="s">
-        <v>129</v>
       </c>
       <c r="AL6" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,179,78,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,177,70,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="7" spans="1:38">
       <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" t="s">
         <v>120</v>
       </c>
-      <c r="B7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" t="s">
-        <v>121</v>
-      </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="23">
         <v>7</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M7" s="24">
         <v>1</v>
       </c>
       <c r="N7" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P7" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>117</v>
+      </c>
+      <c r="R7" t="s">
         <v>123</v>
       </c>
-      <c r="Q7" t="s">
-        <v>118</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
+        <v>117</v>
+      </c>
+      <c r="T7" t="s">
+        <v>123</v>
+      </c>
+      <c r="U7" t="s">
+        <v>117</v>
+      </c>
+      <c r="V7" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="S7" t="s">
-        <v>118</v>
-      </c>
-      <c r="T7" t="s">
-        <v>124</v>
-      </c>
-      <c r="U7" t="s">
-        <v>118</v>
-      </c>
-      <c r="V7" s="24" t="s">
+      <c r="W7" t="s">
+        <v>117</v>
+      </c>
+      <c r="X7" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="W7" t="s">
-        <v>118</v>
-      </c>
-      <c r="X7" s="24" t="s">
+      <c r="Y7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z7" t="s">
         <v>126</v>
       </c>
-      <c r="Y7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>127</v>
-      </c>
       <c r="AA7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB7">
         <f t="shared" ca="1" si="0"/>
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AC7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD7">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF7">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AG7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AH7">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ7" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK7" s="24" t="s">
         <v>128</v>
-      </c>
-      <c r="AK7" s="24" t="s">
-        <v>129</v>
       </c>
       <c r="AL7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,174,71,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,177,70,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="8" spans="1:38">
       <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
         <v>120</v>
       </c>
-      <c r="B8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" t="s">
-        <v>121</v>
-      </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="23">
         <v>8</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M8" s="24">
         <v>1</v>
       </c>
       <c r="N8" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P8" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>117</v>
+      </c>
+      <c r="R8" t="s">
         <v>123</v>
       </c>
-      <c r="Q8" t="s">
-        <v>118</v>
-      </c>
-      <c r="R8" t="s">
-        <v>124</v>
-      </c>
       <c r="S8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V8" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="W8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X8" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="W8" t="s">
-        <v>118</v>
-      </c>
-      <c r="X8" s="24" t="s">
-        <v>133</v>
-      </c>
       <c r="Y8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB8">
         <f t="shared" ca="1" si="0"/>
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AC8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD8">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF8">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AG8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AH8">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ8" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK8" s="24" t="s">
         <v>128</v>
-      </c>
-      <c r="AK8" s="24" t="s">
-        <v>129</v>
       </c>
       <c r="AL8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,176,76,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,179,77,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="9" spans="1:38">
       <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
         <v>120</v>
       </c>
-      <c r="B9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" t="s">
-        <v>121</v>
-      </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="23">
         <v>9</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M9" s="24">
         <v>1</v>
       </c>
       <c r="N9" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P9" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>117</v>
+      </c>
+      <c r="R9" t="s">
         <v>123</v>
       </c>
-      <c r="Q9" t="s">
-        <v>118</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
+        <v>117</v>
+      </c>
+      <c r="T9" t="s">
+        <v>123</v>
+      </c>
+      <c r="U9" t="s">
+        <v>117</v>
+      </c>
+      <c r="V9" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="S9" t="s">
-        <v>118</v>
-      </c>
-      <c r="T9" t="s">
-        <v>124</v>
-      </c>
-      <c r="U9" t="s">
-        <v>118</v>
-      </c>
-      <c r="V9" s="24" t="s">
-        <v>125</v>
-      </c>
       <c r="W9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X9" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB9">
         <f t="shared" ca="1" si="0"/>
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="AC9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD9">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF9">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AH9">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ9" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK9" s="24" t="s">
         <v>128</v>
-      </c>
-      <c r="AK9" s="24" t="s">
-        <v>129</v>
       </c>
       <c r="AL9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,181,80,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,170,75,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="10" spans="1:38">
       <c r="A10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
         <v>120</v>
       </c>
-      <c r="B10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" t="s">
-        <v>121</v>
-      </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23">
         <v>10</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M10" s="24">
         <v>1</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P10" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>117</v>
+      </c>
+      <c r="R10" t="s">
         <v>123</v>
       </c>
-      <c r="Q10" t="s">
-        <v>118</v>
-      </c>
-      <c r="R10" t="s">
-        <v>124</v>
-      </c>
       <c r="S10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V10" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X10" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z10" t="s">
         <v>126</v>
       </c>
-      <c r="Y10" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>127</v>
-      </c>
       <c r="AA10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB10">
         <f t="shared" ca="1" si="0"/>
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="AC10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD10">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AE10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF10">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AH10">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ10" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK10" s="24" t="s">
         <v>128</v>
-      </c>
-      <c r="AK10" s="24" t="s">
-        <v>129</v>
       </c>
       <c r="AL10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,170,71,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,174,79,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="11" spans="1:38">
       <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" t="s">
         <v>120</v>
       </c>
-      <c r="B11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" t="s">
-        <v>121</v>
-      </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="23">
         <v>11</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M11" s="24">
         <v>1</v>
       </c>
       <c r="N11" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P11" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>117</v>
+      </c>
+      <c r="R11" t="s">
         <v>123</v>
       </c>
-      <c r="Q11" t="s">
-        <v>118</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
+        <v>117</v>
+      </c>
+      <c r="T11" t="s">
+        <v>123</v>
+      </c>
+      <c r="U11" t="s">
+        <v>117</v>
+      </c>
+      <c r="V11" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="S11" t="s">
-        <v>118</v>
-      </c>
-      <c r="T11" t="s">
-        <v>124</v>
-      </c>
-      <c r="U11" t="s">
-        <v>118</v>
-      </c>
-      <c r="V11" s="24" t="s">
-        <v>125</v>
-      </c>
       <c r="W11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X11" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB11">
         <f t="shared" ca="1" si="0"/>
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AC11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD11">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AE11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF11">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AH11">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="AI11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ11" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK11" s="24" t="s">
         <v>128</v>
-      </c>
-      <c r="AK11" s="24" t="s">
-        <v>129</v>
       </c>
       <c r="AL11" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,172,73,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,170,77,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="12" spans="1:38">
       <c r="A12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" t="s">
         <v>120</v>
       </c>
-      <c r="B12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" t="s">
-        <v>121</v>
-      </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="23">
         <v>12</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M12" s="24">
         <v>1</v>
       </c>
       <c r="N12" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P12" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>117</v>
+      </c>
+      <c r="R12" t="s">
         <v>123</v>
       </c>
-      <c r="Q12" t="s">
-        <v>118</v>
-      </c>
-      <c r="R12" t="s">
-        <v>124</v>
-      </c>
       <c r="S12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V12" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X12" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB12">
         <f t="shared" ca="1" si="0"/>
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AC12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD12">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF12">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="AG12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AH12">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="AI12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ12" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK12" s="24" t="s">
         <v>128</v>
-      </c>
-      <c r="AK12" s="24" t="s">
-        <v>129</v>
       </c>
       <c r="AL12" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,175,70,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,171,71,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="13" spans="1:38">
       <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
         <v>120</v>
       </c>
-      <c r="B13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" t="s">
-        <v>121</v>
-      </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="23">
         <v>13</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M13" s="24">
         <v>1</v>
       </c>
       <c r="N13" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P13" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>117</v>
+      </c>
+      <c r="R13" t="s">
         <v>123</v>
       </c>
-      <c r="Q13" t="s">
-        <v>118</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
+        <v>117</v>
+      </c>
+      <c r="T13" t="s">
+        <v>123</v>
+      </c>
+      <c r="U13" t="s">
+        <v>117</v>
+      </c>
+      <c r="V13" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="S13" t="s">
-        <v>118</v>
-      </c>
-      <c r="T13" t="s">
-        <v>124</v>
-      </c>
-      <c r="U13" t="s">
-        <v>118</v>
-      </c>
-      <c r="V13" s="24" t="s">
+      <c r="W13" t="s">
+        <v>117</v>
+      </c>
+      <c r="X13" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="W13" t="s">
-        <v>118</v>
-      </c>
-      <c r="X13" s="24" t="s">
+      <c r="Y13" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z13" t="s">
         <v>126</v>
       </c>
-      <c r="Y13" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>127</v>
-      </c>
       <c r="AA13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB13">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AC13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD13">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF13">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AH13">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ13" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK13" s="24" t="s">
         <v>128</v>
-      </c>
-      <c r="AK13" s="24" t="s">
-        <v>129</v>
       </c>
       <c r="AL13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,173,77,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,170,78,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="14" spans="1:38">
       <c r="A14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" t="s">
         <v>120</v>
       </c>
-      <c r="B14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" t="s">
-        <v>121</v>
-      </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23">
         <v>14</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M14" s="24">
         <v>1</v>
       </c>
       <c r="N14" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P14" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>117</v>
+      </c>
+      <c r="R14" t="s">
         <v>123</v>
       </c>
-      <c r="Q14" t="s">
-        <v>118</v>
-      </c>
-      <c r="R14" t="s">
-        <v>124</v>
-      </c>
       <c r="S14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V14" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="W14" t="s">
+        <v>117</v>
+      </c>
+      <c r="X14" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="W14" t="s">
-        <v>118</v>
-      </c>
-      <c r="X14" s="24" t="s">
-        <v>133</v>
-      </c>
       <c r="Y14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB14">
         <f t="shared" ca="1" si="0"/>
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="AC14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD14">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AE14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF14">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="AG14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AH14">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ14" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK14" s="24" t="s">
         <v>128</v>
-      </c>
-      <c r="AK14" s="24" t="s">
-        <v>129</v>
       </c>
       <c r="AL14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,174,80,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,185,70,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="15" spans="1:38">
       <c r="A15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" t="s">
         <v>120</v>
       </c>
-      <c r="B15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" t="s">
-        <v>121</v>
-      </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="23">
         <v>15</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M15" s="24">
         <v>1</v>
       </c>
       <c r="N15" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P15" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>117</v>
+      </c>
+      <c r="R15" t="s">
         <v>123</v>
       </c>
-      <c r="Q15" t="s">
-        <v>118</v>
-      </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
+        <v>117</v>
+      </c>
+      <c r="T15" t="s">
+        <v>123</v>
+      </c>
+      <c r="U15" t="s">
+        <v>117</v>
+      </c>
+      <c r="V15" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="S15" t="s">
-        <v>118</v>
-      </c>
-      <c r="T15" t="s">
-        <v>124</v>
-      </c>
-      <c r="U15" t="s">
-        <v>118</v>
-      </c>
-      <c r="V15" s="24" t="s">
-        <v>125</v>
-      </c>
       <c r="W15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X15" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB15">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AC15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD15">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AE15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF15">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AH15">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ15" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK15" s="24" t="s">
         <v>128</v>
-      </c>
-      <c r="AK15" s="24" t="s">
-        <v>129</v>
       </c>
       <c r="AL15" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,183,74,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,184,80,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="16" spans="1:38">
       <c r="A16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" t="s">
         <v>120</v>
       </c>
-      <c r="B16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" t="s">
-        <v>121</v>
-      </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="23">
         <v>16</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M16" s="24">
         <v>1</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P16" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>117</v>
+      </c>
+      <c r="R16" t="s">
         <v>123</v>
       </c>
-      <c r="Q16" t="s">
-        <v>118</v>
-      </c>
-      <c r="R16" t="s">
-        <v>124</v>
-      </c>
       <c r="S16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V16" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X16" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z16" t="s">
         <v>126</v>
       </c>
-      <c r="Y16" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>127</v>
-      </c>
       <c r="AA16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB16">
         <f t="shared" ca="1" si="0"/>
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AC16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD16">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AE16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF16">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AH16">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ16" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK16" s="24" t="s">
         <v>128</v>
-      </c>
-      <c r="AK16" s="24" t="s">
-        <v>129</v>
       </c>
       <c r="AL16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,175,71,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,180,78,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="17" spans="1:38">
       <c r="A17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" t="s">
         <v>120</v>
       </c>
-      <c r="B17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" t="s">
-        <v>121</v>
-      </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="23">
         <v>17</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M17" s="24">
         <v>1</v>
       </c>
       <c r="N17" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P17" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>117</v>
+      </c>
+      <c r="R17" t="s">
         <v>123</v>
       </c>
-      <c r="Q17" t="s">
-        <v>118</v>
-      </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
+        <v>117</v>
+      </c>
+      <c r="T17" t="s">
+        <v>123</v>
+      </c>
+      <c r="U17" t="s">
+        <v>117</v>
+      </c>
+      <c r="V17" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="S17" t="s">
-        <v>118</v>
-      </c>
-      <c r="T17" t="s">
-        <v>124</v>
-      </c>
-      <c r="U17" t="s">
-        <v>118</v>
-      </c>
-      <c r="V17" s="24" t="s">
-        <v>125</v>
-      </c>
       <c r="W17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X17" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB17">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AC17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD17">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AE17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF17">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AH17">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ17" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK17" s="24" t="s">
         <v>128</v>
-      </c>
-      <c r="AK17" s="24" t="s">
-        <v>129</v>
       </c>
       <c r="AL17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,173,76,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,180,71,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="20" spans="1:38">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" t="s">
         <v>136</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="D20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>138</v>
-      </c>
       <c r="F20" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H20" t="str">
         <f>E20</f>
         <v>'왕십리FC</v>
       </c>
       <c r="I20" t="s">
+        <v>138</v>
+      </c>
+      <c r="J20" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="J20" t="s">
-        <v>118</v>
-      </c>
-      <c r="K20" s="24" t="s">
+      <c r="L20" t="s">
+        <v>117</v>
+      </c>
+      <c r="M20" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="L20" t="s">
-        <v>118</v>
-      </c>
-      <c r="M20" s="24" t="s">
+      <c r="N20" t="s">
+        <v>117</v>
+      </c>
+      <c r="O20" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="N20" t="s">
-        <v>118</v>
-      </c>
-      <c r="O20" s="24" t="s">
-        <v>142</v>
-      </c>
       <c r="P20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q20">
         <f ca="1">RANDBETWEEN(0,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S20" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W20" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X20">
         <v>1234</v>
       </c>
       <c r="Y20" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z20" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="Z20" s="24" t="s">
-        <v>145</v>
-      </c>
       <c r="AA20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB20" t="str">
         <f ca="1">_xlfn.CONCAT(A20:AA20)</f>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('왕십리FC','왕십리FC201018.jpg','성동구','성동구 구장','red',3,'2016-01-01',sysdate(),'1234','기업');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('왕십리FC','왕십리FC201018.jpg','성동구','성동구 구장','red',5,'2016-01-01',sysdate(),'1234','기업');</v>
       </c>
     </row>
     <row r="21" spans="1:38">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" t="s">
         <v>136</v>
       </c>
-      <c r="C21" t="s">
-        <v>137</v>
-      </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" ref="H21:H22" si="5">E21</f>
         <v>'답십리FC</v>
       </c>
       <c r="I21" t="s">
+        <v>138</v>
+      </c>
+      <c r="J21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K21" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="J21" t="s">
-        <v>118</v>
-      </c>
-      <c r="K21" s="24" t="s">
-        <v>140</v>
-      </c>
       <c r="L21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M21" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O21" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q21">
         <f t="shared" ref="Q21:Q22" ca="1" si="6">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S21" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W21" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X21">
         <v>5678</v>
       </c>
       <c r="Y21" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Z21" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB21" t="str">
         <f t="shared" ref="AB21:AB22" ca="1" si="7">_xlfn.CONCAT(A21:AA21)</f>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('답십리FC','답십리FC201018.jpg','성동구','응봉동 구장','blue',4,'2017-01-01',sysdate(),'5678','하나');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('답십리FC','답십리FC201018.jpg','성동구','응봉동 구장','blue',2,'2017-01-01',sysdate(),'5678','하나');</v>
       </c>
     </row>
     <row r="22" spans="1:38">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" t="s">
         <v>136</v>
       </c>
-      <c r="C22" t="s">
-        <v>137</v>
-      </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="5"/>
         <v>'대구FC</v>
       </c>
       <c r="I22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O22" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S22" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W22" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X22">
         <v>2345</v>
       </c>
       <c r="Y22" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z22" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="Z22" s="24" t="s">
-        <v>145</v>
-      </c>
       <c r="AA22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB22" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('대구FC','대구FC201018.jpg','달서구','달서구 구장','green',3,'2018-01-01',sysdate(),'2345','기업');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('대구FC','대구FC201018.jpg','달서구','달서구 구장','green',5,'2018-01-01',sysdate(),'2345','기업');</v>
       </c>
     </row>
     <row r="24" spans="1:38">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F24">
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L24" t="str">
         <f>_xlfn.CONCAT(E1:H1)</f>
         <v>'bioman1@gmail.com'</v>
       </c>
       <c r="M24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N24" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O24">
         <v>1</v>
       </c>
       <c r="P24" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q24" t="str">
         <f>_xlfn.CONCAT(A24:P24)</f>
@@ -9680,53 +9906,53 @@
     </row>
     <row r="25" spans="1:38">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F25">
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" ref="L25:L28" si="8">_xlfn.CONCAT(E2:H2)</f>
         <v>'bioman2@gmail.com'</v>
       </c>
       <c r="M25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N25" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O25">
         <v>2</v>
       </c>
       <c r="P25" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q25" t="str">
         <f t="shared" ref="Q25:Q28" si="9">_xlfn.CONCAT(A25:P25)</f>
@@ -9735,53 +9961,53 @@
     </row>
     <row r="26" spans="1:38">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" si="8"/>
         <v>'bioman3@gmail.com'</v>
       </c>
       <c r="M26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N26" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O26">
         <v>3</v>
       </c>
       <c r="P26" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q26" t="str">
         <f t="shared" si="9"/>
@@ -9790,53 +10016,53 @@
     </row>
     <row r="27" spans="1:38">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" si="8"/>
         <v>'bioman4@gmail.com'</v>
       </c>
       <c r="M27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N27" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O27">
         <v>4</v>
       </c>
       <c r="P27" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q27" t="str">
         <f t="shared" si="9"/>
@@ -9845,53 +10071,53 @@
     </row>
     <row r="28" spans="1:38">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" si="8"/>
         <v>'bioman5@gmail.com'</v>
       </c>
       <c r="M28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N28" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O28">
         <v>5</v>
       </c>
       <c r="P28" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q28" t="str">
         <f t="shared" si="9"/>
@@ -9900,53 +10126,53 @@
     </row>
     <row r="29" spans="1:38">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F29">
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J29">
         <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L29" t="str">
         <f>_xlfn.CONCAT(E6:H6)</f>
         <v>'bioman6@gmail.com'</v>
       </c>
       <c r="M29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N29" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O29">
         <v>1</v>
       </c>
       <c r="P29" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q29" t="str">
         <f>_xlfn.CONCAT(A29:P29)</f>
@@ -9955,53 +10181,53 @@
     </row>
     <row r="30" spans="1:38">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F30">
         <v>3</v>
       </c>
       <c r="G30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J30">
         <v>2</v>
       </c>
       <c r="K30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L30" t="str">
         <f t="shared" ref="L30:L33" si="10">_xlfn.CONCAT(E7:H7)</f>
         <v>'bioman7@gmail.com'</v>
       </c>
       <c r="M30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N30" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O30">
         <v>2</v>
       </c>
       <c r="P30" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q30" t="str">
         <f t="shared" ref="Q30:Q33" si="11">_xlfn.CONCAT(A30:P30)</f>
@@ -10010,53 +10236,53 @@
     </row>
     <row r="31" spans="1:38">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F31">
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J31">
         <v>2</v>
       </c>
       <c r="K31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L31" t="str">
         <f t="shared" si="10"/>
         <v>'bioman8@gmail.com'</v>
       </c>
       <c r="M31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N31" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O31">
         <v>3</v>
       </c>
       <c r="P31" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q31" t="str">
         <f t="shared" si="11"/>
@@ -10065,53 +10291,53 @@
     </row>
     <row r="32" spans="1:38">
       <c r="A32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J32">
         <v>2</v>
       </c>
       <c r="K32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L32" t="str">
         <f t="shared" si="10"/>
         <v>'bioman9@gmail.com'</v>
       </c>
       <c r="M32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N32" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O32">
         <v>4</v>
       </c>
       <c r="P32" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q32" t="str">
         <f t="shared" si="11"/>
@@ -10120,53 +10346,53 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J33">
         <v>2</v>
       </c>
       <c r="K33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L33" t="str">
         <f t="shared" si="10"/>
         <v>'bioman10@gmail.com'</v>
       </c>
       <c r="M33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N33" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O33">
         <v>5</v>
       </c>
       <c r="P33" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q33" t="str">
         <f t="shared" si="11"/>
@@ -10175,53 +10401,53 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F34">
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J34">
         <v>3</v>
       </c>
       <c r="K34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L34" t="str">
         <f>_xlfn.CONCAT(E11:H11)</f>
         <v>'bioman11@gmail.com'</v>
       </c>
       <c r="M34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N34" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O34">
         <v>1</v>
       </c>
       <c r="P34" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q34" t="str">
         <f>_xlfn.CONCAT(A34:P34)</f>
@@ -10230,53 +10456,53 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F35">
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J35">
         <v>3</v>
       </c>
       <c r="K35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L35" t="str">
         <f t="shared" ref="L35:L38" si="12">_xlfn.CONCAT(E12:H12)</f>
         <v>'bioman12@gmail.com'</v>
       </c>
       <c r="M35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N35" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O35">
         <v>2</v>
       </c>
       <c r="P35" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q35" t="str">
         <f t="shared" ref="Q35:Q38" si="13">_xlfn.CONCAT(A35:P35)</f>
@@ -10285,53 +10511,53 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F36">
         <v>2</v>
       </c>
       <c r="G36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J36">
         <v>3</v>
       </c>
       <c r="K36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L36" t="str">
         <f t="shared" si="12"/>
         <v>'bioman13@gmail.com'</v>
       </c>
       <c r="M36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N36" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O36">
         <v>3</v>
       </c>
       <c r="P36" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q36" t="str">
         <f t="shared" si="13"/>
@@ -10340,53 +10566,53 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J37">
         <v>3</v>
       </c>
       <c r="K37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L37" t="str">
         <f t="shared" si="12"/>
         <v>'bioman14@gmail.com'</v>
       </c>
       <c r="M37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N37" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O37">
         <v>4</v>
       </c>
       <c r="P37" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q37" t="str">
         <f t="shared" si="13"/>
@@ -10395,53 +10621,53 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J38">
         <v>3</v>
       </c>
       <c r="K38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L38" t="str">
         <f t="shared" si="12"/>
         <v>'bioman15@gmail.com'</v>
       </c>
       <c r="M38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N38" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O38">
         <v>5</v>
       </c>
       <c r="P38" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q38" t="str">
         <f t="shared" si="13"/>

--- a/docs/srs/fbt_docs.xlsx
+++ b/docs/srs/fbt_docs.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kjy\fbt\docs\srs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B008D4-76C8-42F2-BE39-4A5FCDC2B829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D804FF44-C76C-460A-9950-11FC8622F7BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2F0AD6B2-A8A2-4F73-BAF4-7193D3382EE1}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항명세서" sheetId="1" r:id="rId1"/>
     <sheet name="추가적으로 할 것" sheetId="4" r:id="rId2"/>
-    <sheet name="TestCase_시나리오" sheetId="2" r:id="rId3"/>
-    <sheet name="TestCase_SQL" sheetId="3" r:id="rId4"/>
+    <sheet name="변수 코드 북" sheetId="5" r:id="rId3"/>
+    <sheet name="TestCase_시나리오" sheetId="2" r:id="rId4"/>
+    <sheet name="TestCase_SQL" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항명세서!$B$8:$H$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항명세서!$B$8:$H$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="280">
   <si>
     <t>요구사항 정의서</t>
   </si>
@@ -601,780 +602,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>인원파악 수락</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>M007</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>매치 실패 등록</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>매치 상황을 실패로 변경</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>M008</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>매치 성공 등록</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수락</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시간</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스레드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>어웨이팀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>요구</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>넘는지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>파악
-어웨이 팀에 자동 투표 생성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">(V005)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>팀에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>먼저</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>넘으면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>팀과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다른</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신청팀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마감</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(V007), (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>M007)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>어웨이팀에게 자동 비용 청구 알람, 채팅 보내기</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>홈팀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리자가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>최종</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>누르면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>매치</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상황을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>완료로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>변경</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>어웨이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>팀에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>알람</t>
-    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -5263,26 +4495,308 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>SearchInsert에서 addSearch 후 매칭 등록 현황으로 가기
-- $emit 활용해서 menu = 3 하면 됨</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>등록 시, 날짜 제한
 - dueDate는 경기 시간보다 앞섬녀 안 된다
 - dueDate는 지금 시간보다 뒤여야 한다</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등록된</t>
+    <t>M009</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>매치글 삭제</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>M010</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>끌어올리기</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>매치글 끌어올리기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>매칭에서 팀 정보 불러오기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 점수에서 등급(상상 등)을 어떻게 처리할지</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록 매치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록 매치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상황을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실패로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변경</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록 매치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>M011</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>M012</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청 매치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표에서 기준 투표 이상이면</t>
     </r>
     <r>
       <rPr>
@@ -5320,33 +4834,45 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>출력
-팀별 진행 중 -1</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>M009</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>매치글 삭제</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>M010</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>매치글</t>
+      <t>상황을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변경</t>
     </r>
     <r>
       <rPr>
@@ -5354,27 +4880,1034 @@
         <color rgb="FF000000"/>
         <rFont val="Nanum Gothic"/>
         <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>끌어올리기</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>매치글 끌어올리기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>매칭에서 팀 정보 불러오기</t>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어웨이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알람</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표에서 기준 투표 이상이면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상황을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변경</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어웨이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알람</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 매치 삭제</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청한 매치 삭제하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 단계 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>1. 신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상황을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실패로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변경</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인원파악신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거절</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인원파악신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중단</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제시간에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>혹은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남들보다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기준</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이상을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모으지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>못했을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>매치 검색 알림 설정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>투표 등록 dateFomatter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>매치 검색 실력, 매너 순</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">1. 등록된 매치 출력: 모든 search에 대해
+1) 매치 중: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>res</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아무</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>것도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마감</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지나지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인원파악신청: res에 stat=0|-1 하나라도 있다 &amp; stat=3인 게 없다 &amp; 마감 지나지 않음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+3) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인원파악중: res에 stat = 1인 게 하나라도 있다 &amp; stat=3인 게 없다 &amp; 마감 지나지 않음
+4) 매치실패: res에 stat = 2인 게 하나도 없고 &amp; 마감 지남
+5) 매치 성공: res에 stat = 2인 게 하나라도 있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청된 매치 출력: 모든 search_reservation에 대해
+1) 신청: res에 stat = 0
+2) 인원원팍 중: res에 stat = 1
+3) 매치실패: res에 stat = -1
+4) 매치성공: res에 stat = 2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>투표 관리자 버튼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>schedule - vote, search, assignment 1:1 1:다 관계에 대한 질문</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정에서 투표 불러올 때 vote가 없는 경우
+--&gt; matchSchedule 중심으로 해징해야 하는가
+--&gt; 일정에서 불러올 때는 일정 중심으로 불러와야 하는가
+--&gt; 일정이나 양도할 때 투표를 생성해야 하는가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 시, 완료된 건 완료됐다고 말하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteMatch Id를 다시 AI로 해야 하는가?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>양도 성공 후 홈 정보를 바꾸어서 출력할 것인가?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 디폴트값 활용해보기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>무한 스크롤링</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정에서 점수판</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>에러 페이지
+- no_content
+- bad_request</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>용병 신청할 때 요구받은 팀은 어떻게 표시할 것인가?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>지인 초대 날짜 지나면 멈추기
+- isEnd활용하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>지인 초대하기 버튼 관리 메소드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>entry.attendance</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>결석</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>지각</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>match_result.homeResult/ awayResult</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>무승부</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>승</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>패</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기삭제버튼 만들기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>entry.type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>지인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>용병</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>받은 점수에서 상세 보기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>매칭 등록 시 투표 입력 체크</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 구성 이후, 링크 후 리다이렉트로 로그인 페이지로 하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 평가 당 평균을 DB에 넣을 것인가?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>암호화 복호화</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경변수 사용하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>INN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인의 일정 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인의 일정에 포함되는 것들
+1. 자신이 속한 모든 팀들의 경기 일정
+2. 용병으로서 참여하는 일정</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5382,7 +5915,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5526,6 +6059,13 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -5774,7 +6314,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5925,6 +6465,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5941,6 +6484,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6258,13 +6816,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EA499F-775F-49C1-B26C-B60E223B5AF8}">
-  <dimension ref="B1:I61"/>
+  <dimension ref="B1:I64"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomRight" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -6282,10 +6840,10 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18" thickBot="1"/>
     <row r="2" spans="2:9" ht="18" thickBot="1">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="54"/>
       <c r="E2" s="3" t="s">
         <v>62</v>
       </c>
@@ -6331,55 +6889,55 @@
         <v>61</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="18" thickBot="1">
       <c r="E6" s="30" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="18" thickBot="1"/>
     <row r="8" spans="2:9" ht="18" thickBot="1">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="50" t="s">
+      <c r="F8" s="56"/>
+      <c r="G8" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="50" t="s">
-        <v>165</v>
+      <c r="I8" s="51" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="18" thickBot="1">
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
     </row>
     <row r="10" spans="2:9" ht="27" thickBot="1">
       <c r="B10" s="11" t="s">
@@ -6454,7 +7012,7 @@
         <v>32</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>30</v>
@@ -6472,7 +7030,7 @@
         <v>67</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>34</v>
@@ -6493,7 +7051,7 @@
         <v>68</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>36</v>
@@ -6509,7 +7067,7 @@
         <v>16</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="18" thickBot="1">
@@ -6517,10 +7075,10 @@
         <v>38</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>30</v>
@@ -6533,18 +7091,18 @@
         <v>25</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="18" thickBot="1">
       <c r="B17" s="17" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>30</v>
@@ -6563,10 +7121,10 @@
         <v>39</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>30</v>
@@ -6579,7 +7137,7 @@
         <v>25</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="169.8" thickBot="1">
@@ -6590,7 +7148,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>30</v>
@@ -6603,7 +7161,7 @@
         <v>25</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="91.8" thickBot="1">
@@ -6614,7 +7172,7 @@
         <v>43</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>44</v>
@@ -6627,7 +7185,7 @@
         <v>45</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="324.60000000000002" thickBot="1">
@@ -6635,10 +7193,10 @@
         <v>46</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>44</v>
@@ -6674,24 +7232,24 @@
         <v>45</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="29.4" thickBot="1">
       <c r="B23" s="34" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C23" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="18" t="s">
         <v>173</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>179</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
@@ -6699,19 +7257,19 @@
     </row>
     <row r="24" spans="2:9" ht="18" thickBot="1">
       <c r="B24" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>174</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>180</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
@@ -6719,19 +7277,19 @@
     </row>
     <row r="25" spans="2:9" ht="29.4" thickBot="1">
       <c r="B25" s="34" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
@@ -6739,13 +7297,13 @@
     </row>
     <row r="26" spans="2:9" ht="18" thickBot="1">
       <c r="B26" s="34" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>30</v>
@@ -6757,13 +7315,13 @@
     </row>
     <row r="27" spans="2:9" ht="18" thickBot="1">
       <c r="B27" s="34" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>30</v>
@@ -6775,13 +7333,13 @@
     </row>
     <row r="28" spans="2:9" ht="29.4" thickBot="1">
       <c r="B28" s="34" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>30</v>
@@ -6793,13 +7351,13 @@
     </row>
     <row r="29" spans="2:9" ht="18" thickBot="1">
       <c r="B29" s="34" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D29" s="49" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>30</v>
@@ -6811,13 +7369,13 @@
     </row>
     <row r="30" spans="2:9" ht="18" thickBot="1">
       <c r="B30" s="34" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>30</v>
@@ -6829,13 +7387,13 @@
     </row>
     <row r="31" spans="2:9" ht="31.8" thickBot="1">
       <c r="B31" s="34" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>30</v>
@@ -6866,7 +7424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="31.8" thickBot="1">
+    <row r="33" spans="2:8" ht="232.2" thickBot="1">
       <c r="B33" s="20" t="s">
         <v>26</v>
       </c>
@@ -6874,7 +7432,7 @@
         <v>53</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>44</v>
@@ -6950,15 +7508,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="91.8" thickBot="1">
+    <row r="37" spans="2:8" ht="85.2" thickBot="1">
       <c r="B37" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>74</v>
+      <c r="C37" s="15" t="s">
+        <v>238</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>44</v>
@@ -6973,13 +7531,13 @@
     </row>
     <row r="38" spans="2:8" ht="18" thickBot="1">
       <c r="B38" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>228</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>44</v>
@@ -6994,13 +7552,13 @@
     </row>
     <row r="39" spans="2:8" ht="31.8" thickBot="1">
       <c r="B39" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>81</v>
+        <v>75</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>234</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>44</v>
@@ -7015,13 +7573,13 @@
     </row>
     <row r="40" spans="2:8" ht="18" thickBot="1">
       <c r="B40" s="20" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>44</v>
@@ -7036,13 +7594,13 @@
     </row>
     <row r="41" spans="2:8" ht="18" thickBot="1">
       <c r="B41" s="20" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E41" s="15" t="s">
         <v>44</v>
@@ -7055,81 +7613,81 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="18" thickBot="1">
-      <c r="B42" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>24</v>
+    <row r="42" spans="2:8" ht="31.8" thickBot="1">
+      <c r="B42" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="18" thickBot="1">
-      <c r="B43" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>84</v>
+      <c r="B43" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>237</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H43" s="12" t="s">
-        <v>25</v>
+      <c r="H43" s="15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="18" thickBot="1">
       <c r="B44" s="22" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>44</v>
+        <v>71</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="18" thickBot="1">
       <c r="B45" s="22" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="12" t="s">
@@ -7141,57 +7699,57 @@
     </row>
     <row r="46" spans="2:8" ht="18" thickBot="1">
       <c r="B46" s="22" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>44</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="18" thickBot="1">
       <c r="B47" s="22" t="s">
-        <v>196</v>
+        <v>83</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>197</v>
+        <v>84</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>198</v>
+        <v>85</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="18" thickBot="1">
-      <c r="B48" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>98</v>
+      <c r="B48" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E48" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="15" t="s">
         <v>44</v>
       </c>
       <c r="F48" s="12"/>
@@ -7199,20 +7757,20 @@
         <v>16</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="18" thickBot="1">
-      <c r="B49" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E49" s="12" t="s">
+      <c r="B49" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E49" s="15" t="s">
         <v>44</v>
       </c>
       <c r="F49" s="12"/>
@@ -7220,18 +7778,18 @@
         <v>16</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="18" thickBot="1">
       <c r="B50" s="29" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>103</v>
+        <v>92</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>44</v>
@@ -7246,13 +7804,13 @@
     </row>
     <row r="51" spans="2:8" ht="18" thickBot="1">
       <c r="B51" s="29" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>44</v>
@@ -7262,18 +7820,18 @@
         <v>16</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="18" thickBot="1">
       <c r="B52" s="29" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>44</v>
@@ -7288,12 +7846,14 @@
     </row>
     <row r="53" spans="2:8" ht="18" thickBot="1">
       <c r="B53" s="29" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D53" s="18"/>
+        <v>99</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>100</v>
+      </c>
       <c r="E53" s="12" t="s">
         <v>44</v>
       </c>
@@ -7301,17 +7861,19 @@
       <c r="G53" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H53" s="12"/>
-    </row>
-    <row r="54" spans="2:8" ht="31.8" thickBot="1">
-      <c r="B54" s="31" t="s">
-        <v>159</v>
+      <c r="H53" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="18" thickBot="1">
+      <c r="B54" s="29" t="s">
+        <v>101</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>163</v>
+        <v>103</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>44</v>
@@ -7324,123 +7886,176 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="31.8" thickBot="1">
-      <c r="B55" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="C55" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="D55" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="E55" s="38" t="s">
+    <row r="55" spans="2:8" ht="18" thickBot="1">
+      <c r="B55" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" s="18"/>
+      <c r="E55" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" s="12"/>
+    </row>
+    <row r="56" spans="2:8" ht="31.8" thickBot="1">
+      <c r="B56" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="31.8" thickBot="1">
+      <c r="B57" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D57" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="E57" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40" t="s">
+      <c r="F57" s="40"/>
+      <c r="G57" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="H55" s="38" t="s">
+      <c r="H57" s="38" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="18" thickBot="1">
-      <c r="B56" s="31" t="s">
+    <row r="58" spans="2:8" ht="18" thickBot="1">
+      <c r="B58" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="C58" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="D58" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="E58" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="C56" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="D56" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="E56" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="H56" s="41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="18" thickBot="1">
-      <c r="B57" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="C57" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="D57" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="E57" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="H57" s="45" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" ht="31.8" thickBot="1">
-      <c r="B58" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="C58" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="D58" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="E58" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="H58" s="45" t="s">
+      <c r="H58" s="41" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="18" thickBot="1">
       <c r="B59" s="44" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="C59" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="D59" s="48" t="s">
-        <v>224</v>
+        <v>200</v>
+      </c>
+      <c r="D59" s="46" t="s">
+        <v>201</v>
       </c>
       <c r="E59" s="45" t="s">
         <v>44</v>
       </c>
       <c r="F59" s="47"/>
       <c r="G59" s="47" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H59" s="45" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="52.2">
-      <c r="D60" s="35" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8">
-      <c r="D61" s="36" t="s">
-        <v>189</v>
+    <row r="60" spans="2:8" ht="31.8" thickBot="1">
+      <c r="B60" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="C60" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="D60" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="E60" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="H60" s="45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="18" thickBot="1">
+      <c r="B61" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="C61" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="D61" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="E61" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="H61" s="45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="47.4" thickBot="1">
+      <c r="B62" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C62" s="59" t="s">
+        <v>278</v>
+      </c>
+      <c r="D62" s="60" t="s">
+        <v>279</v>
+      </c>
+      <c r="E62" s="59"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="59"/>
+    </row>
+    <row r="63" spans="2:8" ht="52.2">
+      <c r="D63" s="35" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="D64" s="36" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B8:H54" xr:uid="{08681459-A406-4CEE-9A8A-D3DF83B63176}">
+  <autoFilter ref="B8:H56" xr:uid="{08681459-A406-4CEE-9A8A-D3DF83B63176}">
     <filterColumn colId="3" showButton="0"/>
   </autoFilter>
   <mergeCells count="8">
@@ -7461,10 +8076,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B24355E-CC1D-4763-8BDC-A7AD2ECA21E3}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -7472,37 +8087,336 @@
     <col min="2" max="2" width="65.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="34.799999999999997">
+    <row r="1" spans="1:3" ht="52.2">
       <c r="A1">
+        <v>2</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="69.599999999999994">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="52.2">
+      <c r="A16">
+        <v>18</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="34.799999999999997">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>22</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>24</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>26</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>28</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA491AF-BB21-487D-9286-424DAB7FF449}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="15.296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="57" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="57"/>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="52.2">
-      <c r="A2">
+      <c r="C2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="57"/>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>234</v>
+      <c r="C3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="58" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="58"/>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="58"/>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="57" t="s">
+        <v>267</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="57"/>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="57"/>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486901C1-BA96-4640-9F0A-E020AF5972D3}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -7517,7 +8431,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B1">
         <v>3</v>
@@ -7525,7 +8439,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -7533,7 +8447,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7545,7 +8459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824FDF58-95A4-4607-B006-2DB2375944C9}">
   <dimension ref="A1:AL38"/>
   <sheetViews>
@@ -7561,2343 +8475,2343 @@
   <sheetData>
     <row r="1" spans="1:38">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F1" s="23"/>
       <c r="G1" s="23">
         <v>1</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M1" s="24">
         <v>1</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R1" t="s">
         <v>117</v>
       </c>
-      <c r="P1" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T1" t="s">
         <v>117</v>
       </c>
-      <c r="R1" t="s">
-        <v>123</v>
-      </c>
-      <c r="S1" t="s">
-        <v>117</v>
-      </c>
-      <c r="T1" t="s">
-        <v>123</v>
-      </c>
       <c r="U1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="V1" s="24" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="W1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="X1" s="24" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="Y1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Z1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AA1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AB1">
         <f ca="1">RANDBETWEEN(170,185)</f>
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AC1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AD1">
         <f ca="1">RANDBETWEEN(70,80)</f>
         <v>76</v>
       </c>
       <c r="AE1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AF1">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AH1">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AJ1" s="24" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AK1" s="24" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AL1" t="str">
         <f ca="1">_xlfn.CONCAT(A1:AK1)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,176,76,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,175,76,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="2" spans="1:38">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="23">
         <v>2</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M2" s="24">
         <v>1</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O2" t="s">
+        <v>111</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>111</v>
+      </c>
+      <c r="R2" t="s">
         <v>117</v>
       </c>
-      <c r="P2" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
+        <v>111</v>
+      </c>
+      <c r="T2" t="s">
         <v>117</v>
       </c>
-      <c r="R2" t="s">
-        <v>123</v>
-      </c>
-      <c r="S2" t="s">
-        <v>117</v>
-      </c>
-      <c r="T2" t="s">
-        <v>123</v>
-      </c>
       <c r="U2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="V2" s="24" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="W2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="X2" s="24" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="Y2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Z2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AA2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AB2">
         <f t="shared" ref="AB2:AB17" ca="1" si="0">RANDBETWEEN(170,185)</f>
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AC2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AD2">
         <f t="shared" ref="AD2:AD17" ca="1" si="1">RANDBETWEEN(70,80)</f>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AF2">
         <f t="shared" ref="AF2:AF17" ca="1" si="2">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AH2">
         <f t="shared" ref="AH2:AH17" ca="1" si="3">RANDBETWEEN(0,1)</f>
         <v>1</v>
       </c>
       <c r="AI2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AJ2" s="24" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AK2" s="24" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AL2" t="str">
         <f t="shared" ref="AL2:AL17" ca="1" si="4">_xlfn.CONCAT(A2:AK2)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,170,73,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,173,77,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="3" spans="1:38">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F3" s="23"/>
       <c r="G3" s="23">
         <v>3</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M3" s="24">
         <v>1</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O3" t="s">
+        <v>111</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>111</v>
+      </c>
+      <c r="R3" t="s">
         <v>117</v>
       </c>
-      <c r="P3" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
+        <v>111</v>
+      </c>
+      <c r="T3" t="s">
         <v>117</v>
       </c>
-      <c r="R3" t="s">
-        <v>123</v>
-      </c>
-      <c r="S3" t="s">
-        <v>117</v>
-      </c>
-      <c r="T3" t="s">
-        <v>123</v>
-      </c>
       <c r="U3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="V3" s="24" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="W3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="X3" s="24" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="Y3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Z3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AA3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AB3">
         <f t="shared" ca="1" si="0"/>
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AC3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AD3">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AF3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AH3">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AI3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AJ3" s="24" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AK3" s="24" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AL3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,178,72,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,180,77,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="4" spans="1:38">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23">
         <v>4</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M4" s="24">
         <v>1</v>
       </c>
       <c r="N4" s="24" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O4" t="s">
+        <v>111</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>111</v>
+      </c>
+      <c r="R4" t="s">
         <v>117</v>
       </c>
-      <c r="P4" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
+        <v>111</v>
+      </c>
+      <c r="T4" t="s">
         <v>117</v>
       </c>
-      <c r="R4" t="s">
-        <v>123</v>
-      </c>
-      <c r="S4" t="s">
-        <v>117</v>
-      </c>
-      <c r="T4" t="s">
-        <v>123</v>
-      </c>
       <c r="U4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="V4" s="24" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="W4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="X4" s="24" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="Y4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Z4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AA4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AB4">
         <f t="shared" ca="1" si="0"/>
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AC4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AD4">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AF4">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="AG4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AH4">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="AI4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AJ4" s="24" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AK4" s="24" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AL4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,174,75,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,177,76,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="5" spans="1:38">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="23">
         <v>5</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M5" s="24">
         <v>1</v>
       </c>
       <c r="N5" s="24" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O5" t="s">
+        <v>111</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>111</v>
+      </c>
+      <c r="R5" t="s">
         <v>117</v>
       </c>
-      <c r="P5" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
+        <v>111</v>
+      </c>
+      <c r="T5" t="s">
         <v>117</v>
       </c>
-      <c r="R5" t="s">
-        <v>123</v>
-      </c>
-      <c r="S5" t="s">
-        <v>117</v>
-      </c>
-      <c r="T5" t="s">
-        <v>123</v>
-      </c>
       <c r="U5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="V5" s="24" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="W5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="X5" s="24" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="Y5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Z5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AA5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AB5">
         <f t="shared" ca="1" si="0"/>
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AC5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AD5">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AE5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AF5">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="AG5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AH5">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AJ5" s="24" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AK5" s="24" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AL5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,172,78,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,170,73,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="6" spans="1:38">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="23">
         <v>6</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M6" s="24">
         <v>1</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O6" t="s">
+        <v>111</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>111</v>
+      </c>
+      <c r="R6" t="s">
         <v>117</v>
       </c>
-      <c r="P6" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
+        <v>111</v>
+      </c>
+      <c r="T6" t="s">
         <v>117</v>
       </c>
-      <c r="R6" t="s">
-        <v>123</v>
-      </c>
-      <c r="S6" t="s">
-        <v>117</v>
-      </c>
-      <c r="T6" t="s">
-        <v>123</v>
-      </c>
       <c r="U6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="V6" s="24" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="W6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="X6" s="24" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="Y6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Z6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AA6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AB6">
         <f t="shared" ca="1" si="0"/>
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AC6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AD6">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AE6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AF6">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AH6">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="AI6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AJ6" s="24" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AK6" s="24" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AL6" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,177,70,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,183,78,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="7" spans="1:38">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="23">
         <v>7</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M7" s="24">
         <v>1</v>
       </c>
       <c r="N7" s="24" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>111</v>
+      </c>
+      <c r="R7" t="s">
         <v>117</v>
       </c>
-      <c r="P7" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
+        <v>111</v>
+      </c>
+      <c r="T7" t="s">
         <v>117</v>
       </c>
-      <c r="R7" t="s">
-        <v>123</v>
-      </c>
-      <c r="S7" t="s">
-        <v>117</v>
-      </c>
-      <c r="T7" t="s">
-        <v>123</v>
-      </c>
       <c r="U7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="V7" s="24" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="W7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="X7" s="24" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="Y7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Z7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AA7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AB7">
         <f t="shared" ca="1" si="0"/>
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AC7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AD7">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AE7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AF7">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AG7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AH7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AJ7" s="24" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AK7" s="24" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AL7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,177,70,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,178,74,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="8" spans="1:38">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="23">
         <v>8</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M8" s="24">
         <v>1</v>
       </c>
       <c r="N8" s="24" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O8" t="s">
+        <v>111</v>
+      </c>
+      <c r="P8" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>111</v>
+      </c>
+      <c r="R8" t="s">
         <v>117</v>
       </c>
-      <c r="P8" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="S8" t="s">
+        <v>111</v>
+      </c>
+      <c r="T8" t="s">
         <v>117</v>
       </c>
-      <c r="R8" t="s">
-        <v>123</v>
-      </c>
-      <c r="S8" t="s">
-        <v>117</v>
-      </c>
-      <c r="T8" t="s">
-        <v>123</v>
-      </c>
       <c r="U8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="V8" s="24" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="W8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="X8" s="24" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="Y8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Z8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AA8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AB8">
         <f t="shared" ca="1" si="0"/>
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AC8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AD8">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AF8">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AH8">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AJ8" s="24" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AK8" s="24" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AL8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,179,77,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,185,79,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="9" spans="1:38">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="23">
         <v>9</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M9" s="24">
         <v>1</v>
       </c>
       <c r="N9" s="24" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O9" t="s">
+        <v>111</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>111</v>
+      </c>
+      <c r="R9" t="s">
         <v>117</v>
       </c>
-      <c r="P9" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
+        <v>111</v>
+      </c>
+      <c r="T9" t="s">
         <v>117</v>
       </c>
-      <c r="R9" t="s">
-        <v>123</v>
-      </c>
-      <c r="S9" t="s">
-        <v>117</v>
-      </c>
-      <c r="T9" t="s">
-        <v>123</v>
-      </c>
       <c r="U9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="V9" s="24" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="W9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="X9" s="24" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Z9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AA9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AB9">
         <f t="shared" ca="1" si="0"/>
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="AC9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AD9">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AF9">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AH9">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="AI9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AJ9" s="24" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AK9" s="24" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AL9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,170,75,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,183,76,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="10" spans="1:38">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23">
         <v>10</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M10" s="24">
         <v>1</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O10" t="s">
+        <v>111</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>111</v>
+      </c>
+      <c r="R10" t="s">
         <v>117</v>
       </c>
-      <c r="P10" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
+        <v>111</v>
+      </c>
+      <c r="T10" t="s">
         <v>117</v>
       </c>
-      <c r="R10" t="s">
-        <v>123</v>
-      </c>
-      <c r="S10" t="s">
-        <v>117</v>
-      </c>
-      <c r="T10" t="s">
-        <v>123</v>
-      </c>
       <c r="U10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="V10" s="24" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="W10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="X10" s="24" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Z10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AA10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AB10">
         <f t="shared" ca="1" si="0"/>
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AC10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AD10">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AF10">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AH10">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AJ10" s="24" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AK10" s="24" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AL10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,174,79,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,178,80,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="11" spans="1:38">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="23">
         <v>11</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M11" s="24">
         <v>1</v>
       </c>
       <c r="N11" s="24" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O11" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>111</v>
+      </c>
+      <c r="R11" t="s">
         <v>117</v>
       </c>
-      <c r="P11" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
+        <v>111</v>
+      </c>
+      <c r="T11" t="s">
         <v>117</v>
       </c>
-      <c r="R11" t="s">
-        <v>123</v>
-      </c>
-      <c r="S11" t="s">
-        <v>117</v>
-      </c>
-      <c r="T11" t="s">
-        <v>123</v>
-      </c>
       <c r="U11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="V11" s="24" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="W11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="X11" s="24" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Z11" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AA11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AB11">
         <f t="shared" ca="1" si="0"/>
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AC11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AD11">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AE11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AF11">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="AG11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AH11">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="AI11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AJ11" s="24" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AK11" s="24" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AL11" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,170,77,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,177,73,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="12" spans="1:38">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="23">
         <v>12</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M12" s="24">
         <v>1</v>
       </c>
       <c r="N12" s="24" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O12" t="s">
+        <v>111</v>
+      </c>
+      <c r="P12" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>111</v>
+      </c>
+      <c r="R12" t="s">
         <v>117</v>
       </c>
-      <c r="P12" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="S12" t="s">
+        <v>111</v>
+      </c>
+      <c r="T12" t="s">
         <v>117</v>
       </c>
-      <c r="R12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S12" t="s">
-        <v>117</v>
-      </c>
-      <c r="T12" t="s">
-        <v>123</v>
-      </c>
       <c r="U12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="V12" s="24" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="W12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="X12" s="24" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="Y12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Z12" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AA12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AB12">
         <f t="shared" ca="1" si="0"/>
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AC12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AD12">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AF12">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AH12">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AJ12" s="24" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AK12" s="24" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AL12" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,171,71,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,170,72,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="13" spans="1:38">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D13" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="23">
         <v>13</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I13" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K13" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M13" s="24">
         <v>1</v>
       </c>
       <c r="N13" s="24" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O13" t="s">
+        <v>111</v>
+      </c>
+      <c r="P13" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>111</v>
+      </c>
+      <c r="R13" t="s">
         <v>117</v>
       </c>
-      <c r="P13" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q13" t="s">
+      <c r="S13" t="s">
+        <v>111</v>
+      </c>
+      <c r="T13" t="s">
         <v>117</v>
       </c>
-      <c r="R13" t="s">
-        <v>123</v>
-      </c>
-      <c r="S13" t="s">
-        <v>117</v>
-      </c>
-      <c r="T13" t="s">
-        <v>123</v>
-      </c>
       <c r="U13" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="V13" s="24" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="W13" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="X13" s="24" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="Y13" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Z13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AA13" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AB13">
         <f t="shared" ca="1" si="0"/>
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC13" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AD13">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AE13" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AF13">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="AG13" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AH13">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI13" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AJ13" s="24" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AK13" s="24" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AL13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,170,78,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,171,77,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="14" spans="1:38">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23">
         <v>14</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I14" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K14" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M14" s="24">
         <v>1</v>
       </c>
       <c r="N14" s="24" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O14" t="s">
+        <v>111</v>
+      </c>
+      <c r="P14" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>111</v>
+      </c>
+      <c r="R14" t="s">
         <v>117</v>
       </c>
-      <c r="P14" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q14" t="s">
+      <c r="S14" t="s">
+        <v>111</v>
+      </c>
+      <c r="T14" t="s">
         <v>117</v>
       </c>
-      <c r="R14" t="s">
-        <v>123</v>
-      </c>
-      <c r="S14" t="s">
-        <v>117</v>
-      </c>
-      <c r="T14" t="s">
-        <v>123</v>
-      </c>
       <c r="U14" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="V14" s="24" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="W14" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="X14" s="24" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="Y14" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Z14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AA14" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AB14">
         <f t="shared" ca="1" si="0"/>
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AC14" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AD14">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="AE14" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AF14">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AH14">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AJ14" s="24" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AK14" s="24" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AL14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,185,70,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,179,79,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="15" spans="1:38">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="23">
         <v>15</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I15" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K15" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M15" s="24">
         <v>1</v>
       </c>
       <c r="N15" s="24" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O15" t="s">
+        <v>111</v>
+      </c>
+      <c r="P15" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>111</v>
+      </c>
+      <c r="R15" t="s">
         <v>117</v>
       </c>
-      <c r="P15" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q15" t="s">
+      <c r="S15" t="s">
+        <v>111</v>
+      </c>
+      <c r="T15" t="s">
         <v>117</v>
       </c>
-      <c r="R15" t="s">
-        <v>123</v>
-      </c>
-      <c r="S15" t="s">
-        <v>117</v>
-      </c>
-      <c r="T15" t="s">
-        <v>123</v>
-      </c>
       <c r="U15" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="V15" s="24" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="W15" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="X15" s="24" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="Y15" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Z15" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AA15" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AB15">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AC15" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AD15">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AF15">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AH15">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AI15" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AJ15" s="24" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AK15" s="24" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AL15" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,184,80,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,178,76,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="16" spans="1:38">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="23">
         <v>16</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I16" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K16" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M16" s="24">
         <v>1</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O16" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>111</v>
+      </c>
+      <c r="R16" t="s">
         <v>117</v>
       </c>
-      <c r="P16" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q16" t="s">
+      <c r="S16" t="s">
+        <v>111</v>
+      </c>
+      <c r="T16" t="s">
         <v>117</v>
       </c>
-      <c r="R16" t="s">
-        <v>123</v>
-      </c>
-      <c r="S16" t="s">
-        <v>117</v>
-      </c>
-      <c r="T16" t="s">
-        <v>123</v>
-      </c>
       <c r="U16" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="V16" s="24" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="W16" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="X16" s="24" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="Y16" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Z16" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AA16" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AB16">
         <f t="shared" ca="1" si="0"/>
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AC16" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AD16">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AE16" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AF16">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AH16">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AJ16" s="24" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AK16" s="24" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AL16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,180,78,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,174,70,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="17" spans="1:38">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="23">
         <v>17</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I17" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K17" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M17" s="24">
         <v>1</v>
       </c>
       <c r="N17" s="24" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O17" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>111</v>
+      </c>
+      <c r="R17" t="s">
         <v>117</v>
       </c>
-      <c r="P17" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" t="s">
+      <c r="S17" t="s">
+        <v>111</v>
+      </c>
+      <c r="T17" t="s">
         <v>117</v>
       </c>
-      <c r="R17" t="s">
-        <v>123</v>
-      </c>
-      <c r="S17" t="s">
-        <v>117</v>
-      </c>
-      <c r="T17" t="s">
-        <v>123</v>
-      </c>
       <c r="U17" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="V17" s="24" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="W17" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="X17" s="24" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="Y17" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Z17" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AA17" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AB17">
         <f t="shared" ca="1" si="0"/>
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="AC17" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AD17">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AE17" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AF17">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AG17" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AH17">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AJ17" s="24" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AK17" s="24" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AL17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,180,71,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,171,74,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="20" spans="1:38">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H20" t="str">
         <f>E20</f>
         <v>'왕십리FC</v>
       </c>
       <c r="I20" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="J20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M20" s="24" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="N20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="O20" s="24" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="P20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Q20">
         <f ca="1">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R20" t="s">
+        <v>111</v>
+      </c>
+      <c r="S20" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="T20" t="s">
+        <v>111</v>
+      </c>
+      <c r="U20" t="s">
         <v>117</v>
       </c>
-      <c r="S20" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="T20" t="s">
-        <v>117</v>
-      </c>
-      <c r="U20" t="s">
-        <v>123</v>
-      </c>
       <c r="V20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="W20" s="24" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="X20">
         <v>1234</v>
       </c>
       <c r="Y20" s="24" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="Z20" s="24" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AA20" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AB20" t="str">
         <f ca="1">_xlfn.CONCAT(A20:AA20)</f>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('왕십리FC','왕십리FC201018.jpg','성동구','성동구 구장','red',5,'2016-01-01',sysdate(),'1234','기업');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('왕십리FC','왕십리FC201018.jpg','성동구','성동구 구장','red',2,'2016-01-01',sysdate(),'1234','기업');</v>
       </c>
     </row>
     <row r="21" spans="1:38">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G21" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" ref="H21:H22" si="5">E21</f>
         <v>'답십리FC</v>
       </c>
       <c r="I21" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="J21" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L21" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M21" s="24" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="N21" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="O21" s="24" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="P21" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Q21">
         <f t="shared" ref="Q21:Q22" ca="1" si="6">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R21" t="s">
+        <v>111</v>
+      </c>
+      <c r="S21" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="T21" t="s">
+        <v>111</v>
+      </c>
+      <c r="U21" t="s">
         <v>117</v>
       </c>
-      <c r="S21" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="T21" t="s">
-        <v>117</v>
-      </c>
-      <c r="U21" t="s">
-        <v>123</v>
-      </c>
       <c r="V21" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="W21" s="24" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="X21">
         <v>5678</v>
       </c>
       <c r="Y21" s="24" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="Z21" s="24" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="AA21" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AB21" t="str">
         <f t="shared" ref="AB21:AB22" ca="1" si="7">_xlfn.CONCAT(A21:AA21)</f>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('답십리FC','답십리FC201018.jpg','성동구','응봉동 구장','blue',2,'2017-01-01',sysdate(),'5678','하나');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('답십리FC','답십리FC201018.jpg','성동구','응봉동 구장','blue',4,'2017-01-01',sysdate(),'5678','하나');</v>
       </c>
     </row>
     <row r="22" spans="1:38">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G22" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="5"/>
         <v>'대구FC</v>
       </c>
       <c r="I22" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="J22" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L22" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="N22" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="O22" s="24" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="P22" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R22" t="s">
+        <v>111</v>
+      </c>
+      <c r="S22" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="T22" t="s">
+        <v>111</v>
+      </c>
+      <c r="U22" t="s">
         <v>117</v>
       </c>
-      <c r="S22" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="T22" t="s">
-        <v>117</v>
-      </c>
-      <c r="U22" t="s">
-        <v>123</v>
-      </c>
       <c r="V22" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="W22" s="24" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="X22">
         <v>2345</v>
       </c>
       <c r="Y22" s="24" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="Z22" s="24" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AA22" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AB22" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('대구FC','대구FC201018.jpg','달서구','달서구 구장','green',5,'2018-01-01',sysdate(),'2345','기업');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('대구FC','대구FC201018.jpg','달서구','달서구 구장','green',0,'2018-01-01',sysdate(),'2345','기업');</v>
       </c>
     </row>
     <row r="24" spans="1:38">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E24" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F24">
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L24" t="str">
         <f>_xlfn.CONCAT(E1:H1)</f>
         <v>'bioman1@gmail.com'</v>
       </c>
       <c r="M24" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="N24" s="24" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="O24">
         <v>1</v>
       </c>
       <c r="P24" s="24" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Q24" t="str">
         <f>_xlfn.CONCAT(A24:P24)</f>
@@ -9906,53 +10820,53 @@
     </row>
     <row r="25" spans="1:38">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B25" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F25">
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" ref="L25:L28" si="8">_xlfn.CONCAT(E2:H2)</f>
         <v>'bioman2@gmail.com'</v>
       </c>
       <c r="M25" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="N25" s="24" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="O25">
         <v>2</v>
       </c>
       <c r="P25" s="24" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Q25" t="str">
         <f t="shared" ref="Q25:Q28" si="9">_xlfn.CONCAT(A25:P25)</f>
@@ -9961,53 +10875,53 @@
     </row>
     <row r="26" spans="1:38">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B26" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D26" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" si="8"/>
         <v>'bioman3@gmail.com'</v>
       </c>
       <c r="M26" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="N26" s="24" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="O26">
         <v>3</v>
       </c>
       <c r="P26" s="24" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Q26" t="str">
         <f t="shared" si="9"/>
@@ -10016,53 +10930,53 @@
     </row>
     <row r="27" spans="1:38">
       <c r="A27" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B27" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E27" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" si="8"/>
         <v>'bioman4@gmail.com'</v>
       </c>
       <c r="M27" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="N27" s="24" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="O27">
         <v>4</v>
       </c>
       <c r="P27" s="24" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Q27" t="str">
         <f t="shared" si="9"/>
@@ -10071,53 +10985,53 @@
     </row>
     <row r="28" spans="1:38">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B28" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D28" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E28" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" si="8"/>
         <v>'bioman5@gmail.com'</v>
       </c>
       <c r="M28" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="N28" s="24" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="O28">
         <v>5</v>
       </c>
       <c r="P28" s="24" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Q28" t="str">
         <f t="shared" si="9"/>
@@ -10126,53 +11040,53 @@
     </row>
     <row r="29" spans="1:38">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E29" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F29">
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J29">
         <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L29" t="str">
         <f>_xlfn.CONCAT(E6:H6)</f>
         <v>'bioman6@gmail.com'</v>
       </c>
       <c r="M29" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="N29" s="24" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="O29">
         <v>1</v>
       </c>
       <c r="P29" s="24" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Q29" t="str">
         <f>_xlfn.CONCAT(A29:P29)</f>
@@ -10181,53 +11095,53 @@
     </row>
     <row r="30" spans="1:38">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B30" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E30" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F30">
         <v>3</v>
       </c>
       <c r="G30" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J30">
         <v>2</v>
       </c>
       <c r="K30" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L30" t="str">
         <f t="shared" ref="L30:L33" si="10">_xlfn.CONCAT(E7:H7)</f>
         <v>'bioman7@gmail.com'</v>
       </c>
       <c r="M30" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="N30" s="24" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="O30">
         <v>2</v>
       </c>
       <c r="P30" s="24" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Q30" t="str">
         <f t="shared" ref="Q30:Q33" si="11">_xlfn.CONCAT(A30:P30)</f>
@@ -10236,53 +11150,53 @@
     </row>
     <row r="31" spans="1:38">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B31" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E31" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F31">
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J31">
         <v>2</v>
       </c>
       <c r="K31" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L31" t="str">
         <f t="shared" si="10"/>
         <v>'bioman8@gmail.com'</v>
       </c>
       <c r="M31" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="N31" s="24" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="O31">
         <v>3</v>
       </c>
       <c r="P31" s="24" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Q31" t="str">
         <f t="shared" si="11"/>
@@ -10291,53 +11205,53 @@
     </row>
     <row r="32" spans="1:38">
       <c r="A32" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E32" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J32">
         <v>2</v>
       </c>
       <c r="K32" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L32" t="str">
         <f t="shared" si="10"/>
         <v>'bioman9@gmail.com'</v>
       </c>
       <c r="M32" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="N32" s="24" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="O32">
         <v>4</v>
       </c>
       <c r="P32" s="24" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Q32" t="str">
         <f t="shared" si="11"/>
@@ -10346,53 +11260,53 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B33" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E33" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J33">
         <v>2</v>
       </c>
       <c r="K33" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L33" t="str">
         <f t="shared" si="10"/>
         <v>'bioman10@gmail.com'</v>
       </c>
       <c r="M33" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="N33" s="24" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="O33">
         <v>5</v>
       </c>
       <c r="P33" s="24" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Q33" t="str">
         <f t="shared" si="11"/>
@@ -10401,53 +11315,53 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B34" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D34" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E34" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F34">
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J34">
         <v>3</v>
       </c>
       <c r="K34" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L34" t="str">
         <f>_xlfn.CONCAT(E11:H11)</f>
         <v>'bioman11@gmail.com'</v>
       </c>
       <c r="M34" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="N34" s="24" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="O34">
         <v>1</v>
       </c>
       <c r="P34" s="24" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Q34" t="str">
         <f>_xlfn.CONCAT(A34:P34)</f>
@@ -10456,53 +11370,53 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B35" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D35" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E35" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F35">
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J35">
         <v>3</v>
       </c>
       <c r="K35" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L35" t="str">
         <f t="shared" ref="L35:L38" si="12">_xlfn.CONCAT(E12:H12)</f>
         <v>'bioman12@gmail.com'</v>
       </c>
       <c r="M35" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="N35" s="24" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="O35">
         <v>2</v>
       </c>
       <c r="P35" s="24" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Q35" t="str">
         <f t="shared" ref="Q35:Q38" si="13">_xlfn.CONCAT(A35:P35)</f>
@@ -10511,53 +11425,53 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B36" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D36" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E36" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F36">
         <v>2</v>
       </c>
       <c r="G36" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J36">
         <v>3</v>
       </c>
       <c r="K36" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L36" t="str">
         <f t="shared" si="12"/>
         <v>'bioman13@gmail.com'</v>
       </c>
       <c r="M36" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="N36" s="24" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="O36">
         <v>3</v>
       </c>
       <c r="P36" s="24" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Q36" t="str">
         <f t="shared" si="13"/>
@@ -10566,53 +11480,53 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B37" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E37" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J37">
         <v>3</v>
       </c>
       <c r="K37" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L37" t="str">
         <f t="shared" si="12"/>
         <v>'bioman14@gmail.com'</v>
       </c>
       <c r="M37" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="N37" s="24" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="O37">
         <v>4</v>
       </c>
       <c r="P37" s="24" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Q37" t="str">
         <f t="shared" si="13"/>
@@ -10621,53 +11535,53 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B38" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E38" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J38">
         <v>3</v>
       </c>
       <c r="K38" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L38" t="str">
         <f t="shared" si="12"/>
         <v>'bioman15@gmail.com'</v>
       </c>
       <c r="M38" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="N38" s="24" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="O38">
         <v>5</v>
       </c>
       <c r="P38" s="24" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Q38" t="str">
         <f t="shared" si="13"/>
@@ -10696,6 +11610,6 @@
     <hyperlink ref="E17" r:id="rId17" display="bioman1@gmail.com" xr:uid="{B171FD32-C2D4-4F6D-A937-2D8211AA25D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/docs/srs/fbt_docs.xlsx
+++ b/docs/srs/fbt_docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kjy\fbt\docs\srs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90900981-D582-4049-A588-4EB6CAB4FF55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19A53FD-BFB4-452C-8874-03C961391A33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2F0AD6B2-A8A2-4F73-BAF4-7193D3382EE1}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="TestCase_SQL" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'서비스 플로우'!$B$6:$F$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'서비스 플로우'!$B$6:$F$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항명세서!$B$8:$J$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="376">
   <si>
     <t>요구사항 정의서</t>
   </si>
@@ -7879,531 +7879,6 @@
   </si>
   <si>
     <r>
-      <t>1. teamId, voteStatus=1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보낸다
-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>팀별 모든 마감</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>그</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가져온다
-3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>명단</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>요약</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>불러와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>삽입한다
-4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>명단을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>불러와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>삽입한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-5. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>명단</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가공</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지인이면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지인태그를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>붙인다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-6. 리턴</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">0. matchScheduleId를 보낸다
 1. </t>
     </r>
@@ -8964,11 +8439,6 @@
   </si>
   <si>
     <t>경기 투표 참/불 입력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 경기투표 참/불 등록
-2. 경기투표 참/불 수정</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -9139,6 +8609,4849 @@
       <t>등록
 2-1. 등록이면 등록
 2-2. 수정이면 수정</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FV06</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 인원 넘기는지 확인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상대방</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>찾기를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참여마다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> min_num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>넘겼는지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. FV05 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">경우
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2. Search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우인지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Callback
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맞다면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매번</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> minNum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>넘기는지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인
+4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>넘겼다면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> reservationStatus=2, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나머지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FV07</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 투표 마감하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">등록
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+3. FV06</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마감</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(vote_status = 1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카카오톡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공유하기를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단톡방에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공유</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀원들에게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알람</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보내기</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. voteStatus = 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> voteMatch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">보낸다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2. voteMatch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정한다
+3. 카카오 공유를 한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알람을 보낸다</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 투표 삭제하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FV08</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 경기 투표, 일정 삭제</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대신한다</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FV09</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>지인 초대하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 초대할 지인 찾기
+2. 지인에게 초대 매세지 보내기
+3. 카카오 공유하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> teamId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보내</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지인을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">검색한다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이때</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>속하지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개인을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">검색 결과를 화면에 뿌린다
+3. 사용자가 초대할 사람이 있으면 초대 버튼을 누른다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>4. invite객체를 보내 초대메세지를 본다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+5. 카카오 공유하기를 실행한다 </t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FV10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가인원 받기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 추가인원을 받을 수 있도록 경기 투표 설정 변경</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FV11</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 상대팀 찾기 글 등록</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가인원버튼의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">조건
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마감</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목표인원 미도달</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대기인원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설정이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">떼
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2. waiting = 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조건으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">보낸다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3. vote_match_setting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변경한다</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상대팀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>찾기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">조건
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마감</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목표인원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 미도달</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">상대팀 없음
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2. matchScheduleId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 가지고 상대팀 찾기 등록으로 이동</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FV12</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FV13</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 용병 찾기 글 등록</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>찾기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">조건
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마감</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목표인원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 미도달
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2. matchScheduleId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 가지고 용병 찾기 등록으로 이동</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 양도하기 글 등록</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양도하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">조건
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마감</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목표인원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 미도달</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">홈팀
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2. matchScheduleId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 가지고 양도하기 등록으로 이동</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>상대팀 찾기 클릭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>용병 찾기 클릭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>양도하기 클릭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 투표 수정하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FV14</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+2. 카카오 공유하기</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. teamId, voteStatus=1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보낸다
+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀별 모든 마감</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가져온다
+- 단, 시작된 경기는 호출하지 않는다.
+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>명단</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요약</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불러와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삽입한다
+4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>명단을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불러와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삽입한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>명단</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지인이면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지인태그를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>붙인다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+6. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리턴</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">조건
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마감</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">전
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클릭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정페이지로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">넘어간다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- props: voteMatch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>객체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">전부
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>누르면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> voteMatch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>객체와 matchSchedule 객체를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 서버로 넘겨 수정한다
+4. type = 1로 참조변수를 보내 경기투표 수정 &amp; 경기일정 수정 모두 진행한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카카오 공유한다: 수정했다는 소식을 담아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+6. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표 관리 페이지로 이동한다.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. F11을 통해 얻은 id로 해당 경기 일정 정보</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. F11로 얻은 matchScheduleId를 통해 경기 일정을 얻는다
+2. 그 일정 정보를 칸 등록칸에 넣을 수 있도록 한다
+3. 이 방식으로 입력된 정보는 수정불가능하게 한다</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>투표 창 버튼으로
+ 정보 가져오기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장된 경기 정보; 버튼으로
+정보 불러오기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중인 경기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">출력
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 경기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 투표의 경기 일정 정보 가져오기</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM02</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저장된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">누른다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">출력한다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">선택한다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일정을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가져와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록칸에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">넣는다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방싱으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정불가능하게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한다</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FS02</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FS01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">M </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>매치 글 등록하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 특정 경기 일정에 대해 매치 글 등록</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기일정이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있으면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>글만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록한다
+2-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기일정이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없으면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기일정을 먼저 등록한다.
+2-2. 갓 등록한 경기일정Id를 불러온다.
+2-3. 해당 경기일정Id에 매치글을 등록한다</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM03</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>매치 글 검색</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조건을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기본조건</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기시작일이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오늘보다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">뒤
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색조건</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: UI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">참조
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색조건에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맞는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>글을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력한다
+3. 출력 시, 버튼을 상이하게 출력한다
+- 신청버튼조건</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오늘이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마감일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전 + 매치미완료
+- 마감버튼조건</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오늘이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마감일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후 + 매치완료</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>인원파악신청</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 신청팀이 등록팀에 인원파악 신청
+- search_reservation에 등록 / status = 0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 신청팀이 인원파악신청을 누른다
+2. search_reservation에 등록 / status =0 처리</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조건에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">T </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FT01 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>타팀 정보 보기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 팀 정보
+2. 팀 경기력, 매너점수 정보</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>활동지역</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>총</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유니폼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매너</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종합</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>점수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매너</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상세보기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력
+2. 총회원수는 해당 팀의 team_member를 불러와 size로 측정한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기력/매너 종합 점수는 계산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+4. 매너 항목별 평균치 계산</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -9147,7 +13460,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9365,6 +13678,56 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Nanum Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Nanum Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -9624,7 +13987,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9784,6 +14147,21 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9793,25 +14171,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9826,13 +14198,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10156,7 +14540,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4:D4"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -10174,11 +14558,11 @@
   <sheetData>
     <row r="1" spans="2:11" ht="18" thickBot="1"/>
     <row r="2" spans="2:11" ht="18" thickBot="1">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="60" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="61"/>
-      <c r="D2" s="56"/>
+      <c r="D2" s="62"/>
       <c r="G2" s="2" t="s">
         <v>61</v>
       </c>
@@ -10193,10 +14577,10 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="64"/>
+      <c r="D3" s="67"/>
       <c r="G3" s="4" t="s">
         <v>36</v>
       </c>
@@ -10209,10 +14593,10 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="66"/>
+      <c r="D4" s="69"/>
       <c r="G4" s="26" t="s">
         <v>59</v>
       </c>
@@ -10239,50 +14623,50 @@
     </row>
     <row r="7" spans="2:11" ht="18" thickBot="1"/>
     <row r="8" spans="2:11" ht="18" thickBot="1">
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="63" t="s">
         <v>281</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="58" t="s">
         <v>279</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="58" t="s">
         <v>280</v>
       </c>
-      <c r="G8" s="57" t="s">
+      <c r="G8" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="58"/>
-      <c r="I8" s="53" t="s">
+      <c r="H8" s="65"/>
+      <c r="I8" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="J8" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="53" t="s">
+      <c r="K8" s="58" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="18" thickBot="1">
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
     </row>
     <row r="10" spans="2:11" ht="27" thickBot="1">
       <c r="B10" s="9" t="s">
@@ -11639,10 +16023,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB557C5E-BA25-400E-9AAB-8EC528CCF68C}">
-  <dimension ref="B1:F11"/>
+  <dimension ref="B1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -11656,42 +16040,42 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18" thickBot="1"/>
     <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="60" t="s">
         <v>296</v>
       </c>
       <c r="C2" s="61"/>
-      <c r="D2" s="56"/>
+      <c r="D2" s="62"/>
     </row>
     <row r="3" spans="2:6" ht="18" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="64"/>
+      <c r="D3" s="67"/>
     </row>
     <row r="4" spans="2:6" ht="18" thickBot="1">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="68" t="s">
         <v>288</v>
       </c>
-      <c r="D4" s="66"/>
+      <c r="D4" s="69"/>
     </row>
     <row r="5" spans="2:6" ht="18" thickBot="1"/>
     <row r="6" spans="2:6" ht="18" customHeight="1" thickBot="1">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="53" t="s">
         <v>281</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="54" t="s">
         <v>297</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="55" t="s">
         <v>302</v>
       </c>
       <c r="F6" s="49" t="s">
@@ -11715,7 +16099,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="91.8" thickBot="1">
+    <row r="8" spans="2:6" ht="109.8" thickBot="1">
       <c r="B8" s="15" t="s">
         <v>283</v>
       </c>
@@ -11729,7 +16113,7 @@
         <v>305</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="91.8" thickBot="1">
@@ -11746,7 +16130,7 @@
         <v>292</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="109.8" thickBot="1">
@@ -11754,7 +16138,7 @@
         <v>283</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>293</v>
@@ -11771,20 +16155,275 @@
         <v>283</v>
       </c>
       <c r="C11" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="E11" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="E11" s="16" t="s">
+    </row>
+    <row r="12" spans="2:6" ht="78.599999999999994" thickBot="1">
+      <c r="B12" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="D12" s="13" t="s">
         <v>313</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="63" thickBot="1">
+      <c r="B13" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="18" thickBot="1">
+      <c r="B14" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="94.2" thickBot="1">
+      <c r="B15" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="63" thickBot="1">
+      <c r="B16" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="47.4" thickBot="1">
+      <c r="B17" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="47.4" thickBot="1">
+      <c r="B18" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="47.4" thickBot="1">
+      <c r="B19" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="156.6" thickBot="1">
+      <c r="B20" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="53.4" thickBot="1">
+      <c r="B21" s="75" t="s">
+        <v>287</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>359</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="E21" s="73" t="s">
+        <v>350</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="78.599999999999994" thickBot="1">
+      <c r="B22" s="75" t="s">
+        <v>287</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>358</v>
+      </c>
+      <c r="D22" s="74" t="s">
+        <v>353</v>
+      </c>
+      <c r="E22" s="73" t="s">
+        <v>354</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="63" thickBot="1">
+      <c r="B23" s="72" t="s">
+        <v>360</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>355</v>
+      </c>
+      <c r="D23" s="74" t="s">
+        <v>361</v>
+      </c>
+      <c r="E23" s="73" t="s">
+        <v>362</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="109.8" thickBot="1">
+      <c r="B24" s="72" t="s">
+        <v>360</v>
+      </c>
+      <c r="C24" s="72" t="s">
+        <v>356</v>
+      </c>
+      <c r="D24" s="74" t="s">
+        <v>365</v>
+      </c>
+      <c r="E24" s="73" t="s">
+        <v>370</v>
+      </c>
+      <c r="F24" s="57" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="27" thickBot="1">
+      <c r="B25" s="72" t="s">
+        <v>360</v>
+      </c>
+      <c r="C25" s="72" t="s">
+        <v>364</v>
+      </c>
+      <c r="D25" s="74" t="s">
+        <v>367</v>
+      </c>
+      <c r="E25" s="73" t="s">
+        <v>368</v>
+      </c>
+      <c r="F25" s="57" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="91.8" thickBot="1">
+      <c r="B26" s="76" t="s">
+        <v>371</v>
+      </c>
+      <c r="C26" s="76" t="s">
+        <v>372</v>
+      </c>
+      <c r="D26" s="74" t="s">
+        <v>373</v>
+      </c>
+      <c r="E26" s="73" t="s">
+        <v>374</v>
+      </c>
+      <c r="F26" s="57" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B6:F10" xr:uid="{08681459-A406-4CEE-9A8A-D3DF83B63176}"/>
+  <autoFilter ref="B6:F21" xr:uid="{08681459-A406-4CEE-9A8A-D3DF83B63176}"/>
   <mergeCells count="3">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="C4:D4"/>
@@ -12041,7 +16680,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="70" t="s">
         <v>257</v>
       </c>
       <c r="B1">
@@ -12052,7 +16691,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="59"/>
+      <c r="A2" s="70"/>
       <c r="B2">
         <v>1</v>
       </c>
@@ -12061,7 +16700,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="59"/>
+      <c r="A3" s="70"/>
       <c r="B3">
         <v>2</v>
       </c>
@@ -12070,7 +16709,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="71" t="s">
         <v>261</v>
       </c>
       <c r="B4">
@@ -12081,7 +16720,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="60"/>
+      <c r="A5" s="71"/>
       <c r="B5">
         <v>1</v>
       </c>
@@ -12090,7 +16729,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="60"/>
+      <c r="A6" s="71"/>
       <c r="B6">
         <v>-1</v>
       </c>
@@ -12099,7 +16738,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="70" t="s">
         <v>266</v>
       </c>
       <c r="B7">
@@ -12110,7 +16749,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="59"/>
+      <c r="A8" s="70"/>
       <c r="B8">
         <v>1</v>
       </c>
@@ -12119,7 +16758,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="59"/>
+      <c r="A9" s="70"/>
       <c r="B9">
         <v>2</v>
       </c>
@@ -12277,14 +16916,14 @@
       </c>
       <c r="AB1">
         <f ca="1">RANDBETWEEN(170,185)</f>
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AC1" t="s">
         <v>110</v>
       </c>
       <c r="AD1">
         <f ca="1">RANDBETWEEN(70,80)</f>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE1" t="s">
         <v>110</v>
@@ -12311,7 +16950,7 @@
       </c>
       <c r="AL1" t="str">
         <f ca="1">_xlfn.CONCAT(A1:AK1)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,183,72,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,182,75,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="2" spans="1:38">
@@ -12396,21 +17035,21 @@
       </c>
       <c r="AB2">
         <f t="shared" ref="AB2:AB17" ca="1" si="0">RANDBETWEEN(170,185)</f>
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="AC2" t="s">
         <v>110</v>
       </c>
       <c r="AD2">
         <f t="shared" ref="AD2:AD17" ca="1" si="1">RANDBETWEEN(70,80)</f>
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="s">
         <v>110</v>
       </c>
       <c r="AF2">
         <f t="shared" ref="AF2:AF17" ca="1" si="2">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="s">
         <v>110</v>
@@ -12430,7 +17069,7 @@
       </c>
       <c r="AL2" t="str">
         <f t="shared" ref="AL2:AL17" ca="1" si="4">_xlfn.CONCAT(A2:AK2)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,185,80,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,173,71,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -12515,28 +17154,28 @@
       </c>
       <c r="AB3">
         <f t="shared" ca="1" si="0"/>
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AC3" t="s">
         <v>110</v>
       </c>
       <c r="AD3">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s">
         <v>110</v>
       </c>
       <c r="AF3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="s">
         <v>110</v>
       </c>
       <c r="AH3">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="s">
         <v>110</v>
@@ -12549,7 +17188,7 @@
       </c>
       <c r="AL3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,172,75,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,175,76,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="4" spans="1:38">
@@ -12634,21 +17273,21 @@
       </c>
       <c r="AB4">
         <f t="shared" ca="1" si="0"/>
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AC4" t="s">
         <v>110</v>
       </c>
       <c r="AD4">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE4" t="s">
         <v>110</v>
       </c>
       <c r="AF4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="s">
         <v>110</v>
@@ -12668,7 +17307,7 @@
       </c>
       <c r="AL4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,178,72,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,176,71,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -12753,21 +17392,21 @@
       </c>
       <c r="AB5">
         <f t="shared" ca="1" si="0"/>
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AC5" t="s">
         <v>110</v>
       </c>
       <c r="AD5">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AE5" t="s">
         <v>110</v>
       </c>
       <c r="AF5">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="s">
         <v>110</v>
@@ -12787,7 +17426,7 @@
       </c>
       <c r="AL5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,170,74,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,173,72,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -12872,21 +17511,21 @@
       </c>
       <c r="AB6">
         <f t="shared" ca="1" si="0"/>
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AC6" t="s">
         <v>110</v>
       </c>
       <c r="AD6">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AE6" t="s">
         <v>110</v>
       </c>
       <c r="AF6">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6" t="s">
         <v>110</v>
@@ -12906,7 +17545,7 @@
       </c>
       <c r="AL6" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,181,72,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,183,70,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -12991,14 +17630,14 @@
       </c>
       <c r="AB7">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="AC7" t="s">
         <v>110</v>
       </c>
       <c r="AD7">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s">
         <v>110</v>
@@ -13025,7 +17664,7 @@
       </c>
       <c r="AL7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,173,76,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,185,77,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -13110,14 +17749,14 @@
       </c>
       <c r="AB8">
         <f t="shared" ca="1" si="0"/>
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AC8" t="s">
         <v>110</v>
       </c>
       <c r="AD8">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s">
         <v>110</v>
@@ -13144,7 +17783,7 @@
       </c>
       <c r="AL8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,177,77,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,184,75,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -13229,14 +17868,14 @@
       </c>
       <c r="AB9">
         <f t="shared" ca="1" si="0"/>
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AC9" t="s">
         <v>110</v>
       </c>
       <c r="AD9">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AE9" t="s">
         <v>110</v>
@@ -13263,7 +17902,7 @@
       </c>
       <c r="AL9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,172,71,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,177,80,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -13348,28 +17987,28 @@
       </c>
       <c r="AB10">
         <f t="shared" ca="1" si="0"/>
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AC10" t="s">
         <v>110</v>
       </c>
       <c r="AD10">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s">
         <v>110</v>
       </c>
       <c r="AF10">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="s">
         <v>110</v>
       </c>
       <c r="AH10">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="s">
         <v>110</v>
@@ -13382,7 +18021,7 @@
       </c>
       <c r="AL10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,177,73,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,170,77,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -13467,7 +18106,7 @@
       </c>
       <c r="AB11">
         <f t="shared" ca="1" si="0"/>
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC11" t="s">
         <v>110</v>
@@ -13488,7 +18127,7 @@
       </c>
       <c r="AH11">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="s">
         <v>110</v>
@@ -13501,7 +18140,7 @@
       </c>
       <c r="AL11" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,176,76,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,177,76,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -13586,21 +18225,21 @@
       </c>
       <c r="AB12">
         <f t="shared" ca="1" si="0"/>
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="AC12" t="s">
         <v>110</v>
       </c>
       <c r="AD12">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AE12" t="s">
         <v>110</v>
       </c>
       <c r="AF12">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="s">
         <v>110</v>
@@ -13620,7 +18259,7 @@
       </c>
       <c r="AL12" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,170,80,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,185,77,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -13705,21 +18344,21 @@
       </c>
       <c r="AB13">
         <f t="shared" ca="1" si="0"/>
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AC13" t="s">
         <v>110</v>
       </c>
       <c r="AD13">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AE13" t="s">
         <v>110</v>
       </c>
       <c r="AF13">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="s">
         <v>110</v>
@@ -13739,7 +18378,7 @@
       </c>
       <c r="AL13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,176,80,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,175,78,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -13824,14 +18463,14 @@
       </c>
       <c r="AB14">
         <f t="shared" ca="1" si="0"/>
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AC14" t="s">
         <v>110</v>
       </c>
       <c r="AD14">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE14" t="s">
         <v>110</v>
@@ -13845,7 +18484,7 @@
       </c>
       <c r="AH14">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="s">
         <v>110</v>
@@ -13858,7 +18497,7 @@
       </c>
       <c r="AL14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,174,74,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,181,75,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -13950,14 +18589,14 @@
       </c>
       <c r="AD15">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AE15" t="s">
         <v>110</v>
       </c>
       <c r="AF15">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" t="s">
         <v>110</v>
@@ -13977,7 +18616,7 @@
       </c>
       <c r="AL15" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,183,74,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,183,72,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -14062,7 +18701,7 @@
       </c>
       <c r="AB16">
         <f t="shared" ca="1" si="0"/>
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AC16" t="s">
         <v>110</v>
@@ -14076,14 +18715,14 @@
       </c>
       <c r="AF16">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="s">
         <v>110</v>
       </c>
       <c r="AH16">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="s">
         <v>110</v>
@@ -14096,7 +18735,7 @@
       </c>
       <c r="AL16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,179,79,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,181,79,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="17" spans="1:38">
@@ -14181,14 +18820,14 @@
       </c>
       <c r="AB17">
         <f t="shared" ca="1" si="0"/>
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="AC17" t="s">
         <v>110</v>
       </c>
       <c r="AD17">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE17" t="s">
         <v>110</v>
@@ -14215,7 +18854,7 @@
       </c>
       <c r="AL17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,170,79,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,183,80,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="20" spans="1:38">
@@ -14359,7 +18998,7 @@
       </c>
       <c r="Q21">
         <f t="shared" ref="Q21:Q22" ca="1" si="6">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R21" t="s">
         <v>110</v>
@@ -14393,7 +19032,7 @@
       </c>
       <c r="AB21" t="str">
         <f t="shared" ref="AB21:AB22" ca="1" si="7">_xlfn.CONCAT(A21:AA21)</f>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('답십리FC','답십리FC201018.jpg','성동구','응봉동 구장','blue',2,'2017-01-01',sysdate(),'5678','하나');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('답십리FC','답십리FC201018.jpg','성동구','응봉동 구장','blue',0,'2017-01-01',sysdate(),'5678','하나');</v>
       </c>
     </row>
     <row r="22" spans="1:38">
@@ -14448,7 +19087,7 @@
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R22" t="s">
         <v>110</v>
@@ -14482,7 +19121,7 @@
       </c>
       <c r="AB22" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('대구FC','대구FC201018.jpg','달서구','달서구 구장','green',2,'2018-01-01',sysdate(),'2345','기업');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('대구FC','대구FC201018.jpg','달서구','달서구 구장','green',0,'2018-01-01',sysdate(),'2345','기업');</v>
       </c>
     </row>
     <row r="24" spans="1:38">

--- a/docs/srs/fbt_docs.xlsx
+++ b/docs/srs/fbt_docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kjy\fbt\docs\srs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19A53FD-BFB4-452C-8874-03C961391A33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA95DF6-4C63-4583-9B23-E11CB15F4B93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2F0AD6B2-A8A2-4F73-BAF4-7193D3382EE1}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="422">
   <si>
     <t>요구사항 정의서</t>
   </si>
@@ -13029,16 +13029,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1. 신청팀이 등록팀에 인원파악 신청
-- search_reservation에 등록 / status = 0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 신청팀이 인원파악신청을 누른다
-2. search_reservation에 등록 / status =0 처리</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1. </t>
     </r>
@@ -13202,26 +13192,81 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1. 팀 정보
-2. 팀 경기력, 매너점수 정보</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>팀명</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">정보
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -13230,203 +13275,36 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>활동지역</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>총</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회원수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유니폼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>색</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>경기력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>매너</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>종합</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>점수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>매너</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상세보기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출력
-2. 총회원수는 해당 팀의 team_member를 불러와 size로 측정한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매너점수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Nanum Gothic"/>
         <family val="3"/>
         <charset val="129"/>
@@ -13437,21 +13315,4772 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>경기력/매너 종합 점수는 계산</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀 최근 5경기 전적</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM04</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 팀별 매치 중인 매치글 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 팀별 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Nanum Gothic"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
-4. 매너 항목별 평균치 계산</t>
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일정</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM05</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 해당 매치글을 삭제한다</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. searchId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">보냄
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2. searchId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대응되는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제
+3. 새로고침</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM06</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 해당 매치글의 등록일자를 최신화한다</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. searchId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보냄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+2. searchId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대응되는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 끌올
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>새로고침</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM07</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀별 인원파악신청 매치글 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. teamId, status = 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보내</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중임을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">나타낸다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 중 조건</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미마감</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매친신청글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없음
+3. 경기일정, 매치 글 정보 출력</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM08</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>인원파악신청 수락</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM09</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>인원파악신청 거절</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀별 인원파악신청 중 매치글 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인원파악신청이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">출력
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">일정
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치글에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>딸린</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인원파악신청이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 인원파악신청 중 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>활동지역</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>총</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유니폼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매너</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종합</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>점수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매너</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상세보기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력
+2. 총회원수는 해당 팀의 team_member를 불러와 size로 측정한다
+3. 해당 팀 최근 5경기 결과 출력 삽입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매너</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>항목별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>평균치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계산</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. teamId, reservation_status = 1, isApply = 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보냄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인원파악신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조건</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미마감</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> + reservation_status = 1 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기일정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삽입</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. teamId, reservation_status = 0|-1| 1, isApply = 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보냄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인원파악신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">조건
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미마감</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">reservation_status = 0 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없음
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기일정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보 출력
+4. 신청 팀 정보 출력하여 3에 삽입</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM11</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>인원파악 중단</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청팀이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록팀에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인원파악</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">신청
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- search_reservation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / status = 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록팀에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알리기</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청팀이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인원파악신청을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">누른다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2. search_reservation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / status =0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>처리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록팀에 알리기</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청글에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인원파악신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수락</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록팀에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알리기</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청글에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인원파악신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거절</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록팀에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알리기</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. reservationStatus = -1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> searchReservation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>객체를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보낸다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>글의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> reservatuon_status = -1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록팀에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알리기</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. reservationStatus = -1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> searchReservation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>객체를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보낸다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>글의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> reservatuon_status = -1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기일정과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제
+4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록팀에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알리기</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM12</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀별 매치 실패 글 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 팀별 매치 실패 매치글 출력
+- 해당 경기 일정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. teamId, status = 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보내</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중임을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나타낸다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조건</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 마감 + 매치완료글 없음
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기일정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM13</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>매치 취소하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 해당 매치글 삭제
+2. 양도하기를 원한다면, 양도하기 페이지로 이동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. FM05 진행
+2. 양도를 원한다면 양도하기 페이지로 이동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. reservationStatus = 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> searchReservation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>객체를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보낸다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청글의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> reservation_status = 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">수정
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주어진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토대로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마감시간을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현재시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마감시간으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생성
+4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 완료 되면 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마감시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스레드풀로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타이머</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">설정 요청을 한다
+- thread.sleep으로 인해 transaction이 길어지는 것을 방지
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마감시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최소인원을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>채우지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않았다면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, reservation_status = -1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">수정
+5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>FV06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록팀에 알리기</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM14</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>매치 확정하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청팀을 awayTeam으로 등록</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM15</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀별 매치 완료 글 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">출력
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">일정
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. teamId, reservation_status = 2, isApply = 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보냄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인원파악신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조건</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">있음
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기일정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삽입
+5. 임시로 프론트 객체 수준에서 awayTeam을 완료 팀으로 넣기</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입금</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사항이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료됐는지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">묻기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 누르면 완료된 팀의 search 객체를 보낸다
+3. 해당 Id를 해당 경기일정의 away_team_id로 수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당 매치글 삭제
+5. 일정(관리자)페이지로 이동</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인원파악</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청팀에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인원파악</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중단
+2. 관련 경기 투표 삭제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록팀에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알리기</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -13460,7 +18089,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13728,6 +18357,36 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Nanum Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -13987,7 +18646,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -14162,6 +18821,21 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -14204,19 +18878,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -14558,11 +19220,11 @@
   <sheetData>
     <row r="1" spans="2:11" ht="18" thickBot="1"/>
     <row r="2" spans="2:11" ht="18" thickBot="1">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
       <c r="G2" s="2" t="s">
         <v>61</v>
       </c>
@@ -14577,10 +19239,10 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="67"/>
+      <c r="D3" s="72"/>
       <c r="G3" s="4" t="s">
         <v>36</v>
       </c>
@@ -14593,10 +19255,10 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="69"/>
+      <c r="D4" s="74"/>
       <c r="G4" s="26" t="s">
         <v>59</v>
       </c>
@@ -14623,50 +19285,50 @@
     </row>
     <row r="7" spans="2:11" ht="18" thickBot="1"/>
     <row r="8" spans="2:11" ht="18" thickBot="1">
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="68" t="s">
         <v>281</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="63" t="s">
         <v>279</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="63" t="s">
         <v>280</v>
       </c>
-      <c r="G8" s="64" t="s">
+      <c r="G8" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="65"/>
-      <c r="I8" s="58" t="s">
+      <c r="H8" s="70"/>
+      <c r="I8" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="58" t="s">
+      <c r="J8" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="58" t="s">
+      <c r="K8" s="63" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="18" thickBot="1">
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
     </row>
     <row r="10" spans="2:11" ht="27" thickBot="1">
       <c r="B10" s="9" t="s">
@@ -16023,46 +20685,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB557C5E-BA25-400E-9AAB-8EC528CCF68C}">
-  <dimension ref="B1:F26"/>
+  <dimension ref="B1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="4.19921875" customWidth="1"/>
     <col min="2" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="23.3984375" customWidth="1"/>
+    <col min="4" max="4" width="25.8984375" customWidth="1"/>
     <col min="5" max="5" width="36.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44" customWidth="1"/>
+    <col min="6" max="6" width="47.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="18" thickBot="1"/>
     <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="65" t="s">
         <v>296</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
     </row>
     <row r="3" spans="2:6" ht="18" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="67"/>
+      <c r="D3" s="72"/>
     </row>
     <row r="4" spans="2:6" ht="18" thickBot="1">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="73" t="s">
         <v>288</v>
       </c>
-      <c r="D4" s="69"/>
+      <c r="D4" s="74"/>
     </row>
     <row r="5" spans="2:6" ht="18" thickBot="1"/>
     <row r="6" spans="2:6" ht="18" customHeight="1" thickBot="1">
@@ -16321,16 +20983,16 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="53.4" thickBot="1">
-      <c r="B21" s="75" t="s">
+      <c r="B21" s="61" t="s">
         <v>287</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="61" t="s">
         <v>359</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="E21" s="73" t="s">
+      <c r="E21" s="59" t="s">
         <v>350</v>
       </c>
       <c r="F21" s="57" t="s">
@@ -16338,16 +21000,16 @@
       </c>
     </row>
     <row r="22" spans="2:6" ht="78.599999999999994" thickBot="1">
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="61" t="s">
         <v>287</v>
       </c>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="61" t="s">
         <v>358</v>
       </c>
-      <c r="D22" s="74" t="s">
+      <c r="D22" s="60" t="s">
         <v>353</v>
       </c>
-      <c r="E22" s="73" t="s">
+      <c r="E22" s="59" t="s">
         <v>354</v>
       </c>
       <c r="F22" s="57" t="s">
@@ -16355,16 +21017,16 @@
       </c>
     </row>
     <row r="23" spans="2:6" ht="63" thickBot="1">
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="58" t="s">
         <v>360</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="58" t="s">
         <v>355</v>
       </c>
-      <c r="D23" s="74" t="s">
+      <c r="D23" s="60" t="s">
         <v>361</v>
       </c>
-      <c r="E23" s="73" t="s">
+      <c r="E23" s="59" t="s">
         <v>362</v>
       </c>
       <c r="F23" s="57" t="s">
@@ -16372,54 +21034,258 @@
       </c>
     </row>
     <row r="24" spans="2:6" ht="109.8" thickBot="1">
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="58" t="s">
         <v>360</v>
       </c>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="58" t="s">
         <v>356</v>
       </c>
-      <c r="D24" s="74" t="s">
+      <c r="D24" s="60" t="s">
         <v>365</v>
       </c>
-      <c r="E24" s="73" t="s">
-        <v>370</v>
+      <c r="E24" s="59" t="s">
+        <v>368</v>
       </c>
       <c r="F24" s="57" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="27" thickBot="1">
-      <c r="B25" s="72" t="s">
+    <row r="25" spans="2:6" ht="47.4" thickBot="1">
+      <c r="B25" s="58" t="s">
         <v>360</v>
       </c>
-      <c r="C25" s="72" t="s">
+      <c r="C25" s="58" t="s">
         <v>364</v>
       </c>
-      <c r="D25" s="74" t="s">
+      <c r="D25" s="60" t="s">
         <v>367</v>
       </c>
-      <c r="E25" s="73" t="s">
-        <v>368</v>
+      <c r="E25" s="59" t="s">
+        <v>398</v>
       </c>
       <c r="F25" s="57" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="63" thickBot="1">
+      <c r="B26" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="C26" s="58" t="s">
+        <v>373</v>
+      </c>
+      <c r="D26" s="60" t="s">
+        <v>374</v>
+      </c>
+      <c r="E26" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="F26" s="57" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="47.4" thickBot="1">
+      <c r="B27" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="C27" s="58" t="s">
+        <v>376</v>
+      </c>
+      <c r="D27" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="E27" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="F27" s="57" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="42" thickBot="1">
+      <c r="B28" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="C28" s="58" t="s">
+        <v>379</v>
+      </c>
+      <c r="D28" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="E28" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="F28" s="57" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="78.599999999999994" thickBot="1">
+      <c r="B29" s="77" t="s">
+        <v>360</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>382</v>
+      </c>
+      <c r="D29" s="60" t="s">
+        <v>383</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>391</v>
+      </c>
+      <c r="F29" s="57" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="172.2" thickBot="1">
+      <c r="B30" s="77" t="s">
+        <v>360</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>385</v>
+      </c>
+      <c r="D30" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="E30" s="59" t="s">
+        <v>400</v>
+      </c>
+      <c r="F30" s="57" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="43.8" thickBot="1">
+      <c r="B31" s="77" t="s">
+        <v>360</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>387</v>
+      </c>
+      <c r="D31" s="60" t="s">
+        <v>388</v>
+      </c>
+      <c r="E31" s="59" t="s">
+        <v>401</v>
+      </c>
+      <c r="F31" s="57" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="78.599999999999994" thickBot="1">
+      <c r="B32" s="77" t="s">
+        <v>360</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>389</v>
+      </c>
+      <c r="D32" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="E32" s="59" t="s">
+        <v>392</v>
+      </c>
+      <c r="F32" s="57" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="59.4" thickBot="1">
+      <c r="B33" s="77" t="s">
+        <v>360</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>396</v>
+      </c>
+      <c r="D33" s="60" t="s">
+        <v>397</v>
+      </c>
+      <c r="E33" s="59" t="s">
+        <v>421</v>
+      </c>
+      <c r="F33" s="57" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="55.2" thickBot="1">
+      <c r="B34" s="77" t="s">
+        <v>360</v>
+      </c>
+      <c r="C34" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="D34" s="60" t="s">
+        <v>405</v>
+      </c>
+      <c r="E34" s="59" t="s">
+        <v>406</v>
+      </c>
+      <c r="F34" s="57" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="40.200000000000003" thickBot="1">
+      <c r="B35" s="77" t="s">
+        <v>360</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>408</v>
+      </c>
+      <c r="D35" s="60" t="s">
+        <v>409</v>
+      </c>
+      <c r="E35" s="59" t="s">
+        <v>410</v>
+      </c>
+      <c r="F35" s="57" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="109.8" thickBot="1">
+      <c r="B36" s="77" t="s">
+        <v>360</v>
+      </c>
+      <c r="C36" s="58" t="s">
+        <v>413</v>
+      </c>
+      <c r="D36" s="60" t="s">
+        <v>417</v>
+      </c>
+      <c r="E36" s="59" t="s">
+        <v>418</v>
+      </c>
+      <c r="F36" s="57" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="78.599999999999994" thickBot="1">
+      <c r="B37" s="77" t="s">
+        <v>360</v>
+      </c>
+      <c r="C37" s="58" t="s">
+        <v>416</v>
+      </c>
+      <c r="D37" s="60" t="s">
+        <v>414</v>
+      </c>
+      <c r="E37" s="59" t="s">
+        <v>415</v>
+      </c>
+      <c r="F37" s="57" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="94.2" thickBot="1">
+      <c r="B38" s="62" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" ht="91.8" thickBot="1">
-      <c r="B26" s="76" t="s">
+      <c r="C38" s="62" t="s">
+        <v>370</v>
+      </c>
+      <c r="D38" s="60" t="s">
         <v>371</v>
       </c>
-      <c r="C26" s="76" t="s">
+      <c r="E38" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="D26" s="74" t="s">
-        <v>373</v>
-      </c>
-      <c r="E26" s="73" t="s">
-        <v>374</v>
-      </c>
-      <c r="F26" s="57" t="s">
-        <v>375</v>
+      <c r="F38" s="57" t="s">
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -16680,7 +21546,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="75" t="s">
         <v>257</v>
       </c>
       <c r="B1">
@@ -16691,7 +21557,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="70"/>
+      <c r="A2" s="75"/>
       <c r="B2">
         <v>1</v>
       </c>
@@ -16700,7 +21566,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="70"/>
+      <c r="A3" s="75"/>
       <c r="B3">
         <v>2</v>
       </c>
@@ -16709,7 +21575,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="76" t="s">
         <v>261</v>
       </c>
       <c r="B4">
@@ -16720,7 +21586,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="71"/>
+      <c r="A5" s="76"/>
       <c r="B5">
         <v>1</v>
       </c>
@@ -16729,7 +21595,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="71"/>
+      <c r="A6" s="76"/>
       <c r="B6">
         <v>-1</v>
       </c>
@@ -16738,7 +21604,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="75" t="s">
         <v>266</v>
       </c>
       <c r="B7">
@@ -16749,7 +21615,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="70"/>
+      <c r="A8" s="75"/>
       <c r="B8">
         <v>1</v>
       </c>
@@ -16758,7 +21624,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="70"/>
+      <c r="A9" s="75"/>
       <c r="B9">
         <v>2</v>
       </c>
@@ -16916,14 +21782,14 @@
       </c>
       <c r="AB1">
         <f ca="1">RANDBETWEEN(170,185)</f>
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AC1" t="s">
         <v>110</v>
       </c>
       <c r="AD1">
         <f ca="1">RANDBETWEEN(70,80)</f>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE1" t="s">
         <v>110</v>
@@ -16950,7 +21816,7 @@
       </c>
       <c r="AL1" t="str">
         <f ca="1">_xlfn.CONCAT(A1:AK1)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,182,75,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,176,77,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="2" spans="1:38">
@@ -17035,7 +21901,7 @@
       </c>
       <c r="AB2">
         <f t="shared" ref="AB2:AB17" ca="1" si="0">RANDBETWEEN(170,185)</f>
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="AC2" t="s">
         <v>110</v>
@@ -17049,14 +21915,14 @@
       </c>
       <c r="AF2">
         <f t="shared" ref="AF2:AF17" ca="1" si="2">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG2" t="s">
         <v>110</v>
       </c>
       <c r="AH2">
         <f t="shared" ref="AH2:AH17" ca="1" si="3">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI2" t="s">
         <v>110</v>
@@ -17069,7 +21935,7 @@
       </c>
       <c r="AL2" t="str">
         <f t="shared" ref="AL2:AL17" ca="1" si="4">_xlfn.CONCAT(A2:AK2)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,173,71,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,184,71,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -17154,21 +22020,21 @@
       </c>
       <c r="AB3">
         <f t="shared" ca="1" si="0"/>
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="AC3" t="s">
         <v>110</v>
       </c>
       <c r="AD3">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AE3" t="s">
         <v>110</v>
       </c>
       <c r="AF3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="s">
         <v>110</v>
@@ -17188,7 +22054,7 @@
       </c>
       <c r="AL3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,175,76,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,183,72,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="4" spans="1:38">
@@ -17273,28 +22139,28 @@
       </c>
       <c r="AB4">
         <f t="shared" ca="1" si="0"/>
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AC4" t="s">
         <v>110</v>
       </c>
       <c r="AD4">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE4" t="s">
         <v>110</v>
       </c>
       <c r="AF4">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4" t="s">
         <v>110</v>
       </c>
       <c r="AH4">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4" t="s">
         <v>110</v>
@@ -17307,7 +22173,7 @@
       </c>
       <c r="AL4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,176,71,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,180,70,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -17392,7 +22258,7 @@
       </c>
       <c r="AB5">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="AC5" t="s">
         <v>110</v>
@@ -17406,7 +22272,7 @@
       </c>
       <c r="AF5">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="s">
         <v>110</v>
@@ -17426,7 +22292,7 @@
       </c>
       <c r="AL5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,173,72,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,185,72,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -17511,14 +22377,14 @@
       </c>
       <c r="AB6">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="AC6" t="s">
         <v>110</v>
       </c>
       <c r="AD6">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AE6" t="s">
         <v>110</v>
@@ -17545,7 +22411,7 @@
       </c>
       <c r="AL6" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,183,70,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,171,80,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -17630,21 +22496,21 @@
       </c>
       <c r="AB7">
         <f t="shared" ca="1" si="0"/>
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="AC7" t="s">
         <v>110</v>
       </c>
       <c r="AD7">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AE7" t="s">
         <v>110</v>
       </c>
       <c r="AF7">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" t="s">
         <v>110</v>
@@ -17664,7 +22530,7 @@
       </c>
       <c r="AL7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,185,77,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,171,80,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -17749,21 +22615,21 @@
       </c>
       <c r="AB8">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AC8" t="s">
         <v>110</v>
       </c>
       <c r="AD8">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AE8" t="s">
         <v>110</v>
       </c>
       <c r="AF8">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" t="s">
         <v>110</v>
@@ -17783,7 +22649,7 @@
       </c>
       <c r="AL8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,184,75,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,180,79,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -17868,14 +22734,14 @@
       </c>
       <c r="AB9">
         <f t="shared" ca="1" si="0"/>
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AC9" t="s">
         <v>110</v>
       </c>
       <c r="AD9">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="s">
         <v>110</v>
@@ -17889,7 +22755,7 @@
       </c>
       <c r="AH9">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9" t="s">
         <v>110</v>
@@ -17902,7 +22768,7 @@
       </c>
       <c r="AL9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,177,80,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,180,75,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -17987,14 +22853,14 @@
       </c>
       <c r="AB10">
         <f t="shared" ca="1" si="0"/>
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="AC10" t="s">
         <v>110</v>
       </c>
       <c r="AD10">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AE10" t="s">
         <v>110</v>
@@ -18008,7 +22874,7 @@
       </c>
       <c r="AH10">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="s">
         <v>110</v>
@@ -18021,7 +22887,7 @@
       </c>
       <c r="AL10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,170,77,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,179,71,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -18106,14 +22972,14 @@
       </c>
       <c r="AB11">
         <f t="shared" ca="1" si="0"/>
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AC11" t="s">
         <v>110</v>
       </c>
       <c r="AD11">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AE11" t="s">
         <v>110</v>
@@ -18127,7 +22993,7 @@
       </c>
       <c r="AH11">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI11" t="s">
         <v>110</v>
@@ -18140,7 +23006,7 @@
       </c>
       <c r="AL11" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,177,76,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,184,80,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -18225,14 +23091,14 @@
       </c>
       <c r="AB12">
         <f t="shared" ca="1" si="0"/>
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="AC12" t="s">
         <v>110</v>
       </c>
       <c r="AD12">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AE12" t="s">
         <v>110</v>
@@ -18246,7 +23112,7 @@
       </c>
       <c r="AH12">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12" t="s">
         <v>110</v>
@@ -18259,7 +23125,7 @@
       </c>
       <c r="AL12" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,185,77,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,172,71,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -18351,14 +23217,14 @@
       </c>
       <c r="AD13">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AE13" t="s">
         <v>110</v>
       </c>
       <c r="AF13">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13" t="s">
         <v>110</v>
@@ -18378,7 +23244,7 @@
       </c>
       <c r="AL13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,175,78,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,175,70,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -18463,14 +23329,14 @@
       </c>
       <c r="AB14">
         <f t="shared" ca="1" si="0"/>
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="AC14" t="s">
         <v>110</v>
       </c>
       <c r="AD14">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE14" t="s">
         <v>110</v>
@@ -18497,7 +23363,7 @@
       </c>
       <c r="AL14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,181,75,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,171,76,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -18582,21 +23448,21 @@
       </c>
       <c r="AB15">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AC15" t="s">
         <v>110</v>
       </c>
       <c r="AD15">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE15" t="s">
         <v>110</v>
       </c>
       <c r="AF15">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="s">
         <v>110</v>
@@ -18616,7 +23482,7 @@
       </c>
       <c r="AL15" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,183,72,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,179,71,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -18701,7 +23567,7 @@
       </c>
       <c r="AB16">
         <f t="shared" ca="1" si="0"/>
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AC16" t="s">
         <v>110</v>
@@ -18735,7 +23601,7 @@
       </c>
       <c r="AL16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,181,79,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,177,79,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="17" spans="1:38">
@@ -18820,28 +23686,28 @@
       </c>
       <c r="AB17">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AC17" t="s">
         <v>110</v>
       </c>
       <c r="AD17">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AE17" t="s">
         <v>110</v>
       </c>
       <c r="AF17">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="s">
         <v>110</v>
       </c>
       <c r="AH17">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI17" t="s">
         <v>110</v>
@@ -18854,7 +23720,7 @@
       </c>
       <c r="AL17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,183,80,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,180,78,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="20" spans="1:38">
@@ -18909,7 +23775,7 @@
       </c>
       <c r="Q20">
         <f ca="1">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R20" t="s">
         <v>110</v>
@@ -18943,7 +23809,7 @@
       </c>
       <c r="AB20" t="str">
         <f ca="1">_xlfn.CONCAT(A20:AA20)</f>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('왕십리FC','왕십리FC201018.jpg','성동구','성동구 구장','red',1,'2016-01-01',sysdate(),'1234','기업');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('왕십리FC','왕십리FC201018.jpg','성동구','성동구 구장','red',5,'2016-01-01',sysdate(),'1234','기업');</v>
       </c>
     </row>
     <row r="21" spans="1:38">
@@ -19087,7 +23953,7 @@
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R22" t="s">
         <v>110</v>
@@ -19121,7 +23987,7 @@
       </c>
       <c r="AB22" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('대구FC','대구FC201018.jpg','달서구','달서구 구장','green',0,'2018-01-01',sysdate(),'2345','기업');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('대구FC','대구FC201018.jpg','달서구','달서구 구장','green',3,'2018-01-01',sysdate(),'2345','기업');</v>
       </c>
     </row>
     <row r="24" spans="1:38">

--- a/docs/srs/fbt_docs.xlsx
+++ b/docs/srs/fbt_docs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kjy\fbt\docs\srs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD2AFA7-D16F-4296-8A33-EE36FD33ED7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E246737D-C3DD-4A2A-84EE-A7DD3F109BB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2F0AD6B2-A8A2-4F73-BAF4-7193D3382EE1}"/>
+    <workbookView xWindow="6492" yWindow="660" windowWidth="11280" windowHeight="9060" activeTab="1" xr2:uid="{2F0AD6B2-A8A2-4F73-BAF4-7193D3382EE1}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항명세서" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="변수 코드 북" sheetId="5" r:id="rId4"/>
     <sheet name="TestCase_시나리오" sheetId="2" r:id="rId5"/>
     <sheet name="TestCase_SQL" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'서비스 플로우'!$B$6:$F$22</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="540">
   <si>
     <t>요구사항 정의서</t>
   </si>
@@ -24755,12 +24756,2525 @@
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>FE02</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>용병찾기 글 검색</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병찾기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조건에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병찾기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FE03</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>용병신청</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청팀이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록팀에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">신청
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- employ_result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / status = 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록팀에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알리기</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 개인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병찾기를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">누른다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2. employ_result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / status =0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>처리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록팀에 알리기</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FE04</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 용병 찾는 중 용병신청글 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 정보 보기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 유저 정보, 용병횟수 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">횟수
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>emp_score</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FE05</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>용병찾기글 삭제</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병찾기글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제한다</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. employId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">보냄
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. employId </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대응되는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> employ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제
+3. 새로고침</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>용병찾기글 끌어올리기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병찾기글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록일자를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최신화한다</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FE06</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. employId </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보냄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+2. employId </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대응되는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> employ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">끌올
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>새로고침</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FE07</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>용병찾기글 수락</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청글에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병찾기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수락</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록팀에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알리기</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. empResultStatus = 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> empResult </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>객체를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보낸다
+2. 현실에서는 연락처로 입금까지 확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청글의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> empResult_status = 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정
+4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 용병</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에 알리기</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>용병찾기글 거절</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청글에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병찾기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거절</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록팀에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알리기</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. empResultStatus = -1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> empResult </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>객체를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보낸다
+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청글의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> empResult_status = -1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정
+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병에 알리기</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FE08</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FE09</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FE10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀별 용병찾기 실패 글 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀별 용병찾기 성공 글 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀별 용병 찾는 중 용병신청글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일정
+- 해당 글 참여인원 관련 정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병 관련 정보</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. teamId, status = 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보내</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>찾는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중임을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">나타낸다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 찾는 중 조건</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미마감
+3. 경기일정, 양도 글 정보 출력
+4. 3에 현재인원수와 상태에 대한 정보를 삽입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+5. 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에 용병 관련 정보(용병 점수) 삽입</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병 찾기 성공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">출력
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당 경기 일정
+- 해당 글 참여인원 관련 정보
+- 용병 관련 정보</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>찾기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">출력
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당 경기 일정
+- 해당 글 참여인원 관련 정보
+- 용병 관련 정보</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. teamId, status = 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보내</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중임을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나타낸다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병찾기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조건</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마감</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목표인원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기일정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병찾기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력
+4. 3에 현재인원수와 상태에 대한 정보를 삽입
+5. 3에 용병 관련 정보(용병 점수) 삽입</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. teamId, status = 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보내</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중임을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나타낸다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병찾기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조건</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마감</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목표인원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기일정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병찾기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력
+4. 3에 현재인원수와 상태에 대한 정보를 삽입
+5. 3에 용병 관련 정보(용병 점수) 삽입</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FU01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="46">
+  <fonts count="47">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25070,6 +27584,12 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -25335,7 +27855,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -25531,6 +28051,42 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -25571,12 +28127,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -25900,7 +28450,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -25918,11 +28468,11 @@
   <sheetData>
     <row r="1" spans="2:11" ht="18" thickBot="1"/>
     <row r="2" spans="2:11" ht="18" thickBot="1">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="69"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="81"/>
       <c r="G2" s="2" t="s">
         <v>61</v>
       </c>
@@ -25937,10 +28487,10 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="74"/>
+      <c r="D3" s="86"/>
       <c r="G3" s="4" t="s">
         <v>36</v>
       </c>
@@ -25953,10 +28503,10 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="76"/>
+      <c r="D4" s="88"/>
       <c r="G4" s="26" t="s">
         <v>59</v>
       </c>
@@ -25983,50 +28533,50 @@
     </row>
     <row r="7" spans="2:11" ht="18" thickBot="1"/>
     <row r="8" spans="2:11" ht="18" thickBot="1">
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="82" t="s">
         <v>281</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="77" t="s">
         <v>279</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="77" t="s">
         <v>280</v>
       </c>
-      <c r="G8" s="71" t="s">
+      <c r="G8" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="72"/>
-      <c r="I8" s="65" t="s">
+      <c r="H8" s="84"/>
+      <c r="I8" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="65" t="s">
+      <c r="J8" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="65" t="s">
+      <c r="K8" s="77" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="18" thickBot="1">
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
       <c r="G9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
     </row>
     <row r="10" spans="2:11" ht="27" thickBot="1">
       <c r="B10" s="9" t="s">
@@ -27383,10 +29933,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB557C5E-BA25-400E-9AAB-8EC528CCF68C}">
-  <dimension ref="B1:F58"/>
+  <dimension ref="B1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -27400,29 +29950,29 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18" thickBot="1"/>
     <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="79" t="s">
         <v>296</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="69"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="81"/>
     </row>
     <row r="3" spans="2:6" ht="18" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="74"/>
+      <c r="D3" s="86"/>
     </row>
     <row r="4" spans="2:6" ht="18" thickBot="1">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="87" t="s">
         <v>288</v>
       </c>
-      <c r="D4" s="76"/>
+      <c r="D4" s="88"/>
     </row>
     <row r="5" spans="2:6" ht="18" thickBot="1"/>
     <row r="6" spans="2:6" ht="18" customHeight="1" thickBot="1">
@@ -28035,7 +30585,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="61.2" thickBot="1">
+    <row r="42" spans="2:6" ht="60.6" thickBot="1">
       <c r="B42" s="64" t="s">
         <v>286</v>
       </c>
@@ -28289,13 +30839,13 @@
       </c>
     </row>
     <row r="57" spans="2:6" ht="63" thickBot="1">
-      <c r="B57" s="80" t="s">
+      <c r="B57" s="65" t="s">
         <v>493</v>
       </c>
-      <c r="C57" s="79" t="s">
+      <c r="C57" s="68" t="s">
         <v>494</v>
       </c>
-      <c r="D57" s="60" t="s">
+      <c r="D57" s="66" t="s">
         <v>495</v>
       </c>
       <c r="E57" s="59" t="s">
@@ -28305,21 +30855,191 @@
         <v>497</v>
       </c>
     </row>
-    <row r="58" spans="2:6" ht="78.599999999999994" thickBot="1">
-      <c r="B58" s="62" t="s">
+    <row r="58" spans="2:6" ht="109.8" thickBot="1">
+      <c r="B58" s="65" t="s">
+        <v>493</v>
+      </c>
+      <c r="C58" s="65" t="s">
+        <v>500</v>
+      </c>
+      <c r="D58" s="67" t="s">
+        <v>501</v>
+      </c>
+      <c r="E58" s="59" t="s">
+        <v>502</v>
+      </c>
+      <c r="F58" s="57" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="47.4" thickBot="1">
+      <c r="B59" s="65" t="s">
+        <v>493</v>
+      </c>
+      <c r="C59" s="65" t="s">
+        <v>503</v>
+      </c>
+      <c r="D59" s="67" t="s">
+        <v>504</v>
+      </c>
+      <c r="E59" s="59" t="s">
+        <v>505</v>
+      </c>
+      <c r="F59" s="57" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="94.2" thickBot="1">
+      <c r="B60" s="65" t="s">
+        <v>493</v>
+      </c>
+      <c r="C60" s="65" t="s">
+        <v>507</v>
+      </c>
+      <c r="D60" s="67" t="s">
+        <v>508</v>
+      </c>
+      <c r="E60" s="59" t="s">
+        <v>533</v>
+      </c>
+      <c r="F60" s="57" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="47.4" thickBot="1">
+      <c r="B61" s="65" t="s">
+        <v>493</v>
+      </c>
+      <c r="C61" s="65" t="s">
+        <v>513</v>
+      </c>
+      <c r="D61" s="60" t="s">
+        <v>514</v>
+      </c>
+      <c r="E61" s="59" t="s">
+        <v>515</v>
+      </c>
+      <c r="F61" s="57" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="43.8" thickBot="1">
+      <c r="B62" s="65" t="s">
+        <v>493</v>
+      </c>
+      <c r="C62" s="65" t="s">
+        <v>519</v>
+      </c>
+      <c r="D62" s="60" t="s">
+        <v>517</v>
+      </c>
+      <c r="E62" s="59" t="s">
+        <v>518</v>
+      </c>
+      <c r="F62" s="57" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="63" thickBot="1">
+      <c r="B63" s="65" t="s">
+        <v>493</v>
+      </c>
+      <c r="C63" s="65" t="s">
+        <v>521</v>
+      </c>
+      <c r="D63" s="60" t="s">
+        <v>522</v>
+      </c>
+      <c r="E63" s="59" t="s">
+        <v>523</v>
+      </c>
+      <c r="F63" s="57" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="47.4" thickBot="1">
+      <c r="B64" s="65" t="s">
+        <v>493</v>
+      </c>
+      <c r="C64" s="65" t="s">
+        <v>528</v>
+      </c>
+      <c r="D64" s="60" t="s">
+        <v>525</v>
+      </c>
+      <c r="E64" s="59" t="s">
+        <v>526</v>
+      </c>
+      <c r="F64" s="57" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="87.6" thickBot="1">
+      <c r="B65" s="65" t="s">
+        <v>493</v>
+      </c>
+      <c r="C65" s="65" t="s">
+        <v>529</v>
+      </c>
+      <c r="D65" s="60" t="s">
+        <v>531</v>
+      </c>
+      <c r="E65" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="F65" s="57" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="87.6" thickBot="1">
+      <c r="B66" s="65" t="s">
+        <v>493</v>
+      </c>
+      <c r="C66" s="65" t="s">
+        <v>530</v>
+      </c>
+      <c r="D66" s="60" t="s">
+        <v>532</v>
+      </c>
+      <c r="E66" s="59" t="s">
+        <v>535</v>
+      </c>
+      <c r="F66" s="57" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="78.599999999999994" thickBot="1">
+      <c r="B67" s="62" t="s">
         <v>368</v>
       </c>
-      <c r="C58" s="62" t="s">
+      <c r="C67" s="62" t="s">
         <v>369</v>
       </c>
-      <c r="D58" s="60" t="s">
+      <c r="D67" s="71" t="s">
         <v>370</v>
       </c>
-      <c r="E58" s="59" t="s">
+      <c r="E67" s="73" t="s">
         <v>486</v>
       </c>
-      <c r="F58" s="57" t="s">
+      <c r="F67" s="75" t="s">
         <v>461</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="47.4" thickBot="1">
+      <c r="B68" s="69" t="s">
+        <v>509</v>
+      </c>
+      <c r="C68" s="70" t="s">
+        <v>539</v>
+      </c>
+      <c r="D68" s="72" t="s">
+        <v>510</v>
+      </c>
+      <c r="E68" s="74" t="s">
+        <v>512</v>
+      </c>
+      <c r="F68" s="76" t="s">
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -28339,7 +31059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B24355E-CC1D-4763-8BDC-A7AD2ECA21E3}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -28588,7 +31308,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="89" t="s">
         <v>257</v>
       </c>
       <c r="B1">
@@ -28599,7 +31319,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="77"/>
+      <c r="A2" s="89"/>
       <c r="B2">
         <v>1</v>
       </c>
@@ -28608,7 +31328,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="77"/>
+      <c r="A3" s="89"/>
       <c r="B3">
         <v>2</v>
       </c>
@@ -28617,7 +31337,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="90" t="s">
         <v>261</v>
       </c>
       <c r="B4">
@@ -28628,7 +31348,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="78"/>
+      <c r="A5" s="90"/>
       <c r="B5">
         <v>1</v>
       </c>
@@ -28637,7 +31357,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="78"/>
+      <c r="A6" s="90"/>
       <c r="B6">
         <v>-1</v>
       </c>
@@ -28646,7 +31366,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="89" t="s">
         <v>266</v>
       </c>
       <c r="B7">
@@ -28657,7 +31377,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="77"/>
+      <c r="A8" s="89"/>
       <c r="B8">
         <v>1</v>
       </c>
@@ -28666,7 +31386,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="77"/>
+      <c r="A9" s="89"/>
       <c r="B9">
         <v>2</v>
       </c>
@@ -28690,7 +31410,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -28824,7 +31544,7 @@
       </c>
       <c r="AB1">
         <f ca="1">RANDBETWEEN(170,185)</f>
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AC1" t="s">
         <v>110</v>
@@ -28838,7 +31558,7 @@
       </c>
       <c r="AF1">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG1" t="s">
         <v>110</v>
@@ -28858,7 +31578,7 @@
       </c>
       <c r="AL1" t="str">
         <f ca="1">_xlfn.CONCAT(A1:AK1)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,176,70,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,174,70,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="2" spans="1:38">
@@ -28943,28 +31663,28 @@
       </c>
       <c r="AB2">
         <f t="shared" ref="AB2:AB17" ca="1" si="0">RANDBETWEEN(170,185)</f>
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AC2" t="s">
         <v>110</v>
       </c>
       <c r="AD2">
         <f t="shared" ref="AD2:AD17" ca="1" si="1">RANDBETWEEN(70,80)</f>
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s">
         <v>110</v>
       </c>
       <c r="AF2">
         <f t="shared" ref="AF2:AF17" ca="1" si="2">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="s">
         <v>110</v>
       </c>
       <c r="AH2">
         <f t="shared" ref="AH2:AH17" ca="1" si="3">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="s">
         <v>110</v>
@@ -28977,7 +31697,7 @@
       </c>
       <c r="AL2" t="str">
         <f t="shared" ref="AL2:AL17" ca="1" si="4">_xlfn.CONCAT(A2:AK2)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,176,79,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,172,76,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -29069,14 +31789,14 @@
       </c>
       <c r="AD3">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s">
         <v>110</v>
       </c>
       <c r="AF3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="s">
         <v>110</v>
@@ -29096,7 +31816,7 @@
       </c>
       <c r="AL3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,184,72,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,184,77,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="4" spans="1:38">
@@ -29181,7 +31901,7 @@
       </c>
       <c r="AB4">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AC4" t="s">
         <v>110</v>
@@ -29195,14 +31915,14 @@
       </c>
       <c r="AF4">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4" t="s">
         <v>110</v>
       </c>
       <c r="AH4">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4" t="s">
         <v>110</v>
@@ -29215,7 +31935,7 @@
       </c>
       <c r="AL4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,173,77,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,174,77,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -29300,14 +32020,14 @@
       </c>
       <c r="AB5">
         <f t="shared" ca="1" si="0"/>
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AC5" t="s">
         <v>110</v>
       </c>
       <c r="AD5">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE5" t="s">
         <v>110</v>
@@ -29321,7 +32041,7 @@
       </c>
       <c r="AH5">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="s">
         <v>110</v>
@@ -29334,7 +32054,7 @@
       </c>
       <c r="AL5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,179,72,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,176,71,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -29419,28 +32139,28 @@
       </c>
       <c r="AB6">
         <f t="shared" ca="1" si="0"/>
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AC6" t="s">
         <v>110</v>
       </c>
       <c r="AD6">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE6" t="s">
         <v>110</v>
       </c>
       <c r="AF6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="s">
         <v>110</v>
       </c>
       <c r="AH6">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6" t="s">
         <v>110</v>
@@ -29453,7 +32173,7 @@
       </c>
       <c r="AL6" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,177,70,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,174,71,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -29538,21 +32258,21 @@
       </c>
       <c r="AB7">
         <f t="shared" ca="1" si="0"/>
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AC7" t="s">
         <v>110</v>
       </c>
       <c r="AD7">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE7" t="s">
         <v>110</v>
       </c>
       <c r="AF7">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" t="s">
         <v>110</v>
@@ -29572,7 +32292,7 @@
       </c>
       <c r="AL7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,176,72,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,179,73,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -29657,14 +32377,14 @@
       </c>
       <c r="AB8">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AC8" t="s">
         <v>110</v>
       </c>
       <c r="AD8">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s">
         <v>110</v>
@@ -29678,7 +32398,7 @@
       </c>
       <c r="AH8">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="s">
         <v>110</v>
@@ -29691,7 +32411,7 @@
       </c>
       <c r="AL8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,173,77,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,178,75,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -29776,28 +32496,28 @@
       </c>
       <c r="AB9">
         <f t="shared" ca="1" si="0"/>
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AC9" t="s">
         <v>110</v>
       </c>
       <c r="AD9">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s">
         <v>110</v>
       </c>
       <c r="AF9">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="s">
         <v>110</v>
       </c>
       <c r="AH9">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="s">
         <v>110</v>
@@ -29810,7 +32530,7 @@
       </c>
       <c r="AL9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,170,71,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,180,77,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -29895,7 +32615,7 @@
       </c>
       <c r="AB10">
         <f t="shared" ca="1" si="0"/>
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AC10" t="s">
         <v>110</v>
@@ -29909,7 +32629,7 @@
       </c>
       <c r="AF10">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="s">
         <v>110</v>
@@ -29929,7 +32649,7 @@
       </c>
       <c r="AL10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,176,78,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,170,78,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -30014,28 +32734,28 @@
       </c>
       <c r="AB11">
         <f t="shared" ca="1" si="0"/>
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AC11" t="s">
         <v>110</v>
       </c>
       <c r="AD11">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AE11" t="s">
         <v>110</v>
       </c>
       <c r="AF11">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11" t="s">
         <v>110</v>
       </c>
       <c r="AH11">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI11" t="s">
         <v>110</v>
@@ -30048,7 +32768,7 @@
       </c>
       <c r="AL11" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,178,71,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,172,74,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -30133,14 +32853,14 @@
       </c>
       <c r="AB12">
         <f t="shared" ca="1" si="0"/>
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="AC12" t="s">
         <v>110</v>
       </c>
       <c r="AD12">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE12" t="s">
         <v>110</v>
@@ -30154,7 +32874,7 @@
       </c>
       <c r="AH12">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="s">
         <v>110</v>
@@ -30167,7 +32887,7 @@
       </c>
       <c r="AL12" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,179,70,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,184,72,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -30252,21 +32972,21 @@
       </c>
       <c r="AB13">
         <f t="shared" ca="1" si="0"/>
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AC13" t="s">
         <v>110</v>
       </c>
       <c r="AD13">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AE13" t="s">
         <v>110</v>
       </c>
       <c r="AF13">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13" t="s">
         <v>110</v>
@@ -30286,7 +33006,7 @@
       </c>
       <c r="AL13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,177,73,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,173,79,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -30371,21 +33091,21 @@
       </c>
       <c r="AB14">
         <f t="shared" ca="1" si="0"/>
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AC14" t="s">
         <v>110</v>
       </c>
       <c r="AD14">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AE14" t="s">
         <v>110</v>
       </c>
       <c r="AF14">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="s">
         <v>110</v>
@@ -30405,7 +33125,7 @@
       </c>
       <c r="AL14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,179,75,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,173,73,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -30490,28 +33210,28 @@
       </c>
       <c r="AB15">
         <f t="shared" ca="1" si="0"/>
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AC15" t="s">
         <v>110</v>
       </c>
       <c r="AD15">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE15" t="s">
         <v>110</v>
       </c>
       <c r="AF15">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" t="s">
         <v>110</v>
       </c>
       <c r="AH15">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI15" t="s">
         <v>110</v>
@@ -30524,7 +33244,7 @@
       </c>
       <c r="AL15" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,177,79,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,171,78,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -30609,14 +33329,14 @@
       </c>
       <c r="AB16">
         <f t="shared" ca="1" si="0"/>
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AC16" t="s">
         <v>110</v>
       </c>
       <c r="AD16">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AE16" t="s">
         <v>110</v>
@@ -30630,7 +33350,7 @@
       </c>
       <c r="AH16">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI16" t="s">
         <v>110</v>
@@ -30643,7 +33363,7 @@
       </c>
       <c r="AL16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,180,77,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,177,72,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="17" spans="1:38">
@@ -30742,14 +33462,14 @@
       </c>
       <c r="AF17">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="s">
         <v>110</v>
       </c>
       <c r="AH17">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI17" t="s">
         <v>110</v>
@@ -30762,7 +33482,7 @@
       </c>
       <c r="AL17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,176,79,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,176,79,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="20" spans="1:38">
@@ -30817,7 +33537,7 @@
       </c>
       <c r="Q20">
         <f ca="1">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R20" t="s">
         <v>110</v>
@@ -30851,7 +33571,7 @@
       </c>
       <c r="AB20" t="str">
         <f ca="1">_xlfn.CONCAT(A20:AA20)</f>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('왕십리FC','왕십리FC201018.jpg','성동구','성동구 구장','red',2,'2016-01-01',sysdate(),'1234','기업');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('왕십리FC','왕십리FC201018.jpg','성동구','성동구 구장','red',4,'2016-01-01',sysdate(),'1234','기업');</v>
       </c>
     </row>
     <row r="21" spans="1:38">
@@ -30906,7 +33626,7 @@
       </c>
       <c r="Q21">
         <f t="shared" ref="Q21:Q22" ca="1" si="6">RANDBETWEEN(0,5)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R21" t="s">
         <v>110</v>
@@ -30940,7 +33660,7 @@
       </c>
       <c r="AB21" t="str">
         <f t="shared" ref="AB21:AB22" ca="1" si="7">_xlfn.CONCAT(A21:AA21)</f>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('답십리FC','답십리FC201018.jpg','성동구','응봉동 구장','blue',0,'2017-01-01',sysdate(),'5678','하나');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('답십리FC','답십리FC201018.jpg','성동구','응봉동 구장','blue',3,'2017-01-01',sysdate(),'5678','하나');</v>
       </c>
     </row>
     <row r="22" spans="1:38">
@@ -30995,7 +33715,7 @@
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R22" t="s">
         <v>110</v>
@@ -31029,7 +33749,7 @@
       </c>
       <c r="AB22" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('대구FC','대구FC201018.jpg','달서구','달서구 구장','green',0,'2018-01-01',sysdate(),'2345','기업');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('대구FC','대구FC201018.jpg','달서구','달서구 구장','green',4,'2018-01-01',sysdate(),'2345','기업');</v>
       </c>
     </row>
     <row r="24" spans="1:38">
@@ -31881,4 +34601,183 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4CA4EE-DE18-469F-A352-6DA033B77CCB}">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1">
+        <f>AVERAGE(B1:XFD1)</f>
+        <v>8.1818181818181817</v>
+      </c>
+      <c r="B1">
+        <v>7</v>
+      </c>
+      <c r="C1">
+        <v>7</v>
+      </c>
+      <c r="D1">
+        <v>9</v>
+      </c>
+      <c r="E1">
+        <v>7</v>
+      </c>
+      <c r="F1">
+        <v>8</v>
+      </c>
+      <c r="G1">
+        <v>9</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>10</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <f t="shared" ref="A2:A6" si="0">AVERAGE(B2:XFD2)</f>
+        <v>8.3636363636363633</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <f t="shared" si="0"/>
+        <v>8.545454545454545</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/srs/fbt_docs.xlsx
+++ b/docs/srs/fbt_docs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kjy\fbt\docs\srs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E246737D-C3DD-4A2A-84EE-A7DD3F109BB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E04A18-E628-4A29-A634-F8863311F0E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6492" yWindow="660" windowWidth="11280" windowHeight="9060" activeTab="1" xr2:uid="{2F0AD6B2-A8A2-4F73-BAF4-7193D3382EE1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2F0AD6B2-A8A2-4F73-BAF4-7193D3382EE1}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항명세서" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="554">
   <si>
     <t>요구사항 정의서</t>
   </si>
@@ -23318,419 +23318,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>경기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>버튼의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">조건
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>매치 중 단계일 때만</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클릭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정페이지로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">넘어간다
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- props: assign </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>객체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">전부
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사용자가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>후</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>완료</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>버튼을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>누르면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> search </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>객체를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 서버로 넘겨 수정한다
-4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>매치</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등록</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>현황 페이지로 이동한다.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>FA15</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -26318,156 +25905,6 @@
   </si>
   <si>
     <r>
-      <t>1. teamId, status = 0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보내</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>찾는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중임을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">나타낸다
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>용병</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 찾는 중 조건</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>미마감
-3. 경기일정, 양도 글 정보 출력
-4. 3에 현재인원수와 상태에 대한 정보를 삽입</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-5. 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>에 용병 관련 정보(용병 점수) 삽입</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -26696,8 +26133,166 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1. teamId, status = 2</t>
+    <t>FU01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. teamId, status = 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보내</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>찾는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중임을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">나타낸다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 찾는 중 조건</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미마감 + 수락인원 &lt; 목표인원(미완료)
+3. 경기일정, 양도 글 정보 출력
+4. 3에 현재인원수와 상태에 대한 정보를 삽입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+5. 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에 용병 관련 정보(용병 점수) 삽입</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FE11</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. email, status = 2</t>
     </r>
     <r>
       <rPr>
@@ -26850,15 +26445,16 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>마감</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
+      <t>수락인원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;= </t>
     </r>
     <r>
       <rPr>
@@ -26868,24 +26464,6 @@
         <charset val="129"/>
       </rPr>
       <t>목표인원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이상</t>
     </r>
     <r>
       <rPr>
@@ -26982,7 +26560,7 @@
   </si>
   <si>
     <r>
-      <t>1. teamId, status = 1</t>
+      <t>1. email, status = 1</t>
     </r>
     <r>
       <rPr>
@@ -27152,7 +26730,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>목표인원</t>
+      <t>수락인원</t>
     </r>
     <r>
       <rPr>
@@ -27161,25 +26739,25 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>미만</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-3. </t>
+      <t xml:space="preserve"> &lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">목표인원
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3. </t>
     </r>
     <r>
       <rPr>
@@ -27266,7 +26844,1383 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>FU01</t>
+    <t>FE12</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>용병 신청 단계별 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 단계별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일정</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>용병신청 취소</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 용병</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>것</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취소</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. email, employId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">보냄
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 용병</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">삭제
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>새로고침</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. email, empResultStatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보냄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">조건
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- empResultStatus = 0 + 미마감: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- -1: 실패
+- 1: 성공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기일정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보 출력
+4. 신청 팀 정보 출력하여 3에 삽입</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FE13</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. FE12</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FE14</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>용병찾기 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 용병찾기글 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">조건
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양도 중 단계일 때만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클릭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정페이지로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">넘어간다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- props: assign </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>객체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">전부
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>누르면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> search </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>객체를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 서버로 넘겨 수정한다
+4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현황 페이지로 이동한다.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조건</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 용병찾기 중 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단계일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클릭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정페이지로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>넘어간다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- props: employ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>객체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>누르면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> employ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>객체를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서버로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>넘겨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+4. 용병찾기 중 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이동한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -29933,10 +30887,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB557C5E-BA25-400E-9AAB-8EC528CCF68C}">
-  <dimension ref="B1:F68"/>
+  <dimension ref="B1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -30295,7 +31249,7 @@
         <v>362</v>
       </c>
       <c r="F24" s="57" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="109.8" thickBot="1">
@@ -30599,7 +31553,7 @@
         <v>438</v>
       </c>
       <c r="F42" s="57" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="125.4" thickBot="1">
@@ -30828,45 +31782,45 @@
         <v>286</v>
       </c>
       <c r="C56" s="64" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D56" s="60" t="s">
         <v>490</v>
       </c>
       <c r="E56" s="59"/>
       <c r="F56" s="57" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="63" thickBot="1">
       <c r="B57" s="65" t="s">
+        <v>492</v>
+      </c>
+      <c r="C57" s="68" t="s">
         <v>493</v>
       </c>
-      <c r="C57" s="68" t="s">
+      <c r="D57" s="66" t="s">
         <v>494</v>
       </c>
-      <c r="D57" s="66" t="s">
+      <c r="E57" s="59" t="s">
         <v>495</v>
       </c>
-      <c r="E57" s="59" t="s">
+      <c r="F57" s="57" t="s">
         <v>496</v>
-      </c>
-      <c r="F57" s="57" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="58" spans="2:6" ht="109.8" thickBot="1">
       <c r="B58" s="65" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C58" s="65" t="s">
+        <v>499</v>
+      </c>
+      <c r="D58" s="67" t="s">
         <v>500</v>
       </c>
-      <c r="D58" s="67" t="s">
+      <c r="E58" s="59" t="s">
         <v>501</v>
-      </c>
-      <c r="E58" s="59" t="s">
-        <v>502</v>
       </c>
       <c r="F58" s="57" t="s">
         <v>365</v>
@@ -30874,172 +31828,240 @@
     </row>
     <row r="59" spans="2:6" ht="47.4" thickBot="1">
       <c r="B59" s="65" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C59" s="65" t="s">
+        <v>502</v>
+      </c>
+      <c r="D59" s="67" t="s">
         <v>503</v>
       </c>
-      <c r="D59" s="67" t="s">
+      <c r="E59" s="59" t="s">
         <v>504</v>
       </c>
-      <c r="E59" s="59" t="s">
+      <c r="F59" s="57" t="s">
         <v>505</v>
-      </c>
-      <c r="F59" s="57" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="60" spans="2:6" ht="94.2" thickBot="1">
       <c r="B60" s="65" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C60" s="65" t="s">
+        <v>506</v>
+      </c>
+      <c r="D60" s="67" t="s">
         <v>507</v>
       </c>
-      <c r="D60" s="67" t="s">
-        <v>508</v>
-      </c>
       <c r="E60" s="59" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F60" s="57" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="61" spans="2:6" ht="47.4" thickBot="1">
       <c r="B61" s="65" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C61" s="65" t="s">
+        <v>512</v>
+      </c>
+      <c r="D61" s="60" t="s">
         <v>513</v>
       </c>
-      <c r="D61" s="60" t="s">
+      <c r="E61" s="59" t="s">
         <v>514</v>
       </c>
-      <c r="E61" s="59" t="s">
+      <c r="F61" s="57" t="s">
         <v>515</v>
-      </c>
-      <c r="F61" s="57" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="43.8" thickBot="1">
       <c r="B62" s="65" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C62" s="65" t="s">
+        <v>518</v>
+      </c>
+      <c r="D62" s="60" t="s">
+        <v>516</v>
+      </c>
+      <c r="E62" s="59" t="s">
+        <v>517</v>
+      </c>
+      <c r="F62" s="57" t="s">
         <v>519</v>
-      </c>
-      <c r="D62" s="60" t="s">
-        <v>517</v>
-      </c>
-      <c r="E62" s="59" t="s">
-        <v>518</v>
-      </c>
-      <c r="F62" s="57" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="63" spans="2:6" ht="63" thickBot="1">
       <c r="B63" s="65" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C63" s="65" t="s">
+        <v>520</v>
+      </c>
+      <c r="D63" s="60" t="s">
         <v>521</v>
       </c>
-      <c r="D63" s="60" t="s">
+      <c r="E63" s="59" t="s">
         <v>522</v>
       </c>
-      <c r="E63" s="59" t="s">
+      <c r="F63" s="57" t="s">
         <v>523</v>
-      </c>
-      <c r="F63" s="57" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="47.4" thickBot="1">
       <c r="B64" s="65" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C64" s="65" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D64" s="60" t="s">
+        <v>524</v>
+      </c>
+      <c r="E64" s="59" t="s">
         <v>525</v>
       </c>
-      <c r="E64" s="59" t="s">
+      <c r="F64" s="57" t="s">
         <v>526</v>
-      </c>
-      <c r="F64" s="57" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="87.6" thickBot="1">
       <c r="B65" s="65" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C65" s="65" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D65" s="60" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E65" s="59" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F65" s="57" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="87.6" thickBot="1">
       <c r="B66" s="65" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C66" s="65" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D66" s="60" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E66" s="59" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F66" s="57" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="109.8" thickBot="1">
+      <c r="B67" s="65" t="s">
+        <v>492</v>
+      </c>
+      <c r="C67" s="65" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="67" spans="2:6" ht="78.599999999999994" thickBot="1">
-      <c r="B67" s="62" t="s">
-        <v>368</v>
-      </c>
-      <c r="C67" s="62" t="s">
-        <v>369</v>
-      </c>
-      <c r="D67" s="71" t="s">
-        <v>370</v>
-      </c>
-      <c r="E67" s="73" t="s">
-        <v>486</v>
-      </c>
-      <c r="F67" s="75" t="s">
-        <v>461</v>
+      <c r="D67" s="60" t="s">
+        <v>541</v>
+      </c>
+      <c r="E67" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="F67" s="57" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="47.4" thickBot="1">
-      <c r="B68" s="69" t="s">
+      <c r="B68" s="65" t="s">
+        <v>492</v>
+      </c>
+      <c r="C68" s="65" t="s">
+        <v>540</v>
+      </c>
+      <c r="D68" s="60" t="s">
+        <v>543</v>
+      </c>
+      <c r="E68" s="59" t="s">
+        <v>544</v>
+      </c>
+      <c r="F68" s="57" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="18" thickBot="1">
+      <c r="B69" s="65" t="s">
+        <v>492</v>
+      </c>
+      <c r="C69" s="65" t="s">
+        <v>547</v>
+      </c>
+      <c r="D69" s="60" t="s">
+        <v>471</v>
+      </c>
+      <c r="E69" s="59" t="s">
+        <v>544</v>
+      </c>
+      <c r="F69" s="57" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" ht="109.8" thickBot="1">
+      <c r="B70" s="65" t="s">
+        <v>492</v>
+      </c>
+      <c r="C70" s="65" t="s">
+        <v>549</v>
+      </c>
+      <c r="D70" s="60" t="s">
+        <v>550</v>
+      </c>
+      <c r="E70" s="59" t="s">
+        <v>551</v>
+      </c>
+      <c r="F70" s="57" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="78.599999999999994" thickBot="1">
+      <c r="B71" s="62" t="s">
+        <v>368</v>
+      </c>
+      <c r="C71" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="D71" s="71" t="s">
+        <v>370</v>
+      </c>
+      <c r="E71" s="73" t="s">
+        <v>486</v>
+      </c>
+      <c r="F71" s="75" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" ht="47.4" thickBot="1">
+      <c r="B72" s="69" t="s">
+        <v>508</v>
+      </c>
+      <c r="C72" s="70" t="s">
+        <v>535</v>
+      </c>
+      <c r="D72" s="72" t="s">
         <v>509</v>
       </c>
-      <c r="C68" s="70" t="s">
-        <v>539</v>
-      </c>
-      <c r="D68" s="72" t="s">
+      <c r="E72" s="74" t="s">
+        <v>511</v>
+      </c>
+      <c r="F72" s="76" t="s">
         <v>510</v>
-      </c>
-      <c r="E68" s="74" t="s">
-        <v>512</v>
-      </c>
-      <c r="F68" s="76" t="s">
-        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -31544,21 +32566,21 @@
       </c>
       <c r="AB1">
         <f ca="1">RANDBETWEEN(170,185)</f>
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AC1" t="s">
         <v>110</v>
       </c>
       <c r="AD1">
         <f ca="1">RANDBETWEEN(70,80)</f>
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="AE1" t="s">
         <v>110</v>
       </c>
       <c r="AF1">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG1" t="s">
         <v>110</v>
@@ -31578,7 +32600,7 @@
       </c>
       <c r="AL1" t="str">
         <f ca="1">_xlfn.CONCAT(A1:AK1)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,174,70,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,171,79,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="2" spans="1:38">
@@ -31663,7 +32685,7 @@
       </c>
       <c r="AB2">
         <f t="shared" ref="AB2:AB17" ca="1" si="0">RANDBETWEEN(170,185)</f>
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AC2" t="s">
         <v>110</v>
@@ -31684,7 +32706,7 @@
       </c>
       <c r="AH2">
         <f t="shared" ref="AH2:AH17" ca="1" si="3">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI2" t="s">
         <v>110</v>
@@ -31697,7 +32719,7 @@
       </c>
       <c r="AL2" t="str">
         <f t="shared" ref="AL2:AL17" ca="1" si="4">_xlfn.CONCAT(A2:AK2)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,172,76,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,179,76,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -31782,21 +32804,21 @@
       </c>
       <c r="AB3">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="AC3" t="s">
         <v>110</v>
       </c>
       <c r="AD3">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="s">
         <v>110</v>
       </c>
       <c r="AF3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="s">
         <v>110</v>
@@ -31816,7 +32838,7 @@
       </c>
       <c r="AL3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,184,77,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,171,75,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="4" spans="1:38">
@@ -31901,21 +32923,21 @@
       </c>
       <c r="AB4">
         <f t="shared" ca="1" si="0"/>
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AC4" t="s">
         <v>110</v>
       </c>
       <c r="AD4">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s">
         <v>110</v>
       </c>
       <c r="AF4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="s">
         <v>110</v>
@@ -31935,7 +32957,7 @@
       </c>
       <c r="AL4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,174,77,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,171,76,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -32020,28 +33042,28 @@
       </c>
       <c r="AB5">
         <f t="shared" ca="1" si="0"/>
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="AC5" t="s">
         <v>110</v>
       </c>
       <c r="AD5">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AE5" t="s">
         <v>110</v>
       </c>
       <c r="AF5">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="s">
         <v>110</v>
       </c>
       <c r="AH5">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5" t="s">
         <v>110</v>
@@ -32054,7 +33076,7 @@
       </c>
       <c r="AL5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,176,71,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,184,78,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -32139,21 +33161,21 @@
       </c>
       <c r="AB6">
         <f t="shared" ca="1" si="0"/>
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AC6" t="s">
         <v>110</v>
       </c>
       <c r="AD6">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s">
         <v>110</v>
       </c>
       <c r="AF6">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6" t="s">
         <v>110</v>
@@ -32173,7 +33195,7 @@
       </c>
       <c r="AL6" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,174,71,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,179,75,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -32258,21 +33280,21 @@
       </c>
       <c r="AB7">
         <f t="shared" ca="1" si="0"/>
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="AC7" t="s">
         <v>110</v>
       </c>
       <c r="AD7">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AE7" t="s">
         <v>110</v>
       </c>
       <c r="AF7">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="s">
         <v>110</v>
@@ -32292,7 +33314,7 @@
       </c>
       <c r="AL7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,179,73,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,184,79,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -32377,14 +33399,14 @@
       </c>
       <c r="AB8">
         <f t="shared" ca="1" si="0"/>
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AC8" t="s">
         <v>110</v>
       </c>
       <c r="AD8">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AE8" t="s">
         <v>110</v>
@@ -32411,7 +33433,7 @@
       </c>
       <c r="AL8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,178,75,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,180,78,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -32496,14 +33518,14 @@
       </c>
       <c r="AB9">
         <f t="shared" ca="1" si="0"/>
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AC9" t="s">
         <v>110</v>
       </c>
       <c r="AD9">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="s">
         <v>110</v>
@@ -32517,7 +33539,7 @@
       </c>
       <c r="AH9">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9" t="s">
         <v>110</v>
@@ -32530,7 +33552,7 @@
       </c>
       <c r="AL9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,180,77,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,175,75,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -32615,7 +33637,7 @@
       </c>
       <c r="AB10">
         <f t="shared" ca="1" si="0"/>
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="AC10" t="s">
         <v>110</v>
@@ -32629,14 +33651,14 @@
       </c>
       <c r="AF10">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" t="s">
         <v>110</v>
       </c>
       <c r="AH10">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="s">
         <v>110</v>
@@ -32649,7 +33671,7 @@
       </c>
       <c r="AL10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,170,78,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,179,78,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -32748,14 +33770,14 @@
       </c>
       <c r="AF11">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="s">
         <v>110</v>
       </c>
       <c r="AH11">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="s">
         <v>110</v>
@@ -32768,7 +33790,7 @@
       </c>
       <c r="AL11" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,172,74,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,172,74,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -32853,14 +33875,14 @@
       </c>
       <c r="AB12">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="AC12" t="s">
         <v>110</v>
       </c>
       <c r="AD12">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AE12" t="s">
         <v>110</v>
@@ -32887,7 +33909,7 @@
       </c>
       <c r="AL12" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,184,72,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,174,70,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -32972,7 +33994,7 @@
       </c>
       <c r="AB13">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AC13" t="s">
         <v>110</v>
@@ -33006,7 +34028,7 @@
       </c>
       <c r="AL13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,173,79,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,177,79,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -33091,7 +34113,7 @@
       </c>
       <c r="AB14">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="AC14" t="s">
         <v>110</v>
@@ -33125,7 +34147,7 @@
       </c>
       <c r="AL14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,173,73,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,182,73,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -33210,28 +34232,28 @@
       </c>
       <c r="AB15">
         <f t="shared" ca="1" si="0"/>
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AC15" t="s">
         <v>110</v>
       </c>
       <c r="AD15">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AE15" t="s">
         <v>110</v>
       </c>
       <c r="AF15">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="s">
         <v>110</v>
       </c>
       <c r="AH15">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="s">
         <v>110</v>
@@ -33244,7 +34266,7 @@
       </c>
       <c r="AL15" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,171,78,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,176,73,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -33329,14 +34351,14 @@
       </c>
       <c r="AB16">
         <f t="shared" ca="1" si="0"/>
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AC16" t="s">
         <v>110</v>
       </c>
       <c r="AD16">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AE16" t="s">
         <v>110</v>
@@ -33350,7 +34372,7 @@
       </c>
       <c r="AH16">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="s">
         <v>110</v>
@@ -33363,7 +34385,7 @@
       </c>
       <c r="AL16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,177,72,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,181,74,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="17" spans="1:38">
@@ -33448,28 +34470,28 @@
       </c>
       <c r="AB17">
         <f t="shared" ca="1" si="0"/>
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AC17" t="s">
         <v>110</v>
       </c>
       <c r="AD17">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE17" t="s">
         <v>110</v>
       </c>
       <c r="AF17">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG17" t="s">
         <v>110</v>
       </c>
       <c r="AH17">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="s">
         <v>110</v>
@@ -33482,7 +34504,7 @@
       </c>
       <c r="AL17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,176,79,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,178,75,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="20" spans="1:38">
@@ -33537,7 +34559,7 @@
       </c>
       <c r="Q20">
         <f ca="1">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R20" t="s">
         <v>110</v>
@@ -33571,7 +34593,7 @@
       </c>
       <c r="AB20" t="str">
         <f ca="1">_xlfn.CONCAT(A20:AA20)</f>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('왕십리FC','왕십리FC201018.jpg','성동구','성동구 구장','red',4,'2016-01-01',sysdate(),'1234','기업');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('왕십리FC','왕십리FC201018.jpg','성동구','성동구 구장','red',5,'2016-01-01',sysdate(),'1234','기업');</v>
       </c>
     </row>
     <row r="21" spans="1:38">
@@ -33626,7 +34648,7 @@
       </c>
       <c r="Q21">
         <f t="shared" ref="Q21:Q22" ca="1" si="6">RANDBETWEEN(0,5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R21" t="s">
         <v>110</v>
@@ -33660,7 +34682,7 @@
       </c>
       <c r="AB21" t="str">
         <f t="shared" ref="AB21:AB22" ca="1" si="7">_xlfn.CONCAT(A21:AA21)</f>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('답십리FC','답십리FC201018.jpg','성동구','응봉동 구장','blue',3,'2017-01-01',sysdate(),'5678','하나');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('답십리FC','답십리FC201018.jpg','성동구','응봉동 구장','blue',2,'2017-01-01',sysdate(),'5678','하나');</v>
       </c>
     </row>
     <row r="22" spans="1:38">
@@ -33715,7 +34737,7 @@
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R22" t="s">
         <v>110</v>
@@ -33749,7 +34771,7 @@
       </c>
       <c r="AB22" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('대구FC','대구FC201018.jpg','달서구','달서구 구장','green',4,'2018-01-01',sysdate(),'2345','기업');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('대구FC','대구FC201018.jpg','달서구','달서구 구장','green',0,'2018-01-01',sysdate(),'2345','기업');</v>
       </c>
     </row>
     <row r="24" spans="1:38">

--- a/docs/srs/fbt_docs.xlsx
+++ b/docs/srs/fbt_docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kjy\fbt\docs\srs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E04A18-E628-4A29-A634-F8863311F0E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5422CF53-DAA1-448B-A52A-76DE79F805A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2F0AD6B2-A8A2-4F73-BAF4-7193D3382EE1}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'서비스 플로우'!$B$6:$F$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'서비스 플로우'!$B$6:$F$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항명세서!$B$8:$J$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="590">
   <si>
     <t>요구사항 정의서</t>
   </si>
@@ -6147,10 +6147,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>경기 일정별 경기 투표 출력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1. </t>
     </r>
@@ -7879,558 +7875,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">0. matchScheduleId를 보낸다
-1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>경기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일정별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모든</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>그</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">가져온다
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>명단</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>요약</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>불러와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">삽입한다
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>명단을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>불러와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>삽입한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-4. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>명단</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가공</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지인이면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지인태그를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>붙인다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>FV04</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -11825,678 +11269,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>저장된 경기 정보; 버튼으로
-정보 불러오기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>현재</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중인 경기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">출력
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 경기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 투표의 경기 일정 정보 가져오기</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>FM01</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FM02</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사용자가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>저장된</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>경기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>버튼을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">누른다
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>팀의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">출력한다
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사용자가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>원하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">선택한다
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">4. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>경기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일정을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가져와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등록칸에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">넣는다
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">5. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>방싱으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입력된</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정불가능하게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>한다</t>
-    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -16180,171 +14957,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입금</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제반</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사항이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모든</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>완료됐는지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">묻기
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>예를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 누르면 완료된 팀의 search 객체를 보낸다
-3. 해당 Id를 해당 경기일정의 away_team_id로 수정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-4. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>해당 매치글 삭제
-5. 일정(관리자)페이지로 이동</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
@@ -23070,10 +21682,6 @@
       </rPr>
       <t>삽입</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>양도 카톡 보고 버튼 조절 및 수락 알고리즘 다시 하기</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -25328,173 +23936,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1. empResultStatus = 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> empResult </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>객체를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보낸다
-2. 현실에서는 연락처로 입금까지 확인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>매치</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신청글의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> empResult_status = 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정
-4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 용병</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>에 알리기</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>용병찾기글 거절</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -28222,6 +26663,3176 @@
       <t>.</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FS03</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>월별 팀 일정 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 경기 일정별 경기 투표 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0. matchScheduleId, teamId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">보낸다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일정별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">가져온다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>명단</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요약</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불러와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">삽입한다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>명단을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불러와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삽입한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>명단</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지인이면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지인태그를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>붙인다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>매치, 양도, 용병 때 일정 등록 후 투표 자동 등록</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FS04</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. FV05</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FS05</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기투표 대기하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기하기, 참석취소하기 누르면 리로드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취소버튼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조건</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기간적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조건</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>: ~(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인위</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마감</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기시작</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조건</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참석한다고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>했을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+2. attendance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> voteMatchResult </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>객체를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보낸다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대기버튼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조건</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기간적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조건</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>~(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인위</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마감</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기시작</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조건</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>허용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">참석한다고 하지 않았을 때
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>attendance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> voteMatchResult </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>객체를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">보낸다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FS06</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FV16</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 일정 확정하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 시작 전 확정 
+일정 정보 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0. isEndMatch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변수를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>끝난</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불러오는지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시작</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불러오는지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구분한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. + is_confrimed = 1만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 불러온다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1. FV03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>받기</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0. isUser </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변수를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀인지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개인인지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구분한다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. teamId, startTime, entTime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">보낸다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조건에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맞는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일정을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불러온다 + is_confirmed = 1만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당 일정에 대한 정보(끝난 경기인지 등)을 담는다</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입금</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사항이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료됐는지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">묻기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 누르면 완료된 팀의 search 객체를 보낸다
+3. 해당 Id를 해당 경기일정의 away_team_id로 수정
++is_confirmed = 1 수정 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당 매치글 삭제
+5. 일정(관리자)페이지로 이동</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. empResultStatus = 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> empResult </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>객체를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보낸다
+2. 현실에서는 연락처로 입금까지 확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청글의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> empResult_status = 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정
+4. 수락 시 수락인원이 모집인원 이상이면 경기 확정
+- 해당 match_schdule의 is_confirmed = 1
+5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병에 알리기</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FS07</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료된 경기 일정 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. matchScheduleId, teamId, away_team_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">보낸다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2. is_confirmed = 1, 
+away_team_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> null이라면 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">away_team_id = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 팀 Id로 수정</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FS08</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 결과 작성</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FS09</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 팀원 엔트리 불러오기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참여하기로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀원</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FS10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 용병,지인 엔트리 불러오기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 참여하기로 한 용병 지인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. matchScheduleId, teamId </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">보낸다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 팀의 경기일정에서, attendacne = 1 이고 지인이 아닌(email is null)인 팀원만 부른다</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. matchScheduleId, teamId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보낸다
+2. 해당 일정의 경기일정, 엔트리, 경기 결과(team_taker_id = teamId), 팀 정보를 가져온다</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기투표 참석취소하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. teamId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> matchScheduleId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보낸다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+2-1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기일정에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, attendacne = 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지인인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(email is not null)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지인만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부른다
+2-2. 해당 팀의 경기일정에서, emp_result_status = 1인 용병만 부른다
+3. 합친다
+4. 내보낸다</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. matchResultCollection </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>객체를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">보낸다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- matchResultCollection = entries + empScores + teamScore + matchResult</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>각</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클래스를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">분할한다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">부여하는 팀 평균 능력과 매너를 수정한다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>4. 각 클래스 별로 입력한다</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FS11</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 월별 일정 불러오기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FS12</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 경기결과 수정하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>과거</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록했던</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결과를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">불런온다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- entry, matchResult, teamScore, empScore
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>승패 주입
+3. 수정 후 모든 경기의 항목별 평균을 불러와 다시 평균을 계산해 부여한 용병, 팀의 평균 매너, 실력을 수정한다</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0. isUser </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변수를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀인지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개인인지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구분한다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. email, startTime, entTime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">보낸다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조건에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맞는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일정을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불러온다 + is_confirmed = 1만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당 일정에 대한 정보(끝난 경기인지 등)을 담는다</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>axios를 이용한 파일 저장</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gaemi606.tistory.com/m/162?category=745027</t>
   </si>
 </sst>
 </file>
@@ -28809,7 +30420,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -29040,6 +30651,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -29404,7 +31021,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -29422,11 +31039,11 @@
   <sheetData>
     <row r="1" spans="2:11" ht="18" thickBot="1"/>
     <row r="2" spans="2:11" ht="18" thickBot="1">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="81"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
       <c r="G2" s="2" t="s">
         <v>61</v>
       </c>
@@ -29441,10 +31058,10 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="86"/>
+      <c r="D3" s="88"/>
       <c r="G3" s="4" t="s">
         <v>36</v>
       </c>
@@ -29457,10 +31074,10 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="90"/>
       <c r="G4" s="26" t="s">
         <v>59</v>
       </c>
@@ -29487,50 +31104,50 @@
     </row>
     <row r="7" spans="2:11" ht="18" thickBot="1"/>
     <row r="8" spans="2:11" ht="18" thickBot="1">
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="84" t="s">
         <v>281</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="77" t="s">
+      <c r="E8" s="79" t="s">
         <v>279</v>
       </c>
-      <c r="F8" s="77" t="s">
+      <c r="F8" s="79" t="s">
         <v>280</v>
       </c>
-      <c r="G8" s="83" t="s">
+      <c r="G8" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="84"/>
-      <c r="I8" s="77" t="s">
+      <c r="H8" s="86"/>
+      <c r="I8" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="77" t="s">
+      <c r="J8" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="77" t="s">
+      <c r="K8" s="79" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="18" thickBot="1">
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
       <c r="G9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
     </row>
     <row r="10" spans="2:11" ht="27" thickBot="1">
       <c r="B10" s="9" t="s">
@@ -30887,10 +32504,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB557C5E-BA25-400E-9AAB-8EC528CCF68C}">
-  <dimension ref="B1:F72"/>
+  <dimension ref="B1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -30904,29 +32521,29 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18" thickBot="1"/>
     <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B2" s="79" t="s">
-        <v>296</v>
-      </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="81"/>
+      <c r="B2" s="81" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
     </row>
     <row r="3" spans="2:6" ht="18" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="86"/>
+      <c r="D3" s="88"/>
     </row>
     <row r="4" spans="2:6" ht="18" thickBot="1">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="89" t="s">
         <v>288</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="90"/>
     </row>
     <row r="5" spans="2:6" ht="18" thickBot="1"/>
     <row r="6" spans="2:6" ht="18" customHeight="1" thickBot="1">
@@ -30934,16 +32551,16 @@
         <v>281</v>
       </c>
       <c r="C6" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="D6" s="53" t="s">
         <v>297</v>
       </c>
-      <c r="D6" s="53" t="s">
-        <v>298</v>
-      </c>
       <c r="E6" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="F6" s="49" t="s">
         <v>302</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="89.4" thickBot="1">
@@ -30951,7 +32568,7 @@
         <v>283</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>289</v>
@@ -30960,7 +32577,7 @@
         <v>290</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="109.8" thickBot="1">
@@ -30968,33 +32585,33 @@
         <v>283</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D8" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>305</v>
-      </c>
       <c r="F8" s="16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="76.2" thickBot="1">
+    <row r="9" spans="2:6" ht="78.599999999999994" thickBot="1">
       <c r="B9" s="15" t="s">
         <v>283</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D9" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>292</v>
-      </c>
       <c r="F9" s="16" t="s">
-        <v>307</v>
+        <v>549</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="109.8" thickBot="1">
@@ -31002,16 +32619,16 @@
         <v>283</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D10" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="F10" s="16" t="s">
         <v>294</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="63" thickBot="1">
@@ -31019,16 +32636,16 @@
         <v>283</v>
       </c>
       <c r="C11" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>309</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="76.2" thickBot="1">
@@ -31036,16 +32653,16 @@
         <v>283</v>
       </c>
       <c r="C12" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="F12" s="16" t="s">
         <v>313</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="63" thickBot="1">
@@ -31053,16 +32670,16 @@
         <v>283</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D13" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>319</v>
-      </c>
       <c r="F13" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="18" thickBot="1">
@@ -31070,16 +32687,16 @@
         <v>283</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="F14" s="56" t="s">
         <v>322</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="F14" s="56" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="94.2" thickBot="1">
@@ -31087,16 +32704,16 @@
         <v>283</v>
       </c>
       <c r="C15" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="F15" s="57" t="s">
         <v>326</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="F15" s="57" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="63" thickBot="1">
@@ -31104,16 +32721,16 @@
         <v>283</v>
       </c>
       <c r="C16" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>331</v>
-      </c>
       <c r="F16" s="57" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="47.4" thickBot="1">
@@ -31121,16 +32738,16 @@
         <v>283</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E17" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="F17" s="57" t="s">
         <v>333</v>
-      </c>
-      <c r="F17" s="57" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="47.4" thickBot="1">
@@ -31138,16 +32755,16 @@
         <v>283</v>
       </c>
       <c r="C18" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>338</v>
-      </c>
       <c r="F18" s="57" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="47.4" thickBot="1">
@@ -31155,16 +32772,16 @@
         <v>283</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F19" s="57" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="156.6" thickBot="1">
@@ -31172,592 +32789,574 @@
         <v>283</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D20" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="F20" s="57" t="s">
         <v>347</v>
-      </c>
-      <c r="F20" s="57" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="63" thickBot="1">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>439</v>
+      <c r="C21" s="78" t="s">
+        <v>433</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F21" s="57" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="40.200000000000003" thickBot="1">
-      <c r="B22" s="61" t="s">
-        <v>287</v>
-      </c>
-      <c r="C22" s="61" t="s">
-        <v>359</v>
+    <row r="22" spans="2:6" ht="45" thickBot="1">
+      <c r="B22" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="C22" s="78" t="s">
+        <v>559</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="E22" s="59" t="s">
-        <v>350</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="E22" s="16"/>
       <c r="F22" s="57" t="s">
-        <v>351</v>
+        <v>568</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="78.599999999999994" thickBot="1">
+    <row r="23" spans="2:6" ht="40.200000000000003" thickBot="1">
       <c r="B23" s="61" t="s">
         <v>287</v>
       </c>
       <c r="C23" s="61" t="s">
+        <v>354</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="E23" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="63" thickBot="1">
+      <c r="B24" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="C24" s="61" t="s">
+        <v>353</v>
+      </c>
+      <c r="D24" s="60" t="s">
+        <v>547</v>
+      </c>
+      <c r="E24" s="59"/>
+      <c r="F24" s="57" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="47.4" thickBot="1">
+      <c r="B25" s="77" t="s">
+        <v>287</v>
+      </c>
+      <c r="C25" s="61" t="s">
+        <v>546</v>
+      </c>
+      <c r="D25" s="60" t="s">
+        <v>561</v>
+      </c>
+      <c r="E25" s="59"/>
+      <c r="F25" s="57" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="45" thickBot="1">
+      <c r="B26" s="77" t="s">
+        <v>287</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>551</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="F26" s="57" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="78.599999999999994" thickBot="1">
+      <c r="B27" s="77" t="s">
+        <v>287</v>
+      </c>
+      <c r="C27" s="61" t="s">
+        <v>553</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="57" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="71.400000000000006" thickBot="1">
+      <c r="B28" s="77" t="s">
+        <v>287</v>
+      </c>
+      <c r="C28" s="61" t="s">
+        <v>558</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="57" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="47.4" thickBot="1">
+      <c r="B29" s="77" t="s">
+        <v>287</v>
+      </c>
+      <c r="C29" s="61" t="s">
+        <v>566</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="57" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="89.4" thickBot="1">
+      <c r="B30" s="77" t="s">
+        <v>287</v>
+      </c>
+      <c r="C30" s="61" t="s">
+        <v>569</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>570</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="57" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="47.4" thickBot="1">
+      <c r="B31" s="77" t="s">
+        <v>287</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>573</v>
+      </c>
+      <c r="F31" s="57" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="109.8" thickBot="1">
+      <c r="B32" s="77" t="s">
+        <v>287</v>
+      </c>
+      <c r="C32" s="61" t="s">
+        <v>574</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>576</v>
+      </c>
+      <c r="F32" s="57" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="76.2" thickBot="1">
+      <c r="B33" s="77" t="s">
+        <v>287</v>
+      </c>
+      <c r="C33" s="61" t="s">
+        <v>582</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>585</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="57" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="63" thickBot="1">
+      <c r="B34" s="77" t="s">
+        <v>287</v>
+      </c>
+      <c r="C34" s="61" t="s">
+        <v>584</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="57" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="78.599999999999994" thickBot="1">
+      <c r="B35" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="D35" s="60" t="s">
+        <v>356</v>
+      </c>
+      <c r="E35" s="59" t="s">
+        <v>357</v>
+      </c>
+      <c r="F35" s="57" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="109.8" thickBot="1">
+      <c r="B36" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="C36" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="D36" s="60" t="s">
+        <v>359</v>
+      </c>
+      <c r="E36" s="59" t="s">
+        <v>362</v>
+      </c>
+      <c r="F36" s="57" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="47.4" thickBot="1">
+      <c r="B37" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="C37" s="58" t="s">
         <v>358</v>
       </c>
-      <c r="D23" s="60" t="s">
-        <v>353</v>
-      </c>
-      <c r="E23" s="59" t="s">
-        <v>354</v>
-      </c>
-      <c r="F23" s="57" t="s">
-        <v>357</v>
+      <c r="D37" s="60" t="s">
+        <v>361</v>
+      </c>
+      <c r="E37" s="59" t="s">
+        <v>389</v>
+      </c>
+      <c r="F37" s="57" t="s">
+        <v>390</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="78.599999999999994" thickBot="1">
-      <c r="B24" s="58" t="s">
-        <v>360</v>
-      </c>
-      <c r="C24" s="58" t="s">
+    <row r="38" spans="2:6" ht="63" thickBot="1">
+      <c r="B38" s="58" t="s">
         <v>355</v>
       </c>
-      <c r="D24" s="60" t="s">
-        <v>361</v>
-      </c>
-      <c r="E24" s="59" t="s">
-        <v>362</v>
-      </c>
-      <c r="F24" s="57" t="s">
-        <v>498</v>
+      <c r="C38" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="D38" s="60" t="s">
+        <v>367</v>
+      </c>
+      <c r="E38" s="59" t="s">
+        <v>368</v>
+      </c>
+      <c r="F38" s="57" t="s">
+        <v>377</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="109.8" thickBot="1">
-      <c r="B25" s="58" t="s">
-        <v>360</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>356</v>
-      </c>
-      <c r="D25" s="60" t="s">
-        <v>364</v>
-      </c>
-      <c r="E25" s="59" t="s">
-        <v>367</v>
-      </c>
-      <c r="F25" s="57" t="s">
-        <v>365</v>
+    <row r="39" spans="2:6" ht="47.4" thickBot="1">
+      <c r="B39" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="C39" s="58" t="s">
+        <v>369</v>
+      </c>
+      <c r="D39" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="E39" s="59" t="s">
+        <v>370</v>
+      </c>
+      <c r="F39" s="57" t="s">
+        <v>371</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="47.4" thickBot="1">
-      <c r="B26" s="58" t="s">
-        <v>360</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>363</v>
-      </c>
-      <c r="D26" s="60" t="s">
-        <v>366</v>
-      </c>
-      <c r="E26" s="59" t="s">
+    <row r="40" spans="2:6" ht="42" thickBot="1">
+      <c r="B40" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="C40" s="58" t="s">
+        <v>372</v>
+      </c>
+      <c r="D40" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="E40" s="59" t="s">
+        <v>373</v>
+      </c>
+      <c r="F40" s="57" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="78.599999999999994" thickBot="1">
+      <c r="B41" s="63" t="s">
+        <v>355</v>
+      </c>
+      <c r="C41" s="58" t="s">
+        <v>375</v>
+      </c>
+      <c r="D41" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="E41" s="59" t="s">
+        <v>384</v>
+      </c>
+      <c r="F41" s="57" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="172.2" thickBot="1">
+      <c r="B42" s="63" t="s">
+        <v>355</v>
+      </c>
+      <c r="C42" s="58" t="s">
+        <v>378</v>
+      </c>
+      <c r="D42" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="E42" s="59" t="s">
+        <v>391</v>
+      </c>
+      <c r="F42" s="57" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="43.8" thickBot="1">
+      <c r="B43" s="63" t="s">
+        <v>355</v>
+      </c>
+      <c r="C43" s="58" t="s">
+        <v>380</v>
+      </c>
+      <c r="D43" s="60" t="s">
+        <v>381</v>
+      </c>
+      <c r="E43" s="59" t="s">
+        <v>392</v>
+      </c>
+      <c r="F43" s="57" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="78.599999999999994" thickBot="1">
+      <c r="B44" s="63" t="s">
+        <v>355</v>
+      </c>
+      <c r="C44" s="58" t="s">
+        <v>382</v>
+      </c>
+      <c r="D44" s="60" t="s">
+        <v>383</v>
+      </c>
+      <c r="E44" s="59" t="s">
+        <v>385</v>
+      </c>
+      <c r="F44" s="57" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="59.4" thickBot="1">
+      <c r="B45" s="63" t="s">
+        <v>355</v>
+      </c>
+      <c r="C45" s="58" t="s">
+        <v>387</v>
+      </c>
+      <c r="D45" s="60" t="s">
+        <v>388</v>
+      </c>
+      <c r="E45" s="59" t="s">
+        <v>408</v>
+      </c>
+      <c r="F45" s="57" t="s">
         <v>394</v>
       </c>
-      <c r="F26" s="57" t="s">
+    </row>
+    <row r="46" spans="2:6" ht="57.6" thickBot="1">
+      <c r="B46" s="63" t="s">
+        <v>355</v>
+      </c>
+      <c r="C46" s="58" t="s">
         <v>395</v>
       </c>
+      <c r="D46" s="60" t="s">
+        <v>396</v>
+      </c>
+      <c r="E46" s="59" t="s">
+        <v>397</v>
+      </c>
+      <c r="F46" s="57" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="27" spans="2:6" ht="63" thickBot="1">
-      <c r="B27" s="58" t="s">
-        <v>360</v>
-      </c>
-      <c r="C27" s="58" t="s">
-        <v>371</v>
-      </c>
-      <c r="D27" s="60" t="s">
-        <v>372</v>
-      </c>
-      <c r="E27" s="59" t="s">
-        <v>373</v>
-      </c>
-      <c r="F27" s="57" t="s">
-        <v>382</v>
+    <row r="47" spans="2:6" ht="40.200000000000003" thickBot="1">
+      <c r="B47" s="63" t="s">
+        <v>355</v>
+      </c>
+      <c r="C47" s="58" t="s">
+        <v>398</v>
+      </c>
+      <c r="D47" s="60" t="s">
+        <v>399</v>
+      </c>
+      <c r="E47" s="59" t="s">
+        <v>400</v>
+      </c>
+      <c r="F47" s="57" t="s">
+        <v>401</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="47.4" thickBot="1">
-      <c r="B28" s="58" t="s">
-        <v>360</v>
-      </c>
-      <c r="C28" s="58" t="s">
-        <v>374</v>
-      </c>
-      <c r="D28" s="60" t="s">
-        <v>221</v>
-      </c>
-      <c r="E28" s="59" t="s">
-        <v>375</v>
-      </c>
-      <c r="F28" s="57" t="s">
-        <v>376</v>
+    <row r="48" spans="2:6" ht="94.2" thickBot="1">
+      <c r="B48" s="63" t="s">
+        <v>355</v>
+      </c>
+      <c r="C48" s="58" t="s">
+        <v>403</v>
+      </c>
+      <c r="D48" s="60" t="s">
+        <v>407</v>
+      </c>
+      <c r="E48" s="59" t="s">
+        <v>456</v>
+      </c>
+      <c r="F48" s="57" t="s">
+        <v>464</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="42" thickBot="1">
-      <c r="B29" s="58" t="s">
-        <v>360</v>
-      </c>
-      <c r="C29" s="58" t="s">
-        <v>377</v>
-      </c>
-      <c r="D29" s="60" t="s">
-        <v>224</v>
-      </c>
-      <c r="E29" s="59" t="s">
-        <v>378</v>
-      </c>
-      <c r="F29" s="57" t="s">
-        <v>379</v>
+    <row r="49" spans="2:6" ht="94.2" thickBot="1">
+      <c r="B49" s="63" t="s">
+        <v>355</v>
+      </c>
+      <c r="C49" s="58" t="s">
+        <v>406</v>
+      </c>
+      <c r="D49" s="60" t="s">
+        <v>404</v>
+      </c>
+      <c r="E49" s="59" t="s">
+        <v>405</v>
+      </c>
+      <c r="F49" s="57" t="s">
+        <v>564</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="78.599999999999994" thickBot="1">
-      <c r="B30" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="C30" s="58" t="s">
-        <v>380</v>
-      </c>
-      <c r="D30" s="60" t="s">
-        <v>381</v>
-      </c>
-      <c r="E30" s="59" t="s">
-        <v>389</v>
-      </c>
-      <c r="F30" s="57" t="s">
-        <v>487</v>
+    <row r="50" spans="2:6" ht="123" thickBot="1">
+      <c r="B50" s="63" t="s">
+        <v>355</v>
+      </c>
+      <c r="C50" s="58" t="s">
+        <v>409</v>
+      </c>
+      <c r="D50" s="60" t="s">
+        <v>414</v>
+      </c>
+      <c r="E50" s="59" t="s">
+        <v>415</v>
+      </c>
+      <c r="F50" s="57" t="s">
+        <v>416</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="172.2" thickBot="1">
-      <c r="B31" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="C31" s="58" t="s">
-        <v>383</v>
-      </c>
-      <c r="D31" s="60" t="s">
-        <v>384</v>
-      </c>
-      <c r="E31" s="59" t="s">
-        <v>396</v>
-      </c>
-      <c r="F31" s="57" t="s">
-        <v>407</v>
+    <row r="51" spans="2:6" ht="47.4" thickBot="1">
+      <c r="B51" s="63" t="s">
+        <v>355</v>
+      </c>
+      <c r="C51" s="58" t="s">
+        <v>411</v>
+      </c>
+      <c r="D51" s="60" t="s">
+        <v>412</v>
+      </c>
+      <c r="E51" s="59" t="s">
+        <v>413</v>
+      </c>
+      <c r="F51" s="57" t="s">
+        <v>419</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="43.8" thickBot="1">
-      <c r="B32" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="C32" s="58" t="s">
-        <v>385</v>
-      </c>
-      <c r="D32" s="60" t="s">
-        <v>386</v>
-      </c>
-      <c r="E32" s="59" t="s">
-        <v>397</v>
-      </c>
-      <c r="F32" s="57" t="s">
-        <v>398</v>
+    <row r="52" spans="2:6" ht="109.8" thickBot="1">
+      <c r="B52" s="63" t="s">
+        <v>355</v>
+      </c>
+      <c r="C52" s="58" t="s">
+        <v>417</v>
+      </c>
+      <c r="D52" s="60" t="s">
+        <v>418</v>
+      </c>
+      <c r="E52" s="59"/>
+      <c r="F52" s="57" t="s">
+        <v>420</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="78.599999999999994" thickBot="1">
-      <c r="B33" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="C33" s="58" t="s">
-        <v>387</v>
-      </c>
-      <c r="D33" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="E33" s="59" t="s">
-        <v>390</v>
-      </c>
-      <c r="F33" s="57" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="59.4" thickBot="1">
-      <c r="B34" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="C34" s="58" t="s">
-        <v>392</v>
-      </c>
-      <c r="D34" s="60" t="s">
-        <v>393</v>
-      </c>
-      <c r="E34" s="59" t="s">
-        <v>414</v>
-      </c>
-      <c r="F34" s="57" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="57.6" thickBot="1">
-      <c r="B35" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="C35" s="58" t="s">
-        <v>400</v>
-      </c>
-      <c r="D35" s="60" t="s">
-        <v>401</v>
-      </c>
-      <c r="E35" s="59" t="s">
-        <v>402</v>
-      </c>
-      <c r="F35" s="57" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="40.200000000000003" thickBot="1">
-      <c r="B36" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="C36" s="58" t="s">
-        <v>403</v>
-      </c>
-      <c r="D36" s="60" t="s">
-        <v>404</v>
-      </c>
-      <c r="E36" s="59" t="s">
-        <v>405</v>
-      </c>
-      <c r="F36" s="57" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="94.2" thickBot="1">
-      <c r="B37" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="C37" s="58" t="s">
-        <v>408</v>
-      </c>
-      <c r="D37" s="60" t="s">
-        <v>412</v>
-      </c>
-      <c r="E37" s="59" t="s">
-        <v>462</v>
-      </c>
-      <c r="F37" s="57" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="78.599999999999994" thickBot="1">
-      <c r="B38" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="C38" s="58" t="s">
-        <v>411</v>
-      </c>
-      <c r="D38" s="60" t="s">
-        <v>409</v>
-      </c>
-      <c r="E38" s="59" t="s">
-        <v>410</v>
-      </c>
-      <c r="F38" s="57" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="123" thickBot="1">
-      <c r="B39" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="C39" s="58" t="s">
-        <v>415</v>
-      </c>
-      <c r="D39" s="60" t="s">
-        <v>420</v>
-      </c>
-      <c r="E39" s="59" t="s">
-        <v>421</v>
-      </c>
-      <c r="F39" s="57" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="47.4" thickBot="1">
-      <c r="B40" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="C40" s="58" t="s">
-        <v>417</v>
-      </c>
-      <c r="D40" s="60" t="s">
-        <v>418</v>
-      </c>
-      <c r="E40" s="59" t="s">
-        <v>419</v>
-      </c>
-      <c r="F40" s="57" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="109.8" thickBot="1">
-      <c r="B41" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="C41" s="58" t="s">
-        <v>423</v>
-      </c>
-      <c r="D41" s="60" t="s">
-        <v>424</v>
-      </c>
-      <c r="E41" s="59"/>
-      <c r="F41" s="57" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" ht="60.6" thickBot="1">
-      <c r="B42" s="64" t="s">
-        <v>286</v>
-      </c>
-      <c r="C42" s="64" t="s">
-        <v>427</v>
-      </c>
-      <c r="D42" s="60" t="s">
-        <v>437</v>
-      </c>
-      <c r="E42" s="59" t="s">
-        <v>438</v>
-      </c>
-      <c r="F42" s="57" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="125.4" thickBot="1">
-      <c r="B43" s="64" t="s">
-        <v>286</v>
-      </c>
-      <c r="C43" s="64" t="s">
-        <v>428</v>
-      </c>
-      <c r="D43" s="60" t="s">
-        <v>446</v>
-      </c>
-      <c r="E43" s="59" t="s">
-        <v>448</v>
-      </c>
-      <c r="F43" s="57" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="47.4" thickBot="1">
-      <c r="B44" s="64" t="s">
-        <v>286</v>
-      </c>
-      <c r="C44" s="64" t="s">
-        <v>429</v>
-      </c>
-      <c r="D44" s="60" t="s">
-        <v>444</v>
-      </c>
-      <c r="E44" s="59" t="s">
-        <v>449</v>
-      </c>
-      <c r="F44" s="57" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" ht="63" thickBot="1">
-      <c r="B45" s="64" t="s">
-        <v>286</v>
-      </c>
-      <c r="C45" s="64" t="s">
-        <v>430</v>
-      </c>
-      <c r="D45" s="60" t="s">
-        <v>445</v>
-      </c>
-      <c r="E45" s="59" t="s">
-        <v>451</v>
-      </c>
-      <c r="F45" s="57" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" ht="47.4" thickBot="1">
-      <c r="B46" s="64" t="s">
-        <v>286</v>
-      </c>
-      <c r="C46" s="64" t="s">
-        <v>431</v>
-      </c>
-      <c r="D46" s="60" t="s">
-        <v>453</v>
-      </c>
-      <c r="E46" s="59" t="s">
-        <v>452</v>
-      </c>
-      <c r="F46" s="57" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" ht="43.8" thickBot="1">
-      <c r="B47" s="64" t="s">
-        <v>286</v>
-      </c>
-      <c r="C47" s="64" t="s">
-        <v>432</v>
-      </c>
-      <c r="D47" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E47" s="59" t="s">
-        <v>454</v>
-      </c>
-      <c r="F47" s="57" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" ht="78.599999999999994" thickBot="1">
-      <c r="B48" s="64" t="s">
-        <v>286</v>
-      </c>
-      <c r="C48" s="64" t="s">
-        <v>433</v>
-      </c>
-      <c r="D48" s="60" t="s">
-        <v>447</v>
-      </c>
-      <c r="E48" s="59" t="s">
-        <v>457</v>
-      </c>
-      <c r="F48" s="57" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" ht="125.4" thickBot="1">
-      <c r="B49" s="64" t="s">
-        <v>286</v>
-      </c>
-      <c r="C49" s="64" t="s">
-        <v>434</v>
-      </c>
-      <c r="D49" s="60" t="s">
-        <v>459</v>
-      </c>
-      <c r="E49" s="59" t="s">
-        <v>460</v>
-      </c>
-      <c r="F49" s="57" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" ht="43.8" thickBot="1">
-      <c r="B50" s="64" t="s">
-        <v>286</v>
-      </c>
-      <c r="C50" s="64" t="s">
-        <v>435</v>
-      </c>
-      <c r="D50" s="60" t="s">
-        <v>464</v>
-      </c>
-      <c r="E50" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="F50" s="57" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" ht="61.2" thickBot="1">
-      <c r="B51" s="64" t="s">
-        <v>286</v>
-      </c>
-      <c r="C51" s="64" t="s">
-        <v>436</v>
-      </c>
-      <c r="D51" s="60" t="s">
-        <v>467</v>
-      </c>
-      <c r="E51" s="59" t="s">
-        <v>468</v>
-      </c>
-      <c r="F51" s="57" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" ht="18" thickBot="1">
-      <c r="B52" s="64" t="s">
-        <v>286</v>
-      </c>
-      <c r="C52" s="64" t="s">
-        <v>473</v>
-      </c>
-      <c r="D52" s="60" t="s">
-        <v>471</v>
-      </c>
-      <c r="E52" s="59" t="s">
-        <v>475</v>
-      </c>
-      <c r="F52" s="57" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" ht="78.599999999999994" thickBot="1">
+    <row r="53" spans="2:6" ht="60.6" thickBot="1">
       <c r="B53" s="64" t="s">
         <v>286</v>
       </c>
       <c r="C53" s="64" t="s">
-        <v>476</v>
+        <v>421</v>
       </c>
       <c r="D53" s="60" t="s">
-        <v>466</v>
+        <v>431</v>
       </c>
       <c r="E53" s="59" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="F53" s="57" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="109.8" thickBot="1">
+    <row r="54" spans="2:6" ht="125.4" thickBot="1">
       <c r="B54" s="64" t="s">
         <v>286</v>
       </c>
       <c r="C54" s="64" t="s">
-        <v>479</v>
+        <v>422</v>
       </c>
       <c r="D54" s="60" t="s">
-        <v>482</v>
+        <v>440</v>
       </c>
       <c r="E54" s="59" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="F54" s="57" t="s">
-        <v>483</v>
+        <v>437</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="47.4" thickBot="1">
@@ -31765,307 +33364,494 @@
         <v>286</v>
       </c>
       <c r="C55" s="64" t="s">
-        <v>480</v>
+        <v>423</v>
       </c>
       <c r="D55" s="60" t="s">
-        <v>481</v>
+        <v>438</v>
       </c>
       <c r="E55" s="59" t="s">
-        <v>485</v>
+        <v>443</v>
       </c>
       <c r="F55" s="57" t="s">
-        <v>484</v>
+        <v>444</v>
       </c>
     </row>
-    <row r="56" spans="2:6" ht="109.8" thickBot="1">
+    <row r="56" spans="2:6" ht="63" thickBot="1">
       <c r="B56" s="64" t="s">
         <v>286</v>
       </c>
       <c r="C56" s="64" t="s">
-        <v>491</v>
+        <v>424</v>
       </c>
       <c r="D56" s="60" t="s">
-        <v>490</v>
-      </c>
-      <c r="E56" s="59"/>
+        <v>439</v>
+      </c>
+      <c r="E56" s="59" t="s">
+        <v>445</v>
+      </c>
       <c r="F56" s="57" t="s">
-        <v>552</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="57" spans="2:6" ht="63" thickBot="1">
-      <c r="B57" s="65" t="s">
-        <v>492</v>
-      </c>
-      <c r="C57" s="68" t="s">
-        <v>493</v>
-      </c>
-      <c r="D57" s="66" t="s">
-        <v>494</v>
+    <row r="57" spans="2:6" ht="47.4" thickBot="1">
+      <c r="B57" s="64" t="s">
+        <v>286</v>
+      </c>
+      <c r="C57" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="D57" s="60" t="s">
+        <v>447</v>
       </c>
       <c r="E57" s="59" t="s">
-        <v>495</v>
+        <v>446</v>
       </c>
       <c r="F57" s="57" t="s">
-        <v>496</v>
+        <v>449</v>
       </c>
     </row>
-    <row r="58" spans="2:6" ht="109.8" thickBot="1">
-      <c r="B58" s="65" t="s">
-        <v>492</v>
-      </c>
-      <c r="C58" s="65" t="s">
-        <v>499</v>
-      </c>
-      <c r="D58" s="67" t="s">
-        <v>500</v>
+    <row r="58" spans="2:6" ht="43.8" thickBot="1">
+      <c r="B58" s="64" t="s">
+        <v>286</v>
+      </c>
+      <c r="C58" s="64" t="s">
+        <v>426</v>
+      </c>
+      <c r="D58" s="60" t="s">
+        <v>95</v>
       </c>
       <c r="E58" s="59" t="s">
-        <v>501</v>
+        <v>448</v>
       </c>
       <c r="F58" s="57" t="s">
-        <v>365</v>
+        <v>450</v>
       </c>
     </row>
-    <row r="59" spans="2:6" ht="47.4" thickBot="1">
-      <c r="B59" s="65" t="s">
-        <v>492</v>
-      </c>
-      <c r="C59" s="65" t="s">
-        <v>502</v>
-      </c>
-      <c r="D59" s="67" t="s">
-        <v>503</v>
+    <row r="59" spans="2:6" ht="78.599999999999994" thickBot="1">
+      <c r="B59" s="64" t="s">
+        <v>286</v>
+      </c>
+      <c r="C59" s="64" t="s">
+        <v>427</v>
+      </c>
+      <c r="D59" s="60" t="s">
+        <v>441</v>
       </c>
       <c r="E59" s="59" t="s">
-        <v>504</v>
+        <v>451</v>
       </c>
       <c r="F59" s="57" t="s">
-        <v>505</v>
+        <v>410</v>
       </c>
     </row>
-    <row r="60" spans="2:6" ht="94.2" thickBot="1">
-      <c r="B60" s="65" t="s">
-        <v>492</v>
-      </c>
-      <c r="C60" s="65" t="s">
-        <v>506</v>
-      </c>
-      <c r="D60" s="67" t="s">
-        <v>507</v>
+    <row r="60" spans="2:6" ht="125.4" thickBot="1">
+      <c r="B60" s="64" t="s">
+        <v>286</v>
+      </c>
+      <c r="C60" s="64" t="s">
+        <v>428</v>
+      </c>
+      <c r="D60" s="60" t="s">
+        <v>453</v>
       </c>
       <c r="E60" s="59" t="s">
-        <v>532</v>
+        <v>454</v>
       </c>
       <c r="F60" s="57" t="s">
-        <v>536</v>
+        <v>482</v>
       </c>
     </row>
-    <row r="61" spans="2:6" ht="47.4" thickBot="1">
-      <c r="B61" s="65" t="s">
-        <v>492</v>
-      </c>
-      <c r="C61" s="65" t="s">
-        <v>512</v>
+    <row r="61" spans="2:6" ht="43.8" thickBot="1">
+      <c r="B61" s="64" t="s">
+        <v>286</v>
+      </c>
+      <c r="C61" s="64" t="s">
+        <v>429</v>
       </c>
       <c r="D61" s="60" t="s">
-        <v>513</v>
+        <v>458</v>
       </c>
       <c r="E61" s="59" t="s">
-        <v>514</v>
+        <v>459</v>
       </c>
       <c r="F61" s="57" t="s">
-        <v>515</v>
+        <v>457</v>
       </c>
     </row>
-    <row r="62" spans="2:6" ht="43.8" thickBot="1">
-      <c r="B62" s="65" t="s">
-        <v>492</v>
-      </c>
-      <c r="C62" s="65" t="s">
-        <v>518</v>
+    <row r="62" spans="2:6" ht="61.2" thickBot="1">
+      <c r="B62" s="64" t="s">
+        <v>286</v>
+      </c>
+      <c r="C62" s="64" t="s">
+        <v>430</v>
       </c>
       <c r="D62" s="60" t="s">
-        <v>516</v>
+        <v>461</v>
       </c>
       <c r="E62" s="59" t="s">
-        <v>517</v>
+        <v>462</v>
       </c>
       <c r="F62" s="57" t="s">
-        <v>519</v>
+        <v>466</v>
       </c>
     </row>
-    <row r="63" spans="2:6" ht="63" thickBot="1">
-      <c r="B63" s="65" t="s">
-        <v>492</v>
-      </c>
-      <c r="C63" s="65" t="s">
-        <v>520</v>
+    <row r="63" spans="2:6" ht="18" thickBot="1">
+      <c r="B63" s="64" t="s">
+        <v>286</v>
+      </c>
+      <c r="C63" s="64" t="s">
+        <v>467</v>
       </c>
       <c r="D63" s="60" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
       <c r="E63" s="59" t="s">
-        <v>522</v>
+        <v>469</v>
       </c>
       <c r="F63" s="57" t="s">
-        <v>523</v>
+        <v>468</v>
       </c>
     </row>
-    <row r="64" spans="2:6" ht="47.4" thickBot="1">
-      <c r="B64" s="65" t="s">
-        <v>492</v>
-      </c>
-      <c r="C64" s="65" t="s">
-        <v>527</v>
+    <row r="64" spans="2:6" ht="78.599999999999994" thickBot="1">
+      <c r="B64" s="64" t="s">
+        <v>286</v>
+      </c>
+      <c r="C64" s="64" t="s">
+        <v>470</v>
       </c>
       <c r="D64" s="60" t="s">
-        <v>524</v>
+        <v>460</v>
       </c>
       <c r="E64" s="59" t="s">
-        <v>525</v>
+        <v>471</v>
       </c>
       <c r="F64" s="57" t="s">
-        <v>526</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="65" spans="2:6" ht="87.6" thickBot="1">
-      <c r="B65" s="65" t="s">
-        <v>492</v>
-      </c>
-      <c r="C65" s="65" t="s">
-        <v>528</v>
+    <row r="65" spans="2:6" ht="109.8" thickBot="1">
+      <c r="B65" s="64" t="s">
+        <v>286</v>
+      </c>
+      <c r="C65" s="64" t="s">
+        <v>473</v>
       </c>
       <c r="D65" s="60" t="s">
-        <v>530</v>
+        <v>476</v>
       </c>
       <c r="E65" s="59" t="s">
-        <v>534</v>
+        <v>415</v>
       </c>
       <c r="F65" s="57" t="s">
-        <v>539</v>
+        <v>477</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="87.6" thickBot="1">
-      <c r="B66" s="65" t="s">
-        <v>492</v>
-      </c>
-      <c r="C66" s="65" t="s">
-        <v>529</v>
+    <row r="66" spans="2:6" ht="47.4" thickBot="1">
+      <c r="B66" s="64" t="s">
+        <v>286</v>
+      </c>
+      <c r="C66" s="64" t="s">
+        <v>474</v>
       </c>
       <c r="D66" s="60" t="s">
-        <v>531</v>
+        <v>475</v>
       </c>
       <c r="E66" s="59" t="s">
-        <v>533</v>
+        <v>479</v>
       </c>
       <c r="F66" s="57" t="s">
-        <v>538</v>
+        <v>478</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="109.8" thickBot="1">
-      <c r="B67" s="65" t="s">
+      <c r="B67" s="64" t="s">
+        <v>286</v>
+      </c>
+      <c r="C67" s="64" t="s">
+        <v>484</v>
+      </c>
+      <c r="D67" s="60" t="s">
+        <v>483</v>
+      </c>
+      <c r="E67" s="59"/>
+      <c r="F67" s="57" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="63" thickBot="1">
+      <c r="B68" s="65" t="s">
+        <v>485</v>
+      </c>
+      <c r="C68" s="68" t="s">
+        <v>486</v>
+      </c>
+      <c r="D68" s="66" t="s">
+        <v>487</v>
+      </c>
+      <c r="E68" s="59" t="s">
+        <v>488</v>
+      </c>
+      <c r="F68" s="57" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="109.8" thickBot="1">
+      <c r="B69" s="65" t="s">
+        <v>485</v>
+      </c>
+      <c r="C69" s="65" t="s">
         <v>492</v>
       </c>
-      <c r="C67" s="65" t="s">
-        <v>537</v>
-      </c>
-      <c r="D67" s="60" t="s">
-        <v>541</v>
-      </c>
-      <c r="E67" s="59" t="s">
-        <v>542</v>
-      </c>
-      <c r="F67" s="57" t="s">
-        <v>546</v>
+      <c r="D69" s="67" t="s">
+        <v>493</v>
+      </c>
+      <c r="E69" s="59" t="s">
+        <v>494</v>
+      </c>
+      <c r="F69" s="57" t="s">
+        <v>360</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="47.4" thickBot="1">
-      <c r="B68" s="65" t="s">
-        <v>492</v>
-      </c>
-      <c r="C68" s="65" t="s">
-        <v>540</v>
-      </c>
-      <c r="D68" s="60" t="s">
-        <v>543</v>
-      </c>
-      <c r="E68" s="59" t="s">
-        <v>544</v>
-      </c>
-      <c r="F68" s="57" t="s">
-        <v>545</v>
+    <row r="70" spans="2:6" ht="47.4" thickBot="1">
+      <c r="B70" s="65" t="s">
+        <v>485</v>
+      </c>
+      <c r="C70" s="65" t="s">
+        <v>495</v>
+      </c>
+      <c r="D70" s="67" t="s">
+        <v>496</v>
+      </c>
+      <c r="E70" s="59" t="s">
+        <v>497</v>
+      </c>
+      <c r="F70" s="57" t="s">
+        <v>498</v>
       </c>
     </row>
-    <row r="69" spans="2:6" ht="18" thickBot="1">
-      <c r="B69" s="65" t="s">
-        <v>492</v>
-      </c>
-      <c r="C69" s="65" t="s">
-        <v>547</v>
-      </c>
-      <c r="D69" s="60" t="s">
-        <v>471</v>
-      </c>
-      <c r="E69" s="59" t="s">
-        <v>544</v>
-      </c>
-      <c r="F69" s="57" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" ht="109.8" thickBot="1">
-      <c r="B70" s="65" t="s">
-        <v>492</v>
-      </c>
-      <c r="C70" s="65" t="s">
-        <v>549</v>
-      </c>
-      <c r="D70" s="60" t="s">
-        <v>550</v>
-      </c>
-      <c r="E70" s="59" t="s">
-        <v>551</v>
-      </c>
-      <c r="F70" s="57" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" ht="78.599999999999994" thickBot="1">
-      <c r="B71" s="62" t="s">
-        <v>368</v>
-      </c>
-      <c r="C71" s="62" t="s">
-        <v>369</v>
-      </c>
-      <c r="D71" s="71" t="s">
-        <v>370</v>
-      </c>
-      <c r="E71" s="73" t="s">
-        <v>486</v>
-      </c>
-      <c r="F71" s="75" t="s">
-        <v>461</v>
+    <row r="71" spans="2:6" ht="94.2" thickBot="1">
+      <c r="B71" s="65" t="s">
+        <v>485</v>
+      </c>
+      <c r="C71" s="65" t="s">
+        <v>499</v>
+      </c>
+      <c r="D71" s="67" t="s">
+        <v>500</v>
+      </c>
+      <c r="E71" s="59" t="s">
+        <v>524</v>
+      </c>
+      <c r="F71" s="57" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="47.4" thickBot="1">
-      <c r="B72" s="69" t="s">
+      <c r="B72" s="65" t="s">
+        <v>485</v>
+      </c>
+      <c r="C72" s="65" t="s">
+        <v>505</v>
+      </c>
+      <c r="D72" s="60" t="s">
+        <v>506</v>
+      </c>
+      <c r="E72" s="59" t="s">
+        <v>507</v>
+      </c>
+      <c r="F72" s="57" t="s">
         <v>508</v>
       </c>
-      <c r="C72" s="70" t="s">
+    </row>
+    <row r="73" spans="2:6" ht="43.8" thickBot="1">
+      <c r="B73" s="65" t="s">
+        <v>485</v>
+      </c>
+      <c r="C73" s="65" t="s">
+        <v>511</v>
+      </c>
+      <c r="D73" s="60" t="s">
+        <v>509</v>
+      </c>
+      <c r="E73" s="59" t="s">
+        <v>510</v>
+      </c>
+      <c r="F73" s="57" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" ht="94.2" thickBot="1">
+      <c r="B74" s="65" t="s">
+        <v>485</v>
+      </c>
+      <c r="C74" s="65" t="s">
+        <v>513</v>
+      </c>
+      <c r="D74" s="60" t="s">
+        <v>514</v>
+      </c>
+      <c r="E74" s="59" t="s">
+        <v>515</v>
+      </c>
+      <c r="F74" s="57" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" ht="47.4" thickBot="1">
+      <c r="B75" s="65" t="s">
+        <v>485</v>
+      </c>
+      <c r="C75" s="65" t="s">
+        <v>519</v>
+      </c>
+      <c r="D75" s="60" t="s">
+        <v>516</v>
+      </c>
+      <c r="E75" s="59" t="s">
+        <v>517</v>
+      </c>
+      <c r="F75" s="57" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" ht="87.6" thickBot="1">
+      <c r="B76" s="65" t="s">
+        <v>485</v>
+      </c>
+      <c r="C76" s="65" t="s">
+        <v>520</v>
+      </c>
+      <c r="D76" s="60" t="s">
+        <v>522</v>
+      </c>
+      <c r="E76" s="59" t="s">
+        <v>526</v>
+      </c>
+      <c r="F76" s="57" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" ht="87.6" thickBot="1">
+      <c r="B77" s="65" t="s">
+        <v>485</v>
+      </c>
+      <c r="C77" s="65" t="s">
+        <v>521</v>
+      </c>
+      <c r="D77" s="60" t="s">
+        <v>523</v>
+      </c>
+      <c r="E77" s="59" t="s">
+        <v>525</v>
+      </c>
+      <c r="F77" s="57" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" ht="109.8" thickBot="1">
+      <c r="B78" s="65" t="s">
+        <v>485</v>
+      </c>
+      <c r="C78" s="65" t="s">
+        <v>529</v>
+      </c>
+      <c r="D78" s="60" t="s">
+        <v>533</v>
+      </c>
+      <c r="E78" s="59" t="s">
+        <v>534</v>
+      </c>
+      <c r="F78" s="57" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" ht="47.4" thickBot="1">
+      <c r="B79" s="65" t="s">
+        <v>485</v>
+      </c>
+      <c r="C79" s="65" t="s">
+        <v>532</v>
+      </c>
+      <c r="D79" s="60" t="s">
         <v>535</v>
       </c>
-      <c r="D72" s="72" t="s">
-        <v>509</v>
-      </c>
-      <c r="E72" s="74" t="s">
-        <v>511</v>
-      </c>
-      <c r="F72" s="76" t="s">
-        <v>510</v>
+      <c r="E79" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="F79" s="57" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" ht="18" thickBot="1">
+      <c r="B80" s="65" t="s">
+        <v>485</v>
+      </c>
+      <c r="C80" s="65" t="s">
+        <v>539</v>
+      </c>
+      <c r="D80" s="60" t="s">
+        <v>465</v>
+      </c>
+      <c r="E80" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="F80" s="57" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" ht="109.8" thickBot="1">
+      <c r="B81" s="65" t="s">
+        <v>485</v>
+      </c>
+      <c r="C81" s="65" t="s">
+        <v>541</v>
+      </c>
+      <c r="D81" s="60" t="s">
+        <v>542</v>
+      </c>
+      <c r="E81" s="59" t="s">
+        <v>543</v>
+      </c>
+      <c r="F81" s="57" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" ht="78.599999999999994" thickBot="1">
+      <c r="B82" s="62" t="s">
+        <v>363</v>
+      </c>
+      <c r="C82" s="62" t="s">
+        <v>364</v>
+      </c>
+      <c r="D82" s="71" t="s">
+        <v>365</v>
+      </c>
+      <c r="E82" s="73" t="s">
+        <v>480</v>
+      </c>
+      <c r="F82" s="75" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" ht="47.4" thickBot="1">
+      <c r="B83" s="69" t="s">
+        <v>501</v>
+      </c>
+      <c r="C83" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="D83" s="72" t="s">
+        <v>502</v>
+      </c>
+      <c r="E83" s="74" t="s">
+        <v>504</v>
+      </c>
+      <c r="F83" s="76" t="s">
+        <v>503</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B6:F22" xr:uid="{08681459-A406-4CEE-9A8A-D3DF83B63176}"/>
+  <autoFilter ref="B6:F23" xr:uid="{08681459-A406-4CEE-9A8A-D3DF83B63176}"/>
   <mergeCells count="3">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="C4:D4"/>
@@ -32079,10 +33865,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B24355E-CC1D-4763-8BDC-A7AD2ECA21E3}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -32306,7 +34092,15 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>488</v>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>30</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -32330,7 +34124,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="91" t="s">
         <v>257</v>
       </c>
       <c r="B1">
@@ -32341,7 +34135,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="89"/>
+      <c r="A2" s="91"/>
       <c r="B2">
         <v>1</v>
       </c>
@@ -32350,7 +34144,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="89"/>
+      <c r="A3" s="91"/>
       <c r="B3">
         <v>2</v>
       </c>
@@ -32359,7 +34153,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="92" t="s">
         <v>261</v>
       </c>
       <c r="B4">
@@ -32370,7 +34164,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="90"/>
+      <c r="A5" s="92"/>
       <c r="B5">
         <v>1</v>
       </c>
@@ -32379,7 +34173,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="90"/>
+      <c r="A6" s="92"/>
       <c r="B6">
         <v>-1</v>
       </c>
@@ -32388,7 +34182,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="91" t="s">
         <v>266</v>
       </c>
       <c r="B7">
@@ -32399,7 +34193,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="89"/>
+      <c r="A8" s="91"/>
       <c r="B8">
         <v>1</v>
       </c>
@@ -32408,7 +34202,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="89"/>
+      <c r="A9" s="91"/>
       <c r="B9">
         <v>2</v>
       </c>
@@ -32566,14 +34360,14 @@
       </c>
       <c r="AB1">
         <f ca="1">RANDBETWEEN(170,185)</f>
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AC1" t="s">
         <v>110</v>
       </c>
       <c r="AD1">
         <f ca="1">RANDBETWEEN(70,80)</f>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AE1" t="s">
         <v>110</v>
@@ -32587,7 +34381,7 @@
       </c>
       <c r="AH1">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI1" t="s">
         <v>110</v>
@@ -32600,7 +34394,7 @@
       </c>
       <c r="AL1" t="str">
         <f ca="1">_xlfn.CONCAT(A1:AK1)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,171,79,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,175,73,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="2" spans="1:38">
@@ -32692,7 +34486,7 @@
       </c>
       <c r="AD2">
         <f t="shared" ref="AD2:AD17" ca="1" si="1">RANDBETWEEN(70,80)</f>
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="s">
         <v>110</v>
@@ -32719,7 +34513,7 @@
       </c>
       <c r="AL2" t="str">
         <f t="shared" ref="AL2:AL17" ca="1" si="4">_xlfn.CONCAT(A2:AK2)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,179,76,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,179,71,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -32804,21 +34598,21 @@
       </c>
       <c r="AB3">
         <f t="shared" ca="1" si="0"/>
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="AC3" t="s">
         <v>110</v>
       </c>
       <c r="AD3">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s">
         <v>110</v>
       </c>
       <c r="AF3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="s">
         <v>110</v>
@@ -32838,7 +34632,7 @@
       </c>
       <c r="AL3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,171,75,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,185,73,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="4" spans="1:38">
@@ -32923,14 +34717,14 @@
       </c>
       <c r="AB4">
         <f t="shared" ca="1" si="0"/>
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AC4" t="s">
         <v>110</v>
       </c>
       <c r="AD4">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AE4" t="s">
         <v>110</v>
@@ -32957,7 +34751,7 @@
       </c>
       <c r="AL4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,171,76,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,175,72,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -33049,21 +34843,21 @@
       </c>
       <c r="AD5">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s">
         <v>110</v>
       </c>
       <c r="AF5">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="s">
         <v>110</v>
       </c>
       <c r="AH5">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="s">
         <v>110</v>
@@ -33076,7 +34870,7 @@
       </c>
       <c r="AL5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,184,78,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,184,76,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -33161,21 +34955,21 @@
       </c>
       <c r="AB6">
         <f t="shared" ca="1" si="0"/>
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AC6" t="s">
         <v>110</v>
       </c>
       <c r="AD6">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AE6" t="s">
         <v>110</v>
       </c>
       <c r="AF6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="s">
         <v>110</v>
@@ -33195,7 +34989,7 @@
       </c>
       <c r="AL6" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,179,75,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,180,78,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -33280,21 +35074,21 @@
       </c>
       <c r="AB7">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AC7" t="s">
         <v>110</v>
       </c>
       <c r="AD7">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE7" t="s">
         <v>110</v>
       </c>
       <c r="AF7">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" t="s">
         <v>110</v>
@@ -33314,7 +35108,7 @@
       </c>
       <c r="AL7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,184,79,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,180,75,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -33399,21 +35193,21 @@
       </c>
       <c r="AB8">
         <f t="shared" ca="1" si="0"/>
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AC8" t="s">
         <v>110</v>
       </c>
       <c r="AD8">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s">
         <v>110</v>
       </c>
       <c r="AF8">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" t="s">
         <v>110</v>
@@ -33433,7 +35227,7 @@
       </c>
       <c r="AL8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,180,78,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,178,75,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -33518,14 +35312,14 @@
       </c>
       <c r="AB9">
         <f t="shared" ca="1" si="0"/>
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AC9" t="s">
         <v>110</v>
       </c>
       <c r="AD9">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AE9" t="s">
         <v>110</v>
@@ -33539,7 +35333,7 @@
       </c>
       <c r="AH9">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="s">
         <v>110</v>
@@ -33552,7 +35346,7 @@
       </c>
       <c r="AL9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,175,75,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,177,79,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -33637,21 +35431,21 @@
       </c>
       <c r="AB10">
         <f t="shared" ca="1" si="0"/>
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AC10" t="s">
         <v>110</v>
       </c>
       <c r="AD10">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AE10" t="s">
         <v>110</v>
       </c>
       <c r="AF10">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="s">
         <v>110</v>
@@ -33671,7 +35465,7 @@
       </c>
       <c r="AL10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,179,78,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,173,70,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -33756,14 +35550,14 @@
       </c>
       <c r="AB11">
         <f t="shared" ca="1" si="0"/>
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AC11" t="s">
         <v>110</v>
       </c>
       <c r="AD11">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AE11" t="s">
         <v>110</v>
@@ -33790,7 +35584,7 @@
       </c>
       <c r="AL11" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,172,74,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,176,79,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -33875,14 +35669,14 @@
       </c>
       <c r="AB12">
         <f t="shared" ca="1" si="0"/>
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AC12" t="s">
         <v>110</v>
       </c>
       <c r="AD12">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE12" t="s">
         <v>110</v>
@@ -33909,7 +35703,7 @@
       </c>
       <c r="AL12" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,174,70,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,171,71,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -33994,7 +35788,7 @@
       </c>
       <c r="AB13">
         <f t="shared" ca="1" si="0"/>
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AC13" t="s">
         <v>110</v>
@@ -34028,7 +35822,7 @@
       </c>
       <c r="AL13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,177,79,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,172,79,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -34120,14 +35914,14 @@
       </c>
       <c r="AD14">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE14" t="s">
         <v>110</v>
       </c>
       <c r="AF14">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="s">
         <v>110</v>
@@ -34147,7 +35941,7 @@
       </c>
       <c r="AL14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,182,73,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,182,75,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -34232,28 +36026,28 @@
       </c>
       <c r="AB15">
         <f t="shared" ca="1" si="0"/>
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="AC15" t="s">
         <v>110</v>
       </c>
       <c r="AD15">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s">
         <v>110</v>
       </c>
       <c r="AF15">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" t="s">
         <v>110</v>
       </c>
       <c r="AH15">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI15" t="s">
         <v>110</v>
@@ -34266,7 +36060,7 @@
       </c>
       <c r="AL15" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,176,73,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,183,76,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -34351,21 +36145,21 @@
       </c>
       <c r="AB16">
         <f t="shared" ca="1" si="0"/>
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AC16" t="s">
         <v>110</v>
       </c>
       <c r="AD16">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AE16" t="s">
         <v>110</v>
       </c>
       <c r="AF16">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="s">
         <v>110</v>
@@ -34385,7 +36179,7 @@
       </c>
       <c r="AL16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,181,74,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,174,80,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="17" spans="1:38">
@@ -34470,14 +36264,14 @@
       </c>
       <c r="AB17">
         <f t="shared" ca="1" si="0"/>
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AC17" t="s">
         <v>110</v>
       </c>
       <c r="AD17">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE17" t="s">
         <v>110</v>
@@ -34504,7 +36298,7 @@
       </c>
       <c r="AL17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,178,75,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,176,77,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="20" spans="1:38">
@@ -34559,7 +36353,7 @@
       </c>
       <c r="Q20">
         <f ca="1">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R20" t="s">
         <v>110</v>
@@ -34593,7 +36387,7 @@
       </c>
       <c r="AB20" t="str">
         <f ca="1">_xlfn.CONCAT(A20:AA20)</f>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('왕십리FC','왕십리FC201018.jpg','성동구','성동구 구장','red',5,'2016-01-01',sysdate(),'1234','기업');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('왕십리FC','왕십리FC201018.jpg','성동구','성동구 구장','red',2,'2016-01-01',sysdate(),'1234','기업');</v>
       </c>
     </row>
     <row r="21" spans="1:38">
@@ -34648,7 +36442,7 @@
       </c>
       <c r="Q21">
         <f t="shared" ref="Q21:Q22" ca="1" si="6">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R21" t="s">
         <v>110</v>
@@ -34682,7 +36476,7 @@
       </c>
       <c r="AB21" t="str">
         <f t="shared" ref="AB21:AB22" ca="1" si="7">_xlfn.CONCAT(A21:AA21)</f>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('답십리FC','답십리FC201018.jpg','성동구','응봉동 구장','blue',2,'2017-01-01',sysdate(),'5678','하나');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('답십리FC','답십리FC201018.jpg','성동구','응봉동 구장','blue',5,'2017-01-01',sysdate(),'5678','하나');</v>
       </c>
     </row>
     <row r="22" spans="1:38">
@@ -34737,7 +36531,7 @@
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R22" t="s">
         <v>110</v>
@@ -34771,7 +36565,7 @@
       </c>
       <c r="AB22" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('대구FC','대구FC201018.jpg','달서구','달서구 구장','green',0,'2018-01-01',sysdate(),'2345','기업');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('대구FC','대구FC201018.jpg','달서구','달서구 구장','green',5,'2018-01-01',sysdate(),'2345','기업');</v>
       </c>
     </row>
     <row r="24" spans="1:38">
@@ -35627,174 +37421,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4CA4EE-DE18-469F-A352-6DA033B77CCB}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1">
-        <f>AVERAGE(B1:XFD1)</f>
-        <v>8.1818181818181817</v>
-      </c>
-      <c r="B1">
-        <v>7</v>
-      </c>
-      <c r="C1">
-        <v>7</v>
-      </c>
-      <c r="D1">
-        <v>9</v>
-      </c>
-      <c r="E1">
-        <v>7</v>
-      </c>
-      <c r="F1">
-        <v>8</v>
-      </c>
-      <c r="G1">
-        <v>9</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>10</v>
-      </c>
-      <c r="J1">
-        <v>8</v>
-      </c>
-      <c r="K1">
-        <v>9</v>
-      </c>
-      <c r="L1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2">
-        <f t="shared" ref="A2:A6" si="0">AVERAGE(B2:XFD2)</f>
-        <v>8.3636363636363633</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
-      <c r="G2">
-        <v>8</v>
-      </c>
-      <c r="H2">
-        <v>9</v>
-      </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
-      <c r="J2">
-        <v>8</v>
-      </c>
-      <c r="K2">
-        <v>7</v>
-      </c>
-      <c r="L2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
-        <f t="shared" si="0"/>
-        <v>8.545454545454545</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>8</v>
-      </c>
-      <c r="H3">
-        <v>9</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <v>9</v>
-      </c>
-      <c r="K3">
-        <v>7</v>
-      </c>
-      <c r="L3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
-        <f t="shared" si="0"/>
-        <v>7.666666666666667</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>6.333333333333333</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B1" t="s">
+        <v>589</v>
       </c>
     </row>
   </sheetData>

--- a/docs/srs/fbt_docs.xlsx
+++ b/docs/srs/fbt_docs.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kjy\fbt\docs\srs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5422CF53-DAA1-448B-A52A-76DE79F805A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BDC0FE-6F7C-40F4-AC66-3E153553B68D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2F0AD6B2-A8A2-4F73-BAF4-7193D3382EE1}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항명세서" sheetId="1" r:id="rId1"/>
     <sheet name="서비스 플로우" sheetId="6" r:id="rId2"/>
-    <sheet name="추가적으로 할 것" sheetId="4" r:id="rId3"/>
-    <sheet name="변수 코드 북" sheetId="5" r:id="rId4"/>
-    <sheet name="TestCase_시나리오" sheetId="2" r:id="rId5"/>
-    <sheet name="TestCase_SQL" sheetId="3" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId3"/>
+    <sheet name="추가적으로 할 것" sheetId="4" r:id="rId4"/>
+    <sheet name="변수 코드 북" sheetId="5" r:id="rId5"/>
+    <sheet name="TestCase_시나리오" sheetId="2" r:id="rId6"/>
+    <sheet name="TestCase_SQL" sheetId="3" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'서비스 플로우'!$B$6:$F$23</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="611">
   <si>
     <t>요구사항 정의서</t>
   </si>
@@ -28008,249 +28009,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>경기 시작 전 확정 
-일정 정보 출력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0. isEndMatch </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>변수를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>통해</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>끝난</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>경기를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>불러오는지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시작</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>경기를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>불러오는지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구분한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. + is_confrimed = 1만</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 불러온다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-1. FV03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>받기</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">0. isUser </t>
     </r>
@@ -28847,10 +28605,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>완료된 경기 일정 출력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>1. matchScheduleId, teamId, away_team_id</t>
     </r>
@@ -29833,6 +29587,399 @@
   </si>
   <si>
     <t>https://gaemi606.tistory.com/m/162?category=745027</t>
+  </si>
+  <si>
+    <t>svg에 색 넣기(유니폼 색에 맞게)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 상세정보 소수점 처리하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>투표 명단 서로 볼 수 있게</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈팀이 확정하면 투표 마감을 시키자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>확정 시, 삭제하지 않고 reservationStatus =3으로 만들고 검색 안 되게 한다</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패에서도 수정기능 추가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기장 정보: 경기장 주소를 못 받아옴</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>용병 확정하기 기능 누르기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>양도 완료에서 확정하기 기능 누르기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 삭제, 주차, 샤워</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>swing2APP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 일정에서 투표 기능 삭제</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 확정 시, 경기 확정하기 버튼 삭제</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>받은 점수 보기 받은 것만</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 후 평균 하는 거 다시 보기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청한 팀이 완료페이지에서 홈팀의 연락처 계좌번호 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행명도 텍스트로 받기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림은 당근마켓형식</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀홈: 상세정보, 엠블럼, 최근 전적, 향후 일정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지: 비번 바꾸기, 팀리스트, 팀탈퇴, user정보 출력, 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>활동: 일반</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀별 완료된 경기 일정 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀별 경기 시작 전 확정 
+일정 정보 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0. teamId, matchScheduleId, awayTeamId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보낸다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + isEndMatch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변수를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>끝난</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불러오는지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시작</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불러오는지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구분한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. + is_confrimed = 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불러온다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1. FV03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>받기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+2. teamId != awayTeamId가 다르면 awayTeam voteMatch와 voteMatchresult를 담는다</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -32506,8 +32653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB557C5E-BA25-400E-9AAB-8EC528CCF68C}">
   <dimension ref="B1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -32830,7 +32977,7 @@
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="57" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="40.200000000000003" thickBot="1">
@@ -32862,10 +33009,10 @@
       </c>
       <c r="E24" s="59"/>
       <c r="F24" s="57" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="47.4" thickBot="1">
+    <row r="25" spans="2:6" ht="89.4" thickBot="1">
       <c r="B25" s="77" t="s">
         <v>287</v>
       </c>
@@ -32873,11 +33020,11 @@
         <v>546</v>
       </c>
       <c r="D25" s="60" t="s">
-        <v>561</v>
+        <v>609</v>
       </c>
       <c r="E25" s="59"/>
       <c r="F25" s="57" t="s">
-        <v>562</v>
+        <v>610</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="45" thickBot="1">
@@ -32920,7 +33067,7 @@
         <v>558</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="57" t="s">
@@ -32932,14 +33079,14 @@
         <v>287</v>
       </c>
       <c r="C29" s="61" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>567</v>
+        <v>608</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="57" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="89.4" thickBot="1">
@@ -32947,14 +33094,14 @@
         <v>287</v>
       </c>
       <c r="C30" s="61" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="57" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="47.4" thickBot="1">
@@ -32962,16 +33109,16 @@
         <v>287</v>
       </c>
       <c r="C31" s="61" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F31" s="57" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="109.8" thickBot="1">
@@ -32979,16 +33126,16 @@
         <v>287</v>
       </c>
       <c r="C32" s="61" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F32" s="57" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="76.2" thickBot="1">
@@ -32996,14 +33143,14 @@
         <v>287</v>
       </c>
       <c r="C33" s="61" t="s">
+        <v>579</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>582</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>585</v>
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="57" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="63" thickBot="1">
@@ -33011,14 +33158,14 @@
         <v>287</v>
       </c>
       <c r="C34" s="61" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="57" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="78.599999999999994" thickBot="1">
@@ -33273,7 +33420,7 @@
         <v>405</v>
       </c>
       <c r="F49" s="57" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="123" thickBot="1">
@@ -33694,7 +33841,7 @@
         <v>515</v>
       </c>
       <c r="F74" s="57" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="47.4" thickBot="1">
@@ -33864,6 +34011,190 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5771FFE9-0A00-44DE-A281-68110209A845}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>607</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B24355E-CC1D-4763-8BDC-A7AD2ECA21E3}">
   <dimension ref="A1:C28"/>
   <sheetViews>
@@ -34110,7 +34441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA491AF-BB21-487D-9286-424DAB7FF449}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -34221,7 +34552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486901C1-BA96-4640-9F0A-E020AF5972D3}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -34264,7 +34595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824FDF58-95A4-4607-B006-2DB2375944C9}">
   <dimension ref="A1:AL38"/>
   <sheetViews>
@@ -34360,28 +34691,28 @@
       </c>
       <c r="AB1">
         <f ca="1">RANDBETWEEN(170,185)</f>
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="AC1" t="s">
         <v>110</v>
       </c>
       <c r="AD1">
         <f ca="1">RANDBETWEEN(70,80)</f>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE1" t="s">
         <v>110</v>
       </c>
       <c r="AF1">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG1" t="s">
         <v>110</v>
       </c>
       <c r="AH1">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI1" t="s">
         <v>110</v>
@@ -34394,7 +34725,7 @@
       </c>
       <c r="AL1" t="str">
         <f ca="1">_xlfn.CONCAT(A1:AK1)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,175,73,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,185,71,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="2" spans="1:38">
@@ -34479,14 +34810,14 @@
       </c>
       <c r="AB2">
         <f t="shared" ref="AB2:AB17" ca="1" si="0">RANDBETWEEN(170,185)</f>
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AC2" t="s">
         <v>110</v>
       </c>
       <c r="AD2">
         <f t="shared" ref="AD2:AD17" ca="1" si="1">RANDBETWEEN(70,80)</f>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AE2" t="s">
         <v>110</v>
@@ -34500,7 +34831,7 @@
       </c>
       <c r="AH2">
         <f t="shared" ref="AH2:AH17" ca="1" si="3">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="s">
         <v>110</v>
@@ -34513,7 +34844,7 @@
       </c>
       <c r="AL2" t="str">
         <f t="shared" ref="AL2:AL17" ca="1" si="4">_xlfn.CONCAT(A2:AK2)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,179,71,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,182,78,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -34598,28 +34929,28 @@
       </c>
       <c r="AB3">
         <f t="shared" ca="1" si="0"/>
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="AC3" t="s">
         <v>110</v>
       </c>
       <c r="AD3">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AE3" t="s">
         <v>110</v>
       </c>
       <c r="AF3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="s">
         <v>110</v>
       </c>
       <c r="AH3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3" t="s">
         <v>110</v>
@@ -34632,7 +34963,7 @@
       </c>
       <c r="AL3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,185,73,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,175,80,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="4" spans="1:38">
@@ -34717,28 +35048,28 @@
       </c>
       <c r="AB4">
         <f t="shared" ca="1" si="0"/>
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AC4" t="s">
         <v>110</v>
       </c>
       <c r="AD4">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AE4" t="s">
         <v>110</v>
       </c>
       <c r="AF4">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4" t="s">
         <v>110</v>
       </c>
       <c r="AH4">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="s">
         <v>110</v>
@@ -34751,7 +35082,7 @@
       </c>
       <c r="AL4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,175,72,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,178,74,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -34836,14 +35167,14 @@
       </c>
       <c r="AB5">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="AC5" t="s">
         <v>110</v>
       </c>
       <c r="AD5">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AE5" t="s">
         <v>110</v>
@@ -34870,7 +35201,7 @@
       </c>
       <c r="AL5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,184,76,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,172,80,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -34955,28 +35286,28 @@
       </c>
       <c r="AB6">
         <f t="shared" ca="1" si="0"/>
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AC6" t="s">
         <v>110</v>
       </c>
       <c r="AD6">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE6" t="s">
         <v>110</v>
       </c>
       <c r="AF6">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6" t="s">
         <v>110</v>
       </c>
       <c r="AH6">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="s">
         <v>110</v>
@@ -34989,7 +35320,7 @@
       </c>
       <c r="AL6" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,180,78,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,174,79,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -35074,21 +35405,21 @@
       </c>
       <c r="AB7">
         <f t="shared" ca="1" si="0"/>
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AC7" t="s">
         <v>110</v>
       </c>
       <c r="AD7">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AE7" t="s">
         <v>110</v>
       </c>
       <c r="AF7">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="s">
         <v>110</v>
@@ -35108,7 +35439,7 @@
       </c>
       <c r="AL7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,180,75,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,181,78,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -35193,21 +35524,21 @@
       </c>
       <c r="AB8">
         <f t="shared" ca="1" si="0"/>
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="AC8" t="s">
         <v>110</v>
       </c>
       <c r="AD8">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AE8" t="s">
         <v>110</v>
       </c>
       <c r="AF8">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="s">
         <v>110</v>
@@ -35227,7 +35558,7 @@
       </c>
       <c r="AL8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,178,75,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,170,79,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -35312,14 +35643,14 @@
       </c>
       <c r="AB9">
         <f t="shared" ca="1" si="0"/>
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AC9" t="s">
         <v>110</v>
       </c>
       <c r="AD9">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AE9" t="s">
         <v>110</v>
@@ -35346,7 +35677,7 @@
       </c>
       <c r="AL9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,177,79,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,181,71,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -35431,28 +35762,28 @@
       </c>
       <c r="AB10">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AC10" t="s">
         <v>110</v>
       </c>
       <c r="AD10">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s">
         <v>110</v>
       </c>
       <c r="AF10">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" t="s">
         <v>110</v>
       </c>
       <c r="AH10">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="s">
         <v>110</v>
@@ -35465,7 +35796,7 @@
       </c>
       <c r="AL10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,173,70,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,177,76,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -35550,14 +35881,14 @@
       </c>
       <c r="AB11">
         <f t="shared" ca="1" si="0"/>
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AC11" t="s">
         <v>110</v>
       </c>
       <c r="AD11">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AE11" t="s">
         <v>110</v>
@@ -35571,7 +35902,7 @@
       </c>
       <c r="AH11">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI11" t="s">
         <v>110</v>
@@ -35584,7 +35915,7 @@
       </c>
       <c r="AL11" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,176,79,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,175,71,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -35669,21 +36000,21 @@
       </c>
       <c r="AB12">
         <f t="shared" ca="1" si="0"/>
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="AC12" t="s">
         <v>110</v>
       </c>
       <c r="AD12">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AE12" t="s">
         <v>110</v>
       </c>
       <c r="AF12">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="s">
         <v>110</v>
@@ -35703,7 +36034,7 @@
       </c>
       <c r="AL12" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,171,71,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,179,77,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -35788,28 +36119,28 @@
       </c>
       <c r="AB13">
         <f t="shared" ca="1" si="0"/>
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AC13" t="s">
         <v>110</v>
       </c>
       <c r="AD13">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AE13" t="s">
         <v>110</v>
       </c>
       <c r="AF13">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="s">
         <v>110</v>
       </c>
       <c r="AH13">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="s">
         <v>110</v>
@@ -35822,7 +36153,7 @@
       </c>
       <c r="AL13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,172,79,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,176,77,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -35907,28 +36238,28 @@
       </c>
       <c r="AB14">
         <f t="shared" ca="1" si="0"/>
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="AC14" t="s">
         <v>110</v>
       </c>
       <c r="AD14">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE14" t="s">
         <v>110</v>
       </c>
       <c r="AF14">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="s">
         <v>110</v>
       </c>
       <c r="AH14">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="s">
         <v>110</v>
@@ -35941,7 +36272,7 @@
       </c>
       <c r="AL14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,182,75,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,172,74,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -36026,7 +36357,7 @@
       </c>
       <c r="AB15">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AC15" t="s">
         <v>110</v>
@@ -36040,14 +36371,14 @@
       </c>
       <c r="AF15">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="s">
         <v>110</v>
       </c>
       <c r="AH15">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="s">
         <v>110</v>
@@ -36060,7 +36391,7 @@
       </c>
       <c r="AL15" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,183,76,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,180,76,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -36145,7 +36476,7 @@
       </c>
       <c r="AB16">
         <f t="shared" ca="1" si="0"/>
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="AC16" t="s">
         <v>110</v>
@@ -36179,7 +36510,7 @@
       </c>
       <c r="AL16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,174,80,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,182,80,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="17" spans="1:38">
@@ -36264,21 +36595,21 @@
       </c>
       <c r="AB17">
         <f t="shared" ca="1" si="0"/>
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AC17" t="s">
         <v>110</v>
       </c>
       <c r="AD17">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AE17" t="s">
         <v>110</v>
       </c>
       <c r="AF17">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="s">
         <v>110</v>
@@ -36298,7 +36629,7 @@
       </c>
       <c r="AL17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,176,77,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,180,75,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="20" spans="1:38">
@@ -36413,7 +36744,7 @@
         <v>110</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" ref="H21:H22" si="5">E21</f>
+        <f>E21</f>
         <v>'답십리FC</v>
       </c>
       <c r="I21" t="s">
@@ -36441,7 +36772,7 @@
         <v>110</v>
       </c>
       <c r="Q21">
-        <f t="shared" ref="Q21:Q22" ca="1" si="6">RANDBETWEEN(0,5)</f>
+        <f ca="1">RANDBETWEEN(0,5)</f>
         <v>5</v>
       </c>
       <c r="R21" t="s">
@@ -36475,7 +36806,7 @@
         <v>121</v>
       </c>
       <c r="AB21" t="str">
-        <f t="shared" ref="AB21:AB22" ca="1" si="7">_xlfn.CONCAT(A21:AA21)</f>
+        <f ca="1">_xlfn.CONCAT(A21:AA21)</f>
         <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('답십리FC','답십리FC201018.jpg','성동구','응봉동 구장','blue',5,'2017-01-01',sysdate(),'5678','하나');</v>
       </c>
     </row>
@@ -36502,7 +36833,7 @@
         <v>110</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="5"/>
+        <f>E22</f>
         <v>'대구FC</v>
       </c>
       <c r="I22" t="s">
@@ -36530,8 +36861,8 @@
         <v>110</v>
       </c>
       <c r="Q22">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <f ca="1">RANDBETWEEN(0,5)</f>
+        <v>4</v>
       </c>
       <c r="R22" t="s">
         <v>110</v>
@@ -36564,8 +36895,8 @@
         <v>121</v>
       </c>
       <c r="AB22" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('대구FC','대구FC201018.jpg','달서구','달서구 구장','green',5,'2018-01-01',sysdate(),'2345','기업');</v>
+        <f ca="1">_xlfn.CONCAT(A22:AA22)</f>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('대구FC','대구FC201018.jpg','달서구','달서구 구장','green',4,'2018-01-01',sysdate(),'2345','기업');</v>
       </c>
     </row>
     <row r="24" spans="1:38">
@@ -36603,7 +36934,7 @@
         <v>110</v>
       </c>
       <c r="L24" t="str">
-        <f>_xlfn.CONCAT(E1:H1)</f>
+        <f t="shared" ref="L24:L38" si="5">_xlfn.CONCAT(E1:H1)</f>
         <v>'bioman1@gmail.com'</v>
       </c>
       <c r="M24" t="s">
@@ -36619,7 +36950,7 @@
         <v>150</v>
       </c>
       <c r="Q24" t="str">
-        <f>_xlfn.CONCAT(A24:P24)</f>
+        <f t="shared" ref="Q24:Q38" si="6">_xlfn.CONCAT(A24:P24)</f>
         <v>INSERT INTO team_member(member_reg_date, member_level, reg_status, team_id, email, nick_name)VALUES(sysdate(),4,1,1,'bioman1@gmail.com','nick1');</v>
       </c>
     </row>
@@ -36658,7 +36989,7 @@
         <v>110</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" ref="L25:L28" si="8">_xlfn.CONCAT(E2:H2)</f>
+        <f t="shared" si="5"/>
         <v>'bioman2@gmail.com'</v>
       </c>
       <c r="M25" t="s">
@@ -36674,7 +37005,7 @@
         <v>150</v>
       </c>
       <c r="Q25" t="str">
-        <f t="shared" ref="Q25:Q28" si="9">_xlfn.CONCAT(A25:P25)</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO team_member(member_reg_date, member_level, reg_status, team_id, email, nick_name)VALUES(sysdate(),3,1,1,'bioman2@gmail.com','nick2');</v>
       </c>
     </row>
@@ -36713,7 +37044,7 @@
         <v>110</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'bioman3@gmail.com'</v>
       </c>
       <c r="M26" t="s">
@@ -36729,7 +37060,7 @@
         <v>150</v>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO team_member(member_reg_date, member_level, reg_status, team_id, email, nick_name)VALUES(sysdate(),2,1,1,'bioman3@gmail.com','nick3');</v>
       </c>
     </row>
@@ -36768,7 +37099,7 @@
         <v>110</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'bioman4@gmail.com'</v>
       </c>
       <c r="M27" t="s">
@@ -36784,7 +37115,7 @@
         <v>150</v>
       </c>
       <c r="Q27" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO team_member(member_reg_date, member_level, reg_status, team_id, email, nick_name)VALUES(sysdate(),1,1,1,'bioman4@gmail.com','nick4');</v>
       </c>
     </row>
@@ -36823,7 +37154,7 @@
         <v>110</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'bioman5@gmail.com'</v>
       </c>
       <c r="M28" t="s">
@@ -36839,7 +37170,7 @@
         <v>150</v>
       </c>
       <c r="Q28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO team_member(member_reg_date, member_level, reg_status, team_id, email, nick_name)VALUES(sysdate(),0,1,1,'bioman5@gmail.com','nick5');</v>
       </c>
     </row>
@@ -36878,7 +37209,7 @@
         <v>110</v>
       </c>
       <c r="L29" t="str">
-        <f>_xlfn.CONCAT(E6:H6)</f>
+        <f t="shared" si="5"/>
         <v>'bioman6@gmail.com'</v>
       </c>
       <c r="M29" t="s">
@@ -36894,7 +37225,7 @@
         <v>150</v>
       </c>
       <c r="Q29" t="str">
-        <f>_xlfn.CONCAT(A29:P29)</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO team_member(member_reg_date, member_level, reg_status, team_id, email, nick_name)VALUES(sysdate(),4,1,2,'bioman6@gmail.com','nick1');</v>
       </c>
     </row>
@@ -36933,7 +37264,7 @@
         <v>110</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" ref="L30:L33" si="10">_xlfn.CONCAT(E7:H7)</f>
+        <f t="shared" si="5"/>
         <v>'bioman7@gmail.com'</v>
       </c>
       <c r="M30" t="s">
@@ -36949,7 +37280,7 @@
         <v>150</v>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" ref="Q30:Q33" si="11">_xlfn.CONCAT(A30:P30)</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO team_member(member_reg_date, member_level, reg_status, team_id, email, nick_name)VALUES(sysdate(),3,1,2,'bioman7@gmail.com','nick2');</v>
       </c>
     </row>
@@ -36988,7 +37319,7 @@
         <v>110</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>'bioman8@gmail.com'</v>
       </c>
       <c r="M31" t="s">
@@ -37004,7 +37335,7 @@
         <v>150</v>
       </c>
       <c r="Q31" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO team_member(member_reg_date, member_level, reg_status, team_id, email, nick_name)VALUES(sysdate(),2,1,2,'bioman8@gmail.com','nick3');</v>
       </c>
     </row>
@@ -37043,7 +37374,7 @@
         <v>110</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>'bioman9@gmail.com'</v>
       </c>
       <c r="M32" t="s">
@@ -37059,7 +37390,7 @@
         <v>150</v>
       </c>
       <c r="Q32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO team_member(member_reg_date, member_level, reg_status, team_id, email, nick_name)VALUES(sysdate(),1,1,2,'bioman9@gmail.com','nick4');</v>
       </c>
     </row>
@@ -37098,7 +37429,7 @@
         <v>110</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>'bioman10@gmail.com'</v>
       </c>
       <c r="M33" t="s">
@@ -37114,7 +37445,7 @@
         <v>150</v>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO team_member(member_reg_date, member_level, reg_status, team_id, email, nick_name)VALUES(sysdate(),0,1,2,'bioman10@gmail.com','nick5');</v>
       </c>
     </row>
@@ -37153,7 +37484,7 @@
         <v>110</v>
       </c>
       <c r="L34" t="str">
-        <f>_xlfn.CONCAT(E11:H11)</f>
+        <f t="shared" si="5"/>
         <v>'bioman11@gmail.com'</v>
       </c>
       <c r="M34" t="s">
@@ -37169,7 +37500,7 @@
         <v>150</v>
       </c>
       <c r="Q34" t="str">
-        <f>_xlfn.CONCAT(A34:P34)</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO team_member(member_reg_date, member_level, reg_status, team_id, email, nick_name)VALUES(sysdate(),4,1,3,'bioman11@gmail.com','nick1');</v>
       </c>
     </row>
@@ -37208,7 +37539,7 @@
         <v>110</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" ref="L35:L38" si="12">_xlfn.CONCAT(E12:H12)</f>
+        <f t="shared" si="5"/>
         <v>'bioman12@gmail.com'</v>
       </c>
       <c r="M35" t="s">
@@ -37224,7 +37555,7 @@
         <v>150</v>
       </c>
       <c r="Q35" t="str">
-        <f t="shared" ref="Q35:Q38" si="13">_xlfn.CONCAT(A35:P35)</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO team_member(member_reg_date, member_level, reg_status, team_id, email, nick_name)VALUES(sysdate(),3,1,3,'bioman12@gmail.com','nick2');</v>
       </c>
     </row>
@@ -37263,7 +37594,7 @@
         <v>110</v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>'bioman13@gmail.com'</v>
       </c>
       <c r="M36" t="s">
@@ -37279,7 +37610,7 @@
         <v>150</v>
       </c>
       <c r="Q36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO team_member(member_reg_date, member_level, reg_status, team_id, email, nick_name)VALUES(sysdate(),2,1,3,'bioman13@gmail.com','nick3');</v>
       </c>
     </row>
@@ -37318,7 +37649,7 @@
         <v>110</v>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>'bioman14@gmail.com'</v>
       </c>
       <c r="M37" t="s">
@@ -37334,7 +37665,7 @@
         <v>150</v>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO team_member(member_reg_date, member_level, reg_status, team_id, email, nick_name)VALUES(sysdate(),1,1,3,'bioman14@gmail.com','nick4');</v>
       </c>
     </row>
@@ -37373,7 +37704,7 @@
         <v>110</v>
       </c>
       <c r="L38" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>'bioman15@gmail.com'</v>
       </c>
       <c r="M38" t="s">
@@ -37389,7 +37720,7 @@
         <v>150</v>
       </c>
       <c r="Q38" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO team_member(member_reg_date, member_level, reg_status, team_id, email, nick_name)VALUES(sysdate(),0,1,3,'bioman15@gmail.com','nick5');</v>
       </c>
     </row>
@@ -37419,7 +37750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4CA4EE-DE18-469F-A352-6DA033B77CCB}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -37435,10 +37766,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>

--- a/docs/srs/fbt_docs.xlsx
+++ b/docs/srs/fbt_docs.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kjy\fbt\docs\srs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BDC0FE-6F7C-40F4-AC66-3E153553B68D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6861C07-C2B3-448A-9DF3-EB744C1ACFA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2F0AD6B2-A8A2-4F73-BAF4-7193D3382EE1}"/>
+    <workbookView xWindow="348" yWindow="372" windowWidth="17280" windowHeight="10716" activeTab="1" xr2:uid="{2F0AD6B2-A8A2-4F73-BAF4-7193D3382EE1}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항명세서" sheetId="1" r:id="rId1"/>
-    <sheet name="서비스 플로우" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId3"/>
-    <sheet name="추가적으로 할 것" sheetId="4" r:id="rId4"/>
-    <sheet name="변수 코드 북" sheetId="5" r:id="rId5"/>
-    <sheet name="TestCase_시나리오" sheetId="2" r:id="rId6"/>
-    <sheet name="TestCase_SQL" sheetId="3" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId8"/>
+    <sheet name="업무일지" sheetId="9" r:id="rId2"/>
+    <sheet name="서비스 플로우" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId4"/>
+    <sheet name="추가적으로 할 것" sheetId="4" r:id="rId5"/>
+    <sheet name="변수 코드 북" sheetId="5" r:id="rId6"/>
+    <sheet name="TestCase_시나리오" sheetId="2" r:id="rId7"/>
+    <sheet name="TestCase_SQL" sheetId="3" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'서비스 플로우'!$B$6:$F$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'서비스 플로우'!$B$6:$F$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항명세서!$B$8:$J$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="633">
   <si>
     <t>요구사항 정의서</t>
   </si>
@@ -28815,40 +28816,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1. matchScheduleId, teamId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보낸다
-2. 해당 일정의 경기일정, 엔트리, 경기 결과(team_taker_id = teamId), 팀 정보를 가져온다</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>경기투표 참석취소하기</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -29325,6 +29292,515 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>axios를 이용한 파일 저장</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gaemi606.tistory.com/m/162?category=745027</t>
+  </si>
+  <si>
+    <t>svg에 색 넣기(유니폼 색에 맞게)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 상세정보 소수점 처리하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>투표 명단 서로 볼 수 있게</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈팀이 확정하면 투표 마감을 시키자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>확정 시, 삭제하지 않고 reservationStatus =3으로 만들고 검색 안 되게 한다</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패에서도 수정기능 추가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기장 정보: 경기장 주소를 못 받아옴</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>용병 확정하기 기능 누르기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>양도 완료에서 확정하기 기능 누르기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 삭제, 주차, 샤워</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>swing2APP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 일정에서 투표 기능 삭제</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 확정 시, 경기 확정하기 버튼 삭제</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>받은 점수 보기 받은 것만</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 후 평균 하는 거 다시 보기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청한 팀이 완료페이지에서 홈팀의 연락처 계좌번호 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행명도 텍스트로 받기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림은 당근마켓형식</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀홈: 상세정보, 엠블럼, 최근 전적, 향후 일정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지: 비번 바꾸기, 팀리스트, 팀탈퇴, user정보 출력, 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>활동: 일반</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀별 완료된 경기 일정 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀별 경기 시작 전 확정 
+일정 정보 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0. teamId, matchScheduleId, awayTeamId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보낸다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + isEndMatch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변수를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>끝난</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불러오는지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시작</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불러오는지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구분한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. + is_confrimed = 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불러온다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1. FV03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>받기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+2. teamId != awayTeamId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다르면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> awayTeamId로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 해당 투표 정보를 더 불러온다 + awayVote에 담아 child로 보낸다</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>done?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 할 일</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 한 일</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>내일 할 일</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 리뷰 내용 반영</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 일정페이지에서 양팀 투표 명단 보이게 하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. matchScheduleId, teamId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보낸다
+2. 해당 일정의 경기일정, 엔트리, 경기 결과(team_taker_id = teamId), 팀 정보, 팀이 받은 점수를 가져온다</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">0. isUser </t>
     </r>
@@ -29558,7 +30034,8 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>불러온다 + is_confirmed = 1만</t>
+      <t>불러온다 + is_confirmed = 1만
+- 속한 팀, 용병, 지인 모든 일정을 불러온다</t>
     </r>
     <r>
       <rPr>
@@ -29582,113 +30059,35 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>axios를 이용한 파일 저장</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gaemi606.tistory.com/m/162?category=745027</t>
-  </si>
-  <si>
-    <t>svg에 색 넣기(유니폼 색에 맞게)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀 상세정보 소수점 처리하기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>투표 명단 서로 볼 수 있게</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>홈팀이 확정하면 투표 마감을 시키자</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>확정 시, 삭제하지 않고 reservationStatus =3으로 만들고 검색 안 되게 한다</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>실패에서도 수정기능 추가</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기장 정보: 경기장 주소를 못 받아옴</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>용병 확정하기 기능 누르기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>양도 완료에서 확정하기 기능 누르기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정 삭제, 주차, 샤워</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>swing2APP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 일정에서 투표 기능 삭제</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기 확정 시, 경기 확정하기 버튼 삭제</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>받은 점수 보기 받은 것만</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정 후 평균 하는 거 다시 보기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청한 팀이 완료페이지에서 홈팀의 연락처 계좌번호 출력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>은행명도 텍스트로 받기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>알림은 당근마켓형식</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀홈: 상세정보, 엠블럼, 최근 전적, 향후 일정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지: 비번 바꾸기, 팀리스트, 팀탈퇴, user정보 출력, 수정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>활동: 일반</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀별 완료된 경기 일정 출력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀별 경기 시작 전 확정 
-일정 정보 출력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0. teamId, matchScheduleId, awayTeamId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
+    <t>FS13</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>용병/지인 받은 점수 불러오기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. email, matchScheduleId를 보낸다
+2. 해당 조건의 emp_score 평균을 불러온다
+3. 출력한다</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FS14</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인별 완료된 일정 불러오기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. email, matchScheduleId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
@@ -29697,15 +30096,16 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
@@ -29714,260 +30114,39 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> + isEndMatch </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>변수를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>통해</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>끝난</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>경기를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>불러오는지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시작</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>경기를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>불러오는지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구분한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. + is_confrimed = 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>만</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
         <rFont val="Nanum Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>불러온다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
-1. FV03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>으로</t>
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Nanum Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>받기</t>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조건의</t>
     </r>
     <r>
       <rPr>
@@ -29976,9 +30155,141 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t xml:space="preserve"> matchSchedule</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">불러온다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3. entries에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 자신이 속한 팀의 entry만 가져온다</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FS15</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>용병이 팀 평가하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. teamScore를 보낸다
+2. 입력한다</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FS16</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>용병 팀 평가 수정하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. teamScore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보낸다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+      </rPr>
       <t xml:space="preserve">
-2. teamId != awayTeamId가 다르면 awayTeam voteMatch와 voteMatchresult를 담는다</t>
-    </r>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>. 수정한다</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 용병 경기 평가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 알림
+2. 팀관리</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -29986,7 +30297,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="47">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -30302,6 +30613,11 @@
       <name val="Arial"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Nanum Gothic"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -30567,7 +30883,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -30804,6 +31120,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -31186,11 +31508,11 @@
   <sheetData>
     <row r="1" spans="2:11" ht="18" thickBot="1"/>
     <row r="2" spans="2:11" ht="18" thickBot="1">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
       <c r="G2" s="2" t="s">
         <v>61</v>
       </c>
@@ -31205,10 +31527,10 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="88"/>
+      <c r="D3" s="90"/>
       <c r="G3" s="4" t="s">
         <v>36</v>
       </c>
@@ -31221,10 +31543,10 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="90"/>
+      <c r="D4" s="92"/>
       <c r="G4" s="26" t="s">
         <v>59</v>
       </c>
@@ -31251,50 +31573,50 @@
     </row>
     <row r="7" spans="2:11" ht="18" thickBot="1"/>
     <row r="8" spans="2:11" ht="18" thickBot="1">
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="86" t="s">
         <v>281</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="79" t="s">
+      <c r="D8" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="79" t="s">
+      <c r="E8" s="81" t="s">
         <v>279</v>
       </c>
-      <c r="F8" s="79" t="s">
+      <c r="F8" s="81" t="s">
         <v>280</v>
       </c>
-      <c r="G8" s="85" t="s">
+      <c r="G8" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="86"/>
-      <c r="I8" s="79" t="s">
+      <c r="H8" s="88"/>
+      <c r="I8" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="79" t="s">
+      <c r="J8" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="79" t="s">
+      <c r="K8" s="81" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="18" thickBot="1"